--- a/data/Pozo Almonte.xlsx
+++ b/data/Pozo Almonte.xlsx
@@ -6616,7 +6616,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Mejoramiento Eloisa</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6626,16 +6626,16 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Eloisa spa</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>75000</v>
+        <v>0</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
@@ -6644,12 +6644,12 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128980296&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>PLANTA SOLAR PINTADOS</t>
+          <t>Mejoramiento Eloisa</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6679,11 +6679,11 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Planta Solar Pintados SpA.</t>
+          <t>Eloisa spa</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>200000</v>
+        <v>75000</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
@@ -6692,12 +6692,12 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955109&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128980296&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6712,7 +6712,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>PLANTA SOLAR PINTADOS</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6722,16 +6722,16 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Planta Solar Pintados SpA.</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
@@ -6745,7 +6745,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955109&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -8440,7 +8440,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Cal .</t>
+          <t>Proyecto Fotovoltaico Huatacondo</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8450,16 +8450,16 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
+          <t>AustrainSolar Chile Cuatro SpA</t>
         </is>
       </c>
       <c r="F169" t="n">
-        <v>8426</v>
+        <v>196000</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
@@ -8468,12 +8468,12 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7561133&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7558839&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -8488,7 +8488,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Proyecto Fotovoltaico Huatacondo</t>
+          <t>Transporte Interregional de Cal .</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8498,16 +8498,16 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>AustrainSolar Chile Cuatro SpA</t>
+          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>196000</v>
+        <v>8426</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
@@ -8516,12 +8516,12 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7558839&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7561133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -10744,7 +10744,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>PROSPECCION MINERA CHALLACOLLO SUR</t>
+          <t>Reposición Ruta 5, Longitudinal Norte, Sector Reserva Nacional Pampa del Tamarugal, Km. 1.781,0 - Km 1.801, Provincia del Tamarugal, Región de Tarapacá</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -10759,11 +10759,11 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>SOCIEDAD CONTRACTUAL MINERA BOREAL</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F217" t="n">
-        <v>370</v>
+        <v>5940</v>
       </c>
       <c r="G217" t="inlineStr">
         <is>
@@ -10777,7 +10777,7 @@
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5344496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5412341&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -10792,7 +10792,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Reposición Ruta 5, Longitudinal Norte, Sector Reserva Nacional Pampa del Tamarugal, Km. 1.781,0 - Km 1.801, Provincia del Tamarugal, Región de Tarapacá</t>
+          <t>PROSPECCION MINERA CHALLACOLLO SUR</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -10807,11 +10807,11 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>SOCIEDAD CONTRACTUAL MINERA BOREAL</t>
         </is>
       </c>
       <c r="F218" t="n">
-        <v>5940</v>
+        <v>370</v>
       </c>
       <c r="G218" t="inlineStr">
         <is>
@@ -10825,7 +10825,7 @@
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5412341&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5344496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -11272,7 +11272,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 1, I Región</t>
+          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 3, I Región</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -11287,11 +11287,11 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>Pozo Almonte Solar 1 SpA</t>
+          <t>Pozo Almonte Solar 3 S.A.</t>
         </is>
       </c>
       <c r="F228" t="n">
-        <v>40000</v>
+        <v>71000</v>
       </c>
       <c r="G228" t="inlineStr">
         <is>
@@ -11305,7 +11305,7 @@
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5162007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5164638&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -11320,7 +11320,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 2, I Región</t>
+          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 1, I Región</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -11335,7 +11335,7 @@
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>POZO ALMONTE SOLAR 2 S.A.</t>
+          <t>Pozo Almonte Solar 1 SpA</t>
         </is>
       </c>
       <c r="F229" t="n">
@@ -11353,7 +11353,7 @@
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5163148&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5162007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -11368,7 +11368,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 3, I Región</t>
+          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 2, I Región</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -11383,11 +11383,11 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>Pozo Almonte Solar 3 S.A.</t>
+          <t>POZO ALMONTE SOLAR 2 S.A.</t>
         </is>
       </c>
       <c r="F230" t="n">
-        <v>71000</v>
+        <v>40000</v>
       </c>
       <c r="G230" t="inlineStr">
         <is>
@@ -11401,7 +11401,7 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5164638&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5163148&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -14344,7 +14344,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Ripiera Sagasca (e-seia)</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
@@ -14354,16 +14354,16 @@
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Christopher Frank Sir</t>
         </is>
       </c>
       <c r="F292" t="n">
-        <v>1750</v>
+        <v>452</v>
       </c>
       <c r="G292" t="inlineStr">
         <is>
@@ -14372,12 +14372,12 @@
       </c>
       <c r="H292" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I292" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310471&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J292" t="inlineStr">
@@ -14392,7 +14392,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>Ripiera Sagasca (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
@@ -14402,16 +14402,16 @@
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>Christopher Frank Sir</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F293" t="n">
-        <v>452</v>
+        <v>1750</v>
       </c>
       <c r="G293" t="inlineStr">
         <is>
@@ -14420,12 +14420,12 @@
       </c>
       <c r="H293" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I293" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310471&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J293" t="inlineStr">
@@ -14440,7 +14440,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
@@ -14455,11 +14455,11 @@
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F294" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G294" t="inlineStr">
         <is>
@@ -14468,12 +14468,12 @@
       </c>
       <c r="H294" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I294" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J294" t="inlineStr">
@@ -14488,7 +14488,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -14503,11 +14503,11 @@
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F295" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G295" t="inlineStr">
         <is>
@@ -14516,12 +14516,12 @@
       </c>
       <c r="H295" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I295" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J295" t="inlineStr">
@@ -15160,14 +15160,10 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
-        </is>
-      </c>
-      <c r="C309" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>PAMPA HERMOSA</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr"/>
       <c r="D309" t="inlineStr">
         <is>
           <t>Interregional</t>
@@ -15175,11 +15171,11 @@
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>SQM S.A.</t>
         </is>
       </c>
       <c r="F309" t="n">
-        <v>20</v>
+        <v>1.033</v>
       </c>
       <c r="G309" t="inlineStr">
         <is>
@@ -15188,12 +15184,12 @@
       </c>
       <c r="H309" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I309" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3083858&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J309" t="inlineStr">
@@ -15208,10 +15204,14 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>PAMPA HERMOSA</t>
-        </is>
-      </c>
-      <c r="C310" t="inlineStr"/>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D310" t="inlineStr">
         <is>
           <t>Interregional</t>
@@ -15219,11 +15219,11 @@
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>SQM S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F310" t="n">
-        <v>1.033</v>
+        <v>20</v>
       </c>
       <c r="G310" t="inlineStr">
         <is>
@@ -15232,12 +15232,12 @@
       </c>
       <c r="H310" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I310" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3083858&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J310" t="inlineStr">

--- a/data/Pozo Almonte.xlsx
+++ b/data/Pozo Almonte.xlsx
@@ -6616,7 +6616,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Mejoramiento Eloisa</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6626,16 +6626,16 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Eloisa spa</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>0</v>
+        <v>75000</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
@@ -6644,12 +6644,12 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128980296&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Mejoramiento Eloisa</t>
+          <t>PLANTA SOLAR PINTADOS</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6679,11 +6679,11 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Eloisa spa</t>
+          <t>Planta Solar Pintados SpA.</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>75000</v>
+        <v>200000</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
@@ -6692,12 +6692,12 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128980296&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955109&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6712,7 +6712,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>PLANTA SOLAR PINTADOS</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6722,16 +6722,16 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Planta Solar Pintados SpA.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>200000</v>
+        <v>0</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
@@ -6745,7 +6745,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955109&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -8440,7 +8440,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Proyecto Fotovoltaico Huatacondo</t>
+          <t>Transporte Interregional de Cal .</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8450,16 +8450,16 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>AustrainSolar Chile Cuatro SpA</t>
+          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
         </is>
       </c>
       <c r="F169" t="n">
-        <v>196000</v>
+        <v>8426</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
@@ -8468,12 +8468,12 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7558839&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7561133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -8488,7 +8488,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Cal .</t>
+          <t>Proyecto Fotovoltaico Huatacondo</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8498,16 +8498,16 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
+          <t>AustrainSolar Chile Cuatro SpA</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>8426</v>
+        <v>196000</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
@@ -8516,12 +8516,12 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7561133&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7558839&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -10744,7 +10744,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Reposición Ruta 5, Longitudinal Norte, Sector Reserva Nacional Pampa del Tamarugal, Km. 1.781,0 - Km 1.801, Provincia del Tamarugal, Región de Tarapacá</t>
+          <t>PROSPECCION MINERA CHALLACOLLO SUR</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -10759,11 +10759,11 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>SOCIEDAD CONTRACTUAL MINERA BOREAL</t>
         </is>
       </c>
       <c r="F217" t="n">
-        <v>5940</v>
+        <v>370</v>
       </c>
       <c r="G217" t="inlineStr">
         <is>
@@ -10777,7 +10777,7 @@
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5412341&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5344496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -10792,7 +10792,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>PROSPECCION MINERA CHALLACOLLO SUR</t>
+          <t>Reposición Ruta 5, Longitudinal Norte, Sector Reserva Nacional Pampa del Tamarugal, Km. 1.781,0 - Km 1.801, Provincia del Tamarugal, Región de Tarapacá</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -10807,11 +10807,11 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>SOCIEDAD CONTRACTUAL MINERA BOREAL</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F218" t="n">
-        <v>370</v>
+        <v>5940</v>
       </c>
       <c r="G218" t="inlineStr">
         <is>
@@ -10825,7 +10825,7 @@
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5344496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5412341&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -11272,7 +11272,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 3, I Región</t>
+          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 1, I Región</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -11287,11 +11287,11 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>Pozo Almonte Solar 3 S.A.</t>
+          <t>Pozo Almonte Solar 1 SpA</t>
         </is>
       </c>
       <c r="F228" t="n">
-        <v>71000</v>
+        <v>40000</v>
       </c>
       <c r="G228" t="inlineStr">
         <is>
@@ -11305,7 +11305,7 @@
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5164638&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5162007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -11320,7 +11320,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 1, I Región</t>
+          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 2, I Región</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -11335,7 +11335,7 @@
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>Pozo Almonte Solar 1 SpA</t>
+          <t>POZO ALMONTE SOLAR 2 S.A.</t>
         </is>
       </c>
       <c r="F229" t="n">
@@ -11353,7 +11353,7 @@
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5162007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5163148&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -11368,7 +11368,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 2, I Región</t>
+          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 3, I Región</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -11383,11 +11383,11 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>POZO ALMONTE SOLAR 2 S.A.</t>
+          <t>Pozo Almonte Solar 3 S.A.</t>
         </is>
       </c>
       <c r="F230" t="n">
-        <v>40000</v>
+        <v>71000</v>
       </c>
       <c r="G230" t="inlineStr">
         <is>
@@ -11401,7 +11401,7 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5163148&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5164638&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -14344,7 +14344,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>Ripiera Sagasca (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
@@ -14354,16 +14354,16 @@
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>Christopher Frank Sir</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F292" t="n">
-        <v>452</v>
+        <v>1750</v>
       </c>
       <c r="G292" t="inlineStr">
         <is>
@@ -14372,12 +14372,12 @@
       </c>
       <c r="H292" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I292" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310471&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J292" t="inlineStr">
@@ -14392,7 +14392,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Ripiera Sagasca (e-seia)</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
@@ -14402,16 +14402,16 @@
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Christopher Frank Sir</t>
         </is>
       </c>
       <c r="F293" t="n">
-        <v>1750</v>
+        <v>452</v>
       </c>
       <c r="G293" t="inlineStr">
         <is>
@@ -14420,12 +14420,12 @@
       </c>
       <c r="H293" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I293" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310471&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J293" t="inlineStr">
@@ -14440,7 +14440,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
@@ -14455,11 +14455,11 @@
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F294" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G294" t="inlineStr">
         <is>
@@ -14468,12 +14468,12 @@
       </c>
       <c r="H294" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I294" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J294" t="inlineStr">
@@ -14488,7 +14488,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -14503,11 +14503,11 @@
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F295" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G295" t="inlineStr">
         <is>
@@ -14516,12 +14516,12 @@
       </c>
       <c r="H295" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I295" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J295" t="inlineStr">
@@ -15160,10 +15160,14 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>PAMPA HERMOSA</t>
-        </is>
-      </c>
-      <c r="C309" t="inlineStr"/>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D309" t="inlineStr">
         <is>
           <t>Interregional</t>
@@ -15171,11 +15175,11 @@
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>SQM S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F309" t="n">
-        <v>1.033</v>
+        <v>20</v>
       </c>
       <c r="G309" t="inlineStr">
         <is>
@@ -15184,12 +15188,12 @@
       </c>
       <c r="H309" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I309" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3083858&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J309" t="inlineStr">
@@ -15204,14 +15208,10 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
-        </is>
-      </c>
-      <c r="C310" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>PAMPA HERMOSA</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr"/>
       <c r="D310" t="inlineStr">
         <is>
           <t>Interregional</t>
@@ -15219,11 +15219,11 @@
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>SQM S.A.</t>
         </is>
       </c>
       <c r="F310" t="n">
-        <v>20</v>
+        <v>1.033</v>
       </c>
       <c r="G310" t="inlineStr">
         <is>
@@ -15232,12 +15232,12 @@
       </c>
       <c r="H310" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I310" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3083858&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J310" t="inlineStr">

--- a/data/Pozo Almonte.xlsx
+++ b/data/Pozo Almonte.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>03/02/2022</t>
+          <t>10/02/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -6616,7 +6616,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Mejoramiento Eloisa</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6626,16 +6626,16 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Eloisa spa</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>75000</v>
+        <v>0</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
@@ -6644,12 +6644,12 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128980296&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>PLANTA SOLAR PINTADOS</t>
+          <t>Mejoramiento Eloisa</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6679,11 +6679,11 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Planta Solar Pintados SpA.</t>
+          <t>Eloisa spa</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>200000</v>
+        <v>75000</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
@@ -6692,12 +6692,12 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955109&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128980296&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6712,7 +6712,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>PLANTA SOLAR PINTADOS</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6722,16 +6722,16 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Planta Solar Pintados SpA.</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
@@ -6745,7 +6745,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955109&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -8440,7 +8440,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Cal .</t>
+          <t>Proyecto Fotovoltaico Huatacondo</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8450,16 +8450,16 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
+          <t>AustrainSolar Chile Cuatro SpA</t>
         </is>
       </c>
       <c r="F169" t="n">
-        <v>8426</v>
+        <v>196000</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
@@ -8468,12 +8468,12 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7561133&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7558839&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -8488,7 +8488,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Proyecto Fotovoltaico Huatacondo</t>
+          <t>Transporte Interregional de Cal .</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8498,16 +8498,16 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>AustrainSolar Chile Cuatro SpA</t>
+          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>196000</v>
+        <v>8426</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
@@ -8516,12 +8516,12 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7558839&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7561133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -10744,7 +10744,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>PROSPECCION MINERA CHALLACOLLO SUR</t>
+          <t>Reposición Ruta 5, Longitudinal Norte, Sector Reserva Nacional Pampa del Tamarugal, Km. 1.781,0 - Km 1.801, Provincia del Tamarugal, Región de Tarapacá</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -10759,11 +10759,11 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>SOCIEDAD CONTRACTUAL MINERA BOREAL</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F217" t="n">
-        <v>370</v>
+        <v>5940</v>
       </c>
       <c r="G217" t="inlineStr">
         <is>
@@ -10777,7 +10777,7 @@
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5344496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5412341&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -10792,7 +10792,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Reposición Ruta 5, Longitudinal Norte, Sector Reserva Nacional Pampa del Tamarugal, Km. 1.781,0 - Km 1.801, Provincia del Tamarugal, Región de Tarapacá</t>
+          <t>PROSPECCION MINERA CHALLACOLLO SUR</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -10807,11 +10807,11 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>SOCIEDAD CONTRACTUAL MINERA BOREAL</t>
         </is>
       </c>
       <c r="F218" t="n">
-        <v>5940</v>
+        <v>370</v>
       </c>
       <c r="G218" t="inlineStr">
         <is>
@@ -10825,7 +10825,7 @@
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5412341&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5344496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -11272,7 +11272,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 1, I Región</t>
+          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 3, I Región</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -11287,11 +11287,11 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>Pozo Almonte Solar 1 SpA</t>
+          <t>Pozo Almonte Solar 3 S.A.</t>
         </is>
       </c>
       <c r="F228" t="n">
-        <v>40000</v>
+        <v>71000</v>
       </c>
       <c r="G228" t="inlineStr">
         <is>
@@ -11305,7 +11305,7 @@
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5162007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5164638&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -11320,7 +11320,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 2, I Región</t>
+          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 1, I Región</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -11335,7 +11335,7 @@
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>POZO ALMONTE SOLAR 2 S.A.</t>
+          <t>Pozo Almonte Solar 1 SpA</t>
         </is>
       </c>
       <c r="F229" t="n">
@@ -11353,7 +11353,7 @@
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5163148&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5162007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -11368,7 +11368,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 3, I Región</t>
+          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 2, I Región</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -11383,11 +11383,11 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>Pozo Almonte Solar 3 S.A.</t>
+          <t>POZO ALMONTE SOLAR 2 S.A.</t>
         </is>
       </c>
       <c r="F230" t="n">
-        <v>71000</v>
+        <v>40000</v>
       </c>
       <c r="G230" t="inlineStr">
         <is>
@@ -11401,7 +11401,7 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5164638&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5163148&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -14344,7 +14344,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Ripiera Sagasca (e-seia)</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
@@ -14354,16 +14354,16 @@
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Christopher Frank Sir</t>
         </is>
       </c>
       <c r="F292" t="n">
-        <v>1750</v>
+        <v>452</v>
       </c>
       <c r="G292" t="inlineStr">
         <is>
@@ -14372,12 +14372,12 @@
       </c>
       <c r="H292" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I292" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310471&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J292" t="inlineStr">
@@ -14392,7 +14392,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>Ripiera Sagasca (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
@@ -14402,16 +14402,16 @@
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>Christopher Frank Sir</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F293" t="n">
-        <v>452</v>
+        <v>1750</v>
       </c>
       <c r="G293" t="inlineStr">
         <is>
@@ -14420,12 +14420,12 @@
       </c>
       <c r="H293" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I293" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310471&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J293" t="inlineStr">
@@ -14440,7 +14440,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
@@ -14455,11 +14455,11 @@
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F294" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G294" t="inlineStr">
         <is>
@@ -14468,12 +14468,12 @@
       </c>
       <c r="H294" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I294" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J294" t="inlineStr">
@@ -14488,7 +14488,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -14503,11 +14503,11 @@
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F295" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G295" t="inlineStr">
         <is>
@@ -14516,12 +14516,12 @@
       </c>
       <c r="H295" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I295" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J295" t="inlineStr">
@@ -15160,14 +15160,10 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
-        </is>
-      </c>
-      <c r="C309" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>PAMPA HERMOSA</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr"/>
       <c r="D309" t="inlineStr">
         <is>
           <t>Interregional</t>
@@ -15175,11 +15171,11 @@
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>SQM S.A.</t>
         </is>
       </c>
       <c r="F309" t="n">
-        <v>20</v>
+        <v>1.033</v>
       </c>
       <c r="G309" t="inlineStr">
         <is>
@@ -15188,12 +15184,12 @@
       </c>
       <c r="H309" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I309" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3083858&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J309" t="inlineStr">
@@ -15208,10 +15204,14 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>PAMPA HERMOSA</t>
-        </is>
-      </c>
-      <c r="C310" t="inlineStr"/>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D310" t="inlineStr">
         <is>
           <t>Interregional</t>
@@ -15219,11 +15219,11 @@
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>SQM S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F310" t="n">
-        <v>1.033</v>
+        <v>20</v>
       </c>
       <c r="G310" t="inlineStr">
         <is>
@@ -15232,12 +15232,12 @@
       </c>
       <c r="H310" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I310" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3083858&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J310" t="inlineStr">

--- a/data/Pozo Almonte.xlsx
+++ b/data/Pozo Almonte.xlsx
@@ -6616,7 +6616,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Mejoramiento Eloisa</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6626,16 +6626,16 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Eloisa spa</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>0</v>
+        <v>75000</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
@@ -6644,12 +6644,12 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128980296&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Mejoramiento Eloisa</t>
+          <t>PLANTA SOLAR PINTADOS</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6679,11 +6679,11 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Eloisa spa</t>
+          <t>Planta Solar Pintados SpA.</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>75000</v>
+        <v>200000</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
@@ -6692,12 +6692,12 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128980296&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955109&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6712,7 +6712,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>PLANTA SOLAR PINTADOS</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6722,16 +6722,16 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Planta Solar Pintados SpA.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>200000</v>
+        <v>0</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
@@ -6745,7 +6745,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955109&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -8440,7 +8440,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Proyecto Fotovoltaico Huatacondo</t>
+          <t>Transporte Interregional de Cal .</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8450,16 +8450,16 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>AustrainSolar Chile Cuatro SpA</t>
+          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
         </is>
       </c>
       <c r="F169" t="n">
-        <v>196000</v>
+        <v>8426</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
@@ -8468,12 +8468,12 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7558839&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7561133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -8488,7 +8488,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Cal .</t>
+          <t>Proyecto Fotovoltaico Huatacondo</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8498,16 +8498,16 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
+          <t>AustrainSolar Chile Cuatro SpA</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>8426</v>
+        <v>196000</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
@@ -8516,12 +8516,12 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7561133&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7558839&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -10744,7 +10744,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Reposición Ruta 5, Longitudinal Norte, Sector Reserva Nacional Pampa del Tamarugal, Km. 1.781,0 - Km 1.801, Provincia del Tamarugal, Región de Tarapacá</t>
+          <t>PROSPECCION MINERA CHALLACOLLO SUR</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -10759,11 +10759,11 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>SOCIEDAD CONTRACTUAL MINERA BOREAL</t>
         </is>
       </c>
       <c r="F217" t="n">
-        <v>5940</v>
+        <v>370</v>
       </c>
       <c r="G217" t="inlineStr">
         <is>
@@ -10777,7 +10777,7 @@
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5412341&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5344496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -10792,7 +10792,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>PROSPECCION MINERA CHALLACOLLO SUR</t>
+          <t>Reposición Ruta 5, Longitudinal Norte, Sector Reserva Nacional Pampa del Tamarugal, Km. 1.781,0 - Km 1.801, Provincia del Tamarugal, Región de Tarapacá</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -10807,11 +10807,11 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>SOCIEDAD CONTRACTUAL MINERA BOREAL</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F218" t="n">
-        <v>370</v>
+        <v>5940</v>
       </c>
       <c r="G218" t="inlineStr">
         <is>
@@ -10825,7 +10825,7 @@
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5344496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5412341&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -11272,7 +11272,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 3, I Región</t>
+          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 1, I Región</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -11287,11 +11287,11 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>Pozo Almonte Solar 3 S.A.</t>
+          <t>Pozo Almonte Solar 1 SpA</t>
         </is>
       </c>
       <c r="F228" t="n">
-        <v>71000</v>
+        <v>40000</v>
       </c>
       <c r="G228" t="inlineStr">
         <is>
@@ -11305,7 +11305,7 @@
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5164638&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5162007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -11320,7 +11320,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 1, I Región</t>
+          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 2, I Región</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -11335,7 +11335,7 @@
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>Pozo Almonte Solar 1 SpA</t>
+          <t>POZO ALMONTE SOLAR 2 S.A.</t>
         </is>
       </c>
       <c r="F229" t="n">
@@ -11353,7 +11353,7 @@
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5162007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5163148&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -11368,7 +11368,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 2, I Región</t>
+          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 3, I Región</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -11383,11 +11383,11 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>POZO ALMONTE SOLAR 2 S.A.</t>
+          <t>Pozo Almonte Solar 3 S.A.</t>
         </is>
       </c>
       <c r="F230" t="n">
-        <v>40000</v>
+        <v>71000</v>
       </c>
       <c r="G230" t="inlineStr">
         <is>
@@ -11401,7 +11401,7 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5163148&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5164638&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -14344,7 +14344,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>Ripiera Sagasca (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
@@ -14354,16 +14354,16 @@
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>Christopher Frank Sir</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F292" t="n">
-        <v>452</v>
+        <v>1750</v>
       </c>
       <c r="G292" t="inlineStr">
         <is>
@@ -14372,12 +14372,12 @@
       </c>
       <c r="H292" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I292" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310471&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J292" t="inlineStr">
@@ -14392,7 +14392,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Ripiera Sagasca (e-seia)</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
@@ -14402,16 +14402,16 @@
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Christopher Frank Sir</t>
         </is>
       </c>
       <c r="F293" t="n">
-        <v>1750</v>
+        <v>452</v>
       </c>
       <c r="G293" t="inlineStr">
         <is>
@@ -14420,12 +14420,12 @@
       </c>
       <c r="H293" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I293" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310471&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J293" t="inlineStr">
@@ -14440,7 +14440,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
@@ -14455,11 +14455,11 @@
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F294" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G294" t="inlineStr">
         <is>
@@ -14468,12 +14468,12 @@
       </c>
       <c r="H294" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I294" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J294" t="inlineStr">
@@ -14488,7 +14488,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -14503,11 +14503,11 @@
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F295" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G295" t="inlineStr">
         <is>
@@ -14516,12 +14516,12 @@
       </c>
       <c r="H295" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I295" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J295" t="inlineStr">
@@ -15160,10 +15160,14 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>PAMPA HERMOSA</t>
-        </is>
-      </c>
-      <c r="C309" t="inlineStr"/>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D309" t="inlineStr">
         <is>
           <t>Interregional</t>
@@ -15171,11 +15175,11 @@
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>SQM S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F309" t="n">
-        <v>1.033</v>
+        <v>20</v>
       </c>
       <c r="G309" t="inlineStr">
         <is>
@@ -15184,12 +15188,12 @@
       </c>
       <c r="H309" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I309" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3083858&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J309" t="inlineStr">
@@ -15204,14 +15208,10 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
-        </is>
-      </c>
-      <c r="C310" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>PAMPA HERMOSA</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr"/>
       <c r="D310" t="inlineStr">
         <is>
           <t>Interregional</t>
@@ -15219,11 +15219,11 @@
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>SQM S.A.</t>
         </is>
       </c>
       <c r="F310" t="n">
-        <v>20</v>
+        <v>1.033</v>
       </c>
       <c r="G310" t="inlineStr">
         <is>
@@ -15232,12 +15232,12 @@
       </c>
       <c r="H310" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I310" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3083858&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J310" t="inlineStr">
@@ -20812,7 +20812,7 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>CONSTRUCCIÓN RELLENO SANITARIO PARA LA COMUNA DE POZO ALMONTE (e-seia)</t>
+          <t>PLAN REGULADOR DE LA HUAYCA, COMUNA DE POZO ALMONTE (e-seia)</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
@@ -20845,7 +20845,7 @@
       </c>
       <c r="I427" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141090900&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141097087&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J427" t="inlineStr">
@@ -20860,7 +20860,7 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>PLAN REGULADOR DE LA HUAYCA, COMUNA DE POZO ALMONTE (e-seia)</t>
+          <t>PLAN REGULADOR DE POZO ALMONTE, COMUNA DE POZO ALMONTE (e-seia)</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
@@ -20893,7 +20893,7 @@
       </c>
       <c r="I428" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141097087&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141097135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J428" t="inlineStr">
@@ -20908,7 +20908,7 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>PLAN REGULADOR DE POZO ALMONTE, COMUNA DE POZO ALMONTE (e-seia)</t>
+          <t>PLAN SECCIONAL DE LA TIRANA, COMUNA DE POZO ALMONTE (e-seia)</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
@@ -20941,7 +20941,7 @@
       </c>
       <c r="I429" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141097135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141097173&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J429" t="inlineStr">
@@ -20956,7 +20956,7 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>PLAN SECCIONAL DE LA TIRANA, COMUNA DE POZO ALMONTE (e-seia)</t>
+          <t>CONSTRUCCIÓN RELLENO SANITARIO PARA LA COMUNA DE POZO ALMONTE (e-seia)</t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
@@ -20989,7 +20989,7 @@
       </c>
       <c r="I430" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141097173&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141090900&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J430" t="inlineStr">

--- a/data/Pozo Almonte.xlsx
+++ b/data/Pozo Almonte.xlsx
@@ -6616,7 +6616,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Mejoramiento Eloisa</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6626,16 +6626,16 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Eloisa spa</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>75000</v>
+        <v>0</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
@@ -6644,12 +6644,12 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128980296&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>PLANTA SOLAR PINTADOS</t>
+          <t>Mejoramiento Eloisa</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6679,11 +6679,11 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Planta Solar Pintados SpA.</t>
+          <t>Eloisa spa</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>200000</v>
+        <v>75000</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
@@ -6692,12 +6692,12 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955109&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128980296&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6712,7 +6712,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>PLANTA SOLAR PINTADOS</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6722,16 +6722,16 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Planta Solar Pintados SpA.</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
@@ -6745,7 +6745,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955109&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -8440,7 +8440,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Cal .</t>
+          <t>Proyecto Fotovoltaico Huatacondo</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8450,16 +8450,16 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
+          <t>AustrainSolar Chile Cuatro SpA</t>
         </is>
       </c>
       <c r="F169" t="n">
-        <v>8426</v>
+        <v>196000</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
@@ -8468,12 +8468,12 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7561133&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7558839&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -8488,7 +8488,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Proyecto Fotovoltaico Huatacondo</t>
+          <t>Transporte Interregional de Cal .</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8498,16 +8498,16 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>AustrainSolar Chile Cuatro SpA</t>
+          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>196000</v>
+        <v>8426</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
@@ -8516,12 +8516,12 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7558839&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7561133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -10744,7 +10744,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>PROSPECCION MINERA CHALLACOLLO SUR</t>
+          <t>Reposición Ruta 5, Longitudinal Norte, Sector Reserva Nacional Pampa del Tamarugal, Km. 1.781,0 - Km 1.801, Provincia del Tamarugal, Región de Tarapacá</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -10759,11 +10759,11 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>SOCIEDAD CONTRACTUAL MINERA BOREAL</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F217" t="n">
-        <v>370</v>
+        <v>5940</v>
       </c>
       <c r="G217" t="inlineStr">
         <is>
@@ -10777,7 +10777,7 @@
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5344496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5412341&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -10792,7 +10792,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Reposición Ruta 5, Longitudinal Norte, Sector Reserva Nacional Pampa del Tamarugal, Km. 1.781,0 - Km 1.801, Provincia del Tamarugal, Región de Tarapacá</t>
+          <t>PROSPECCION MINERA CHALLACOLLO SUR</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -10807,11 +10807,11 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>SOCIEDAD CONTRACTUAL MINERA BOREAL</t>
         </is>
       </c>
       <c r="F218" t="n">
-        <v>5940</v>
+        <v>370</v>
       </c>
       <c r="G218" t="inlineStr">
         <is>
@@ -10825,7 +10825,7 @@
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5412341&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5344496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -11272,7 +11272,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 1, I Región</t>
+          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 3, I Región</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -11287,11 +11287,11 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>Pozo Almonte Solar 1 SpA</t>
+          <t>Pozo Almonte Solar 3 S.A.</t>
         </is>
       </c>
       <c r="F228" t="n">
-        <v>40000</v>
+        <v>71000</v>
       </c>
       <c r="G228" t="inlineStr">
         <is>
@@ -11305,7 +11305,7 @@
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5162007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5164638&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -11320,7 +11320,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 2, I Región</t>
+          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 1, I Región</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -11335,7 +11335,7 @@
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>POZO ALMONTE SOLAR 2 S.A.</t>
+          <t>Pozo Almonte Solar 1 SpA</t>
         </is>
       </c>
       <c r="F229" t="n">
@@ -11353,7 +11353,7 @@
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5163148&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5162007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -11368,7 +11368,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 3, I Región</t>
+          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 2, I Región</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -11383,11 +11383,11 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>Pozo Almonte Solar 3 S.A.</t>
+          <t>POZO ALMONTE SOLAR 2 S.A.</t>
         </is>
       </c>
       <c r="F230" t="n">
-        <v>71000</v>
+        <v>40000</v>
       </c>
       <c r="G230" t="inlineStr">
         <is>
@@ -11401,7 +11401,7 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5164638&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5163148&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -14344,7 +14344,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Ripiera Sagasca (e-seia)</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
@@ -14354,16 +14354,16 @@
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Christopher Frank Sir</t>
         </is>
       </c>
       <c r="F292" t="n">
-        <v>1750</v>
+        <v>452</v>
       </c>
       <c r="G292" t="inlineStr">
         <is>
@@ -14372,12 +14372,12 @@
       </c>
       <c r="H292" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I292" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310471&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J292" t="inlineStr">
@@ -14392,7 +14392,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>Ripiera Sagasca (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
@@ -14402,16 +14402,16 @@
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>Christopher Frank Sir</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F293" t="n">
-        <v>452</v>
+        <v>1750</v>
       </c>
       <c r="G293" t="inlineStr">
         <is>
@@ -14420,12 +14420,12 @@
       </c>
       <c r="H293" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I293" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310471&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J293" t="inlineStr">
@@ -14440,7 +14440,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
@@ -14455,11 +14455,11 @@
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F294" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G294" t="inlineStr">
         <is>
@@ -14468,12 +14468,12 @@
       </c>
       <c r="H294" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I294" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J294" t="inlineStr">
@@ -14488,7 +14488,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -14503,11 +14503,11 @@
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F295" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G295" t="inlineStr">
         <is>
@@ -14516,12 +14516,12 @@
       </c>
       <c r="H295" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I295" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J295" t="inlineStr">
@@ -15160,14 +15160,10 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
-        </is>
-      </c>
-      <c r="C309" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>PAMPA HERMOSA</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr"/>
       <c r="D309" t="inlineStr">
         <is>
           <t>Interregional</t>
@@ -15175,11 +15171,11 @@
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>SQM S.A.</t>
         </is>
       </c>
       <c r="F309" t="n">
-        <v>20</v>
+        <v>1.033</v>
       </c>
       <c r="G309" t="inlineStr">
         <is>
@@ -15188,12 +15184,12 @@
       </c>
       <c r="H309" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I309" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3083858&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J309" t="inlineStr">
@@ -15208,10 +15204,14 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>PAMPA HERMOSA</t>
-        </is>
-      </c>
-      <c r="C310" t="inlineStr"/>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D310" t="inlineStr">
         <is>
           <t>Interregional</t>
@@ -15219,11 +15219,11 @@
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>SQM S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F310" t="n">
-        <v>1.033</v>
+        <v>20</v>
       </c>
       <c r="G310" t="inlineStr">
         <is>
@@ -15232,12 +15232,12 @@
       </c>
       <c r="H310" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I310" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3083858&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J310" t="inlineStr">
@@ -20812,7 +20812,7 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>PLAN REGULADOR DE LA HUAYCA, COMUNA DE POZO ALMONTE (e-seia)</t>
+          <t>CONSTRUCCIÓN RELLENO SANITARIO PARA LA COMUNA DE POZO ALMONTE (e-seia)</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
@@ -20845,7 +20845,7 @@
       </c>
       <c r="I427" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141097087&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141090900&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J427" t="inlineStr">
@@ -20860,7 +20860,7 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>PLAN REGULADOR DE POZO ALMONTE, COMUNA DE POZO ALMONTE (e-seia)</t>
+          <t>PLAN REGULADOR DE LA HUAYCA, COMUNA DE POZO ALMONTE (e-seia)</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
@@ -20893,7 +20893,7 @@
       </c>
       <c r="I428" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141097135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141097087&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J428" t="inlineStr">
@@ -20908,7 +20908,7 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>PLAN SECCIONAL DE LA TIRANA, COMUNA DE POZO ALMONTE (e-seia)</t>
+          <t>PLAN REGULADOR DE POZO ALMONTE, COMUNA DE POZO ALMONTE (e-seia)</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
@@ -20941,7 +20941,7 @@
       </c>
       <c r="I429" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141097173&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141097135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J429" t="inlineStr">
@@ -20956,7 +20956,7 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>CONSTRUCCIÓN RELLENO SANITARIO PARA LA COMUNA DE POZO ALMONTE (e-seia)</t>
+          <t>PLAN SECCIONAL DE LA TIRANA, COMUNA DE POZO ALMONTE (e-seia)</t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
@@ -20989,7 +20989,7 @@
       </c>
       <c r="I430" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141090900&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141097173&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J430" t="inlineStr">

--- a/data/Pozo Almonte.xlsx
+++ b/data/Pozo Almonte.xlsx
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Mejoramiento Eloisa</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6674,16 +6674,16 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Eloisa spa</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>0</v>
+        <v>75000</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
@@ -6692,12 +6692,12 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128980296&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6712,7 +6712,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Mejoramiento Eloisa</t>
+          <t>PLANTA SOLAR PINTADOS</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6727,11 +6727,11 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Eloisa spa</t>
+          <t>Planta Solar Pintados SpA.</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>75000</v>
+        <v>200000</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
@@ -6740,12 +6740,12 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128980296&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955109&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>PLANTA SOLAR PINTADOS</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6770,16 +6770,16 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Planta Solar Pintados SpA.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>200000</v>
+        <v>0</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
@@ -6793,7 +6793,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955109&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -8488,7 +8488,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Proyecto Fotovoltaico Huatacondo</t>
+          <t>Transporte Interregional de Cal .</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8498,16 +8498,16 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>AustrainSolar Chile Cuatro SpA</t>
+          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>196000</v>
+        <v>8426</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
@@ -8516,12 +8516,12 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7558839&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7561133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -8536,7 +8536,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Cal .</t>
+          <t>Proyecto Fotovoltaico Huatacondo</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8546,16 +8546,16 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
+          <t>AustrainSolar Chile Cuatro SpA</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>8426</v>
+        <v>196000</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
@@ -8564,12 +8564,12 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7561133&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7558839&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -10792,7 +10792,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Reposición Ruta 5, Longitudinal Norte, Sector Reserva Nacional Pampa del Tamarugal, Km. 1.781,0 - Km 1.801, Provincia del Tamarugal, Región de Tarapacá</t>
+          <t>PROSPECCION MINERA CHALLACOLLO SUR</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -10807,11 +10807,11 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>SOCIEDAD CONTRACTUAL MINERA BOREAL</t>
         </is>
       </c>
       <c r="F218" t="n">
-        <v>5940</v>
+        <v>370</v>
       </c>
       <c r="G218" t="inlineStr">
         <is>
@@ -10825,7 +10825,7 @@
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5412341&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5344496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -10840,7 +10840,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>PROSPECCION MINERA CHALLACOLLO SUR</t>
+          <t>Reposición Ruta 5, Longitudinal Norte, Sector Reserva Nacional Pampa del Tamarugal, Km. 1.781,0 - Km 1.801, Provincia del Tamarugal, Región de Tarapacá</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -10855,11 +10855,11 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>SOCIEDAD CONTRACTUAL MINERA BOREAL</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F219" t="n">
-        <v>370</v>
+        <v>5940</v>
       </c>
       <c r="G219" t="inlineStr">
         <is>
@@ -10873,7 +10873,7 @@
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5344496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5412341&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -11320,7 +11320,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 3, I Región</t>
+          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 1, I Región</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -11335,11 +11335,11 @@
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>Pozo Almonte Solar 3 S.A.</t>
+          <t>Pozo Almonte Solar 1 SpA</t>
         </is>
       </c>
       <c r="F229" t="n">
-        <v>71000</v>
+        <v>40000</v>
       </c>
       <c r="G229" t="inlineStr">
         <is>
@@ -11353,7 +11353,7 @@
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5164638&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5162007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -11368,7 +11368,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 1, I Región</t>
+          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 2, I Región</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -11383,7 +11383,7 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>Pozo Almonte Solar 1 SpA</t>
+          <t>POZO ALMONTE SOLAR 2 S.A.</t>
         </is>
       </c>
       <c r="F230" t="n">
@@ -11401,7 +11401,7 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5162007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5163148&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -11416,7 +11416,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 2, I Región</t>
+          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 3, I Región</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11431,11 +11431,11 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>POZO ALMONTE SOLAR 2 S.A.</t>
+          <t>Pozo Almonte Solar 3 S.A.</t>
         </is>
       </c>
       <c r="F231" t="n">
-        <v>40000</v>
+        <v>71000</v>
       </c>
       <c r="G231" t="inlineStr">
         <is>
@@ -11449,7 +11449,7 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5163148&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5164638&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -14392,7 +14392,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>Ripiera Sagasca (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
@@ -14402,16 +14402,16 @@
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>Christopher Frank Sir</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F293" t="n">
-        <v>452</v>
+        <v>1750</v>
       </c>
       <c r="G293" t="inlineStr">
         <is>
@@ -14420,12 +14420,12 @@
       </c>
       <c r="H293" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I293" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310471&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J293" t="inlineStr">
@@ -14440,7 +14440,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Ripiera Sagasca (e-seia)</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
@@ -14450,16 +14450,16 @@
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Christopher Frank Sir</t>
         </is>
       </c>
       <c r="F294" t="n">
-        <v>1750</v>
+        <v>452</v>
       </c>
       <c r="G294" t="inlineStr">
         <is>
@@ -14468,12 +14468,12 @@
       </c>
       <c r="H294" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I294" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310471&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J294" t="inlineStr">
@@ -14488,7 +14488,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -14503,11 +14503,11 @@
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F295" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G295" t="inlineStr">
         <is>
@@ -14516,12 +14516,12 @@
       </c>
       <c r="H295" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I295" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J295" t="inlineStr">
@@ -14536,7 +14536,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -14551,11 +14551,11 @@
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F296" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G296" t="inlineStr">
         <is>
@@ -14564,12 +14564,12 @@
       </c>
       <c r="H296" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I296" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J296" t="inlineStr">
@@ -15208,10 +15208,14 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>PAMPA HERMOSA</t>
-        </is>
-      </c>
-      <c r="C310" t="inlineStr"/>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D310" t="inlineStr">
         <is>
           <t>Interregional</t>
@@ -15219,11 +15223,11 @@
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>SQM S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F310" t="n">
-        <v>1.033</v>
+        <v>20</v>
       </c>
       <c r="G310" t="inlineStr">
         <is>
@@ -15232,12 +15236,12 @@
       </c>
       <c r="H310" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I310" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3083858&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J310" t="inlineStr">
@@ -15252,14 +15256,10 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
-        </is>
-      </c>
-      <c r="C311" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>PAMPA HERMOSA</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr"/>
       <c r="D311" t="inlineStr">
         <is>
           <t>Interregional</t>
@@ -15267,11 +15267,11 @@
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>SQM S.A.</t>
         </is>
       </c>
       <c r="F311" t="n">
-        <v>20</v>
+        <v>1.033</v>
       </c>
       <c r="G311" t="inlineStr">
         <is>
@@ -15280,12 +15280,12 @@
       </c>
       <c r="H311" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3083858&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J311" t="inlineStr">

--- a/data/Pozo Almonte.xlsx
+++ b/data/Pozo Almonte.xlsx
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Mejoramiento Eloisa</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6674,16 +6674,16 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Eloisa spa</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>75000</v>
+        <v>0</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
@@ -6692,12 +6692,12 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128980296&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6712,7 +6712,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>PLANTA SOLAR PINTADOS</t>
+          <t>Mejoramiento Eloisa</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6727,11 +6727,11 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Planta Solar Pintados SpA.</t>
+          <t>Eloisa spa</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>200000</v>
+        <v>75000</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
@@ -6740,12 +6740,12 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955109&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128980296&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>PLANTA SOLAR PINTADOS</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6770,16 +6770,16 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Planta Solar Pintados SpA.</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
@@ -6793,7 +6793,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955109&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -8488,7 +8488,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Cal .</t>
+          <t>Proyecto Fotovoltaico Huatacondo</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8498,16 +8498,16 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
+          <t>AustrainSolar Chile Cuatro SpA</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>8426</v>
+        <v>196000</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
@@ -8516,12 +8516,12 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7561133&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7558839&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -8536,7 +8536,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Proyecto Fotovoltaico Huatacondo</t>
+          <t>Transporte Interregional de Cal .</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8546,16 +8546,16 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>AustrainSolar Chile Cuatro SpA</t>
+          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>196000</v>
+        <v>8426</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
@@ -8564,12 +8564,12 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7558839&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7561133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -10792,7 +10792,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>PROSPECCION MINERA CHALLACOLLO SUR</t>
+          <t>Reposición Ruta 5, Longitudinal Norte, Sector Reserva Nacional Pampa del Tamarugal, Km. 1.781,0 - Km 1.801, Provincia del Tamarugal, Región de Tarapacá</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -10807,11 +10807,11 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>SOCIEDAD CONTRACTUAL MINERA BOREAL</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F218" t="n">
-        <v>370</v>
+        <v>5940</v>
       </c>
       <c r="G218" t="inlineStr">
         <is>
@@ -10825,7 +10825,7 @@
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5344496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5412341&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -10840,7 +10840,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Reposición Ruta 5, Longitudinal Norte, Sector Reserva Nacional Pampa del Tamarugal, Km. 1.781,0 - Km 1.801, Provincia del Tamarugal, Región de Tarapacá</t>
+          <t>PROSPECCION MINERA CHALLACOLLO SUR</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -10855,11 +10855,11 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>SOCIEDAD CONTRACTUAL MINERA BOREAL</t>
         </is>
       </c>
       <c r="F219" t="n">
-        <v>5940</v>
+        <v>370</v>
       </c>
       <c r="G219" t="inlineStr">
         <is>
@@ -10873,7 +10873,7 @@
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5412341&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5344496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -11320,7 +11320,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 1, I Región</t>
+          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 3, I Región</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -11335,11 +11335,11 @@
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>Pozo Almonte Solar 1 SpA</t>
+          <t>Pozo Almonte Solar 3 S.A.</t>
         </is>
       </c>
       <c r="F229" t="n">
-        <v>40000</v>
+        <v>71000</v>
       </c>
       <c r="G229" t="inlineStr">
         <is>
@@ -11353,7 +11353,7 @@
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5162007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5164638&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -11368,7 +11368,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 2, I Región</t>
+          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 1, I Región</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -11383,7 +11383,7 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>POZO ALMONTE SOLAR 2 S.A.</t>
+          <t>Pozo Almonte Solar 1 SpA</t>
         </is>
       </c>
       <c r="F230" t="n">
@@ -11401,7 +11401,7 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5163148&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5162007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -11416,7 +11416,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 3, I Región</t>
+          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 2, I Región</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11431,11 +11431,11 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>Pozo Almonte Solar 3 S.A.</t>
+          <t>POZO ALMONTE SOLAR 2 S.A.</t>
         </is>
       </c>
       <c r="F231" t="n">
-        <v>71000</v>
+        <v>40000</v>
       </c>
       <c r="G231" t="inlineStr">
         <is>
@@ -11449,7 +11449,7 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5164638&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5163148&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -14392,7 +14392,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Ripiera Sagasca (e-seia)</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
@@ -14402,16 +14402,16 @@
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Christopher Frank Sir</t>
         </is>
       </c>
       <c r="F293" t="n">
-        <v>1750</v>
+        <v>452</v>
       </c>
       <c r="G293" t="inlineStr">
         <is>
@@ -14420,12 +14420,12 @@
       </c>
       <c r="H293" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I293" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310471&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J293" t="inlineStr">
@@ -14440,7 +14440,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>Ripiera Sagasca (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
@@ -14450,16 +14450,16 @@
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>Christopher Frank Sir</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F294" t="n">
-        <v>452</v>
+        <v>1750</v>
       </c>
       <c r="G294" t="inlineStr">
         <is>
@@ -14468,12 +14468,12 @@
       </c>
       <c r="H294" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I294" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310471&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J294" t="inlineStr">
@@ -14488,7 +14488,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -14503,11 +14503,11 @@
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F295" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G295" t="inlineStr">
         <is>
@@ -14516,12 +14516,12 @@
       </c>
       <c r="H295" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I295" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J295" t="inlineStr">
@@ -14536,7 +14536,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -14551,11 +14551,11 @@
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F296" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G296" t="inlineStr">
         <is>
@@ -14564,12 +14564,12 @@
       </c>
       <c r="H296" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I296" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J296" t="inlineStr">
@@ -15208,14 +15208,10 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
-        </is>
-      </c>
-      <c r="C310" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>PAMPA HERMOSA</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr"/>
       <c r="D310" t="inlineStr">
         <is>
           <t>Interregional</t>
@@ -15223,11 +15219,11 @@
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>SQM S.A.</t>
         </is>
       </c>
       <c r="F310" t="n">
-        <v>20</v>
+        <v>1.033</v>
       </c>
       <c r="G310" t="inlineStr">
         <is>
@@ -15236,12 +15232,12 @@
       </c>
       <c r="H310" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I310" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3083858&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J310" t="inlineStr">
@@ -15256,10 +15252,14 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>PAMPA HERMOSA</t>
-        </is>
-      </c>
-      <c r="C311" t="inlineStr"/>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D311" t="inlineStr">
         <is>
           <t>Interregional</t>
@@ -15267,11 +15267,11 @@
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>SQM S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F311" t="n">
-        <v>1.033</v>
+        <v>20</v>
       </c>
       <c r="G311" t="inlineStr">
         <is>
@@ -15280,12 +15280,12 @@
       </c>
       <c r="H311" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3083858&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J311" t="inlineStr">

--- a/data/Pozo Almonte.xlsx
+++ b/data/Pozo Almonte.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>17/02/2022</t>
+          <t>24/02/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Pozo Almonte.xlsx
+++ b/data/Pozo Almonte.xlsx
@@ -6712,7 +6712,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Mejoramiento Eloisa</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6722,16 +6722,16 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Eloisa spa</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>75000</v>
+        <v>0</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
@@ -6740,12 +6740,12 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128980296&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>PLANTA SOLAR PINTADOS</t>
+          <t>Mejoramiento Eloisa</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6775,11 +6775,11 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Planta Solar Pintados SpA.</t>
+          <t>Eloisa spa</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>200000</v>
+        <v>75000</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
@@ -6788,12 +6788,12 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955109&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128980296&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>PLANTA SOLAR PINTADOS</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6818,16 +6818,16 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Planta Solar Pintados SpA.</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
@@ -6841,7 +6841,7 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955109&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -8536,7 +8536,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Cal .</t>
+          <t>Proyecto Fotovoltaico Huatacondo</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8546,16 +8546,16 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
+          <t>AustrainSolar Chile Cuatro SpA</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>8426</v>
+        <v>196000</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
@@ -8564,12 +8564,12 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7561133&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7558839&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -8584,7 +8584,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Proyecto Fotovoltaico Huatacondo</t>
+          <t>Transporte Interregional de Cal .</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8594,16 +8594,16 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>AustrainSolar Chile Cuatro SpA</t>
+          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>196000</v>
+        <v>8426</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
@@ -8612,12 +8612,12 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7558839&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7561133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -10840,7 +10840,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>PROSPECCION MINERA CHALLACOLLO SUR</t>
+          <t>Reposición Ruta 5, Longitudinal Norte, Sector Reserva Nacional Pampa del Tamarugal, Km. 1.781,0 - Km 1.801, Provincia del Tamarugal, Región de Tarapacá</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -10855,11 +10855,11 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>SOCIEDAD CONTRACTUAL MINERA BOREAL</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F219" t="n">
-        <v>370</v>
+        <v>5940</v>
       </c>
       <c r="G219" t="inlineStr">
         <is>
@@ -10873,7 +10873,7 @@
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5344496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5412341&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -10888,7 +10888,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Reposición Ruta 5, Longitudinal Norte, Sector Reserva Nacional Pampa del Tamarugal, Km. 1.781,0 - Km 1.801, Provincia del Tamarugal, Región de Tarapacá</t>
+          <t>PROSPECCION MINERA CHALLACOLLO SUR</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -10903,11 +10903,11 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>SOCIEDAD CONTRACTUAL MINERA BOREAL</t>
         </is>
       </c>
       <c r="F220" t="n">
-        <v>5940</v>
+        <v>370</v>
       </c>
       <c r="G220" t="inlineStr">
         <is>
@@ -10921,7 +10921,7 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5412341&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5344496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -11368,7 +11368,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 1, I Región</t>
+          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 3, I Región</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -11383,11 +11383,11 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>Pozo Almonte Solar 1 SpA</t>
+          <t>Pozo Almonte Solar 3 S.A.</t>
         </is>
       </c>
       <c r="F230" t="n">
-        <v>40000</v>
+        <v>71000</v>
       </c>
       <c r="G230" t="inlineStr">
         <is>
@@ -11401,7 +11401,7 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5162007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5164638&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -11416,7 +11416,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 2, I Región</t>
+          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 1, I Región</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11431,7 +11431,7 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>POZO ALMONTE SOLAR 2 S.A.</t>
+          <t>Pozo Almonte Solar 1 SpA</t>
         </is>
       </c>
       <c r="F231" t="n">
@@ -11449,7 +11449,7 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5163148&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5162007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -11464,7 +11464,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 3, I Región</t>
+          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 2, I Región</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -11479,11 +11479,11 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>Pozo Almonte Solar 3 S.A.</t>
+          <t>POZO ALMONTE SOLAR 2 S.A.</t>
         </is>
       </c>
       <c r="F232" t="n">
-        <v>71000</v>
+        <v>40000</v>
       </c>
       <c r="G232" t="inlineStr">
         <is>
@@ -11497,7 +11497,7 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5164638&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5163148&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -14440,7 +14440,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Ripiera Sagasca (e-seia)</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
@@ -14450,16 +14450,16 @@
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Christopher Frank Sir</t>
         </is>
       </c>
       <c r="F294" t="n">
-        <v>1750</v>
+        <v>452</v>
       </c>
       <c r="G294" t="inlineStr">
         <is>
@@ -14468,12 +14468,12 @@
       </c>
       <c r="H294" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I294" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310471&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J294" t="inlineStr">
@@ -14488,7 +14488,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>Ripiera Sagasca (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -14498,16 +14498,16 @@
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>Christopher Frank Sir</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F295" t="n">
-        <v>452</v>
+        <v>1750</v>
       </c>
       <c r="G295" t="inlineStr">
         <is>
@@ -14516,12 +14516,12 @@
       </c>
       <c r="H295" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I295" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310471&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J295" t="inlineStr">
@@ -14536,7 +14536,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -14551,11 +14551,11 @@
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F296" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G296" t="inlineStr">
         <is>
@@ -14564,12 +14564,12 @@
       </c>
       <c r="H296" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I296" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J296" t="inlineStr">
@@ -14584,7 +14584,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -14599,11 +14599,11 @@
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F297" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G297" t="inlineStr">
         <is>
@@ -14612,12 +14612,12 @@
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J297" t="inlineStr">
@@ -15256,14 +15256,10 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
-        </is>
-      </c>
-      <c r="C311" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>PAMPA HERMOSA</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr"/>
       <c r="D311" t="inlineStr">
         <is>
           <t>Interregional</t>
@@ -15271,11 +15267,11 @@
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>SQM S.A.</t>
         </is>
       </c>
       <c r="F311" t="n">
-        <v>20</v>
+        <v>1.033</v>
       </c>
       <c r="G311" t="inlineStr">
         <is>
@@ -15284,12 +15280,12 @@
       </c>
       <c r="H311" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3083858&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J311" t="inlineStr">
@@ -15304,10 +15300,14 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>PAMPA HERMOSA</t>
-        </is>
-      </c>
-      <c r="C312" t="inlineStr"/>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D312" t="inlineStr">
         <is>
           <t>Interregional</t>
@@ -15315,11 +15315,11 @@
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>SQM S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F312" t="n">
-        <v>1.033</v>
+        <v>20</v>
       </c>
       <c r="G312" t="inlineStr">
         <is>
@@ -15328,12 +15328,12 @@
       </c>
       <c r="H312" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3083858&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J312" t="inlineStr">
@@ -20908,7 +20908,7 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>PLAN REGULADOR DE LA HUAYCA, COMUNA DE POZO ALMONTE (e-seia)</t>
+          <t>CONSTRUCCIÓN RELLENO SANITARIO PARA LA COMUNA DE POZO ALMONTE (e-seia)</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
@@ -20941,7 +20941,7 @@
       </c>
       <c r="I429" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141097087&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141090900&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J429" t="inlineStr">
@@ -20956,7 +20956,7 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>PLAN REGULADOR DE POZO ALMONTE, COMUNA DE POZO ALMONTE (e-seia)</t>
+          <t>PLAN REGULADOR DE LA HUAYCA, COMUNA DE POZO ALMONTE (e-seia)</t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
@@ -20989,7 +20989,7 @@
       </c>
       <c r="I430" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141097135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141097087&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J430" t="inlineStr">
@@ -21004,7 +21004,7 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>PLAN SECCIONAL DE LA TIRANA, COMUNA DE POZO ALMONTE (e-seia)</t>
+          <t>PLAN REGULADOR DE POZO ALMONTE, COMUNA DE POZO ALMONTE (e-seia)</t>
         </is>
       </c>
       <c r="C431" t="inlineStr">
@@ -21037,7 +21037,7 @@
       </c>
       <c r="I431" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141097173&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141097135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J431" t="inlineStr">
@@ -21052,7 +21052,7 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>CONSTRUCCIÓN RELLENO SANITARIO PARA LA COMUNA DE POZO ALMONTE (e-seia)</t>
+          <t>PLAN SECCIONAL DE LA TIRANA, COMUNA DE POZO ALMONTE (e-seia)</t>
         </is>
       </c>
       <c r="C432" t="inlineStr">
@@ -21085,7 +21085,7 @@
       </c>
       <c r="I432" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141090900&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141097173&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J432" t="inlineStr">

--- a/data/Pozo Almonte.xlsx
+++ b/data/Pozo Almonte.xlsx
@@ -6712,7 +6712,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Mejoramiento Eloisa</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6722,16 +6722,16 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Eloisa spa</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>0</v>
+        <v>75000</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
@@ -6740,12 +6740,12 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128980296&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Mejoramiento Eloisa</t>
+          <t>PLANTA SOLAR PINTADOS</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6775,11 +6775,11 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Eloisa spa</t>
+          <t>Planta Solar Pintados SpA.</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>75000</v>
+        <v>200000</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
@@ -6788,12 +6788,12 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128980296&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955109&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>PLANTA SOLAR PINTADOS</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6818,16 +6818,16 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Planta Solar Pintados SpA.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>200000</v>
+        <v>0</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
@@ -6841,7 +6841,7 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955109&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -8536,7 +8536,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Proyecto Fotovoltaico Huatacondo</t>
+          <t>Transporte Interregional de Cal .</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8546,16 +8546,16 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>AustrainSolar Chile Cuatro SpA</t>
+          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>196000</v>
+        <v>8426</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
@@ -8564,12 +8564,12 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7558839&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7561133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -8584,7 +8584,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Cal .</t>
+          <t>Proyecto Fotovoltaico Huatacondo</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8594,16 +8594,16 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
+          <t>AustrainSolar Chile Cuatro SpA</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>8426</v>
+        <v>196000</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
@@ -8612,12 +8612,12 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7561133&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7558839&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -10840,7 +10840,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Reposición Ruta 5, Longitudinal Norte, Sector Reserva Nacional Pampa del Tamarugal, Km. 1.781,0 - Km 1.801, Provincia del Tamarugal, Región de Tarapacá</t>
+          <t>PROSPECCION MINERA CHALLACOLLO SUR</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -10855,11 +10855,11 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>SOCIEDAD CONTRACTUAL MINERA BOREAL</t>
         </is>
       </c>
       <c r="F219" t="n">
-        <v>5940</v>
+        <v>370</v>
       </c>
       <c r="G219" t="inlineStr">
         <is>
@@ -10873,7 +10873,7 @@
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5412341&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5344496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -10888,7 +10888,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>PROSPECCION MINERA CHALLACOLLO SUR</t>
+          <t>Reposición Ruta 5, Longitudinal Norte, Sector Reserva Nacional Pampa del Tamarugal, Km. 1.781,0 - Km 1.801, Provincia del Tamarugal, Región de Tarapacá</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -10903,11 +10903,11 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>SOCIEDAD CONTRACTUAL MINERA BOREAL</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F220" t="n">
-        <v>370</v>
+        <v>5940</v>
       </c>
       <c r="G220" t="inlineStr">
         <is>
@@ -10921,7 +10921,7 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5344496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5412341&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -11368,7 +11368,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 3, I Región</t>
+          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 1, I Región</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -11383,11 +11383,11 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>Pozo Almonte Solar 3 S.A.</t>
+          <t>Pozo Almonte Solar 1 SpA</t>
         </is>
       </c>
       <c r="F230" t="n">
-        <v>71000</v>
+        <v>40000</v>
       </c>
       <c r="G230" t="inlineStr">
         <is>
@@ -11401,7 +11401,7 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5164638&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5162007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -11416,7 +11416,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 1, I Región</t>
+          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 2, I Región</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11431,7 +11431,7 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>Pozo Almonte Solar 1 SpA</t>
+          <t>POZO ALMONTE SOLAR 2 S.A.</t>
         </is>
       </c>
       <c r="F231" t="n">
@@ -11449,7 +11449,7 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5162007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5163148&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -11464,7 +11464,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 2, I Región</t>
+          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 3, I Región</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -11479,11 +11479,11 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>POZO ALMONTE SOLAR 2 S.A.</t>
+          <t>Pozo Almonte Solar 3 S.A.</t>
         </is>
       </c>
       <c r="F232" t="n">
-        <v>40000</v>
+        <v>71000</v>
       </c>
       <c r="G232" t="inlineStr">
         <is>
@@ -11497,7 +11497,7 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5163148&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5164638&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -14440,7 +14440,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>Ripiera Sagasca (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
@@ -14450,16 +14450,16 @@
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>Christopher Frank Sir</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F294" t="n">
-        <v>452</v>
+        <v>1750</v>
       </c>
       <c r="G294" t="inlineStr">
         <is>
@@ -14468,12 +14468,12 @@
       </c>
       <c r="H294" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I294" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310471&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J294" t="inlineStr">
@@ -14488,7 +14488,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Ripiera Sagasca (e-seia)</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -14498,16 +14498,16 @@
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Christopher Frank Sir</t>
         </is>
       </c>
       <c r="F295" t="n">
-        <v>1750</v>
+        <v>452</v>
       </c>
       <c r="G295" t="inlineStr">
         <is>
@@ -14516,12 +14516,12 @@
       </c>
       <c r="H295" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I295" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310471&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J295" t="inlineStr">
@@ -14536,7 +14536,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -14551,11 +14551,11 @@
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F296" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G296" t="inlineStr">
         <is>
@@ -14564,12 +14564,12 @@
       </c>
       <c r="H296" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I296" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J296" t="inlineStr">
@@ -14584,7 +14584,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -14599,11 +14599,11 @@
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F297" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G297" t="inlineStr">
         <is>
@@ -14612,12 +14612,12 @@
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J297" t="inlineStr">
@@ -15256,10 +15256,14 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>PAMPA HERMOSA</t>
-        </is>
-      </c>
-      <c r="C311" t="inlineStr"/>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D311" t="inlineStr">
         <is>
           <t>Interregional</t>
@@ -15267,11 +15271,11 @@
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>SQM S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F311" t="n">
-        <v>1.033</v>
+        <v>20</v>
       </c>
       <c r="G311" t="inlineStr">
         <is>
@@ -15280,12 +15284,12 @@
       </c>
       <c r="H311" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3083858&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J311" t="inlineStr">
@@ -15300,14 +15304,10 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
-        </is>
-      </c>
-      <c r="C312" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>PAMPA HERMOSA</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr"/>
       <c r="D312" t="inlineStr">
         <is>
           <t>Interregional</t>
@@ -15315,11 +15315,11 @@
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>SQM S.A.</t>
         </is>
       </c>
       <c r="F312" t="n">
-        <v>20</v>
+        <v>1.033</v>
       </c>
       <c r="G312" t="inlineStr">
         <is>
@@ -15328,12 +15328,12 @@
       </c>
       <c r="H312" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3083858&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J312" t="inlineStr">
@@ -20908,7 +20908,7 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>CONSTRUCCIÓN RELLENO SANITARIO PARA LA COMUNA DE POZO ALMONTE (e-seia)</t>
+          <t>PLAN REGULADOR DE LA HUAYCA, COMUNA DE POZO ALMONTE (e-seia)</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
@@ -20941,7 +20941,7 @@
       </c>
       <c r="I429" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141090900&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141097087&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J429" t="inlineStr">
@@ -20956,7 +20956,7 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>PLAN REGULADOR DE LA HUAYCA, COMUNA DE POZO ALMONTE (e-seia)</t>
+          <t>PLAN REGULADOR DE POZO ALMONTE, COMUNA DE POZO ALMONTE (e-seia)</t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
@@ -20989,7 +20989,7 @@
       </c>
       <c r="I430" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141097087&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141097135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J430" t="inlineStr">
@@ -21004,7 +21004,7 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>PLAN REGULADOR DE POZO ALMONTE, COMUNA DE POZO ALMONTE (e-seia)</t>
+          <t>PLAN SECCIONAL DE LA TIRANA, COMUNA DE POZO ALMONTE (e-seia)</t>
         </is>
       </c>
       <c r="C431" t="inlineStr">
@@ -21037,7 +21037,7 @@
       </c>
       <c r="I431" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141097135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141097173&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J431" t="inlineStr">
@@ -21052,7 +21052,7 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>PLAN SECCIONAL DE LA TIRANA, COMUNA DE POZO ALMONTE (e-seia)</t>
+          <t>CONSTRUCCIÓN RELLENO SANITARIO PARA LA COMUNA DE POZO ALMONTE (e-seia)</t>
         </is>
       </c>
       <c r="C432" t="inlineStr">
@@ -21085,7 +21085,7 @@
       </c>
       <c r="I432" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141097173&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141090900&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J432" t="inlineStr">

--- a/data/Pozo Almonte.xlsx
+++ b/data/Pozo Almonte.xlsx
@@ -596,7 +596,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">

--- a/data/Pozo Almonte.xlsx
+++ b/data/Pozo Almonte.xlsx
@@ -6712,7 +6712,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Mejoramiento Eloisa</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6722,16 +6722,16 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Eloisa spa</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>0</v>
+        <v>75000</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
@@ -6740,12 +6740,12 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128980296&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Mejoramiento Eloisa</t>
+          <t>PLANTA SOLAR PINTADOS</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6775,11 +6775,11 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Eloisa spa</t>
+          <t>Planta Solar Pintados SpA.</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>75000</v>
+        <v>200000</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
@@ -6788,12 +6788,12 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128980296&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955109&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>PLANTA SOLAR PINTADOS</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6818,16 +6818,16 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Planta Solar Pintados SpA.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>200000</v>
+        <v>0</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
@@ -6841,7 +6841,7 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955109&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -8536,7 +8536,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Proyecto Fotovoltaico Huatacondo</t>
+          <t>Transporte Interregional de Cal .</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8546,16 +8546,16 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>AustrainSolar Chile Cuatro SpA</t>
+          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>196000</v>
+        <v>8426</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
@@ -8564,12 +8564,12 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7558839&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7561133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -8584,7 +8584,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Cal .</t>
+          <t>Proyecto Fotovoltaico Huatacondo</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8594,16 +8594,16 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
+          <t>AustrainSolar Chile Cuatro SpA</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>8426</v>
+        <v>196000</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
@@ -8612,12 +8612,12 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7561133&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7558839&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -10840,7 +10840,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Reposición Ruta 5, Longitudinal Norte, Sector Reserva Nacional Pampa del Tamarugal, Km. 1.781,0 - Km 1.801, Provincia del Tamarugal, Región de Tarapacá</t>
+          <t>PROSPECCION MINERA CHALLACOLLO SUR</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -10855,11 +10855,11 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>SOCIEDAD CONTRACTUAL MINERA BOREAL</t>
         </is>
       </c>
       <c r="F219" t="n">
-        <v>5940</v>
+        <v>370</v>
       </c>
       <c r="G219" t="inlineStr">
         <is>
@@ -10873,7 +10873,7 @@
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5412341&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5344496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -10888,7 +10888,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>PROSPECCION MINERA CHALLACOLLO SUR</t>
+          <t>Reposición Ruta 5, Longitudinal Norte, Sector Reserva Nacional Pampa del Tamarugal, Km. 1.781,0 - Km 1.801, Provincia del Tamarugal, Región de Tarapacá</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -10903,11 +10903,11 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>SOCIEDAD CONTRACTUAL MINERA BOREAL</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F220" t="n">
-        <v>370</v>
+        <v>5940</v>
       </c>
       <c r="G220" t="inlineStr">
         <is>
@@ -10921,7 +10921,7 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5344496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5412341&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -11368,7 +11368,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 3, I Región</t>
+          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 1, I Región</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -11383,11 +11383,11 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>Pozo Almonte Solar 3 S.A.</t>
+          <t>Pozo Almonte Solar 1 SpA</t>
         </is>
       </c>
       <c r="F230" t="n">
-        <v>71000</v>
+        <v>40000</v>
       </c>
       <c r="G230" t="inlineStr">
         <is>
@@ -11401,7 +11401,7 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5164638&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5162007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -11416,7 +11416,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 1, I Región</t>
+          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 2, I Región</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11431,7 +11431,7 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>Pozo Almonte Solar 1 SpA</t>
+          <t>POZO ALMONTE SOLAR 2 S.A.</t>
         </is>
       </c>
       <c r="F231" t="n">
@@ -11449,7 +11449,7 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5162007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5163148&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -11464,7 +11464,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 2, I Región</t>
+          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 3, I Región</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -11479,11 +11479,11 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>POZO ALMONTE SOLAR 2 S.A.</t>
+          <t>Pozo Almonte Solar 3 S.A.</t>
         </is>
       </c>
       <c r="F232" t="n">
-        <v>40000</v>
+        <v>71000</v>
       </c>
       <c r="G232" t="inlineStr">
         <is>
@@ -11497,7 +11497,7 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5163148&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5164638&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -14440,7 +14440,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>Ripiera Sagasca (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
@@ -14450,16 +14450,16 @@
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>Christopher Frank Sir</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F294" t="n">
-        <v>452</v>
+        <v>1750</v>
       </c>
       <c r="G294" t="inlineStr">
         <is>
@@ -14468,12 +14468,12 @@
       </c>
       <c r="H294" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I294" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310471&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J294" t="inlineStr">
@@ -14488,7 +14488,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Ripiera Sagasca (e-seia)</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -14498,16 +14498,16 @@
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Christopher Frank Sir</t>
         </is>
       </c>
       <c r="F295" t="n">
-        <v>1750</v>
+        <v>452</v>
       </c>
       <c r="G295" t="inlineStr">
         <is>
@@ -14516,12 +14516,12 @@
       </c>
       <c r="H295" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I295" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310471&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J295" t="inlineStr">
@@ -14536,7 +14536,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -14551,11 +14551,11 @@
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F296" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G296" t="inlineStr">
         <is>
@@ -14564,12 +14564,12 @@
       </c>
       <c r="H296" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I296" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J296" t="inlineStr">
@@ -14584,7 +14584,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -14599,11 +14599,11 @@
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F297" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G297" t="inlineStr">
         <is>
@@ -14612,12 +14612,12 @@
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J297" t="inlineStr">
@@ -15256,10 +15256,14 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>PAMPA HERMOSA</t>
-        </is>
-      </c>
-      <c r="C311" t="inlineStr"/>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D311" t="inlineStr">
         <is>
           <t>Interregional</t>
@@ -15267,11 +15271,11 @@
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>SQM S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F311" t="n">
-        <v>1.033</v>
+        <v>20</v>
       </c>
       <c r="G311" t="inlineStr">
         <is>
@@ -15280,12 +15284,12 @@
       </c>
       <c r="H311" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3083858&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J311" t="inlineStr">
@@ -15300,14 +15304,10 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
-        </is>
-      </c>
-      <c r="C312" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>PAMPA HERMOSA</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr"/>
       <c r="D312" t="inlineStr">
         <is>
           <t>Interregional</t>
@@ -15315,11 +15315,11 @@
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>SQM S.A.</t>
         </is>
       </c>
       <c r="F312" t="n">
-        <v>20</v>
+        <v>1.033</v>
       </c>
       <c r="G312" t="inlineStr">
         <is>
@@ -15328,12 +15328,12 @@
       </c>
       <c r="H312" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3083858&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J312" t="inlineStr">

--- a/data/Pozo Almonte.xlsx
+++ b/data/Pozo Almonte.xlsx
@@ -6712,7 +6712,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Mejoramiento Eloisa</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6722,16 +6722,16 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Eloisa spa</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>75000</v>
+        <v>0</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
@@ -6740,12 +6740,12 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128980296&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>PLANTA SOLAR PINTADOS</t>
+          <t>Mejoramiento Eloisa</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6775,11 +6775,11 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Planta Solar Pintados SpA.</t>
+          <t>Eloisa spa</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>200000</v>
+        <v>75000</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
@@ -6788,12 +6788,12 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955109&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128980296&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>PLANTA SOLAR PINTADOS</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6818,16 +6818,16 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Planta Solar Pintados SpA.</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
@@ -6841,7 +6841,7 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955109&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -8536,7 +8536,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Cal .</t>
+          <t>Proyecto Fotovoltaico Huatacondo</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8546,16 +8546,16 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
+          <t>AustrainSolar Chile Cuatro SpA</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>8426</v>
+        <v>196000</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
@@ -8564,12 +8564,12 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7561133&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7558839&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -8584,7 +8584,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Proyecto Fotovoltaico Huatacondo</t>
+          <t>Transporte Interregional de Cal .</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8594,16 +8594,16 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>AustrainSolar Chile Cuatro SpA</t>
+          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>196000</v>
+        <v>8426</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
@@ -8612,12 +8612,12 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7558839&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7561133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -10840,7 +10840,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>PROSPECCION MINERA CHALLACOLLO SUR</t>
+          <t>Reposición Ruta 5, Longitudinal Norte, Sector Reserva Nacional Pampa del Tamarugal, Km. 1.781,0 - Km 1.801, Provincia del Tamarugal, Región de Tarapacá</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -10855,11 +10855,11 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>SOCIEDAD CONTRACTUAL MINERA BOREAL</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F219" t="n">
-        <v>370</v>
+        <v>5940</v>
       </c>
       <c r="G219" t="inlineStr">
         <is>
@@ -10873,7 +10873,7 @@
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5344496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5412341&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -10888,7 +10888,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Reposición Ruta 5, Longitudinal Norte, Sector Reserva Nacional Pampa del Tamarugal, Km. 1.781,0 - Km 1.801, Provincia del Tamarugal, Región de Tarapacá</t>
+          <t>PROSPECCION MINERA CHALLACOLLO SUR</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -10903,11 +10903,11 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>SOCIEDAD CONTRACTUAL MINERA BOREAL</t>
         </is>
       </c>
       <c r="F220" t="n">
-        <v>5940</v>
+        <v>370</v>
       </c>
       <c r="G220" t="inlineStr">
         <is>
@@ -10921,7 +10921,7 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5412341&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5344496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -11368,7 +11368,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 1, I Región</t>
+          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 3, I Región</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -11383,11 +11383,11 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>Pozo Almonte Solar 1 SpA</t>
+          <t>Pozo Almonte Solar 3 S.A.</t>
         </is>
       </c>
       <c r="F230" t="n">
-        <v>40000</v>
+        <v>71000</v>
       </c>
       <c r="G230" t="inlineStr">
         <is>
@@ -11401,7 +11401,7 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5162007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5164638&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -11416,7 +11416,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 2, I Región</t>
+          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 1, I Región</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11431,7 +11431,7 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>POZO ALMONTE SOLAR 2 S.A.</t>
+          <t>Pozo Almonte Solar 1 SpA</t>
         </is>
       </c>
       <c r="F231" t="n">
@@ -11449,7 +11449,7 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5163148&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5162007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -11464,7 +11464,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 3, I Región</t>
+          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 2, I Región</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -11479,11 +11479,11 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>Pozo Almonte Solar 3 S.A.</t>
+          <t>POZO ALMONTE SOLAR 2 S.A.</t>
         </is>
       </c>
       <c r="F232" t="n">
-        <v>71000</v>
+        <v>40000</v>
       </c>
       <c r="G232" t="inlineStr">
         <is>
@@ -11497,7 +11497,7 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5164638&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5163148&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -14440,7 +14440,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Ripiera Sagasca (e-seia)</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
@@ -14450,16 +14450,16 @@
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Christopher Frank Sir</t>
         </is>
       </c>
       <c r="F294" t="n">
-        <v>1750</v>
+        <v>452</v>
       </c>
       <c r="G294" t="inlineStr">
         <is>
@@ -14468,12 +14468,12 @@
       </c>
       <c r="H294" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I294" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310471&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J294" t="inlineStr">
@@ -14488,7 +14488,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>Ripiera Sagasca (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -14498,16 +14498,16 @@
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>Christopher Frank Sir</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F295" t="n">
-        <v>452</v>
+        <v>1750</v>
       </c>
       <c r="G295" t="inlineStr">
         <is>
@@ -14516,12 +14516,12 @@
       </c>
       <c r="H295" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I295" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310471&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J295" t="inlineStr">
@@ -14536,7 +14536,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -14551,11 +14551,11 @@
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F296" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G296" t="inlineStr">
         <is>
@@ -14564,12 +14564,12 @@
       </c>
       <c r="H296" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I296" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J296" t="inlineStr">
@@ -14584,7 +14584,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -14599,11 +14599,11 @@
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F297" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G297" t="inlineStr">
         <is>
@@ -14612,12 +14612,12 @@
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J297" t="inlineStr">
@@ -15256,14 +15256,10 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
-        </is>
-      </c>
-      <c r="C311" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>PAMPA HERMOSA</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr"/>
       <c r="D311" t="inlineStr">
         <is>
           <t>Interregional</t>
@@ -15271,11 +15267,11 @@
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>SQM S.A.</t>
         </is>
       </c>
       <c r="F311" t="n">
-        <v>20</v>
+        <v>1.033</v>
       </c>
       <c r="G311" t="inlineStr">
         <is>
@@ -15284,12 +15280,12 @@
       </c>
       <c r="H311" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3083858&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J311" t="inlineStr">
@@ -15304,10 +15300,14 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>PAMPA HERMOSA</t>
-        </is>
-      </c>
-      <c r="C312" t="inlineStr"/>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D312" t="inlineStr">
         <is>
           <t>Interregional</t>
@@ -15315,11 +15315,11 @@
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>SQM S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F312" t="n">
-        <v>1.033</v>
+        <v>20</v>
       </c>
       <c r="G312" t="inlineStr">
         <is>
@@ -15328,12 +15328,12 @@
       </c>
       <c r="H312" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3083858&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J312" t="inlineStr">

--- a/data/Pozo Almonte.xlsx
+++ b/data/Pozo Almonte.xlsx
@@ -6760,7 +6760,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Mejoramiento Eloisa</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6770,16 +6770,16 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Eloisa spa</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>0</v>
+        <v>75000</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
@@ -6788,12 +6788,12 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128980296&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Mejoramiento Eloisa</t>
+          <t>PLANTA SOLAR PINTADOS</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6823,11 +6823,11 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Eloisa spa</t>
+          <t>Planta Solar Pintados SpA.</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>75000</v>
+        <v>200000</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
@@ -6836,12 +6836,12 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128980296&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955109&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6856,7 +6856,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>PLANTA SOLAR PINTADOS</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6866,16 +6866,16 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Planta Solar Pintados SpA.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>200000</v>
+        <v>0</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
@@ -6889,7 +6889,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955109&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -8584,7 +8584,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Proyecto Fotovoltaico Huatacondo</t>
+          <t>Transporte Interregional de Cal .</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8594,16 +8594,16 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>AustrainSolar Chile Cuatro SpA</t>
+          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>196000</v>
+        <v>8426</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
@@ -8612,12 +8612,12 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7558839&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7561133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -8632,7 +8632,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Cal .</t>
+          <t>Proyecto Fotovoltaico Huatacondo</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8642,16 +8642,16 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
+          <t>AustrainSolar Chile Cuatro SpA</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>8426</v>
+        <v>196000</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
@@ -8660,12 +8660,12 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7561133&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7558839&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -10888,7 +10888,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Reposición Ruta 5, Longitudinal Norte, Sector Reserva Nacional Pampa del Tamarugal, Km. 1.781,0 - Km 1.801, Provincia del Tamarugal, Región de Tarapacá</t>
+          <t>PROSPECCION MINERA CHALLACOLLO SUR</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -10903,11 +10903,11 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>SOCIEDAD CONTRACTUAL MINERA BOREAL</t>
         </is>
       </c>
       <c r="F220" t="n">
-        <v>5940</v>
+        <v>370</v>
       </c>
       <c r="G220" t="inlineStr">
         <is>
@@ -10921,7 +10921,7 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5412341&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5344496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -10936,7 +10936,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>PROSPECCION MINERA CHALLACOLLO SUR</t>
+          <t>Reposición Ruta 5, Longitudinal Norte, Sector Reserva Nacional Pampa del Tamarugal, Km. 1.781,0 - Km 1.801, Provincia del Tamarugal, Región de Tarapacá</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -10951,11 +10951,11 @@
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>SOCIEDAD CONTRACTUAL MINERA BOREAL</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F221" t="n">
-        <v>370</v>
+        <v>5940</v>
       </c>
       <c r="G221" t="inlineStr">
         <is>
@@ -10969,7 +10969,7 @@
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5344496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5412341&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -11416,7 +11416,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 3, I Región</t>
+          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 1, I Región</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11431,11 +11431,11 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>Pozo Almonte Solar 3 S.A.</t>
+          <t>Pozo Almonte Solar 1 SpA</t>
         </is>
       </c>
       <c r="F231" t="n">
-        <v>71000</v>
+        <v>40000</v>
       </c>
       <c r="G231" t="inlineStr">
         <is>
@@ -11449,7 +11449,7 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5164638&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5162007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -11464,7 +11464,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 1, I Región</t>
+          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 2, I Región</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -11479,7 +11479,7 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>Pozo Almonte Solar 1 SpA</t>
+          <t>POZO ALMONTE SOLAR 2 S.A.</t>
         </is>
       </c>
       <c r="F232" t="n">
@@ -11497,7 +11497,7 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5162007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5163148&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -11512,7 +11512,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 2, I Región</t>
+          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 3, I Región</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -11527,11 +11527,11 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>POZO ALMONTE SOLAR 2 S.A.</t>
+          <t>Pozo Almonte Solar 3 S.A.</t>
         </is>
       </c>
       <c r="F233" t="n">
-        <v>40000</v>
+        <v>71000</v>
       </c>
       <c r="G233" t="inlineStr">
         <is>
@@ -11545,7 +11545,7 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5163148&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5164638&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -14488,7 +14488,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>Ripiera Sagasca (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -14498,16 +14498,16 @@
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>Christopher Frank Sir</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F295" t="n">
-        <v>452</v>
+        <v>1750</v>
       </c>
       <c r="G295" t="inlineStr">
         <is>
@@ -14516,12 +14516,12 @@
       </c>
       <c r="H295" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I295" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310471&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J295" t="inlineStr">
@@ -14536,7 +14536,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Ripiera Sagasca (e-seia)</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -14546,16 +14546,16 @@
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Christopher Frank Sir</t>
         </is>
       </c>
       <c r="F296" t="n">
-        <v>1750</v>
+        <v>452</v>
       </c>
       <c r="G296" t="inlineStr">
         <is>
@@ -14564,12 +14564,12 @@
       </c>
       <c r="H296" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I296" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310471&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J296" t="inlineStr">
@@ -14584,7 +14584,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -14599,11 +14599,11 @@
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F297" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G297" t="inlineStr">
         <is>
@@ -14612,12 +14612,12 @@
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J297" t="inlineStr">
@@ -14632,7 +14632,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -14647,11 +14647,11 @@
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F298" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G298" t="inlineStr">
         <is>
@@ -14660,12 +14660,12 @@
       </c>
       <c r="H298" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J298" t="inlineStr">
@@ -15304,10 +15304,14 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>PAMPA HERMOSA</t>
-        </is>
-      </c>
-      <c r="C312" t="inlineStr"/>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D312" t="inlineStr">
         <is>
           <t>Interregional</t>
@@ -15315,11 +15319,11 @@
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>SQM S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F312" t="n">
-        <v>1.033</v>
+        <v>20</v>
       </c>
       <c r="G312" t="inlineStr">
         <is>
@@ -15328,12 +15332,12 @@
       </c>
       <c r="H312" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3083858&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J312" t="inlineStr">
@@ -15348,14 +15352,10 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
-        </is>
-      </c>
-      <c r="C313" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>PAMPA HERMOSA</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr"/>
       <c r="D313" t="inlineStr">
         <is>
           <t>Interregional</t>
@@ -15363,11 +15363,11 @@
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>SQM S.A.</t>
         </is>
       </c>
       <c r="F313" t="n">
-        <v>20</v>
+        <v>1.033</v>
       </c>
       <c r="G313" t="inlineStr">
         <is>
@@ -15376,12 +15376,12 @@
       </c>
       <c r="H313" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3083858&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J313" t="inlineStr">

--- a/data/Pozo Almonte.xlsx
+++ b/data/Pozo Almonte.xlsx
@@ -424,12 +424,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Planta de Beneficio de Sales de Nitrato</t>
+          <t>ERNC Loa</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>COSAYACH EXPORTADORA S.A.</t>
+          <t>ERNC LOA Spa</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>60000</v>
+        <v>495000</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>07/03/2022</t>
+          <t>08/03/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155205083&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155170238&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,12 +472,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ERNC Loa</t>
+          <t>Planta de Beneficio de Sales de Nitrato</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -487,15 +487,15 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>ERNC LOA Spa</t>
+          <t>COSAYACH EXPORTADORA S.A.</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>495000</v>
+        <v>60000</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>01/03/2022</t>
+          <t>07/03/2022</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -505,7 +505,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155170238&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155205083&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -20956,7 +20956,7 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>CONSTRUCCIÓN RELLENO SANITARIO PARA LA COMUNA DE POZO ALMONTE (e-seia)</t>
+          <t>PLAN REGULADOR DE LA HUAYCA, COMUNA DE POZO ALMONTE (e-seia)</t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
@@ -20989,7 +20989,7 @@
       </c>
       <c r="I430" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141090900&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141097087&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J430" t="inlineStr">
@@ -21004,7 +21004,7 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>PLAN REGULADOR DE LA HUAYCA, COMUNA DE POZO ALMONTE (e-seia)</t>
+          <t>PLAN REGULADOR DE POZO ALMONTE, COMUNA DE POZO ALMONTE (e-seia)</t>
         </is>
       </c>
       <c r="C431" t="inlineStr">
@@ -21037,7 +21037,7 @@
       </c>
       <c r="I431" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141097087&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141097135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J431" t="inlineStr">
@@ -21052,7 +21052,7 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>PLAN REGULADOR DE POZO ALMONTE, COMUNA DE POZO ALMONTE (e-seia)</t>
+          <t>PLAN SECCIONAL DE LA TIRANA, COMUNA DE POZO ALMONTE (e-seia)</t>
         </is>
       </c>
       <c r="C432" t="inlineStr">
@@ -21085,7 +21085,7 @@
       </c>
       <c r="I432" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141097135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141097173&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J432" t="inlineStr">
@@ -21100,7 +21100,7 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>PLAN SECCIONAL DE LA TIRANA, COMUNA DE POZO ALMONTE (e-seia)</t>
+          <t>CONSTRUCCIÓN RELLENO SANITARIO PARA LA COMUNA DE POZO ALMONTE (e-seia)</t>
         </is>
       </c>
       <c r="C433" t="inlineStr">
@@ -21133,7 +21133,7 @@
       </c>
       <c r="I433" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141097173&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141090900&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J433" t="inlineStr">

--- a/data/Pozo Almonte.xlsx
+++ b/data/Pozo Almonte.xlsx
@@ -6760,7 +6760,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Mejoramiento Eloisa</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6770,16 +6770,16 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Eloisa spa</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>75000</v>
+        <v>0</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
@@ -6788,12 +6788,12 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128980296&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>PLANTA SOLAR PINTADOS</t>
+          <t>Mejoramiento Eloisa</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6823,11 +6823,11 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Planta Solar Pintados SpA.</t>
+          <t>Eloisa spa</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>200000</v>
+        <v>75000</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
@@ -6836,12 +6836,12 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955109&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128980296&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6856,7 +6856,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>PLANTA SOLAR PINTADOS</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6866,16 +6866,16 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Planta Solar Pintados SpA.</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
@@ -6889,7 +6889,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955109&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -8584,7 +8584,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Cal .</t>
+          <t>Proyecto Fotovoltaico Huatacondo</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8594,16 +8594,16 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
+          <t>AustrainSolar Chile Cuatro SpA</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>8426</v>
+        <v>196000</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
@@ -8612,12 +8612,12 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7561133&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7558839&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -8632,7 +8632,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Proyecto Fotovoltaico Huatacondo</t>
+          <t>Transporte Interregional de Cal .</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8642,16 +8642,16 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>AustrainSolar Chile Cuatro SpA</t>
+          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>196000</v>
+        <v>8426</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
@@ -8660,12 +8660,12 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7558839&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7561133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -10888,7 +10888,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>PROSPECCION MINERA CHALLACOLLO SUR</t>
+          <t>Reposición Ruta 5, Longitudinal Norte, Sector Reserva Nacional Pampa del Tamarugal, Km. 1.781,0 - Km 1.801, Provincia del Tamarugal, Región de Tarapacá</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -10903,11 +10903,11 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>SOCIEDAD CONTRACTUAL MINERA BOREAL</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F220" t="n">
-        <v>370</v>
+        <v>5940</v>
       </c>
       <c r="G220" t="inlineStr">
         <is>
@@ -10921,7 +10921,7 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5344496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5412341&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -10936,7 +10936,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Reposición Ruta 5, Longitudinal Norte, Sector Reserva Nacional Pampa del Tamarugal, Km. 1.781,0 - Km 1.801, Provincia del Tamarugal, Región de Tarapacá</t>
+          <t>PROSPECCION MINERA CHALLACOLLO SUR</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -10951,11 +10951,11 @@
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>SOCIEDAD CONTRACTUAL MINERA BOREAL</t>
         </is>
       </c>
       <c r="F221" t="n">
-        <v>5940</v>
+        <v>370</v>
       </c>
       <c r="G221" t="inlineStr">
         <is>
@@ -10969,7 +10969,7 @@
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5412341&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5344496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -11416,7 +11416,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 1, I Región</t>
+          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 3, I Región</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11431,11 +11431,11 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>Pozo Almonte Solar 1 SpA</t>
+          <t>Pozo Almonte Solar 3 S.A.</t>
         </is>
       </c>
       <c r="F231" t="n">
-        <v>40000</v>
+        <v>71000</v>
       </c>
       <c r="G231" t="inlineStr">
         <is>
@@ -11449,7 +11449,7 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5162007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5164638&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -11464,7 +11464,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 2, I Región</t>
+          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 1, I Región</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -11479,7 +11479,7 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>POZO ALMONTE SOLAR 2 S.A.</t>
+          <t>Pozo Almonte Solar 1 SpA</t>
         </is>
       </c>
       <c r="F232" t="n">
@@ -11497,7 +11497,7 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5163148&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5162007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -11512,7 +11512,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 3, I Región</t>
+          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 2, I Región</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -11527,11 +11527,11 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>Pozo Almonte Solar 3 S.A.</t>
+          <t>POZO ALMONTE SOLAR 2 S.A.</t>
         </is>
       </c>
       <c r="F233" t="n">
-        <v>71000</v>
+        <v>40000</v>
       </c>
       <c r="G233" t="inlineStr">
         <is>
@@ -11545,7 +11545,7 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5164638&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5163148&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -14488,7 +14488,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Ripiera Sagasca (e-seia)</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -14498,16 +14498,16 @@
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Christopher Frank Sir</t>
         </is>
       </c>
       <c r="F295" t="n">
-        <v>1750</v>
+        <v>452</v>
       </c>
       <c r="G295" t="inlineStr">
         <is>
@@ -14516,12 +14516,12 @@
       </c>
       <c r="H295" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I295" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310471&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J295" t="inlineStr">
@@ -14536,7 +14536,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>Ripiera Sagasca (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -14546,16 +14546,16 @@
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>Christopher Frank Sir</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F296" t="n">
-        <v>452</v>
+        <v>1750</v>
       </c>
       <c r="G296" t="inlineStr">
         <is>
@@ -14564,12 +14564,12 @@
       </c>
       <c r="H296" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I296" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310471&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J296" t="inlineStr">
@@ -14584,7 +14584,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -14599,11 +14599,11 @@
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F297" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G297" t="inlineStr">
         <is>
@@ -14612,12 +14612,12 @@
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J297" t="inlineStr">
@@ -14632,7 +14632,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -14647,11 +14647,11 @@
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F298" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G298" t="inlineStr">
         <is>
@@ -14660,12 +14660,12 @@
       </c>
       <c r="H298" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J298" t="inlineStr">
@@ -15304,14 +15304,10 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
-        </is>
-      </c>
-      <c r="C312" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>PAMPA HERMOSA</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr"/>
       <c r="D312" t="inlineStr">
         <is>
           <t>Interregional</t>
@@ -15319,11 +15315,11 @@
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>SQM S.A.</t>
         </is>
       </c>
       <c r="F312" t="n">
-        <v>20</v>
+        <v>1.033</v>
       </c>
       <c r="G312" t="inlineStr">
         <is>
@@ -15332,12 +15328,12 @@
       </c>
       <c r="H312" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3083858&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J312" t="inlineStr">
@@ -15352,10 +15348,14 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>PAMPA HERMOSA</t>
-        </is>
-      </c>
-      <c r="C313" t="inlineStr"/>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D313" t="inlineStr">
         <is>
           <t>Interregional</t>
@@ -15363,11 +15363,11 @@
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>SQM S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F313" t="n">
-        <v>1.033</v>
+        <v>20</v>
       </c>
       <c r="G313" t="inlineStr">
         <is>
@@ -15376,12 +15376,12 @@
       </c>
       <c r="H313" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3083858&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J313" t="inlineStr">
@@ -20956,7 +20956,7 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>PLAN REGULADOR DE LA HUAYCA, COMUNA DE POZO ALMONTE (e-seia)</t>
+          <t>CONSTRUCCIÓN RELLENO SANITARIO PARA LA COMUNA DE POZO ALMONTE (e-seia)</t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
@@ -20989,7 +20989,7 @@
       </c>
       <c r="I430" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141097087&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141090900&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J430" t="inlineStr">
@@ -21004,7 +21004,7 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>PLAN REGULADOR DE POZO ALMONTE, COMUNA DE POZO ALMONTE (e-seia)</t>
+          <t>PLAN REGULADOR DE LA HUAYCA, COMUNA DE POZO ALMONTE (e-seia)</t>
         </is>
       </c>
       <c r="C431" t="inlineStr">
@@ -21037,7 +21037,7 @@
       </c>
       <c r="I431" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141097135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141097087&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J431" t="inlineStr">
@@ -21052,7 +21052,7 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>PLAN SECCIONAL DE LA TIRANA, COMUNA DE POZO ALMONTE (e-seia)</t>
+          <t>PLAN REGULADOR DE POZO ALMONTE, COMUNA DE POZO ALMONTE (e-seia)</t>
         </is>
       </c>
       <c r="C432" t="inlineStr">
@@ -21085,7 +21085,7 @@
       </c>
       <c r="I432" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141097173&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141097135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J432" t="inlineStr">
@@ -21100,7 +21100,7 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>CONSTRUCCIÓN RELLENO SANITARIO PARA LA COMUNA DE POZO ALMONTE (e-seia)</t>
+          <t>PLAN SECCIONAL DE LA TIRANA, COMUNA DE POZO ALMONTE (e-seia)</t>
         </is>
       </c>
       <c r="C433" t="inlineStr">
@@ -21133,7 +21133,7 @@
       </c>
       <c r="I433" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141090900&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141097173&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J433" t="inlineStr">

--- a/data/Pozo Almonte.xlsx
+++ b/data/Pozo Almonte.xlsx
@@ -548,7 +548,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Mejoramiento Eloisa</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6770,16 +6770,16 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Eloisa spa</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>0</v>
+        <v>75000</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
@@ -6788,12 +6788,12 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128980296&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Mejoramiento Eloisa</t>
+          <t>PLANTA SOLAR PINTADOS</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6823,11 +6823,11 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Eloisa spa</t>
+          <t>Planta Solar Pintados SpA.</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>75000</v>
+        <v>200000</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
@@ -6836,12 +6836,12 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128980296&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955109&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6856,7 +6856,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>PLANTA SOLAR PINTADOS</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6866,16 +6866,16 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Planta Solar Pintados SpA.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>200000</v>
+        <v>0</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
@@ -6889,7 +6889,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955109&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -8584,7 +8584,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Proyecto Fotovoltaico Huatacondo</t>
+          <t>Transporte Interregional de Cal .</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8594,16 +8594,16 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>AustrainSolar Chile Cuatro SpA</t>
+          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>196000</v>
+        <v>8426</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
@@ -8612,12 +8612,12 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7558839&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7561133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -8632,7 +8632,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Cal .</t>
+          <t>Proyecto Fotovoltaico Huatacondo</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8642,16 +8642,16 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
+          <t>AustrainSolar Chile Cuatro SpA</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>8426</v>
+        <v>196000</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
@@ -8660,12 +8660,12 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7561133&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7558839&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -10888,7 +10888,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Reposición Ruta 5, Longitudinal Norte, Sector Reserva Nacional Pampa del Tamarugal, Km. 1.781,0 - Km 1.801, Provincia del Tamarugal, Región de Tarapacá</t>
+          <t>PROSPECCION MINERA CHALLACOLLO SUR</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -10903,11 +10903,11 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>SOCIEDAD CONTRACTUAL MINERA BOREAL</t>
         </is>
       </c>
       <c r="F220" t="n">
-        <v>5940</v>
+        <v>370</v>
       </c>
       <c r="G220" t="inlineStr">
         <is>
@@ -10921,7 +10921,7 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5412341&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5344496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -10936,7 +10936,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>PROSPECCION MINERA CHALLACOLLO SUR</t>
+          <t>Reposición Ruta 5, Longitudinal Norte, Sector Reserva Nacional Pampa del Tamarugal, Km. 1.781,0 - Km 1.801, Provincia del Tamarugal, Región de Tarapacá</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -10951,11 +10951,11 @@
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>SOCIEDAD CONTRACTUAL MINERA BOREAL</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F221" t="n">
-        <v>370</v>
+        <v>5940</v>
       </c>
       <c r="G221" t="inlineStr">
         <is>
@@ -10969,7 +10969,7 @@
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5344496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5412341&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -11416,7 +11416,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 3, I Región</t>
+          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 1, I Región</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11431,11 +11431,11 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>Pozo Almonte Solar 3 S.A.</t>
+          <t>Pozo Almonte Solar 1 SpA</t>
         </is>
       </c>
       <c r="F231" t="n">
-        <v>71000</v>
+        <v>40000</v>
       </c>
       <c r="G231" t="inlineStr">
         <is>
@@ -11449,7 +11449,7 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5164638&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5162007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -11464,7 +11464,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 1, I Región</t>
+          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 2, I Región</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -11479,7 +11479,7 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>Pozo Almonte Solar 1 SpA</t>
+          <t>POZO ALMONTE SOLAR 2 S.A.</t>
         </is>
       </c>
       <c r="F232" t="n">
@@ -11497,7 +11497,7 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5162007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5163148&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -11512,7 +11512,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 2, I Región</t>
+          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 3, I Región</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -11527,11 +11527,11 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>POZO ALMONTE SOLAR 2 S.A.</t>
+          <t>Pozo Almonte Solar 3 S.A.</t>
         </is>
       </c>
       <c r="F233" t="n">
-        <v>40000</v>
+        <v>71000</v>
       </c>
       <c r="G233" t="inlineStr">
         <is>
@@ -11545,7 +11545,7 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5163148&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5164638&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -14488,7 +14488,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>Ripiera Sagasca (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -14498,16 +14498,16 @@
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>Christopher Frank Sir</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F295" t="n">
-        <v>452</v>
+        <v>1750</v>
       </c>
       <c r="G295" t="inlineStr">
         <is>
@@ -14516,12 +14516,12 @@
       </c>
       <c r="H295" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I295" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310471&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J295" t="inlineStr">
@@ -14536,7 +14536,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Ripiera Sagasca (e-seia)</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -14546,16 +14546,16 @@
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Christopher Frank Sir</t>
         </is>
       </c>
       <c r="F296" t="n">
-        <v>1750</v>
+        <v>452</v>
       </c>
       <c r="G296" t="inlineStr">
         <is>
@@ -14564,12 +14564,12 @@
       </c>
       <c r="H296" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I296" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310471&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J296" t="inlineStr">
@@ -14584,7 +14584,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -14599,11 +14599,11 @@
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F297" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G297" t="inlineStr">
         <is>
@@ -14612,12 +14612,12 @@
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J297" t="inlineStr">
@@ -14632,7 +14632,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -14647,11 +14647,11 @@
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F298" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G298" t="inlineStr">
         <is>
@@ -14660,12 +14660,12 @@
       </c>
       <c r="H298" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J298" t="inlineStr">
@@ -15304,10 +15304,14 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>PAMPA HERMOSA</t>
-        </is>
-      </c>
-      <c r="C312" t="inlineStr"/>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D312" t="inlineStr">
         <is>
           <t>Interregional</t>
@@ -15315,11 +15319,11 @@
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>SQM S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F312" t="n">
-        <v>1.033</v>
+        <v>20</v>
       </c>
       <c r="G312" t="inlineStr">
         <is>
@@ -15328,12 +15332,12 @@
       </c>
       <c r="H312" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3083858&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J312" t="inlineStr">
@@ -15348,14 +15352,10 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
-        </is>
-      </c>
-      <c r="C313" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>PAMPA HERMOSA</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr"/>
       <c r="D313" t="inlineStr">
         <is>
           <t>Interregional</t>
@@ -15363,11 +15363,11 @@
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>SQM S.A.</t>
         </is>
       </c>
       <c r="F313" t="n">
-        <v>20</v>
+        <v>1.033</v>
       </c>
       <c r="G313" t="inlineStr">
         <is>
@@ -15376,12 +15376,12 @@
       </c>
       <c r="H313" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3083858&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J313" t="inlineStr">

--- a/data/Pozo Almonte.xlsx
+++ b/data/Pozo Almonte.xlsx
@@ -6760,7 +6760,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Mejoramiento Eloisa</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6770,16 +6770,16 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Eloisa spa</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>75000</v>
+        <v>0</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
@@ -6788,12 +6788,12 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128980296&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>PLANTA SOLAR PINTADOS</t>
+          <t>Mejoramiento Eloisa</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6823,11 +6823,11 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Planta Solar Pintados SpA.</t>
+          <t>Eloisa spa</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>200000</v>
+        <v>75000</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
@@ -6836,12 +6836,12 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955109&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128980296&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6856,7 +6856,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>PLANTA SOLAR PINTADOS</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6866,16 +6866,16 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Planta Solar Pintados SpA.</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
@@ -6889,7 +6889,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955109&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -8584,7 +8584,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Cal .</t>
+          <t>Proyecto Fotovoltaico Huatacondo</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8594,16 +8594,16 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
+          <t>AustrainSolar Chile Cuatro SpA</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>8426</v>
+        <v>196000</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
@@ -8612,12 +8612,12 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7561133&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7558839&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -8632,7 +8632,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Proyecto Fotovoltaico Huatacondo</t>
+          <t>Transporte Interregional de Cal .</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8642,16 +8642,16 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>AustrainSolar Chile Cuatro SpA</t>
+          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>196000</v>
+        <v>8426</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
@@ -8660,12 +8660,12 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7558839&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7561133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -10888,7 +10888,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>PROSPECCION MINERA CHALLACOLLO SUR</t>
+          <t>Reposición Ruta 5, Longitudinal Norte, Sector Reserva Nacional Pampa del Tamarugal, Km. 1.781,0 - Km 1.801, Provincia del Tamarugal, Región de Tarapacá</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -10903,11 +10903,11 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>SOCIEDAD CONTRACTUAL MINERA BOREAL</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F220" t="n">
-        <v>370</v>
+        <v>5940</v>
       </c>
       <c r="G220" t="inlineStr">
         <is>
@@ -10921,7 +10921,7 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5344496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5412341&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -10936,7 +10936,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Reposición Ruta 5, Longitudinal Norte, Sector Reserva Nacional Pampa del Tamarugal, Km. 1.781,0 - Km 1.801, Provincia del Tamarugal, Región de Tarapacá</t>
+          <t>PROSPECCION MINERA CHALLACOLLO SUR</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -10951,11 +10951,11 @@
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>SOCIEDAD CONTRACTUAL MINERA BOREAL</t>
         </is>
       </c>
       <c r="F221" t="n">
-        <v>5940</v>
+        <v>370</v>
       </c>
       <c r="G221" t="inlineStr">
         <is>
@@ -10969,7 +10969,7 @@
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5412341&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5344496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -11416,7 +11416,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 1, I Región</t>
+          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 3, I Región</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11431,11 +11431,11 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>Pozo Almonte Solar 1 SpA</t>
+          <t>Pozo Almonte Solar 3 S.A.</t>
         </is>
       </c>
       <c r="F231" t="n">
-        <v>40000</v>
+        <v>71000</v>
       </c>
       <c r="G231" t="inlineStr">
         <is>
@@ -11449,7 +11449,7 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5162007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5164638&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -11464,7 +11464,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 2, I Región</t>
+          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 1, I Región</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -11479,7 +11479,7 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>POZO ALMONTE SOLAR 2 S.A.</t>
+          <t>Pozo Almonte Solar 1 SpA</t>
         </is>
       </c>
       <c r="F232" t="n">
@@ -11497,7 +11497,7 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5163148&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5162007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -11512,7 +11512,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 3, I Región</t>
+          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 2, I Región</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -11527,11 +11527,11 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>Pozo Almonte Solar 3 S.A.</t>
+          <t>POZO ALMONTE SOLAR 2 S.A.</t>
         </is>
       </c>
       <c r="F233" t="n">
-        <v>71000</v>
+        <v>40000</v>
       </c>
       <c r="G233" t="inlineStr">
         <is>
@@ -11545,7 +11545,7 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5164638&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5163148&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -14488,7 +14488,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Ripiera Sagasca (e-seia)</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -14498,16 +14498,16 @@
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Christopher Frank Sir</t>
         </is>
       </c>
       <c r="F295" t="n">
-        <v>1750</v>
+        <v>452</v>
       </c>
       <c r="G295" t="inlineStr">
         <is>
@@ -14516,12 +14516,12 @@
       </c>
       <c r="H295" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I295" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310471&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J295" t="inlineStr">
@@ -14536,7 +14536,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>Ripiera Sagasca (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -14546,16 +14546,16 @@
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>Christopher Frank Sir</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F296" t="n">
-        <v>452</v>
+        <v>1750</v>
       </c>
       <c r="G296" t="inlineStr">
         <is>
@@ -14564,12 +14564,12 @@
       </c>
       <c r="H296" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I296" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310471&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J296" t="inlineStr">
@@ -14584,7 +14584,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -14599,11 +14599,11 @@
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F297" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G297" t="inlineStr">
         <is>
@@ -14612,12 +14612,12 @@
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J297" t="inlineStr">
@@ -14632,7 +14632,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -14647,11 +14647,11 @@
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F298" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G298" t="inlineStr">
         <is>
@@ -14660,12 +14660,12 @@
       </c>
       <c r="H298" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J298" t="inlineStr">
@@ -15304,14 +15304,10 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
-        </is>
-      </c>
-      <c r="C312" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>PAMPA HERMOSA</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr"/>
       <c r="D312" t="inlineStr">
         <is>
           <t>Interregional</t>
@@ -15319,11 +15315,11 @@
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>SQM S.A.</t>
         </is>
       </c>
       <c r="F312" t="n">
-        <v>20</v>
+        <v>1.033</v>
       </c>
       <c r="G312" t="inlineStr">
         <is>
@@ -15332,12 +15328,12 @@
       </c>
       <c r="H312" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3083858&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J312" t="inlineStr">
@@ -15352,10 +15348,14 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>PAMPA HERMOSA</t>
-        </is>
-      </c>
-      <c r="C313" t="inlineStr"/>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D313" t="inlineStr">
         <is>
           <t>Interregional</t>
@@ -15363,11 +15363,11 @@
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>SQM S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F313" t="n">
-        <v>1.033</v>
+        <v>20</v>
       </c>
       <c r="G313" t="inlineStr">
         <is>
@@ -15376,12 +15376,12 @@
       </c>
       <c r="H313" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3083858&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J313" t="inlineStr">

--- a/data/Pozo Almonte.xlsx
+++ b/data/Pozo Almonte.xlsx
@@ -1076,7 +1076,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Mejoramiento Eloisa</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6770,16 +6770,16 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Eloisa spa</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>75000</v>
+        <v>0</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
@@ -6788,12 +6788,12 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128980296&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>PLANTA SOLAR PINTADOS</t>
+          <t>Mejoramiento Eloisa</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6823,11 +6823,11 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Planta Solar Pintados SpA.</t>
+          <t>Eloisa spa</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>200000</v>
+        <v>75000</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
@@ -6836,12 +6836,12 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955109&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128980296&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6856,7 +6856,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>PLANTA SOLAR PINTADOS</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6866,16 +6866,16 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Planta Solar Pintados SpA.</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
@@ -6889,7 +6889,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955109&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -8584,7 +8584,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Cal .</t>
+          <t>Proyecto Fotovoltaico Huatacondo</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8594,16 +8594,16 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
+          <t>AustrainSolar Chile Cuatro SpA</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>8426</v>
+        <v>196000</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
@@ -8612,12 +8612,12 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7561133&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7558839&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -8632,7 +8632,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Proyecto Fotovoltaico Huatacondo</t>
+          <t>Transporte Interregional de Cal .</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8642,16 +8642,16 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>AustrainSolar Chile Cuatro SpA</t>
+          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>196000</v>
+        <v>8426</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
@@ -8660,12 +8660,12 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7558839&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7561133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -10888,7 +10888,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>PROSPECCION MINERA CHALLACOLLO SUR</t>
+          <t>Reposición Ruta 5, Longitudinal Norte, Sector Reserva Nacional Pampa del Tamarugal, Km. 1.781,0 - Km 1.801, Provincia del Tamarugal, Región de Tarapacá</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -10903,11 +10903,11 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>SOCIEDAD CONTRACTUAL MINERA BOREAL</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F220" t="n">
-        <v>370</v>
+        <v>5940</v>
       </c>
       <c r="G220" t="inlineStr">
         <is>
@@ -10921,7 +10921,7 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5344496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5412341&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -10936,7 +10936,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Reposición Ruta 5, Longitudinal Norte, Sector Reserva Nacional Pampa del Tamarugal, Km. 1.781,0 - Km 1.801, Provincia del Tamarugal, Región de Tarapacá</t>
+          <t>PROSPECCION MINERA CHALLACOLLO SUR</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -10951,11 +10951,11 @@
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>SOCIEDAD CONTRACTUAL MINERA BOREAL</t>
         </is>
       </c>
       <c r="F221" t="n">
-        <v>5940</v>
+        <v>370</v>
       </c>
       <c r="G221" t="inlineStr">
         <is>
@@ -10969,7 +10969,7 @@
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5412341&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5344496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -11416,7 +11416,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 1, I Región</t>
+          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 3, I Región</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11431,11 +11431,11 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>Pozo Almonte Solar 1 SpA</t>
+          <t>Pozo Almonte Solar 3 S.A.</t>
         </is>
       </c>
       <c r="F231" t="n">
-        <v>40000</v>
+        <v>71000</v>
       </c>
       <c r="G231" t="inlineStr">
         <is>
@@ -11449,7 +11449,7 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5162007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5164638&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -11464,7 +11464,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 2, I Región</t>
+          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 1, I Región</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -11479,7 +11479,7 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>POZO ALMONTE SOLAR 2 S.A.</t>
+          <t>Pozo Almonte Solar 1 SpA</t>
         </is>
       </c>
       <c r="F232" t="n">
@@ -11497,7 +11497,7 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5163148&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5162007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -11512,7 +11512,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 3, I Región</t>
+          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 2, I Región</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -11527,11 +11527,11 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>Pozo Almonte Solar 3 S.A.</t>
+          <t>POZO ALMONTE SOLAR 2 S.A.</t>
         </is>
       </c>
       <c r="F233" t="n">
-        <v>71000</v>
+        <v>40000</v>
       </c>
       <c r="G233" t="inlineStr">
         <is>
@@ -11545,7 +11545,7 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5164638&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5163148&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -14488,7 +14488,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Ripiera Sagasca (e-seia)</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -14498,16 +14498,16 @@
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Christopher Frank Sir</t>
         </is>
       </c>
       <c r="F295" t="n">
-        <v>1750</v>
+        <v>452</v>
       </c>
       <c r="G295" t="inlineStr">
         <is>
@@ -14516,12 +14516,12 @@
       </c>
       <c r="H295" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I295" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310471&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J295" t="inlineStr">
@@ -14536,7 +14536,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>Ripiera Sagasca (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -14546,16 +14546,16 @@
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>Christopher Frank Sir</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F296" t="n">
-        <v>452</v>
+        <v>1750</v>
       </c>
       <c r="G296" t="inlineStr">
         <is>
@@ -14564,12 +14564,12 @@
       </c>
       <c r="H296" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I296" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310471&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J296" t="inlineStr">
@@ -14584,7 +14584,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -14599,11 +14599,11 @@
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F297" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G297" t="inlineStr">
         <is>
@@ -14612,12 +14612,12 @@
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J297" t="inlineStr">
@@ -14632,7 +14632,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -14647,11 +14647,11 @@
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F298" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G298" t="inlineStr">
         <is>
@@ -14660,12 +14660,12 @@
       </c>
       <c r="H298" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J298" t="inlineStr">
@@ -15304,14 +15304,10 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
-        </is>
-      </c>
-      <c r="C312" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>PAMPA HERMOSA</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr"/>
       <c r="D312" t="inlineStr">
         <is>
           <t>Interregional</t>
@@ -15319,11 +15315,11 @@
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>SQM S.A.</t>
         </is>
       </c>
       <c r="F312" t="n">
-        <v>20</v>
+        <v>1.033</v>
       </c>
       <c r="G312" t="inlineStr">
         <is>
@@ -15332,12 +15328,12 @@
       </c>
       <c r="H312" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3083858&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J312" t="inlineStr">
@@ -15352,10 +15348,14 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>PAMPA HERMOSA</t>
-        </is>
-      </c>
-      <c r="C313" t="inlineStr"/>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D313" t="inlineStr">
         <is>
           <t>Interregional</t>
@@ -15363,11 +15363,11 @@
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>SQM S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F313" t="n">
-        <v>1.033</v>
+        <v>20</v>
       </c>
       <c r="G313" t="inlineStr">
         <is>
@@ -15376,12 +15376,12 @@
       </c>
       <c r="H313" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3083858&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J313" t="inlineStr">

--- a/data/Pozo Almonte.xlsx
+++ b/data/Pozo Almonte.xlsx
@@ -424,12 +424,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ERNC Loa</t>
+          <t>Planta de Beneficio de Sales de Nitrato</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -439,15 +439,15 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>ERNC LOA Spa</t>
+          <t>COSAYACH EXPORTADORA S.A.</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>495000</v>
+        <v>60000</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>08/03/2022</t>
+          <t>14/03/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -457,7 +457,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155170238&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155205083&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,12 +472,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Planta de Beneficio de Sales de Nitrato</t>
+          <t>ERNC Loa</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -487,25 +487,25 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>COSAYACH EXPORTADORA S.A.</t>
+          <t>ERNC LOA Spa</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>60000</v>
+        <v>495000</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>07/03/2022</t>
+          <t>08/03/2022</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155205083&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155170238&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Mejoramiento Eloisa</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6770,16 +6770,16 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Eloisa spa</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>75000</v>
+        <v>0</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
@@ -6788,12 +6788,12 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128980296&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>PLANTA SOLAR PINTADOS</t>
+          <t>Mejoramiento Eloisa</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6823,11 +6823,11 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Planta Solar Pintados SpA.</t>
+          <t>Eloisa spa</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>200000</v>
+        <v>75000</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
@@ -6836,12 +6836,12 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955109&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128980296&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6856,7 +6856,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>PLANTA SOLAR PINTADOS</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6866,16 +6866,16 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Planta Solar Pintados SpA.</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
@@ -6889,7 +6889,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955109&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -8584,7 +8584,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Cal .</t>
+          <t>Proyecto Fotovoltaico Huatacondo</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8594,16 +8594,16 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
+          <t>AustrainSolar Chile Cuatro SpA</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>8426</v>
+        <v>196000</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
@@ -8612,12 +8612,12 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7561133&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7558839&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -8632,7 +8632,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Proyecto Fotovoltaico Huatacondo</t>
+          <t>Transporte Interregional de Cal .</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8642,16 +8642,16 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>AustrainSolar Chile Cuatro SpA</t>
+          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>196000</v>
+        <v>8426</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
@@ -8660,12 +8660,12 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7558839&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7561133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -10888,7 +10888,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>PROSPECCION MINERA CHALLACOLLO SUR</t>
+          <t>Reposición Ruta 5, Longitudinal Norte, Sector Reserva Nacional Pampa del Tamarugal, Km. 1.781,0 - Km 1.801, Provincia del Tamarugal, Región de Tarapacá</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -10903,11 +10903,11 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>SOCIEDAD CONTRACTUAL MINERA BOREAL</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F220" t="n">
-        <v>370</v>
+        <v>5940</v>
       </c>
       <c r="G220" t="inlineStr">
         <is>
@@ -10921,7 +10921,7 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5344496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5412341&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -10936,7 +10936,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Reposición Ruta 5, Longitudinal Norte, Sector Reserva Nacional Pampa del Tamarugal, Km. 1.781,0 - Km 1.801, Provincia del Tamarugal, Región de Tarapacá</t>
+          <t>PROSPECCION MINERA CHALLACOLLO SUR</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -10951,11 +10951,11 @@
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>SOCIEDAD CONTRACTUAL MINERA BOREAL</t>
         </is>
       </c>
       <c r="F221" t="n">
-        <v>5940</v>
+        <v>370</v>
       </c>
       <c r="G221" t="inlineStr">
         <is>
@@ -10969,7 +10969,7 @@
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5412341&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5344496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -11416,7 +11416,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 1, I Región</t>
+          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 3, I Región</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11431,11 +11431,11 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>Pozo Almonte Solar 1 SpA</t>
+          <t>Pozo Almonte Solar 3 S.A.</t>
         </is>
       </c>
       <c r="F231" t="n">
-        <v>40000</v>
+        <v>71000</v>
       </c>
       <c r="G231" t="inlineStr">
         <is>
@@ -11449,7 +11449,7 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5162007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5164638&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -11464,7 +11464,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 2, I Región</t>
+          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 1, I Región</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -11479,7 +11479,7 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>POZO ALMONTE SOLAR 2 S.A.</t>
+          <t>Pozo Almonte Solar 1 SpA</t>
         </is>
       </c>
       <c r="F232" t="n">
@@ -11497,7 +11497,7 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5163148&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5162007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -11512,7 +11512,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 3, I Región</t>
+          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 2, I Región</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -11527,11 +11527,11 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>Pozo Almonte Solar 3 S.A.</t>
+          <t>POZO ALMONTE SOLAR 2 S.A.</t>
         </is>
       </c>
       <c r="F233" t="n">
-        <v>71000</v>
+        <v>40000</v>
       </c>
       <c r="G233" t="inlineStr">
         <is>
@@ -11545,7 +11545,7 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5164638&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5163148&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -14488,7 +14488,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Ripiera Sagasca (e-seia)</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -14498,16 +14498,16 @@
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Christopher Frank Sir</t>
         </is>
       </c>
       <c r="F295" t="n">
-        <v>1750</v>
+        <v>452</v>
       </c>
       <c r="G295" t="inlineStr">
         <is>
@@ -14516,12 +14516,12 @@
       </c>
       <c r="H295" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I295" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310471&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J295" t="inlineStr">
@@ -14536,7 +14536,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>Ripiera Sagasca (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -14546,16 +14546,16 @@
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>Christopher Frank Sir</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F296" t="n">
-        <v>452</v>
+        <v>1750</v>
       </c>
       <c r="G296" t="inlineStr">
         <is>
@@ -14564,12 +14564,12 @@
       </c>
       <c r="H296" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I296" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310471&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J296" t="inlineStr">
@@ -14584,7 +14584,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -14599,11 +14599,11 @@
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F297" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G297" t="inlineStr">
         <is>
@@ -14612,12 +14612,12 @@
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J297" t="inlineStr">
@@ -14632,7 +14632,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -14647,11 +14647,11 @@
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F298" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G298" t="inlineStr">
         <is>
@@ -14660,12 +14660,12 @@
       </c>
       <c r="H298" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J298" t="inlineStr">
@@ -15304,14 +15304,10 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
-        </is>
-      </c>
-      <c r="C312" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>PAMPA HERMOSA</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr"/>
       <c r="D312" t="inlineStr">
         <is>
           <t>Interregional</t>
@@ -15319,11 +15315,11 @@
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>SQM S.A.</t>
         </is>
       </c>
       <c r="F312" t="n">
-        <v>20</v>
+        <v>1.033</v>
       </c>
       <c r="G312" t="inlineStr">
         <is>
@@ -15332,12 +15328,12 @@
       </c>
       <c r="H312" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3083858&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J312" t="inlineStr">
@@ -15352,10 +15348,14 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>PAMPA HERMOSA</t>
-        </is>
-      </c>
-      <c r="C313" t="inlineStr"/>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D313" t="inlineStr">
         <is>
           <t>Interregional</t>
@@ -15363,11 +15363,11 @@
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>SQM S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F313" t="n">
-        <v>1.033</v>
+        <v>20</v>
       </c>
       <c r="G313" t="inlineStr">
         <is>
@@ -15376,12 +15376,12 @@
       </c>
       <c r="H313" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3083858&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J313" t="inlineStr">

--- a/data/Pozo Almonte.xlsx
+++ b/data/Pozo Almonte.xlsx
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Mejoramiento Eloisa</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6818,16 +6818,16 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Eloisa spa</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>75000</v>
+        <v>0</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
@@ -6836,12 +6836,12 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128980296&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6856,7 +6856,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>PLANTA SOLAR PINTADOS</t>
+          <t>Mejoramiento Eloisa</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6871,11 +6871,11 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Planta Solar Pintados SpA.</t>
+          <t>Eloisa spa</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>200000</v>
+        <v>75000</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
@@ -6884,12 +6884,12 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955109&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128980296&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6904,7 +6904,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>PLANTA SOLAR PINTADOS</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6914,16 +6914,16 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Planta Solar Pintados SpA.</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
@@ -6937,7 +6937,7 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955109&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -8632,7 +8632,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Cal .</t>
+          <t>Proyecto Fotovoltaico Huatacondo</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8642,16 +8642,16 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
+          <t>AustrainSolar Chile Cuatro SpA</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>8426</v>
+        <v>196000</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
@@ -8660,12 +8660,12 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7561133&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7558839&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -8680,7 +8680,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Proyecto Fotovoltaico Huatacondo</t>
+          <t>Transporte Interregional de Cal .</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8690,16 +8690,16 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>AustrainSolar Chile Cuatro SpA</t>
+          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>196000</v>
+        <v>8426</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
@@ -8708,12 +8708,12 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7558839&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7561133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -10936,7 +10936,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>PROSPECCION MINERA CHALLACOLLO SUR</t>
+          <t>Reposición Ruta 5, Longitudinal Norte, Sector Reserva Nacional Pampa del Tamarugal, Km. 1.781,0 - Km 1.801, Provincia del Tamarugal, Región de Tarapacá</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -10951,11 +10951,11 @@
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>SOCIEDAD CONTRACTUAL MINERA BOREAL</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F221" t="n">
-        <v>370</v>
+        <v>5940</v>
       </c>
       <c r="G221" t="inlineStr">
         <is>
@@ -10969,7 +10969,7 @@
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5344496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5412341&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -10984,7 +10984,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Reposición Ruta 5, Longitudinal Norte, Sector Reserva Nacional Pampa del Tamarugal, Km. 1.781,0 - Km 1.801, Provincia del Tamarugal, Región de Tarapacá</t>
+          <t>PROSPECCION MINERA CHALLACOLLO SUR</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -10999,11 +10999,11 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>SOCIEDAD CONTRACTUAL MINERA BOREAL</t>
         </is>
       </c>
       <c r="F222" t="n">
-        <v>5940</v>
+        <v>370</v>
       </c>
       <c r="G222" t="inlineStr">
         <is>
@@ -11017,7 +11017,7 @@
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5412341&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5344496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -11464,7 +11464,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 1, I Región</t>
+          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 3, I Región</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -11479,11 +11479,11 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>Pozo Almonte Solar 1 SpA</t>
+          <t>Pozo Almonte Solar 3 S.A.</t>
         </is>
       </c>
       <c r="F232" t="n">
-        <v>40000</v>
+        <v>71000</v>
       </c>
       <c r="G232" t="inlineStr">
         <is>
@@ -11497,7 +11497,7 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5162007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5164638&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -11512,7 +11512,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 2, I Región</t>
+          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 1, I Región</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -11527,7 +11527,7 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>POZO ALMONTE SOLAR 2 S.A.</t>
+          <t>Pozo Almonte Solar 1 SpA</t>
         </is>
       </c>
       <c r="F233" t="n">
@@ -11545,7 +11545,7 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5163148&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5162007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -11560,7 +11560,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 3, I Región</t>
+          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 2, I Región</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -11575,11 +11575,11 @@
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>Pozo Almonte Solar 3 S.A.</t>
+          <t>POZO ALMONTE SOLAR 2 S.A.</t>
         </is>
       </c>
       <c r="F234" t="n">
-        <v>71000</v>
+        <v>40000</v>
       </c>
       <c r="G234" t="inlineStr">
         <is>
@@ -11593,7 +11593,7 @@
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5164638&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5163148&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -14536,7 +14536,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Ripiera Sagasca (e-seia)</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -14546,16 +14546,16 @@
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Christopher Frank Sir</t>
         </is>
       </c>
       <c r="F296" t="n">
-        <v>1750</v>
+        <v>452</v>
       </c>
       <c r="G296" t="inlineStr">
         <is>
@@ -14564,12 +14564,12 @@
       </c>
       <c r="H296" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I296" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310471&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J296" t="inlineStr">
@@ -14584,7 +14584,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>Ripiera Sagasca (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -14594,16 +14594,16 @@
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>Christopher Frank Sir</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F297" t="n">
-        <v>452</v>
+        <v>1750</v>
       </c>
       <c r="G297" t="inlineStr">
         <is>
@@ -14612,12 +14612,12 @@
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310471&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J297" t="inlineStr">
@@ -14632,7 +14632,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -14647,11 +14647,11 @@
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F298" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G298" t="inlineStr">
         <is>
@@ -14660,12 +14660,12 @@
       </c>
       <c r="H298" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J298" t="inlineStr">
@@ -14680,7 +14680,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -14695,11 +14695,11 @@
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F299" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G299" t="inlineStr">
         <is>
@@ -14708,12 +14708,12 @@
       </c>
       <c r="H299" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I299" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J299" t="inlineStr">
@@ -15352,14 +15352,10 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
-        </is>
-      </c>
-      <c r="C313" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>PAMPA HERMOSA</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr"/>
       <c r="D313" t="inlineStr">
         <is>
           <t>Interregional</t>
@@ -15367,11 +15363,11 @@
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>SQM S.A.</t>
         </is>
       </c>
       <c r="F313" t="n">
-        <v>20</v>
+        <v>1.033</v>
       </c>
       <c r="G313" t="inlineStr">
         <is>
@@ -15380,12 +15376,12 @@
       </c>
       <c r="H313" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3083858&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J313" t="inlineStr">
@@ -15400,10 +15396,14 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>PAMPA HERMOSA</t>
-        </is>
-      </c>
-      <c r="C314" t="inlineStr"/>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D314" t="inlineStr">
         <is>
           <t>Interregional</t>
@@ -15411,11 +15411,11 @@
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>SQM S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F314" t="n">
-        <v>1.033</v>
+        <v>20</v>
       </c>
       <c r="G314" t="inlineStr">
         <is>
@@ -15424,12 +15424,12 @@
       </c>
       <c r="H314" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I314" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3083858&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J314" t="inlineStr">
@@ -21004,7 +21004,7 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>PLAN REGULADOR DE LA HUAYCA, COMUNA DE POZO ALMONTE (e-seia)</t>
+          <t>CONSTRUCCIÓN RELLENO SANITARIO PARA LA COMUNA DE POZO ALMONTE (e-seia)</t>
         </is>
       </c>
       <c r="C431" t="inlineStr">
@@ -21037,7 +21037,7 @@
       </c>
       <c r="I431" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141097087&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141090900&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J431" t="inlineStr">
@@ -21052,7 +21052,7 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>PLAN REGULADOR DE POZO ALMONTE, COMUNA DE POZO ALMONTE (e-seia)</t>
+          <t>PLAN REGULADOR DE LA HUAYCA, COMUNA DE POZO ALMONTE (e-seia)</t>
         </is>
       </c>
       <c r="C432" t="inlineStr">
@@ -21085,7 +21085,7 @@
       </c>
       <c r="I432" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141097135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141097087&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J432" t="inlineStr">
@@ -21100,7 +21100,7 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>PLAN SECCIONAL DE LA TIRANA, COMUNA DE POZO ALMONTE (e-seia)</t>
+          <t>PLAN REGULADOR DE POZO ALMONTE, COMUNA DE POZO ALMONTE (e-seia)</t>
         </is>
       </c>
       <c r="C433" t="inlineStr">
@@ -21133,7 +21133,7 @@
       </c>
       <c r="I433" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141097173&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141097135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J433" t="inlineStr">
@@ -21148,7 +21148,7 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>CONSTRUCCIÓN RELLENO SANITARIO PARA LA COMUNA DE POZO ALMONTE (e-seia)</t>
+          <t>PLAN SECCIONAL DE LA TIRANA, COMUNA DE POZO ALMONTE (e-seia)</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
@@ -21181,7 +21181,7 @@
       </c>
       <c r="I434" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141090900&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141097173&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J434" t="inlineStr">

--- a/data/Pozo Almonte.xlsx
+++ b/data/Pozo Almonte.xlsx
@@ -6856,7 +6856,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Mejoramiento Eloisa</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6866,16 +6866,16 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Eloisa spa</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>0</v>
+        <v>75000</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
@@ -6884,12 +6884,12 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128980296&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6904,7 +6904,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Mejoramiento Eloisa</t>
+          <t>PLANTA SOLAR PINTADOS</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6919,11 +6919,11 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Eloisa spa</t>
+          <t>Planta Solar Pintados SpA.</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>75000</v>
+        <v>200000</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
@@ -6932,12 +6932,12 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128980296&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955109&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6952,7 +6952,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>PLANTA SOLAR PINTADOS</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6962,16 +6962,16 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Planta Solar Pintados SpA.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>200000</v>
+        <v>0</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
@@ -6985,7 +6985,7 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955109&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -8680,7 +8680,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Proyecto Fotovoltaico Huatacondo</t>
+          <t>Transporte Interregional de Cal .</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8690,16 +8690,16 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>AustrainSolar Chile Cuatro SpA</t>
+          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>196000</v>
+        <v>8426</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
@@ -8708,12 +8708,12 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7558839&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7561133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -8728,7 +8728,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Cal .</t>
+          <t>Proyecto Fotovoltaico Huatacondo</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8738,16 +8738,16 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
+          <t>AustrainSolar Chile Cuatro SpA</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>8426</v>
+        <v>196000</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
@@ -8756,12 +8756,12 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7561133&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7558839&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -10984,7 +10984,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Reposición Ruta 5, Longitudinal Norte, Sector Reserva Nacional Pampa del Tamarugal, Km. 1.781,0 - Km 1.801, Provincia del Tamarugal, Región de Tarapacá</t>
+          <t>PROSPECCION MINERA CHALLACOLLO SUR</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -10999,11 +10999,11 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>SOCIEDAD CONTRACTUAL MINERA BOREAL</t>
         </is>
       </c>
       <c r="F222" t="n">
-        <v>5940</v>
+        <v>370</v>
       </c>
       <c r="G222" t="inlineStr">
         <is>
@@ -11017,7 +11017,7 @@
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5412341&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5344496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -11032,7 +11032,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>PROSPECCION MINERA CHALLACOLLO SUR</t>
+          <t>Reposición Ruta 5, Longitudinal Norte, Sector Reserva Nacional Pampa del Tamarugal, Km. 1.781,0 - Km 1.801, Provincia del Tamarugal, Región de Tarapacá</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -11047,11 +11047,11 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>SOCIEDAD CONTRACTUAL MINERA BOREAL</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F223" t="n">
-        <v>370</v>
+        <v>5940</v>
       </c>
       <c r="G223" t="inlineStr">
         <is>
@@ -11065,7 +11065,7 @@
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5344496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5412341&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -11512,7 +11512,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 3, I Región</t>
+          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 1, I Región</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -11527,11 +11527,11 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>Pozo Almonte Solar 3 S.A.</t>
+          <t>Pozo Almonte Solar 1 SpA</t>
         </is>
       </c>
       <c r="F233" t="n">
-        <v>71000</v>
+        <v>40000</v>
       </c>
       <c r="G233" t="inlineStr">
         <is>
@@ -11545,7 +11545,7 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5164638&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5162007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -11560,7 +11560,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 1, I Región</t>
+          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 2, I Región</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -11575,7 +11575,7 @@
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>Pozo Almonte Solar 1 SpA</t>
+          <t>POZO ALMONTE SOLAR 2 S.A.</t>
         </is>
       </c>
       <c r="F234" t="n">
@@ -11593,7 +11593,7 @@
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5162007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5163148&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -11608,7 +11608,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 2, I Región</t>
+          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 3, I Región</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -11623,11 +11623,11 @@
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>POZO ALMONTE SOLAR 2 S.A.</t>
+          <t>Pozo Almonte Solar 3 S.A.</t>
         </is>
       </c>
       <c r="F235" t="n">
-        <v>40000</v>
+        <v>71000</v>
       </c>
       <c r="G235" t="inlineStr">
         <is>
@@ -11641,7 +11641,7 @@
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5163148&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5164638&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -14584,7 +14584,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>Ripiera Sagasca (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -14594,16 +14594,16 @@
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>Christopher Frank Sir</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F297" t="n">
-        <v>452</v>
+        <v>1750</v>
       </c>
       <c r="G297" t="inlineStr">
         <is>
@@ -14612,12 +14612,12 @@
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310471&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J297" t="inlineStr">
@@ -14632,7 +14632,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Ripiera Sagasca (e-seia)</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -14642,16 +14642,16 @@
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Christopher Frank Sir</t>
         </is>
       </c>
       <c r="F298" t="n">
-        <v>1750</v>
+        <v>452</v>
       </c>
       <c r="G298" t="inlineStr">
         <is>
@@ -14660,12 +14660,12 @@
       </c>
       <c r="H298" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310471&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J298" t="inlineStr">
@@ -14680,7 +14680,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -14695,11 +14695,11 @@
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F299" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G299" t="inlineStr">
         <is>
@@ -14708,12 +14708,12 @@
       </c>
       <c r="H299" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I299" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J299" t="inlineStr">
@@ -14728,7 +14728,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
@@ -14743,11 +14743,11 @@
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F300" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G300" t="inlineStr">
         <is>
@@ -14756,12 +14756,12 @@
       </c>
       <c r="H300" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I300" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J300" t="inlineStr">
@@ -15400,10 +15400,14 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>PAMPA HERMOSA</t>
-        </is>
-      </c>
-      <c r="C314" t="inlineStr"/>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D314" t="inlineStr">
         <is>
           <t>Interregional</t>
@@ -15411,11 +15415,11 @@
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>SQM S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F314" t="n">
-        <v>1.033</v>
+        <v>20</v>
       </c>
       <c r="G314" t="inlineStr">
         <is>
@@ -15424,12 +15428,12 @@
       </c>
       <c r="H314" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I314" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3083858&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J314" t="inlineStr">
@@ -15444,14 +15448,10 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
-        </is>
-      </c>
-      <c r="C315" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>PAMPA HERMOSA</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr"/>
       <c r="D315" t="inlineStr">
         <is>
           <t>Interregional</t>
@@ -15459,11 +15459,11 @@
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>SQM S.A.</t>
         </is>
       </c>
       <c r="F315" t="n">
-        <v>20</v>
+        <v>1.033</v>
       </c>
       <c r="G315" t="inlineStr">
         <is>
@@ -15472,12 +15472,12 @@
       </c>
       <c r="H315" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I315" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3083858&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J315" t="inlineStr">
@@ -21052,7 +21052,7 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>CONSTRUCCIÓN RELLENO SANITARIO PARA LA COMUNA DE POZO ALMONTE (e-seia)</t>
+          <t>PLAN REGULADOR DE LA HUAYCA, COMUNA DE POZO ALMONTE (e-seia)</t>
         </is>
       </c>
       <c r="C432" t="inlineStr">
@@ -21085,7 +21085,7 @@
       </c>
       <c r="I432" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141090900&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141097087&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J432" t="inlineStr">
@@ -21100,7 +21100,7 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>PLAN REGULADOR DE LA HUAYCA, COMUNA DE POZO ALMONTE (e-seia)</t>
+          <t>PLAN REGULADOR DE POZO ALMONTE, COMUNA DE POZO ALMONTE (e-seia)</t>
         </is>
       </c>
       <c r="C433" t="inlineStr">
@@ -21133,7 +21133,7 @@
       </c>
       <c r="I433" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141097087&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141097135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J433" t="inlineStr">
@@ -21148,7 +21148,7 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>PLAN REGULADOR DE POZO ALMONTE, COMUNA DE POZO ALMONTE (e-seia)</t>
+          <t>PLAN SECCIONAL DE LA TIRANA, COMUNA DE POZO ALMONTE (e-seia)</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
@@ -21181,7 +21181,7 @@
       </c>
       <c r="I434" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141097135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141097173&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J434" t="inlineStr">
@@ -21196,7 +21196,7 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>PLAN SECCIONAL DE LA TIRANA, COMUNA DE POZO ALMONTE (e-seia)</t>
+          <t>CONSTRUCCIÓN RELLENO SANITARIO PARA LA COMUNA DE POZO ALMONTE (e-seia)</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
@@ -21229,7 +21229,7 @@
       </c>
       <c r="I435" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141097173&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141090900&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J435" t="inlineStr">

--- a/data/Pozo Almonte.xlsx
+++ b/data/Pozo Almonte.xlsx
@@ -7604,7 +7604,7 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">

--- a/data/Pozo Almonte.xlsx
+++ b/data/Pozo Almonte.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/03/2022</t>
+          <t>23/03/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -6856,7 +6856,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Mejoramiento Eloisa</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6866,16 +6866,16 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Eloisa spa</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>75000</v>
+        <v>0</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
@@ -6884,12 +6884,12 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128980296&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6904,7 +6904,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>PLANTA SOLAR PINTADOS</t>
+          <t>Mejoramiento Eloisa</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6919,11 +6919,11 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Planta Solar Pintados SpA.</t>
+          <t>Eloisa spa</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>200000</v>
+        <v>75000</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
@@ -6932,12 +6932,12 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955109&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128980296&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6952,7 +6952,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>PLANTA SOLAR PINTADOS</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6962,16 +6962,16 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Planta Solar Pintados SpA.</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
@@ -6985,7 +6985,7 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955109&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -8680,7 +8680,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Cal .</t>
+          <t>Proyecto Fotovoltaico Huatacondo</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8690,16 +8690,16 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
+          <t>AustrainSolar Chile Cuatro SpA</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>8426</v>
+        <v>196000</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
@@ -8708,12 +8708,12 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7561133&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7558839&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -8728,7 +8728,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Proyecto Fotovoltaico Huatacondo</t>
+          <t>Transporte Interregional de Cal .</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8738,16 +8738,16 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>AustrainSolar Chile Cuatro SpA</t>
+          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>196000</v>
+        <v>8426</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
@@ -8756,12 +8756,12 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7558839&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7561133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -10984,7 +10984,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>PROSPECCION MINERA CHALLACOLLO SUR</t>
+          <t>Reposición Ruta 5, Longitudinal Norte, Sector Reserva Nacional Pampa del Tamarugal, Km. 1.781,0 - Km 1.801, Provincia del Tamarugal, Región de Tarapacá</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -10999,11 +10999,11 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>SOCIEDAD CONTRACTUAL MINERA BOREAL</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F222" t="n">
-        <v>370</v>
+        <v>5940</v>
       </c>
       <c r="G222" t="inlineStr">
         <is>
@@ -11017,7 +11017,7 @@
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5344496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5412341&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -11032,7 +11032,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Reposición Ruta 5, Longitudinal Norte, Sector Reserva Nacional Pampa del Tamarugal, Km. 1.781,0 - Km 1.801, Provincia del Tamarugal, Región de Tarapacá</t>
+          <t>PROSPECCION MINERA CHALLACOLLO SUR</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -11047,11 +11047,11 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>SOCIEDAD CONTRACTUAL MINERA BOREAL</t>
         </is>
       </c>
       <c r="F223" t="n">
-        <v>5940</v>
+        <v>370</v>
       </c>
       <c r="G223" t="inlineStr">
         <is>
@@ -11065,7 +11065,7 @@
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5412341&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5344496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -11512,7 +11512,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 1, I Región</t>
+          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 3, I Región</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -11527,11 +11527,11 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>Pozo Almonte Solar 1 SpA</t>
+          <t>Pozo Almonte Solar 3 S.A.</t>
         </is>
       </c>
       <c r="F233" t="n">
-        <v>40000</v>
+        <v>71000</v>
       </c>
       <c r="G233" t="inlineStr">
         <is>
@@ -11545,7 +11545,7 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5162007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5164638&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -11560,7 +11560,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 2, I Región</t>
+          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 1, I Región</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -11575,7 +11575,7 @@
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>POZO ALMONTE SOLAR 2 S.A.</t>
+          <t>Pozo Almonte Solar 1 SpA</t>
         </is>
       </c>
       <c r="F234" t="n">
@@ -11593,7 +11593,7 @@
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5163148&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5162007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -11608,7 +11608,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 3, I Región</t>
+          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 2, I Región</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -11623,11 +11623,11 @@
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>Pozo Almonte Solar 3 S.A.</t>
+          <t>POZO ALMONTE SOLAR 2 S.A.</t>
         </is>
       </c>
       <c r="F235" t="n">
-        <v>71000</v>
+        <v>40000</v>
       </c>
       <c r="G235" t="inlineStr">
         <is>
@@ -11641,7 +11641,7 @@
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5164638&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5163148&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -14584,7 +14584,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Ripiera Sagasca (e-seia)</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -14594,16 +14594,16 @@
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Christopher Frank Sir</t>
         </is>
       </c>
       <c r="F297" t="n">
-        <v>1750</v>
+        <v>452</v>
       </c>
       <c r="G297" t="inlineStr">
         <is>
@@ -14612,12 +14612,12 @@
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310471&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J297" t="inlineStr">
@@ -14632,7 +14632,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Ripiera Sagasca (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -14642,16 +14642,16 @@
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>Christopher Frank Sir</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F298" t="n">
-        <v>452</v>
+        <v>1750</v>
       </c>
       <c r="G298" t="inlineStr">
         <is>
@@ -14660,12 +14660,12 @@
       </c>
       <c r="H298" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310471&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J298" t="inlineStr">
@@ -14680,7 +14680,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -14695,11 +14695,11 @@
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F299" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G299" t="inlineStr">
         <is>
@@ -14708,12 +14708,12 @@
       </c>
       <c r="H299" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I299" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J299" t="inlineStr">
@@ -14728,7 +14728,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
@@ -14743,11 +14743,11 @@
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F300" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G300" t="inlineStr">
         <is>
@@ -14756,12 +14756,12 @@
       </c>
       <c r="H300" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I300" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J300" t="inlineStr">
@@ -15400,14 +15400,10 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
-        </is>
-      </c>
-      <c r="C314" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>PAMPA HERMOSA</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr"/>
       <c r="D314" t="inlineStr">
         <is>
           <t>Interregional</t>
@@ -15415,11 +15411,11 @@
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>SQM S.A.</t>
         </is>
       </c>
       <c r="F314" t="n">
-        <v>20</v>
+        <v>1.033</v>
       </c>
       <c r="G314" t="inlineStr">
         <is>
@@ -15428,12 +15424,12 @@
       </c>
       <c r="H314" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I314" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3083858&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J314" t="inlineStr">
@@ -15448,10 +15444,14 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>PAMPA HERMOSA</t>
-        </is>
-      </c>
-      <c r="C315" t="inlineStr"/>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D315" t="inlineStr">
         <is>
           <t>Interregional</t>
@@ -15459,11 +15459,11 @@
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>SQM S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F315" t="n">
-        <v>1.033</v>
+        <v>20</v>
       </c>
       <c r="G315" t="inlineStr">
         <is>
@@ -15472,12 +15472,12 @@
       </c>
       <c r="H315" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I315" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3083858&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J315" t="inlineStr">
@@ -21052,7 +21052,7 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>PLAN REGULADOR DE LA HUAYCA, COMUNA DE POZO ALMONTE (e-seia)</t>
+          <t>CONSTRUCCIÓN RELLENO SANITARIO PARA LA COMUNA DE POZO ALMONTE (e-seia)</t>
         </is>
       </c>
       <c r="C432" t="inlineStr">
@@ -21085,7 +21085,7 @@
       </c>
       <c r="I432" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141097087&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141090900&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J432" t="inlineStr">
@@ -21100,7 +21100,7 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>PLAN REGULADOR DE POZO ALMONTE, COMUNA DE POZO ALMONTE (e-seia)</t>
+          <t>PLAN REGULADOR DE LA HUAYCA, COMUNA DE POZO ALMONTE (e-seia)</t>
         </is>
       </c>
       <c r="C433" t="inlineStr">
@@ -21133,7 +21133,7 @@
       </c>
       <c r="I433" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141097135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141097087&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J433" t="inlineStr">
@@ -21148,7 +21148,7 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>PLAN SECCIONAL DE LA TIRANA, COMUNA DE POZO ALMONTE (e-seia)</t>
+          <t>PLAN REGULADOR DE POZO ALMONTE, COMUNA DE POZO ALMONTE (e-seia)</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
@@ -21181,7 +21181,7 @@
       </c>
       <c r="I434" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141097173&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141097135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J434" t="inlineStr">
@@ -21196,7 +21196,7 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>CONSTRUCCIÓN RELLENO SANITARIO PARA LA COMUNA DE POZO ALMONTE (e-seia)</t>
+          <t>PLAN SECCIONAL DE LA TIRANA, COMUNA DE POZO ALMONTE (e-seia)</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
@@ -21229,7 +21229,7 @@
       </c>
       <c r="I435" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141090900&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141097173&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J435" t="inlineStr">

--- a/data/Pozo Almonte.xlsx
+++ b/data/Pozo Almonte.xlsx
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Oxum del Tamarugal</t>
+          <t>Ampliación Planta de Nitratos Lagunas</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,15 +439,15 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>GENERADORA Y DISTRIBUIDORA DE ENERGÍA OXUM SPA</t>
+          <t>ACF Baquedano S.A.</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>326484</v>
+        <v>35000</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>23/03/2022</t>
+          <t>24/03/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -457,7 +457,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155445673&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155428181&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ampliación Planta de Nitratos Lagunas</t>
+          <t>Parque Fotovoltaico Oxum del Tamarugal</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,25 +487,25 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>ACF Baquedano S.A.</t>
+          <t>GENERADORA Y DISTRIBUIDORA DE ENERGÍA OXUM SPA</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>35000</v>
+        <v>326484</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>18/03/2022</t>
+          <t>23/03/2022</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155428181&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155445673&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -6856,7 +6856,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Mejoramiento Eloisa</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6866,16 +6866,16 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Eloisa spa</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>0</v>
+        <v>75000</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
@@ -6884,12 +6884,12 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128980296&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6904,7 +6904,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Mejoramiento Eloisa</t>
+          <t>PLANTA SOLAR PINTADOS</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6919,11 +6919,11 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Eloisa spa</t>
+          <t>Planta Solar Pintados SpA.</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>75000</v>
+        <v>200000</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
@@ -6932,12 +6932,12 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128980296&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955109&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6952,7 +6952,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>PLANTA SOLAR PINTADOS</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6962,16 +6962,16 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Planta Solar Pintados SpA.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>200000</v>
+        <v>0</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
@@ -6985,7 +6985,7 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955109&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -8680,7 +8680,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Proyecto Fotovoltaico Huatacondo</t>
+          <t>Transporte Interregional de Cal .</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8690,16 +8690,16 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>AustrainSolar Chile Cuatro SpA</t>
+          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>196000</v>
+        <v>8426</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
@@ -8708,12 +8708,12 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7558839&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7561133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -8728,7 +8728,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Cal .</t>
+          <t>Proyecto Fotovoltaico Huatacondo</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8738,16 +8738,16 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
+          <t>AustrainSolar Chile Cuatro SpA</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>8426</v>
+        <v>196000</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
@@ -8756,12 +8756,12 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7561133&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7558839&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -10984,7 +10984,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Reposición Ruta 5, Longitudinal Norte, Sector Reserva Nacional Pampa del Tamarugal, Km. 1.781,0 - Km 1.801, Provincia del Tamarugal, Región de Tarapacá</t>
+          <t>PROSPECCION MINERA CHALLACOLLO SUR</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -10999,11 +10999,11 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>SOCIEDAD CONTRACTUAL MINERA BOREAL</t>
         </is>
       </c>
       <c r="F222" t="n">
-        <v>5940</v>
+        <v>370</v>
       </c>
       <c r="G222" t="inlineStr">
         <is>
@@ -11017,7 +11017,7 @@
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5412341&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5344496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -11032,7 +11032,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>PROSPECCION MINERA CHALLACOLLO SUR</t>
+          <t>Reposición Ruta 5, Longitudinal Norte, Sector Reserva Nacional Pampa del Tamarugal, Km. 1.781,0 - Km 1.801, Provincia del Tamarugal, Región de Tarapacá</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -11047,11 +11047,11 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>SOCIEDAD CONTRACTUAL MINERA BOREAL</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F223" t="n">
-        <v>370</v>
+        <v>5940</v>
       </c>
       <c r="G223" t="inlineStr">
         <is>
@@ -11065,7 +11065,7 @@
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5344496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5412341&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -11512,7 +11512,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 3, I Región</t>
+          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 1, I Región</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -11527,11 +11527,11 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>Pozo Almonte Solar 3 S.A.</t>
+          <t>Pozo Almonte Solar 1 SpA</t>
         </is>
       </c>
       <c r="F233" t="n">
-        <v>71000</v>
+        <v>40000</v>
       </c>
       <c r="G233" t="inlineStr">
         <is>
@@ -11545,7 +11545,7 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5164638&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5162007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -11560,7 +11560,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 1, I Región</t>
+          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 2, I Región</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -11575,7 +11575,7 @@
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>Pozo Almonte Solar 1 SpA</t>
+          <t>POZO ALMONTE SOLAR 2 S.A.</t>
         </is>
       </c>
       <c r="F234" t="n">
@@ -11593,7 +11593,7 @@
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5162007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5163148&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -11608,7 +11608,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 2, I Región</t>
+          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 3, I Región</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -11623,11 +11623,11 @@
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>POZO ALMONTE SOLAR 2 S.A.</t>
+          <t>Pozo Almonte Solar 3 S.A.</t>
         </is>
       </c>
       <c r="F235" t="n">
-        <v>40000</v>
+        <v>71000</v>
       </c>
       <c r="G235" t="inlineStr">
         <is>
@@ -11641,7 +11641,7 @@
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5163148&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5164638&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -14584,7 +14584,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>Ripiera Sagasca (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -14594,16 +14594,16 @@
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>Christopher Frank Sir</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F297" t="n">
-        <v>452</v>
+        <v>1750</v>
       </c>
       <c r="G297" t="inlineStr">
         <is>
@@ -14612,12 +14612,12 @@
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310471&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J297" t="inlineStr">
@@ -14632,7 +14632,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Ripiera Sagasca (e-seia)</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -14642,16 +14642,16 @@
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Christopher Frank Sir</t>
         </is>
       </c>
       <c r="F298" t="n">
-        <v>1750</v>
+        <v>452</v>
       </c>
       <c r="G298" t="inlineStr">
         <is>
@@ -14660,12 +14660,12 @@
       </c>
       <c r="H298" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310471&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J298" t="inlineStr">
@@ -14680,7 +14680,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -14695,11 +14695,11 @@
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F299" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G299" t="inlineStr">
         <is>
@@ -14708,12 +14708,12 @@
       </c>
       <c r="H299" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I299" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J299" t="inlineStr">
@@ -14728,7 +14728,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
@@ -14743,11 +14743,11 @@
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F300" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G300" t="inlineStr">
         <is>
@@ -14756,12 +14756,12 @@
       </c>
       <c r="H300" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I300" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J300" t="inlineStr">
@@ -15400,10 +15400,14 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>PAMPA HERMOSA</t>
-        </is>
-      </c>
-      <c r="C314" t="inlineStr"/>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D314" t="inlineStr">
         <is>
           <t>Interregional</t>
@@ -15411,11 +15415,11 @@
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>SQM S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F314" t="n">
-        <v>1.033</v>
+        <v>20</v>
       </c>
       <c r="G314" t="inlineStr">
         <is>
@@ -15424,12 +15428,12 @@
       </c>
       <c r="H314" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I314" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3083858&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J314" t="inlineStr">
@@ -15444,14 +15448,10 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
-        </is>
-      </c>
-      <c r="C315" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>PAMPA HERMOSA</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr"/>
       <c r="D315" t="inlineStr">
         <is>
           <t>Interregional</t>
@@ -15459,11 +15459,11 @@
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>SQM S.A.</t>
         </is>
       </c>
       <c r="F315" t="n">
-        <v>20</v>
+        <v>1.033</v>
       </c>
       <c r="G315" t="inlineStr">
         <is>
@@ -15472,12 +15472,12 @@
       </c>
       <c r="H315" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I315" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3083858&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J315" t="inlineStr">
@@ -21052,7 +21052,7 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>CONSTRUCCIÓN RELLENO SANITARIO PARA LA COMUNA DE POZO ALMONTE (e-seia)</t>
+          <t>PLAN REGULADOR DE LA HUAYCA, COMUNA DE POZO ALMONTE (e-seia)</t>
         </is>
       </c>
       <c r="C432" t="inlineStr">
@@ -21085,7 +21085,7 @@
       </c>
       <c r="I432" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141090900&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141097087&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J432" t="inlineStr">
@@ -21100,7 +21100,7 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>PLAN REGULADOR DE LA HUAYCA, COMUNA DE POZO ALMONTE (e-seia)</t>
+          <t>PLAN REGULADOR DE POZO ALMONTE, COMUNA DE POZO ALMONTE (e-seia)</t>
         </is>
       </c>
       <c r="C433" t="inlineStr">
@@ -21133,7 +21133,7 @@
       </c>
       <c r="I433" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141097087&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141097135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J433" t="inlineStr">
@@ -21148,7 +21148,7 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>PLAN REGULADOR DE POZO ALMONTE, COMUNA DE POZO ALMONTE (e-seia)</t>
+          <t>PLAN SECCIONAL DE LA TIRANA, COMUNA DE POZO ALMONTE (e-seia)</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
@@ -21181,7 +21181,7 @@
       </c>
       <c r="I434" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141097135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141097173&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J434" t="inlineStr">
@@ -21196,7 +21196,7 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>PLAN SECCIONAL DE LA TIRANA, COMUNA DE POZO ALMONTE (e-seia)</t>
+          <t>CONSTRUCCIÓN RELLENO SANITARIO PARA LA COMUNA DE POZO ALMONTE (e-seia)</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
@@ -21229,7 +21229,7 @@
       </c>
       <c r="I435" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141097173&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141090900&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J435" t="inlineStr">

--- a/data/Pozo Almonte.xlsx
+++ b/data/Pozo Almonte.xlsx
@@ -692,7 +692,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -6856,7 +6856,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Mejoramiento Eloisa</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6866,16 +6866,16 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Eloisa spa</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>75000</v>
+        <v>0</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
@@ -6884,12 +6884,12 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128980296&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6904,7 +6904,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>PLANTA SOLAR PINTADOS</t>
+          <t>Mejoramiento Eloisa</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6919,11 +6919,11 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Planta Solar Pintados SpA.</t>
+          <t>Eloisa spa</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>200000</v>
+        <v>75000</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
@@ -6932,12 +6932,12 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955109&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128980296&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6952,7 +6952,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>PLANTA SOLAR PINTADOS</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6962,16 +6962,16 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Planta Solar Pintados SpA.</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
@@ -6985,7 +6985,7 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955109&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -8680,7 +8680,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Cal .</t>
+          <t>Proyecto Fotovoltaico Huatacondo</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8690,16 +8690,16 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
+          <t>AustrainSolar Chile Cuatro SpA</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>8426</v>
+        <v>196000</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
@@ -8708,12 +8708,12 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7561133&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7558839&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -8728,7 +8728,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Proyecto Fotovoltaico Huatacondo</t>
+          <t>Transporte Interregional de Cal .</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8738,16 +8738,16 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>AustrainSolar Chile Cuatro SpA</t>
+          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>196000</v>
+        <v>8426</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
@@ -8756,12 +8756,12 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7558839&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7561133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -10984,7 +10984,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>PROSPECCION MINERA CHALLACOLLO SUR</t>
+          <t>Reposición Ruta 5, Longitudinal Norte, Sector Reserva Nacional Pampa del Tamarugal, Km. 1.781,0 - Km 1.801, Provincia del Tamarugal, Región de Tarapacá</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -10999,11 +10999,11 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>SOCIEDAD CONTRACTUAL MINERA BOREAL</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F222" t="n">
-        <v>370</v>
+        <v>5940</v>
       </c>
       <c r="G222" t="inlineStr">
         <is>
@@ -11017,7 +11017,7 @@
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5344496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5412341&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -11032,7 +11032,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Reposición Ruta 5, Longitudinal Norte, Sector Reserva Nacional Pampa del Tamarugal, Km. 1.781,0 - Km 1.801, Provincia del Tamarugal, Región de Tarapacá</t>
+          <t>PROSPECCION MINERA CHALLACOLLO SUR</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -11047,11 +11047,11 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>SOCIEDAD CONTRACTUAL MINERA BOREAL</t>
         </is>
       </c>
       <c r="F223" t="n">
-        <v>5940</v>
+        <v>370</v>
       </c>
       <c r="G223" t="inlineStr">
         <is>
@@ -11065,7 +11065,7 @@
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5412341&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5344496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -11512,7 +11512,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 1, I Región</t>
+          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 3, I Región</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -11527,11 +11527,11 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>Pozo Almonte Solar 1 SpA</t>
+          <t>Pozo Almonte Solar 3 S.A.</t>
         </is>
       </c>
       <c r="F233" t="n">
-        <v>40000</v>
+        <v>71000</v>
       </c>
       <c r="G233" t="inlineStr">
         <is>
@@ -11545,7 +11545,7 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5162007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5164638&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -11560,7 +11560,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 2, I Región</t>
+          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 1, I Región</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -11575,7 +11575,7 @@
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>POZO ALMONTE SOLAR 2 S.A.</t>
+          <t>Pozo Almonte Solar 1 SpA</t>
         </is>
       </c>
       <c r="F234" t="n">
@@ -11593,7 +11593,7 @@
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5163148&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5162007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -11608,7 +11608,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 3, I Región</t>
+          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 2, I Región</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -11623,11 +11623,11 @@
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>Pozo Almonte Solar 3 S.A.</t>
+          <t>POZO ALMONTE SOLAR 2 S.A.</t>
         </is>
       </c>
       <c r="F235" t="n">
-        <v>71000</v>
+        <v>40000</v>
       </c>
       <c r="G235" t="inlineStr">
         <is>
@@ -11641,7 +11641,7 @@
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5164638&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5163148&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -14584,7 +14584,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Ripiera Sagasca (e-seia)</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -14594,16 +14594,16 @@
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Christopher Frank Sir</t>
         </is>
       </c>
       <c r="F297" t="n">
-        <v>1750</v>
+        <v>452</v>
       </c>
       <c r="G297" t="inlineStr">
         <is>
@@ -14612,12 +14612,12 @@
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310471&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J297" t="inlineStr">
@@ -14632,7 +14632,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Ripiera Sagasca (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -14642,16 +14642,16 @@
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>Christopher Frank Sir</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F298" t="n">
-        <v>452</v>
+        <v>1750</v>
       </c>
       <c r="G298" t="inlineStr">
         <is>
@@ -14660,12 +14660,12 @@
       </c>
       <c r="H298" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310471&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J298" t="inlineStr">
@@ -14680,7 +14680,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -14695,11 +14695,11 @@
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F299" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G299" t="inlineStr">
         <is>
@@ -14708,12 +14708,12 @@
       </c>
       <c r="H299" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I299" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J299" t="inlineStr">
@@ -14728,7 +14728,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
@@ -14743,11 +14743,11 @@
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F300" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G300" t="inlineStr">
         <is>
@@ -14756,12 +14756,12 @@
       </c>
       <c r="H300" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I300" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J300" t="inlineStr">
@@ -15400,14 +15400,10 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
-        </is>
-      </c>
-      <c r="C314" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>PAMPA HERMOSA</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr"/>
       <c r="D314" t="inlineStr">
         <is>
           <t>Interregional</t>
@@ -15415,11 +15411,11 @@
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>SQM S.A.</t>
         </is>
       </c>
       <c r="F314" t="n">
-        <v>20</v>
+        <v>1.033</v>
       </c>
       <c r="G314" t="inlineStr">
         <is>
@@ -15428,12 +15424,12 @@
       </c>
       <c r="H314" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I314" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3083858&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J314" t="inlineStr">
@@ -15448,10 +15444,14 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>PAMPA HERMOSA</t>
-        </is>
-      </c>
-      <c r="C315" t="inlineStr"/>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D315" t="inlineStr">
         <is>
           <t>Interregional</t>
@@ -15459,11 +15459,11 @@
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>SQM S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F315" t="n">
-        <v>1.033</v>
+        <v>20</v>
       </c>
       <c r="G315" t="inlineStr">
         <is>
@@ -15472,12 +15472,12 @@
       </c>
       <c r="H315" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I315" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3083858&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J315" t="inlineStr">
@@ -21052,7 +21052,7 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>PLAN REGULADOR DE LA HUAYCA, COMUNA DE POZO ALMONTE (e-seia)</t>
+          <t>CONSTRUCCIÓN RELLENO SANITARIO PARA LA COMUNA DE POZO ALMONTE (e-seia)</t>
         </is>
       </c>
       <c r="C432" t="inlineStr">
@@ -21085,7 +21085,7 @@
       </c>
       <c r="I432" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141097087&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141090900&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J432" t="inlineStr">
@@ -21100,7 +21100,7 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>PLAN REGULADOR DE POZO ALMONTE, COMUNA DE POZO ALMONTE (e-seia)</t>
+          <t>PLAN REGULADOR DE LA HUAYCA, COMUNA DE POZO ALMONTE (e-seia)</t>
         </is>
       </c>
       <c r="C433" t="inlineStr">
@@ -21133,7 +21133,7 @@
       </c>
       <c r="I433" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141097135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141097087&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J433" t="inlineStr">
@@ -21148,7 +21148,7 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>PLAN SECCIONAL DE LA TIRANA, COMUNA DE POZO ALMONTE (e-seia)</t>
+          <t>PLAN REGULADOR DE POZO ALMONTE, COMUNA DE POZO ALMONTE (e-seia)</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
@@ -21181,7 +21181,7 @@
       </c>
       <c r="I434" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141097173&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141097135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J434" t="inlineStr">
@@ -21196,7 +21196,7 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>CONSTRUCCIÓN RELLENO SANITARIO PARA LA COMUNA DE POZO ALMONTE (e-seia)</t>
+          <t>PLAN SECCIONAL DE LA TIRANA, COMUNA DE POZO ALMONTE (e-seia)</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
@@ -21229,7 +21229,7 @@
       </c>
       <c r="I435" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141090900&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141097173&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J435" t="inlineStr">

--- a/data/Pozo Almonte.xlsx
+++ b/data/Pozo Almonte.xlsx
@@ -6856,7 +6856,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Mejoramiento Eloisa</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6866,16 +6866,16 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Eloisa spa</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>0</v>
+        <v>75000</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
@@ -6884,12 +6884,12 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128980296&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6904,7 +6904,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Mejoramiento Eloisa</t>
+          <t>PLANTA SOLAR PINTADOS</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6919,11 +6919,11 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Eloisa spa</t>
+          <t>Planta Solar Pintados SpA.</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>75000</v>
+        <v>200000</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
@@ -6932,12 +6932,12 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128980296&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955109&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6952,7 +6952,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>PLANTA SOLAR PINTADOS</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6962,16 +6962,16 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Planta Solar Pintados SpA.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>200000</v>
+        <v>0</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
@@ -6985,7 +6985,7 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955109&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -8680,7 +8680,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Proyecto Fotovoltaico Huatacondo</t>
+          <t>Transporte Interregional de Cal .</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8690,16 +8690,16 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>AustrainSolar Chile Cuatro SpA</t>
+          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>196000</v>
+        <v>8426</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
@@ -8708,12 +8708,12 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7558839&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7561133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -8728,7 +8728,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Cal .</t>
+          <t>Proyecto Fotovoltaico Huatacondo</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8738,16 +8738,16 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
+          <t>AustrainSolar Chile Cuatro SpA</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>8426</v>
+        <v>196000</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
@@ -8756,12 +8756,12 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7561133&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7558839&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -10984,7 +10984,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Reposición Ruta 5, Longitudinal Norte, Sector Reserva Nacional Pampa del Tamarugal, Km. 1.781,0 - Km 1.801, Provincia del Tamarugal, Región de Tarapacá</t>
+          <t>PROSPECCION MINERA CHALLACOLLO SUR</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -10999,11 +10999,11 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>SOCIEDAD CONTRACTUAL MINERA BOREAL</t>
         </is>
       </c>
       <c r="F222" t="n">
-        <v>5940</v>
+        <v>370</v>
       </c>
       <c r="G222" t="inlineStr">
         <is>
@@ -11017,7 +11017,7 @@
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5412341&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5344496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -11032,7 +11032,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>PROSPECCION MINERA CHALLACOLLO SUR</t>
+          <t>Reposición Ruta 5, Longitudinal Norte, Sector Reserva Nacional Pampa del Tamarugal, Km. 1.781,0 - Km 1.801, Provincia del Tamarugal, Región de Tarapacá</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -11047,11 +11047,11 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>SOCIEDAD CONTRACTUAL MINERA BOREAL</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F223" t="n">
-        <v>370</v>
+        <v>5940</v>
       </c>
       <c r="G223" t="inlineStr">
         <is>
@@ -11065,7 +11065,7 @@
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5344496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5412341&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -11512,7 +11512,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 3, I Región</t>
+          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 1, I Región</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -11527,11 +11527,11 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>Pozo Almonte Solar 3 S.A.</t>
+          <t>Pozo Almonte Solar 1 SpA</t>
         </is>
       </c>
       <c r="F233" t="n">
-        <v>71000</v>
+        <v>40000</v>
       </c>
       <c r="G233" t="inlineStr">
         <is>
@@ -11545,7 +11545,7 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5164638&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5162007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -11560,7 +11560,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 1, I Región</t>
+          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 2, I Región</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -11575,7 +11575,7 @@
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>Pozo Almonte Solar 1 SpA</t>
+          <t>POZO ALMONTE SOLAR 2 S.A.</t>
         </is>
       </c>
       <c r="F234" t="n">
@@ -11593,7 +11593,7 @@
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5162007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5163148&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -11608,7 +11608,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 2, I Región</t>
+          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 3, I Región</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -11623,11 +11623,11 @@
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>POZO ALMONTE SOLAR 2 S.A.</t>
+          <t>Pozo Almonte Solar 3 S.A.</t>
         </is>
       </c>
       <c r="F235" t="n">
-        <v>40000</v>
+        <v>71000</v>
       </c>
       <c r="G235" t="inlineStr">
         <is>
@@ -11641,7 +11641,7 @@
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5163148&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5164638&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -14584,7 +14584,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>Ripiera Sagasca (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -14594,16 +14594,16 @@
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>Christopher Frank Sir</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F297" t="n">
-        <v>452</v>
+        <v>1750</v>
       </c>
       <c r="G297" t="inlineStr">
         <is>
@@ -14612,12 +14612,12 @@
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310471&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J297" t="inlineStr">
@@ -14632,7 +14632,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Ripiera Sagasca (e-seia)</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -14642,16 +14642,16 @@
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Christopher Frank Sir</t>
         </is>
       </c>
       <c r="F298" t="n">
-        <v>1750</v>
+        <v>452</v>
       </c>
       <c r="G298" t="inlineStr">
         <is>
@@ -14660,12 +14660,12 @@
       </c>
       <c r="H298" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310471&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J298" t="inlineStr">
@@ -14680,7 +14680,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -14695,11 +14695,11 @@
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F299" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G299" t="inlineStr">
         <is>
@@ -14708,12 +14708,12 @@
       </c>
       <c r="H299" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I299" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J299" t="inlineStr">
@@ -14728,7 +14728,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
@@ -14743,11 +14743,11 @@
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F300" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G300" t="inlineStr">
         <is>
@@ -14756,12 +14756,12 @@
       </c>
       <c r="H300" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I300" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J300" t="inlineStr">
@@ -15400,10 +15400,14 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>PAMPA HERMOSA</t>
-        </is>
-      </c>
-      <c r="C314" t="inlineStr"/>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D314" t="inlineStr">
         <is>
           <t>Interregional</t>
@@ -15411,11 +15415,11 @@
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>SQM S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F314" t="n">
-        <v>1.033</v>
+        <v>20</v>
       </c>
       <c r="G314" t="inlineStr">
         <is>
@@ -15424,12 +15428,12 @@
       </c>
       <c r="H314" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I314" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3083858&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J314" t="inlineStr">
@@ -15444,14 +15448,10 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
-        </is>
-      </c>
-      <c r="C315" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>PAMPA HERMOSA</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr"/>
       <c r="D315" t="inlineStr">
         <is>
           <t>Interregional</t>
@@ -15459,11 +15459,11 @@
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>SQM S.A.</t>
         </is>
       </c>
       <c r="F315" t="n">
-        <v>20</v>
+        <v>1.033</v>
       </c>
       <c r="G315" t="inlineStr">
         <is>
@@ -15472,12 +15472,12 @@
       </c>
       <c r="H315" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I315" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3083858&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J315" t="inlineStr">

--- a/data/Pozo Almonte.xlsx
+++ b/data/Pozo Almonte.xlsx
@@ -6856,7 +6856,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Mejoramiento Eloisa</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6866,16 +6866,16 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Eloisa spa</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>75000</v>
+        <v>0</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
@@ -6884,12 +6884,12 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128980296&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6904,7 +6904,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>PLANTA SOLAR PINTADOS</t>
+          <t>Mejoramiento Eloisa</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6919,11 +6919,11 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Planta Solar Pintados SpA.</t>
+          <t>Eloisa spa</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>200000</v>
+        <v>75000</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
@@ -6932,12 +6932,12 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955109&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128980296&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6952,7 +6952,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>PLANTA SOLAR PINTADOS</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6962,16 +6962,16 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Planta Solar Pintados SpA.</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
@@ -6985,7 +6985,7 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955109&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -8680,7 +8680,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Cal .</t>
+          <t>Proyecto Fotovoltaico Huatacondo</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8690,16 +8690,16 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
+          <t>AustrainSolar Chile Cuatro SpA</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>8426</v>
+        <v>196000</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
@@ -8708,12 +8708,12 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7561133&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7558839&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -8728,7 +8728,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Proyecto Fotovoltaico Huatacondo</t>
+          <t>Transporte Interregional de Cal .</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8738,16 +8738,16 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>AustrainSolar Chile Cuatro SpA</t>
+          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>196000</v>
+        <v>8426</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
@@ -8756,12 +8756,12 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7558839&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7561133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -10984,7 +10984,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>PROSPECCION MINERA CHALLACOLLO SUR</t>
+          <t>Reposición Ruta 5, Longitudinal Norte, Sector Reserva Nacional Pampa del Tamarugal, Km. 1.781,0 - Km 1.801, Provincia del Tamarugal, Región de Tarapacá</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -10999,11 +10999,11 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>SOCIEDAD CONTRACTUAL MINERA BOREAL</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F222" t="n">
-        <v>370</v>
+        <v>5940</v>
       </c>
       <c r="G222" t="inlineStr">
         <is>
@@ -11017,7 +11017,7 @@
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5344496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5412341&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -11032,7 +11032,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Reposición Ruta 5, Longitudinal Norte, Sector Reserva Nacional Pampa del Tamarugal, Km. 1.781,0 - Km 1.801, Provincia del Tamarugal, Región de Tarapacá</t>
+          <t>PROSPECCION MINERA CHALLACOLLO SUR</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -11047,11 +11047,11 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>SOCIEDAD CONTRACTUAL MINERA BOREAL</t>
         </is>
       </c>
       <c r="F223" t="n">
-        <v>5940</v>
+        <v>370</v>
       </c>
       <c r="G223" t="inlineStr">
         <is>
@@ -11065,7 +11065,7 @@
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5412341&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5344496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -11512,7 +11512,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 1, I Región</t>
+          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 3, I Región</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -11527,11 +11527,11 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>Pozo Almonte Solar 1 SpA</t>
+          <t>Pozo Almonte Solar 3 S.A.</t>
         </is>
       </c>
       <c r="F233" t="n">
-        <v>40000</v>
+        <v>71000</v>
       </c>
       <c r="G233" t="inlineStr">
         <is>
@@ -11545,7 +11545,7 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5162007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5164638&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -11560,7 +11560,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 2, I Región</t>
+          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 1, I Región</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -11575,7 +11575,7 @@
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>POZO ALMONTE SOLAR 2 S.A.</t>
+          <t>Pozo Almonte Solar 1 SpA</t>
         </is>
       </c>
       <c r="F234" t="n">
@@ -11593,7 +11593,7 @@
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5163148&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5162007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -11608,7 +11608,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 3, I Región</t>
+          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 2, I Región</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -11623,11 +11623,11 @@
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>Pozo Almonte Solar 3 S.A.</t>
+          <t>POZO ALMONTE SOLAR 2 S.A.</t>
         </is>
       </c>
       <c r="F235" t="n">
-        <v>71000</v>
+        <v>40000</v>
       </c>
       <c r="G235" t="inlineStr">
         <is>
@@ -11641,7 +11641,7 @@
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5164638&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5163148&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -14584,7 +14584,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Ripiera Sagasca (e-seia)</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -14594,16 +14594,16 @@
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Christopher Frank Sir</t>
         </is>
       </c>
       <c r="F297" t="n">
-        <v>1750</v>
+        <v>452</v>
       </c>
       <c r="G297" t="inlineStr">
         <is>
@@ -14612,12 +14612,12 @@
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310471&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J297" t="inlineStr">
@@ -14632,7 +14632,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Ripiera Sagasca (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -14642,16 +14642,16 @@
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>Christopher Frank Sir</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F298" t="n">
-        <v>452</v>
+        <v>1750</v>
       </c>
       <c r="G298" t="inlineStr">
         <is>
@@ -14660,12 +14660,12 @@
       </c>
       <c r="H298" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310471&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J298" t="inlineStr">
@@ -14680,7 +14680,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -14695,11 +14695,11 @@
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F299" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G299" t="inlineStr">
         <is>
@@ -14708,12 +14708,12 @@
       </c>
       <c r="H299" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I299" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J299" t="inlineStr">
@@ -14728,7 +14728,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
@@ -14743,11 +14743,11 @@
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F300" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G300" t="inlineStr">
         <is>
@@ -14756,12 +14756,12 @@
       </c>
       <c r="H300" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I300" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J300" t="inlineStr">
@@ -15400,14 +15400,10 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
-        </is>
-      </c>
-      <c r="C314" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>PAMPA HERMOSA</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr"/>
       <c r="D314" t="inlineStr">
         <is>
           <t>Interregional</t>
@@ -15415,11 +15411,11 @@
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>SQM S.A.</t>
         </is>
       </c>
       <c r="F314" t="n">
-        <v>20</v>
+        <v>1.033</v>
       </c>
       <c r="G314" t="inlineStr">
         <is>
@@ -15428,12 +15424,12 @@
       </c>
       <c r="H314" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I314" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3083858&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J314" t="inlineStr">
@@ -15448,10 +15444,14 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>PAMPA HERMOSA</t>
-        </is>
-      </c>
-      <c r="C315" t="inlineStr"/>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D315" t="inlineStr">
         <is>
           <t>Interregional</t>
@@ -15459,11 +15459,11 @@
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>SQM S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F315" t="n">
-        <v>1.033</v>
+        <v>20</v>
       </c>
       <c r="G315" t="inlineStr">
         <is>
@@ -15472,12 +15472,12 @@
       </c>
       <c r="H315" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I315" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3083858&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J315" t="inlineStr">

--- a/data/Pozo Almonte.xlsx
+++ b/data/Pozo Almonte.xlsx
@@ -2847,7 +2847,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>18/08/2019</t>
+          <t>19/08/2019</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">

--- a/data/Pozo Almonte.xlsx
+++ b/data/Pozo Almonte.xlsx
@@ -6904,7 +6904,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Mejoramiento Eloisa</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6914,16 +6914,16 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Eloisa spa</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>0</v>
+        <v>75000</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
@@ -6932,12 +6932,12 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128980296&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6952,7 +6952,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Mejoramiento Eloisa</t>
+          <t>PLANTA SOLAR PINTADOS</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6967,11 +6967,11 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Eloisa spa</t>
+          <t>Planta Solar Pintados SpA.</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>75000</v>
+        <v>200000</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
@@ -6980,12 +6980,12 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128980296&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955109&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -7000,7 +7000,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>PLANTA SOLAR PINTADOS</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7010,16 +7010,16 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Planta Solar Pintados SpA.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>200000</v>
+        <v>0</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
@@ -7033,7 +7033,7 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955109&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -8728,7 +8728,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Proyecto Fotovoltaico Huatacondo</t>
+          <t>Transporte Interregional de Cal .</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8738,16 +8738,16 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>AustrainSolar Chile Cuatro SpA</t>
+          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>196000</v>
+        <v>8426</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
@@ -8756,12 +8756,12 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7558839&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7561133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -8776,7 +8776,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Cal .</t>
+          <t>Proyecto Fotovoltaico Huatacondo</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8786,16 +8786,16 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
+          <t>AustrainSolar Chile Cuatro SpA</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>8426</v>
+        <v>196000</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
@@ -8804,12 +8804,12 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7561133&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7558839&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -11032,7 +11032,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Reposición Ruta 5, Longitudinal Norte, Sector Reserva Nacional Pampa del Tamarugal, Km. 1.781,0 - Km 1.801, Provincia del Tamarugal, Región de Tarapacá</t>
+          <t>PROSPECCION MINERA CHALLACOLLO SUR</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -11047,11 +11047,11 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>SOCIEDAD CONTRACTUAL MINERA BOREAL</t>
         </is>
       </c>
       <c r="F223" t="n">
-        <v>5940</v>
+        <v>370</v>
       </c>
       <c r="G223" t="inlineStr">
         <is>
@@ -11065,7 +11065,7 @@
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5412341&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5344496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -11080,7 +11080,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>PROSPECCION MINERA CHALLACOLLO SUR</t>
+          <t>Reposición Ruta 5, Longitudinal Norte, Sector Reserva Nacional Pampa del Tamarugal, Km. 1.781,0 - Km 1.801, Provincia del Tamarugal, Región de Tarapacá</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -11095,11 +11095,11 @@
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>SOCIEDAD CONTRACTUAL MINERA BOREAL</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F224" t="n">
-        <v>370</v>
+        <v>5940</v>
       </c>
       <c r="G224" t="inlineStr">
         <is>
@@ -11113,7 +11113,7 @@
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5344496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5412341&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -11560,7 +11560,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 3, I Región</t>
+          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 1, I Región</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -11575,11 +11575,11 @@
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>Pozo Almonte Solar 3 S.A.</t>
+          <t>Pozo Almonte Solar 1 SpA</t>
         </is>
       </c>
       <c r="F234" t="n">
-        <v>71000</v>
+        <v>40000</v>
       </c>
       <c r="G234" t="inlineStr">
         <is>
@@ -11593,7 +11593,7 @@
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5164638&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5162007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -11608,7 +11608,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 1, I Región</t>
+          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 2, I Región</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -11623,7 +11623,7 @@
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>Pozo Almonte Solar 1 SpA</t>
+          <t>POZO ALMONTE SOLAR 2 S.A.</t>
         </is>
       </c>
       <c r="F235" t="n">
@@ -11641,7 +11641,7 @@
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5162007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5163148&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -11656,7 +11656,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 2, I Región</t>
+          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 3, I Región</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -11671,11 +11671,11 @@
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>POZO ALMONTE SOLAR 2 S.A.</t>
+          <t>Pozo Almonte Solar 3 S.A.</t>
         </is>
       </c>
       <c r="F236" t="n">
-        <v>40000</v>
+        <v>71000</v>
       </c>
       <c r="G236" t="inlineStr">
         <is>
@@ -11689,7 +11689,7 @@
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5163148&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5164638&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -14632,7 +14632,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Ripiera Sagasca (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -14642,16 +14642,16 @@
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>Christopher Frank Sir</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F298" t="n">
-        <v>452</v>
+        <v>1750</v>
       </c>
       <c r="G298" t="inlineStr">
         <is>
@@ -14660,12 +14660,12 @@
       </c>
       <c r="H298" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310471&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J298" t="inlineStr">
@@ -14680,7 +14680,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Ripiera Sagasca (e-seia)</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -14690,16 +14690,16 @@
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Christopher Frank Sir</t>
         </is>
       </c>
       <c r="F299" t="n">
-        <v>1750</v>
+        <v>452</v>
       </c>
       <c r="G299" t="inlineStr">
         <is>
@@ -14708,12 +14708,12 @@
       </c>
       <c r="H299" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I299" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310471&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J299" t="inlineStr">
@@ -14728,7 +14728,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
@@ -14743,11 +14743,11 @@
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F300" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G300" t="inlineStr">
         <is>
@@ -14756,12 +14756,12 @@
       </c>
       <c r="H300" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I300" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J300" t="inlineStr">
@@ -14776,7 +14776,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
@@ -14791,11 +14791,11 @@
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F301" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G301" t="inlineStr">
         <is>
@@ -14804,12 +14804,12 @@
       </c>
       <c r="H301" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I301" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J301" t="inlineStr">
@@ -15448,10 +15448,14 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>PAMPA HERMOSA</t>
-        </is>
-      </c>
-      <c r="C315" t="inlineStr"/>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D315" t="inlineStr">
         <is>
           <t>Interregional</t>
@@ -15459,11 +15463,11 @@
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>SQM S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F315" t="n">
-        <v>1.033</v>
+        <v>20</v>
       </c>
       <c r="G315" t="inlineStr">
         <is>
@@ -15472,12 +15476,12 @@
       </c>
       <c r="H315" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I315" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3083858&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J315" t="inlineStr">
@@ -15492,14 +15496,10 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
-        </is>
-      </c>
-      <c r="C316" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>PAMPA HERMOSA</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr"/>
       <c r="D316" t="inlineStr">
         <is>
           <t>Interregional</t>
@@ -15507,11 +15507,11 @@
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>SQM S.A.</t>
         </is>
       </c>
       <c r="F316" t="n">
-        <v>20</v>
+        <v>1.033</v>
       </c>
       <c r="G316" t="inlineStr">
         <is>
@@ -15520,12 +15520,12 @@
       </c>
       <c r="H316" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I316" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3083858&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J316" t="inlineStr">
@@ -21100,7 +21100,7 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>CONSTRUCCIÓN RELLENO SANITARIO PARA LA COMUNA DE POZO ALMONTE (e-seia)</t>
+          <t>PLAN REGULADOR DE LA HUAYCA, COMUNA DE POZO ALMONTE (e-seia)</t>
         </is>
       </c>
       <c r="C433" t="inlineStr">
@@ -21133,7 +21133,7 @@
       </c>
       <c r="I433" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141090900&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141097087&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J433" t="inlineStr">
@@ -21148,7 +21148,7 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>PLAN REGULADOR DE LA HUAYCA, COMUNA DE POZO ALMONTE (e-seia)</t>
+          <t>PLAN REGULADOR DE POZO ALMONTE, COMUNA DE POZO ALMONTE (e-seia)</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
@@ -21181,7 +21181,7 @@
       </c>
       <c r="I434" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141097087&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141097135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J434" t="inlineStr">
@@ -21196,7 +21196,7 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>PLAN REGULADOR DE POZO ALMONTE, COMUNA DE POZO ALMONTE (e-seia)</t>
+          <t>PLAN SECCIONAL DE LA TIRANA, COMUNA DE POZO ALMONTE (e-seia)</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
@@ -21229,7 +21229,7 @@
       </c>
       <c r="I435" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141097135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141097173&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J435" t="inlineStr">
@@ -21244,7 +21244,7 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>PLAN SECCIONAL DE LA TIRANA, COMUNA DE POZO ALMONTE (e-seia)</t>
+          <t>CONSTRUCCIÓN RELLENO SANITARIO PARA LA COMUNA DE POZO ALMONTE (e-seia)</t>
         </is>
       </c>
       <c r="C436" t="inlineStr">
@@ -21277,7 +21277,7 @@
       </c>
       <c r="I436" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141097173&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141090900&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J436" t="inlineStr">

--- a/data/Pozo Almonte.xlsx
+++ b/data/Pozo Almonte.xlsx
@@ -6904,7 +6904,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Mejoramiento Eloisa</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6914,16 +6914,16 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Eloisa spa</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>75000</v>
+        <v>0</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
@@ -6932,12 +6932,12 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128980296&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6952,7 +6952,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>PLANTA SOLAR PINTADOS</t>
+          <t>Mejoramiento Eloisa</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6967,11 +6967,11 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Planta Solar Pintados SpA.</t>
+          <t>Eloisa spa</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>200000</v>
+        <v>75000</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
@@ -6980,12 +6980,12 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955109&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128980296&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -7000,7 +7000,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>PLANTA SOLAR PINTADOS</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7010,16 +7010,16 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Planta Solar Pintados SpA.</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
@@ -7033,7 +7033,7 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955109&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -8728,7 +8728,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Cal .</t>
+          <t>Proyecto Fotovoltaico Huatacondo</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8738,16 +8738,16 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
+          <t>AustrainSolar Chile Cuatro SpA</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>8426</v>
+        <v>196000</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
@@ -8756,12 +8756,12 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7561133&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7558839&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -8776,7 +8776,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Proyecto Fotovoltaico Huatacondo</t>
+          <t>Transporte Interregional de Cal .</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8786,16 +8786,16 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>AustrainSolar Chile Cuatro SpA</t>
+          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>196000</v>
+        <v>8426</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
@@ -8804,12 +8804,12 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7558839&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7561133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -11032,7 +11032,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>PROSPECCION MINERA CHALLACOLLO SUR</t>
+          <t>Reposición Ruta 5, Longitudinal Norte, Sector Reserva Nacional Pampa del Tamarugal, Km. 1.781,0 - Km 1.801, Provincia del Tamarugal, Región de Tarapacá</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -11047,11 +11047,11 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>SOCIEDAD CONTRACTUAL MINERA BOREAL</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F223" t="n">
-        <v>370</v>
+        <v>5940</v>
       </c>
       <c r="G223" t="inlineStr">
         <is>
@@ -11065,7 +11065,7 @@
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5344496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5412341&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -11080,7 +11080,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Reposición Ruta 5, Longitudinal Norte, Sector Reserva Nacional Pampa del Tamarugal, Km. 1.781,0 - Km 1.801, Provincia del Tamarugal, Región de Tarapacá</t>
+          <t>PROSPECCION MINERA CHALLACOLLO SUR</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -11095,11 +11095,11 @@
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>SOCIEDAD CONTRACTUAL MINERA BOREAL</t>
         </is>
       </c>
       <c r="F224" t="n">
-        <v>5940</v>
+        <v>370</v>
       </c>
       <c r="G224" t="inlineStr">
         <is>
@@ -11113,7 +11113,7 @@
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5412341&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5344496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -11560,7 +11560,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 1, I Región</t>
+          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 3, I Región</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -11575,11 +11575,11 @@
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>Pozo Almonte Solar 1 SpA</t>
+          <t>Pozo Almonte Solar 3 S.A.</t>
         </is>
       </c>
       <c r="F234" t="n">
-        <v>40000</v>
+        <v>71000</v>
       </c>
       <c r="G234" t="inlineStr">
         <is>
@@ -11593,7 +11593,7 @@
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5162007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5164638&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -11608,7 +11608,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 2, I Región</t>
+          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 1, I Región</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -11623,7 +11623,7 @@
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>POZO ALMONTE SOLAR 2 S.A.</t>
+          <t>Pozo Almonte Solar 1 SpA</t>
         </is>
       </c>
       <c r="F235" t="n">
@@ -11641,7 +11641,7 @@
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5163148&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5162007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -11656,7 +11656,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 3, I Región</t>
+          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 2, I Región</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -11671,11 +11671,11 @@
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>Pozo Almonte Solar 3 S.A.</t>
+          <t>POZO ALMONTE SOLAR 2 S.A.</t>
         </is>
       </c>
       <c r="F236" t="n">
-        <v>71000</v>
+        <v>40000</v>
       </c>
       <c r="G236" t="inlineStr">
         <is>
@@ -11689,7 +11689,7 @@
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5164638&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5163148&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -14632,7 +14632,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Ripiera Sagasca (e-seia)</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -14642,16 +14642,16 @@
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Christopher Frank Sir</t>
         </is>
       </c>
       <c r="F298" t="n">
-        <v>1750</v>
+        <v>452</v>
       </c>
       <c r="G298" t="inlineStr">
         <is>
@@ -14660,12 +14660,12 @@
       </c>
       <c r="H298" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310471&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J298" t="inlineStr">
@@ -14680,7 +14680,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>Ripiera Sagasca (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -14690,16 +14690,16 @@
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>Christopher Frank Sir</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F299" t="n">
-        <v>452</v>
+        <v>1750</v>
       </c>
       <c r="G299" t="inlineStr">
         <is>
@@ -14708,12 +14708,12 @@
       </c>
       <c r="H299" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I299" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310471&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J299" t="inlineStr">
@@ -14728,7 +14728,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
@@ -14743,11 +14743,11 @@
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F300" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G300" t="inlineStr">
         <is>
@@ -14756,12 +14756,12 @@
       </c>
       <c r="H300" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I300" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J300" t="inlineStr">
@@ -14776,7 +14776,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
@@ -14791,11 +14791,11 @@
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F301" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G301" t="inlineStr">
         <is>
@@ -14804,12 +14804,12 @@
       </c>
       <c r="H301" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I301" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J301" t="inlineStr">
@@ -15448,14 +15448,10 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
-        </is>
-      </c>
-      <c r="C315" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>PAMPA HERMOSA</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr"/>
       <c r="D315" t="inlineStr">
         <is>
           <t>Interregional</t>
@@ -15463,11 +15459,11 @@
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>SQM S.A.</t>
         </is>
       </c>
       <c r="F315" t="n">
-        <v>20</v>
+        <v>1.033</v>
       </c>
       <c r="G315" t="inlineStr">
         <is>
@@ -15476,12 +15472,12 @@
       </c>
       <c r="H315" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I315" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3083858&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J315" t="inlineStr">
@@ -15496,10 +15492,14 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>PAMPA HERMOSA</t>
-        </is>
-      </c>
-      <c r="C316" t="inlineStr"/>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D316" t="inlineStr">
         <is>
           <t>Interregional</t>
@@ -15507,11 +15507,11 @@
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>SQM S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F316" t="n">
-        <v>1.033</v>
+        <v>20</v>
       </c>
       <c r="G316" t="inlineStr">
         <is>
@@ -15520,12 +15520,12 @@
       </c>
       <c r="H316" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I316" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3083858&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J316" t="inlineStr">
@@ -21100,7 +21100,7 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>PLAN REGULADOR DE LA HUAYCA, COMUNA DE POZO ALMONTE (e-seia)</t>
+          <t>CONSTRUCCIÓN RELLENO SANITARIO PARA LA COMUNA DE POZO ALMONTE (e-seia)</t>
         </is>
       </c>
       <c r="C433" t="inlineStr">
@@ -21133,7 +21133,7 @@
       </c>
       <c r="I433" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141097087&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141090900&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J433" t="inlineStr">
@@ -21148,7 +21148,7 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>PLAN REGULADOR DE POZO ALMONTE, COMUNA DE POZO ALMONTE (e-seia)</t>
+          <t>PLAN REGULADOR DE LA HUAYCA, COMUNA DE POZO ALMONTE (e-seia)</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
@@ -21181,7 +21181,7 @@
       </c>
       <c r="I434" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141097135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141097087&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J434" t="inlineStr">
@@ -21196,7 +21196,7 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>PLAN SECCIONAL DE LA TIRANA, COMUNA DE POZO ALMONTE (e-seia)</t>
+          <t>PLAN REGULADOR DE POZO ALMONTE, COMUNA DE POZO ALMONTE (e-seia)</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
@@ -21229,7 +21229,7 @@
       </c>
       <c r="I435" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141097173&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141097135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J435" t="inlineStr">
@@ -21244,7 +21244,7 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>CONSTRUCCIÓN RELLENO SANITARIO PARA LA COMUNA DE POZO ALMONTE (e-seia)</t>
+          <t>PLAN SECCIONAL DE LA TIRANA, COMUNA DE POZO ALMONTE (e-seia)</t>
         </is>
       </c>
       <c r="C436" t="inlineStr">
@@ -21277,7 +21277,7 @@
       </c>
       <c r="I436" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141090900&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141097173&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J436" t="inlineStr">

--- a/data/Pozo Almonte.xlsx
+++ b/data/Pozo Almonte.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/04/2022</t>
+          <t>22/04/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -6904,7 +6904,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Mejoramiento Eloisa</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6914,16 +6914,16 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Eloisa spa</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>75000</v>
+        <v>0</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
@@ -6932,12 +6932,12 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128980296&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6952,7 +6952,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>PLANTA SOLAR PINTADOS</t>
+          <t>Mejoramiento Eloisa</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6967,11 +6967,11 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Planta Solar Pintados SpA.</t>
+          <t>Eloisa spa</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>200000</v>
+        <v>75000</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
@@ -6980,12 +6980,12 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955109&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128980296&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -7000,7 +7000,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>PLANTA SOLAR PINTADOS</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7010,16 +7010,16 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Planta Solar Pintados SpA.</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
@@ -7033,7 +7033,7 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955109&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -8728,7 +8728,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Cal .</t>
+          <t>Proyecto Fotovoltaico Huatacondo</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8738,16 +8738,16 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
+          <t>AustrainSolar Chile Cuatro SpA</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>8426</v>
+        <v>196000</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
@@ -8756,12 +8756,12 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7561133&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7558839&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -8776,7 +8776,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Proyecto Fotovoltaico Huatacondo</t>
+          <t>Transporte Interregional de Cal .</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8786,16 +8786,16 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>AustrainSolar Chile Cuatro SpA</t>
+          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>196000</v>
+        <v>8426</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
@@ -8804,12 +8804,12 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7558839&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7561133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -11032,7 +11032,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>PROSPECCION MINERA CHALLACOLLO SUR</t>
+          <t>Reposición Ruta 5, Longitudinal Norte, Sector Reserva Nacional Pampa del Tamarugal, Km. 1.781,0 - Km 1.801, Provincia del Tamarugal, Región de Tarapacá</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -11047,11 +11047,11 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>SOCIEDAD CONTRACTUAL MINERA BOREAL</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F223" t="n">
-        <v>370</v>
+        <v>5940</v>
       </c>
       <c r="G223" t="inlineStr">
         <is>
@@ -11065,7 +11065,7 @@
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5344496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5412341&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -11080,7 +11080,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Reposición Ruta 5, Longitudinal Norte, Sector Reserva Nacional Pampa del Tamarugal, Km. 1.781,0 - Km 1.801, Provincia del Tamarugal, Región de Tarapacá</t>
+          <t>PROSPECCION MINERA CHALLACOLLO SUR</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -11095,11 +11095,11 @@
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>SOCIEDAD CONTRACTUAL MINERA BOREAL</t>
         </is>
       </c>
       <c r="F224" t="n">
-        <v>5940</v>
+        <v>370</v>
       </c>
       <c r="G224" t="inlineStr">
         <is>
@@ -11113,7 +11113,7 @@
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5412341&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5344496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -11560,7 +11560,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 1, I Región</t>
+          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 3, I Región</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -11575,11 +11575,11 @@
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>Pozo Almonte Solar 1 SpA</t>
+          <t>Pozo Almonte Solar 3 S.A.</t>
         </is>
       </c>
       <c r="F234" t="n">
-        <v>40000</v>
+        <v>71000</v>
       </c>
       <c r="G234" t="inlineStr">
         <is>
@@ -11593,7 +11593,7 @@
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5162007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5164638&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -11608,7 +11608,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 2, I Región</t>
+          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 1, I Región</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -11623,7 +11623,7 @@
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>POZO ALMONTE SOLAR 2 S.A.</t>
+          <t>Pozo Almonte Solar 1 SpA</t>
         </is>
       </c>
       <c r="F235" t="n">
@@ -11641,7 +11641,7 @@
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5163148&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5162007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -11656,7 +11656,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 3, I Región</t>
+          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 2, I Región</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -11671,11 +11671,11 @@
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>Pozo Almonte Solar 3 S.A.</t>
+          <t>POZO ALMONTE SOLAR 2 S.A.</t>
         </is>
       </c>
       <c r="F236" t="n">
-        <v>71000</v>
+        <v>40000</v>
       </c>
       <c r="G236" t="inlineStr">
         <is>
@@ -11689,7 +11689,7 @@
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5164638&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5163148&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -14632,7 +14632,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Ripiera Sagasca (e-seia)</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -14642,16 +14642,16 @@
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Christopher Frank Sir</t>
         </is>
       </c>
       <c r="F298" t="n">
-        <v>1750</v>
+        <v>452</v>
       </c>
       <c r="G298" t="inlineStr">
         <is>
@@ -14660,12 +14660,12 @@
       </c>
       <c r="H298" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310471&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J298" t="inlineStr">
@@ -14680,7 +14680,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>Ripiera Sagasca (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -14690,16 +14690,16 @@
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>Christopher Frank Sir</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F299" t="n">
-        <v>452</v>
+        <v>1750</v>
       </c>
       <c r="G299" t="inlineStr">
         <is>
@@ -14708,12 +14708,12 @@
       </c>
       <c r="H299" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I299" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310471&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J299" t="inlineStr">
@@ -14728,7 +14728,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
@@ -14743,11 +14743,11 @@
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F300" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G300" t="inlineStr">
         <is>
@@ -14756,12 +14756,12 @@
       </c>
       <c r="H300" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I300" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J300" t="inlineStr">
@@ -14776,7 +14776,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
@@ -14791,11 +14791,11 @@
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F301" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G301" t="inlineStr">
         <is>
@@ -14804,12 +14804,12 @@
       </c>
       <c r="H301" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I301" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J301" t="inlineStr">
@@ -15448,14 +15448,10 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
-        </is>
-      </c>
-      <c r="C315" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>PAMPA HERMOSA</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr"/>
       <c r="D315" t="inlineStr">
         <is>
           <t>Interregional</t>
@@ -15463,11 +15459,11 @@
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>SQM S.A.</t>
         </is>
       </c>
       <c r="F315" t="n">
-        <v>20</v>
+        <v>1.033</v>
       </c>
       <c r="G315" t="inlineStr">
         <is>
@@ -15476,12 +15472,12 @@
       </c>
       <c r="H315" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I315" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3083858&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J315" t="inlineStr">
@@ -15496,10 +15492,14 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>PAMPA HERMOSA</t>
-        </is>
-      </c>
-      <c r="C316" t="inlineStr"/>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D316" t="inlineStr">
         <is>
           <t>Interregional</t>
@@ -15507,11 +15507,11 @@
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>SQM S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F316" t="n">
-        <v>1.033</v>
+        <v>20</v>
       </c>
       <c r="G316" t="inlineStr">
         <is>
@@ -15520,12 +15520,12 @@
       </c>
       <c r="H316" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I316" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3083858&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J316" t="inlineStr">
@@ -21100,7 +21100,7 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>PLAN REGULADOR DE LA HUAYCA, COMUNA DE POZO ALMONTE (e-seia)</t>
+          <t>CONSTRUCCIÓN RELLENO SANITARIO PARA LA COMUNA DE POZO ALMONTE (e-seia)</t>
         </is>
       </c>
       <c r="C433" t="inlineStr">
@@ -21133,7 +21133,7 @@
       </c>
       <c r="I433" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141097087&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141090900&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J433" t="inlineStr">
@@ -21148,7 +21148,7 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>PLAN REGULADOR DE POZO ALMONTE, COMUNA DE POZO ALMONTE (e-seia)</t>
+          <t>PLAN REGULADOR DE LA HUAYCA, COMUNA DE POZO ALMONTE (e-seia)</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
@@ -21181,7 +21181,7 @@
       </c>
       <c r="I434" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141097135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141097087&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J434" t="inlineStr">
@@ -21196,7 +21196,7 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>PLAN SECCIONAL DE LA TIRANA, COMUNA DE POZO ALMONTE (e-seia)</t>
+          <t>PLAN REGULADOR DE POZO ALMONTE, COMUNA DE POZO ALMONTE (e-seia)</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
@@ -21229,7 +21229,7 @@
       </c>
       <c r="I435" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141097173&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141097135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J435" t="inlineStr">
@@ -21244,7 +21244,7 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>CONSTRUCCIÓN RELLENO SANITARIO PARA LA COMUNA DE POZO ALMONTE (e-seia)</t>
+          <t>PLAN SECCIONAL DE LA TIRANA, COMUNA DE POZO ALMONTE (e-seia)</t>
         </is>
       </c>
       <c r="C436" t="inlineStr">
@@ -21277,7 +21277,7 @@
       </c>
       <c r="I436" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141090900&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141097173&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J436" t="inlineStr">

--- a/data/Pozo Almonte.xlsx
+++ b/data/Pozo Almonte.xlsx
@@ -548,7 +548,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">

--- a/data/Pozo Almonte.xlsx
+++ b/data/Pozo Almonte.xlsx
@@ -1687,7 +1687,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Amunche Solar SpA</t>
+          <t>AIBOA SOLAR SPA</t>
         </is>
       </c>
       <c r="F28" t="n">

--- a/data/Pozo Almonte.xlsx
+++ b/data/Pozo Almonte.xlsx
@@ -6952,7 +6952,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Mejoramiento Eloisa</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6962,16 +6962,16 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Eloisa spa</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>75000</v>
+        <v>0</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
@@ -6980,12 +6980,12 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128980296&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -7000,7 +7000,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>PLANTA SOLAR PINTADOS</t>
+          <t>Mejoramiento Eloisa</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7015,11 +7015,11 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Planta Solar Pintados SpA.</t>
+          <t>Eloisa spa</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>200000</v>
+        <v>75000</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
@@ -7028,12 +7028,12 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955109&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128980296&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7048,7 +7048,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>PLANTA SOLAR PINTADOS</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7058,16 +7058,16 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Planta Solar Pintados SpA.</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
@@ -7081,7 +7081,7 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955109&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -8776,7 +8776,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Cal .</t>
+          <t>Proyecto Fotovoltaico Huatacondo</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8786,16 +8786,16 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
+          <t>AustrainSolar Chile Cuatro SpA</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>8426</v>
+        <v>196000</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
@@ -8804,12 +8804,12 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7561133&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7558839&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -8824,7 +8824,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Proyecto Fotovoltaico Huatacondo</t>
+          <t>Transporte Interregional de Cal .</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8834,16 +8834,16 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>AustrainSolar Chile Cuatro SpA</t>
+          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>196000</v>
+        <v>8426</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
@@ -8852,12 +8852,12 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7558839&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7561133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -11080,7 +11080,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>PROSPECCION MINERA CHALLACOLLO SUR</t>
+          <t>Reposición Ruta 5, Longitudinal Norte, Sector Reserva Nacional Pampa del Tamarugal, Km. 1.781,0 - Km 1.801, Provincia del Tamarugal, Región de Tarapacá</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -11095,11 +11095,11 @@
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>SOCIEDAD CONTRACTUAL MINERA BOREAL</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F224" t="n">
-        <v>370</v>
+        <v>5940</v>
       </c>
       <c r="G224" t="inlineStr">
         <is>
@@ -11113,7 +11113,7 @@
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5344496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5412341&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -11128,7 +11128,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Reposición Ruta 5, Longitudinal Norte, Sector Reserva Nacional Pampa del Tamarugal, Km. 1.781,0 - Km 1.801, Provincia del Tamarugal, Región de Tarapacá</t>
+          <t>PROSPECCION MINERA CHALLACOLLO SUR</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -11143,11 +11143,11 @@
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>SOCIEDAD CONTRACTUAL MINERA BOREAL</t>
         </is>
       </c>
       <c r="F225" t="n">
-        <v>5940</v>
+        <v>370</v>
       </c>
       <c r="G225" t="inlineStr">
         <is>
@@ -11161,7 +11161,7 @@
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5412341&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5344496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -11608,7 +11608,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 1, I Región</t>
+          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 3, I Región</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -11623,11 +11623,11 @@
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>Pozo Almonte Solar 1 SpA</t>
+          <t>Pozo Almonte Solar 3 S.A.</t>
         </is>
       </c>
       <c r="F235" t="n">
-        <v>40000</v>
+        <v>71000</v>
       </c>
       <c r="G235" t="inlineStr">
         <is>
@@ -11641,7 +11641,7 @@
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5162007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5164638&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -11656,7 +11656,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 2, I Región</t>
+          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 1, I Región</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -11671,7 +11671,7 @@
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>POZO ALMONTE SOLAR 2 S.A.</t>
+          <t>Pozo Almonte Solar 1 SpA</t>
         </is>
       </c>
       <c r="F236" t="n">
@@ -11689,7 +11689,7 @@
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5163148&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5162007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -11704,7 +11704,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 3, I Región</t>
+          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 2, I Región</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -11719,11 +11719,11 @@
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>Pozo Almonte Solar 3 S.A.</t>
+          <t>POZO ALMONTE SOLAR 2 S.A.</t>
         </is>
       </c>
       <c r="F237" t="n">
-        <v>71000</v>
+        <v>40000</v>
       </c>
       <c r="G237" t="inlineStr">
         <is>
@@ -11737,7 +11737,7 @@
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5164638&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5163148&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
@@ -14680,7 +14680,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Ripiera Sagasca (e-seia)</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -14690,16 +14690,16 @@
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Christopher Frank Sir</t>
         </is>
       </c>
       <c r="F299" t="n">
-        <v>1750</v>
+        <v>452</v>
       </c>
       <c r="G299" t="inlineStr">
         <is>
@@ -14708,12 +14708,12 @@
       </c>
       <c r="H299" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I299" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310471&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J299" t="inlineStr">
@@ -14728,7 +14728,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>Ripiera Sagasca (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
@@ -14738,16 +14738,16 @@
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>Christopher Frank Sir</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F300" t="n">
-        <v>452</v>
+        <v>1750</v>
       </c>
       <c r="G300" t="inlineStr">
         <is>
@@ -14756,12 +14756,12 @@
       </c>
       <c r="H300" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I300" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310471&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J300" t="inlineStr">
@@ -14776,7 +14776,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
@@ -14791,11 +14791,11 @@
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F301" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G301" t="inlineStr">
         <is>
@@ -14804,12 +14804,12 @@
       </c>
       <c r="H301" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I301" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J301" t="inlineStr">
@@ -14824,7 +14824,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
@@ -14839,11 +14839,11 @@
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F302" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G302" t="inlineStr">
         <is>
@@ -14852,12 +14852,12 @@
       </c>
       <c r="H302" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I302" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J302" t="inlineStr">
@@ -15496,14 +15496,10 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
-        </is>
-      </c>
-      <c r="C316" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>PAMPA HERMOSA</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr"/>
       <c r="D316" t="inlineStr">
         <is>
           <t>Interregional</t>
@@ -15511,11 +15507,11 @@
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>SQM S.A.</t>
         </is>
       </c>
       <c r="F316" t="n">
-        <v>20</v>
+        <v>1.033</v>
       </c>
       <c r="G316" t="inlineStr">
         <is>
@@ -15524,12 +15520,12 @@
       </c>
       <c r="H316" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I316" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3083858&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J316" t="inlineStr">
@@ -15544,10 +15540,14 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>PAMPA HERMOSA</t>
-        </is>
-      </c>
-      <c r="C317" t="inlineStr"/>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D317" t="inlineStr">
         <is>
           <t>Interregional</t>
@@ -15555,11 +15555,11 @@
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>SQM S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F317" t="n">
-        <v>1.033</v>
+        <v>20</v>
       </c>
       <c r="G317" t="inlineStr">
         <is>
@@ -15568,12 +15568,12 @@
       </c>
       <c r="H317" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I317" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3083858&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J317" t="inlineStr">
@@ -21148,7 +21148,7 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>PLAN REGULADOR DE LA HUAYCA, COMUNA DE POZO ALMONTE (e-seia)</t>
+          <t>CONSTRUCCIÓN RELLENO SANITARIO PARA LA COMUNA DE POZO ALMONTE (e-seia)</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
@@ -21181,7 +21181,7 @@
       </c>
       <c r="I434" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141097087&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141090900&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J434" t="inlineStr">
@@ -21196,7 +21196,7 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>PLAN REGULADOR DE POZO ALMONTE, COMUNA DE POZO ALMONTE (e-seia)</t>
+          <t>PLAN REGULADOR DE LA HUAYCA, COMUNA DE POZO ALMONTE (e-seia)</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
@@ -21229,7 +21229,7 @@
       </c>
       <c r="I435" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141097135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141097087&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J435" t="inlineStr">
@@ -21244,7 +21244,7 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>PLAN SECCIONAL DE LA TIRANA, COMUNA DE POZO ALMONTE (e-seia)</t>
+          <t>PLAN REGULADOR DE POZO ALMONTE, COMUNA DE POZO ALMONTE (e-seia)</t>
         </is>
       </c>
       <c r="C436" t="inlineStr">
@@ -21277,7 +21277,7 @@
       </c>
       <c r="I436" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141097173&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141097135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J436" t="inlineStr">
@@ -21292,7 +21292,7 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>CONSTRUCCIÓN RELLENO SANITARIO PARA LA COMUNA DE POZO ALMONTE (e-seia)</t>
+          <t>PLAN SECCIONAL DE LA TIRANA, COMUNA DE POZO ALMONTE (e-seia)</t>
         </is>
       </c>
       <c r="C437" t="inlineStr">
@@ -21325,7 +21325,7 @@
       </c>
       <c r="I437" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141090900&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141097173&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J437" t="inlineStr">

--- a/data/Pozo Almonte.xlsx
+++ b/data/Pozo Almonte.xlsx
@@ -6952,7 +6952,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Mejoramiento Eloisa</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6962,16 +6962,16 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Eloisa spa</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>0</v>
+        <v>75000</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
@@ -6980,12 +6980,12 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128980296&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -7000,7 +7000,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Mejoramiento Eloisa</t>
+          <t>PLANTA SOLAR PINTADOS</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7015,11 +7015,11 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Eloisa spa</t>
+          <t>Planta Solar Pintados SpA.</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>75000</v>
+        <v>200000</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
@@ -7028,12 +7028,12 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128980296&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955109&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7048,7 +7048,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>PLANTA SOLAR PINTADOS</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7058,16 +7058,16 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Planta Solar Pintados SpA.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>200000</v>
+        <v>0</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
@@ -7081,7 +7081,7 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955109&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -8776,7 +8776,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Proyecto Fotovoltaico Huatacondo</t>
+          <t>Transporte Interregional de Cal .</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8786,16 +8786,16 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>AustrainSolar Chile Cuatro SpA</t>
+          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>196000</v>
+        <v>8426</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
@@ -8804,12 +8804,12 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7558839&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7561133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -8824,7 +8824,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Cal .</t>
+          <t>Proyecto Fotovoltaico Huatacondo</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8834,16 +8834,16 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
+          <t>AustrainSolar Chile Cuatro SpA</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>8426</v>
+        <v>196000</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
@@ -8852,12 +8852,12 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7561133&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7558839&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -11080,7 +11080,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Reposición Ruta 5, Longitudinal Norte, Sector Reserva Nacional Pampa del Tamarugal, Km. 1.781,0 - Km 1.801, Provincia del Tamarugal, Región de Tarapacá</t>
+          <t>PROSPECCION MINERA CHALLACOLLO SUR</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -11095,11 +11095,11 @@
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>SOCIEDAD CONTRACTUAL MINERA BOREAL</t>
         </is>
       </c>
       <c r="F224" t="n">
-        <v>5940</v>
+        <v>370</v>
       </c>
       <c r="G224" t="inlineStr">
         <is>
@@ -11113,7 +11113,7 @@
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5412341&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5344496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -11128,7 +11128,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>PROSPECCION MINERA CHALLACOLLO SUR</t>
+          <t>Reposición Ruta 5, Longitudinal Norte, Sector Reserva Nacional Pampa del Tamarugal, Km. 1.781,0 - Km 1.801, Provincia del Tamarugal, Región de Tarapacá</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -11143,11 +11143,11 @@
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>SOCIEDAD CONTRACTUAL MINERA BOREAL</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F225" t="n">
-        <v>370</v>
+        <v>5940</v>
       </c>
       <c r="G225" t="inlineStr">
         <is>
@@ -11161,7 +11161,7 @@
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5344496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5412341&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -11608,7 +11608,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 3, I Región</t>
+          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 1, I Región</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -11623,11 +11623,11 @@
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>Pozo Almonte Solar 3 S.A.</t>
+          <t>Pozo Almonte Solar 1 SpA</t>
         </is>
       </c>
       <c r="F235" t="n">
-        <v>71000</v>
+        <v>40000</v>
       </c>
       <c r="G235" t="inlineStr">
         <is>
@@ -11641,7 +11641,7 @@
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5164638&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5162007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -11656,7 +11656,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 1, I Región</t>
+          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 2, I Región</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -11671,7 +11671,7 @@
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>Pozo Almonte Solar 1 SpA</t>
+          <t>POZO ALMONTE SOLAR 2 S.A.</t>
         </is>
       </c>
       <c r="F236" t="n">
@@ -11689,7 +11689,7 @@
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5162007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5163148&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -11704,7 +11704,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 2, I Región</t>
+          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 3, I Región</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -11719,11 +11719,11 @@
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>POZO ALMONTE SOLAR 2 S.A.</t>
+          <t>Pozo Almonte Solar 3 S.A.</t>
         </is>
       </c>
       <c r="F237" t="n">
-        <v>40000</v>
+        <v>71000</v>
       </c>
       <c r="G237" t="inlineStr">
         <is>
@@ -11737,7 +11737,7 @@
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5163148&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5164638&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
@@ -14680,7 +14680,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>Ripiera Sagasca (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -14690,16 +14690,16 @@
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>Christopher Frank Sir</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F299" t="n">
-        <v>452</v>
+        <v>1750</v>
       </c>
       <c r="G299" t="inlineStr">
         <is>
@@ -14708,12 +14708,12 @@
       </c>
       <c r="H299" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I299" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310471&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J299" t="inlineStr">
@@ -14728,7 +14728,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Ripiera Sagasca (e-seia)</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
@@ -14738,16 +14738,16 @@
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Christopher Frank Sir</t>
         </is>
       </c>
       <c r="F300" t="n">
-        <v>1750</v>
+        <v>452</v>
       </c>
       <c r="G300" t="inlineStr">
         <is>
@@ -14756,12 +14756,12 @@
       </c>
       <c r="H300" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I300" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310471&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J300" t="inlineStr">
@@ -14776,7 +14776,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
@@ -14791,11 +14791,11 @@
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F301" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G301" t="inlineStr">
         <is>
@@ -14804,12 +14804,12 @@
       </c>
       <c r="H301" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I301" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J301" t="inlineStr">
@@ -14824,7 +14824,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
@@ -14839,11 +14839,11 @@
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F302" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G302" t="inlineStr">
         <is>
@@ -14852,12 +14852,12 @@
       </c>
       <c r="H302" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I302" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J302" t="inlineStr">
@@ -15496,10 +15496,14 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>PAMPA HERMOSA</t>
-        </is>
-      </c>
-      <c r="C316" t="inlineStr"/>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D316" t="inlineStr">
         <is>
           <t>Interregional</t>
@@ -15507,11 +15511,11 @@
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>SQM S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F316" t="n">
-        <v>1.033</v>
+        <v>20</v>
       </c>
       <c r="G316" t="inlineStr">
         <is>
@@ -15520,12 +15524,12 @@
       </c>
       <c r="H316" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I316" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3083858&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J316" t="inlineStr">
@@ -15540,14 +15544,10 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
-        </is>
-      </c>
-      <c r="C317" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>PAMPA HERMOSA</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr"/>
       <c r="D317" t="inlineStr">
         <is>
           <t>Interregional</t>
@@ -15555,11 +15555,11 @@
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>SQM S.A.</t>
         </is>
       </c>
       <c r="F317" t="n">
-        <v>20</v>
+        <v>1.033</v>
       </c>
       <c r="G317" t="inlineStr">
         <is>
@@ -15568,12 +15568,12 @@
       </c>
       <c r="H317" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I317" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3083858&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J317" t="inlineStr">
@@ -21148,7 +21148,7 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>CONSTRUCCIÓN RELLENO SANITARIO PARA LA COMUNA DE POZO ALMONTE (e-seia)</t>
+          <t>PLAN REGULADOR DE LA HUAYCA, COMUNA DE POZO ALMONTE (e-seia)</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
@@ -21181,7 +21181,7 @@
       </c>
       <c r="I434" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141090900&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141097087&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J434" t="inlineStr">
@@ -21196,7 +21196,7 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>PLAN REGULADOR DE LA HUAYCA, COMUNA DE POZO ALMONTE (e-seia)</t>
+          <t>PLAN REGULADOR DE POZO ALMONTE, COMUNA DE POZO ALMONTE (e-seia)</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
@@ -21229,7 +21229,7 @@
       </c>
       <c r="I435" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141097087&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141097135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J435" t="inlineStr">
@@ -21244,7 +21244,7 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>PLAN REGULADOR DE POZO ALMONTE, COMUNA DE POZO ALMONTE (e-seia)</t>
+          <t>PLAN SECCIONAL DE LA TIRANA, COMUNA DE POZO ALMONTE (e-seia)</t>
         </is>
       </c>
       <c r="C436" t="inlineStr">
@@ -21277,7 +21277,7 @@
       </c>
       <c r="I436" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141097135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141097173&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J436" t="inlineStr">
@@ -21292,7 +21292,7 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>PLAN SECCIONAL DE LA TIRANA, COMUNA DE POZO ALMONTE (e-seia)</t>
+          <t>CONSTRUCCIÓN RELLENO SANITARIO PARA LA COMUNA DE POZO ALMONTE (e-seia)</t>
         </is>
       </c>
       <c r="C437" t="inlineStr">
@@ -21325,7 +21325,7 @@
       </c>
       <c r="I437" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141097173&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141090900&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J437" t="inlineStr">

--- a/data/Pozo Almonte.xlsx
+++ b/data/Pozo Almonte.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>17/06/2022</t>
+          <t>28/06/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Pozo Almonte.xlsx
+++ b/data/Pozo Almonte.xlsx
@@ -2943,7 +2943,7 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>19/08/2019</t>
+          <t>18/08/2019</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -6952,7 +6952,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Mejoramiento Eloisa</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6962,16 +6962,16 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Eloisa spa</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>75000</v>
+        <v>0</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
@@ -6980,12 +6980,12 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128980296&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -7000,7 +7000,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>PLANTA SOLAR PINTADOS</t>
+          <t>Mejoramiento Eloisa</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7015,11 +7015,11 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Planta Solar Pintados SpA.</t>
+          <t>Eloisa spa</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>200000</v>
+        <v>75000</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
@@ -7028,12 +7028,12 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955109&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128980296&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7048,7 +7048,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>PLANTA SOLAR PINTADOS</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7058,16 +7058,16 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Planta Solar Pintados SpA.</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
@@ -7081,7 +7081,7 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955109&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -8776,7 +8776,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Cal .</t>
+          <t>Proyecto Fotovoltaico Huatacondo</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8786,16 +8786,16 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
+          <t>AustrainSolar Chile Cuatro SpA</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>8426</v>
+        <v>196000</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
@@ -8804,12 +8804,12 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7561133&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7558839&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -8824,7 +8824,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Proyecto Fotovoltaico Huatacondo</t>
+          <t>Transporte Interregional de Cal .</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8834,16 +8834,16 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>AustrainSolar Chile Cuatro SpA</t>
+          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>196000</v>
+        <v>8426</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
@@ -8852,12 +8852,12 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7558839&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7561133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -11080,7 +11080,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>PROSPECCION MINERA CHALLACOLLO SUR</t>
+          <t>Reposición Ruta 5, Longitudinal Norte, Sector Reserva Nacional Pampa del Tamarugal, Km. 1.781,0 - Km 1.801, Provincia del Tamarugal, Región de Tarapacá</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -11095,11 +11095,11 @@
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>SOCIEDAD CONTRACTUAL MINERA BOREAL</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F224" t="n">
-        <v>370</v>
+        <v>5940</v>
       </c>
       <c r="G224" t="inlineStr">
         <is>
@@ -11113,7 +11113,7 @@
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5344496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5412341&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -11128,7 +11128,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Reposición Ruta 5, Longitudinal Norte, Sector Reserva Nacional Pampa del Tamarugal, Km. 1.781,0 - Km 1.801, Provincia del Tamarugal, Región de Tarapacá</t>
+          <t>PROSPECCION MINERA CHALLACOLLO SUR</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -11143,11 +11143,11 @@
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>SOCIEDAD CONTRACTUAL MINERA BOREAL</t>
         </is>
       </c>
       <c r="F225" t="n">
-        <v>5940</v>
+        <v>370</v>
       </c>
       <c r="G225" t="inlineStr">
         <is>
@@ -11161,7 +11161,7 @@
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5412341&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5344496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -11608,7 +11608,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 1, I Región</t>
+          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 3, I Región</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -11623,11 +11623,11 @@
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>Pozo Almonte Solar 1 SpA</t>
+          <t>Pozo Almonte Solar 3 S.A.</t>
         </is>
       </c>
       <c r="F235" t="n">
-        <v>40000</v>
+        <v>71000</v>
       </c>
       <c r="G235" t="inlineStr">
         <is>
@@ -11641,7 +11641,7 @@
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5162007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5164638&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -11656,7 +11656,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 2, I Región</t>
+          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 1, I Región</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -11671,7 +11671,7 @@
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>POZO ALMONTE SOLAR 2 S.A.</t>
+          <t>Pozo Almonte Solar 1 SpA</t>
         </is>
       </c>
       <c r="F236" t="n">
@@ -11689,7 +11689,7 @@
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5163148&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5162007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -11704,7 +11704,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 3, I Región</t>
+          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 2, I Región</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -11719,11 +11719,11 @@
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>Pozo Almonte Solar 3 S.A.</t>
+          <t>POZO ALMONTE SOLAR 2 S.A.</t>
         </is>
       </c>
       <c r="F237" t="n">
-        <v>71000</v>
+        <v>40000</v>
       </c>
       <c r="G237" t="inlineStr">
         <is>
@@ -11737,7 +11737,7 @@
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5164638&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5163148&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
@@ -14680,7 +14680,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Ripiera Sagasca (e-seia)</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -14690,16 +14690,16 @@
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Christopher Frank Sir</t>
         </is>
       </c>
       <c r="F299" t="n">
-        <v>1750</v>
+        <v>452</v>
       </c>
       <c r="G299" t="inlineStr">
         <is>
@@ -14708,12 +14708,12 @@
       </c>
       <c r="H299" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I299" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310471&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J299" t="inlineStr">
@@ -14728,7 +14728,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>Ripiera Sagasca (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
@@ -14738,16 +14738,16 @@
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>Christopher Frank Sir</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F300" t="n">
-        <v>452</v>
+        <v>1750</v>
       </c>
       <c r="G300" t="inlineStr">
         <is>
@@ -14756,12 +14756,12 @@
       </c>
       <c r="H300" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I300" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310471&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J300" t="inlineStr">
@@ -14776,7 +14776,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
@@ -14791,11 +14791,11 @@
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F301" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G301" t="inlineStr">
         <is>
@@ -14804,12 +14804,12 @@
       </c>
       <c r="H301" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I301" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J301" t="inlineStr">
@@ -14824,7 +14824,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
@@ -14839,11 +14839,11 @@
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F302" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G302" t="inlineStr">
         <is>
@@ -14852,12 +14852,12 @@
       </c>
       <c r="H302" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I302" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J302" t="inlineStr">
@@ -15496,14 +15496,10 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
-        </is>
-      </c>
-      <c r="C316" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>PAMPA HERMOSA</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr"/>
       <c r="D316" t="inlineStr">
         <is>
           <t>Interregional</t>
@@ -15511,11 +15507,11 @@
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>SQM S.A.</t>
         </is>
       </c>
       <c r="F316" t="n">
-        <v>20</v>
+        <v>1.033</v>
       </c>
       <c r="G316" t="inlineStr">
         <is>
@@ -15524,12 +15520,12 @@
       </c>
       <c r="H316" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I316" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3083858&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J316" t="inlineStr">
@@ -15544,10 +15540,14 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>PAMPA HERMOSA</t>
-        </is>
-      </c>
-      <c r="C317" t="inlineStr"/>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D317" t="inlineStr">
         <is>
           <t>Interregional</t>
@@ -15555,11 +15555,11 @@
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>SQM S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F317" t="n">
-        <v>1.033</v>
+        <v>20</v>
       </c>
       <c r="G317" t="inlineStr">
         <is>
@@ -15568,12 +15568,12 @@
       </c>
       <c r="H317" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I317" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3083858&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J317" t="inlineStr">
@@ -21148,7 +21148,7 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>PLAN REGULADOR DE LA HUAYCA, COMUNA DE POZO ALMONTE (e-seia)</t>
+          <t>CONSTRUCCIÓN RELLENO SANITARIO PARA LA COMUNA DE POZO ALMONTE (e-seia)</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
@@ -21181,7 +21181,7 @@
       </c>
       <c r="I434" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141097087&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141090900&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J434" t="inlineStr">
@@ -21196,7 +21196,7 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>PLAN REGULADOR DE POZO ALMONTE, COMUNA DE POZO ALMONTE (e-seia)</t>
+          <t>PLAN REGULADOR DE LA HUAYCA, COMUNA DE POZO ALMONTE (e-seia)</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
@@ -21229,7 +21229,7 @@
       </c>
       <c r="I435" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141097135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141097087&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J435" t="inlineStr">
@@ -21244,7 +21244,7 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>PLAN SECCIONAL DE LA TIRANA, COMUNA DE POZO ALMONTE (e-seia)</t>
+          <t>PLAN REGULADOR DE POZO ALMONTE, COMUNA DE POZO ALMONTE (e-seia)</t>
         </is>
       </c>
       <c r="C436" t="inlineStr">
@@ -21277,7 +21277,7 @@
       </c>
       <c r="I436" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141097173&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141097135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J436" t="inlineStr">
@@ -21292,7 +21292,7 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>CONSTRUCCIÓN RELLENO SANITARIO PARA LA COMUNA DE POZO ALMONTE (e-seia)</t>
+          <t>PLAN SECCIONAL DE LA TIRANA, COMUNA DE POZO ALMONTE (e-seia)</t>
         </is>
       </c>
       <c r="C437" t="inlineStr">
@@ -21325,7 +21325,7 @@
       </c>
       <c r="I437" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141090900&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141097173&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J437" t="inlineStr">

--- a/data/Pozo Almonte.xlsx
+++ b/data/Pozo Almonte.xlsx
@@ -7000,7 +7000,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Mejoramiento Eloisa</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7010,16 +7010,16 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Eloisa spa</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>0</v>
+        <v>75000</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
@@ -7028,12 +7028,12 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128980296&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7048,7 +7048,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Mejoramiento Eloisa</t>
+          <t>PLANTA SOLAR PINTADOS</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7063,11 +7063,11 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Eloisa spa</t>
+          <t>Planta Solar Pintados SpA.</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>75000</v>
+        <v>200000</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
@@ -7076,12 +7076,12 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128980296&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955109&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7096,7 +7096,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>PLANTA SOLAR PINTADOS</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7106,16 +7106,16 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Planta Solar Pintados SpA.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>200000</v>
+        <v>0</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
@@ -7129,7 +7129,7 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955109&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -8824,7 +8824,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Proyecto Fotovoltaico Huatacondo</t>
+          <t>Transporte Interregional de Cal .</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8834,16 +8834,16 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>AustrainSolar Chile Cuatro SpA</t>
+          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>196000</v>
+        <v>8426</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
@@ -8852,12 +8852,12 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7558839&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7561133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -8872,7 +8872,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Cal .</t>
+          <t>Proyecto Fotovoltaico Huatacondo</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8882,16 +8882,16 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
+          <t>AustrainSolar Chile Cuatro SpA</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>8426</v>
+        <v>196000</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
@@ -8900,12 +8900,12 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7561133&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7558839&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -11128,7 +11128,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Reposición Ruta 5, Longitudinal Norte, Sector Reserva Nacional Pampa del Tamarugal, Km. 1.781,0 - Km 1.801, Provincia del Tamarugal, Región de Tarapacá</t>
+          <t>PROSPECCION MINERA CHALLACOLLO SUR</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -11143,11 +11143,11 @@
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>SOCIEDAD CONTRACTUAL MINERA BOREAL</t>
         </is>
       </c>
       <c r="F225" t="n">
-        <v>5940</v>
+        <v>370</v>
       </c>
       <c r="G225" t="inlineStr">
         <is>
@@ -11161,7 +11161,7 @@
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5412341&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5344496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -11176,7 +11176,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>PROSPECCION MINERA CHALLACOLLO SUR</t>
+          <t>Reposición Ruta 5, Longitudinal Norte, Sector Reserva Nacional Pampa del Tamarugal, Km. 1.781,0 - Km 1.801, Provincia del Tamarugal, Región de Tarapacá</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -11191,11 +11191,11 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>SOCIEDAD CONTRACTUAL MINERA BOREAL</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F226" t="n">
-        <v>370</v>
+        <v>5940</v>
       </c>
       <c r="G226" t="inlineStr">
         <is>
@@ -11209,7 +11209,7 @@
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5344496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5412341&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -11656,7 +11656,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 3, I Región</t>
+          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 1, I Región</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -11671,11 +11671,11 @@
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>Pozo Almonte Solar 3 S.A.</t>
+          <t>Pozo Almonte Solar 1 SpA</t>
         </is>
       </c>
       <c r="F236" t="n">
-        <v>71000</v>
+        <v>40000</v>
       </c>
       <c r="G236" t="inlineStr">
         <is>
@@ -11689,7 +11689,7 @@
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5164638&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5162007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -11704,7 +11704,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 1, I Región</t>
+          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 2, I Región</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -11719,7 +11719,7 @@
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>Pozo Almonte Solar 1 SpA</t>
+          <t>POZO ALMONTE SOLAR 2 S.A.</t>
         </is>
       </c>
       <c r="F237" t="n">
@@ -11737,7 +11737,7 @@
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5162007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5163148&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
@@ -11752,7 +11752,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 2, I Región</t>
+          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 3, I Región</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -11767,11 +11767,11 @@
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>POZO ALMONTE SOLAR 2 S.A.</t>
+          <t>Pozo Almonte Solar 3 S.A.</t>
         </is>
       </c>
       <c r="F238" t="n">
-        <v>40000</v>
+        <v>71000</v>
       </c>
       <c r="G238" t="inlineStr">
         <is>
@@ -11785,7 +11785,7 @@
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5163148&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5164638&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
@@ -14728,7 +14728,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>Ripiera Sagasca (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
@@ -14738,16 +14738,16 @@
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>Christopher Frank Sir</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F300" t="n">
-        <v>452</v>
+        <v>1750</v>
       </c>
       <c r="G300" t="inlineStr">
         <is>
@@ -14756,12 +14756,12 @@
       </c>
       <c r="H300" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I300" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310471&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J300" t="inlineStr">
@@ -14776,7 +14776,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Ripiera Sagasca (e-seia)</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
@@ -14786,16 +14786,16 @@
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Christopher Frank Sir</t>
         </is>
       </c>
       <c r="F301" t="n">
-        <v>1750</v>
+        <v>452</v>
       </c>
       <c r="G301" t="inlineStr">
         <is>
@@ -14804,12 +14804,12 @@
       </c>
       <c r="H301" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I301" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310471&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J301" t="inlineStr">
@@ -14824,7 +14824,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
@@ -14839,11 +14839,11 @@
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F302" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G302" t="inlineStr">
         <is>
@@ -14852,12 +14852,12 @@
       </c>
       <c r="H302" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I302" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J302" t="inlineStr">
@@ -14872,7 +14872,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
@@ -14887,11 +14887,11 @@
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F303" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G303" t="inlineStr">
         <is>
@@ -14900,12 +14900,12 @@
       </c>
       <c r="H303" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I303" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J303" t="inlineStr">
@@ -15544,10 +15544,14 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>PAMPA HERMOSA</t>
-        </is>
-      </c>
-      <c r="C317" t="inlineStr"/>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D317" t="inlineStr">
         <is>
           <t>Interregional</t>
@@ -15555,11 +15559,11 @@
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>SQM S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F317" t="n">
-        <v>1.033</v>
+        <v>20</v>
       </c>
       <c r="G317" t="inlineStr">
         <is>
@@ -15568,12 +15572,12 @@
       </c>
       <c r="H317" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I317" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3083858&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J317" t="inlineStr">
@@ -15588,14 +15592,10 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
-        </is>
-      </c>
-      <c r="C318" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>PAMPA HERMOSA</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr"/>
       <c r="D318" t="inlineStr">
         <is>
           <t>Interregional</t>
@@ -15603,11 +15603,11 @@
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>SQM S.A.</t>
         </is>
       </c>
       <c r="F318" t="n">
-        <v>20</v>
+        <v>1.033</v>
       </c>
       <c r="G318" t="inlineStr">
         <is>
@@ -15616,12 +15616,12 @@
       </c>
       <c r="H318" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I318" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3083858&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J318" t="inlineStr">

--- a/data/Pozo Almonte.xlsx
+++ b/data/Pozo Almonte.xlsx
@@ -7000,7 +7000,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Mejoramiento Eloisa</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7010,16 +7010,16 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Eloisa spa</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>75000</v>
+        <v>0</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
@@ -7028,12 +7028,12 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128980296&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7048,7 +7048,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>PLANTA SOLAR PINTADOS</t>
+          <t>Mejoramiento Eloisa</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7063,11 +7063,11 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Planta Solar Pintados SpA.</t>
+          <t>Eloisa spa</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>200000</v>
+        <v>75000</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
@@ -7076,12 +7076,12 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955109&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128980296&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7096,7 +7096,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>PLANTA SOLAR PINTADOS</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7106,16 +7106,16 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Planta Solar Pintados SpA.</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
@@ -7129,7 +7129,7 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955109&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -8824,7 +8824,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Cal .</t>
+          <t>Proyecto Fotovoltaico Huatacondo</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8834,16 +8834,16 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
+          <t>AustrainSolar Chile Cuatro SpA</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>8426</v>
+        <v>196000</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
@@ -8852,12 +8852,12 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7561133&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7558839&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -8872,7 +8872,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Proyecto Fotovoltaico Huatacondo</t>
+          <t>Transporte Interregional de Cal .</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8882,16 +8882,16 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>AustrainSolar Chile Cuatro SpA</t>
+          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>196000</v>
+        <v>8426</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
@@ -8900,12 +8900,12 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7558839&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7561133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -11128,7 +11128,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>PROSPECCION MINERA CHALLACOLLO SUR</t>
+          <t>Reposición Ruta 5, Longitudinal Norte, Sector Reserva Nacional Pampa del Tamarugal, Km. 1.781,0 - Km 1.801, Provincia del Tamarugal, Región de Tarapacá</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -11143,11 +11143,11 @@
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>SOCIEDAD CONTRACTUAL MINERA BOREAL</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F225" t="n">
-        <v>370</v>
+        <v>5940</v>
       </c>
       <c r="G225" t="inlineStr">
         <is>
@@ -11161,7 +11161,7 @@
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5344496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5412341&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -11176,7 +11176,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Reposición Ruta 5, Longitudinal Norte, Sector Reserva Nacional Pampa del Tamarugal, Km. 1.781,0 - Km 1.801, Provincia del Tamarugal, Región de Tarapacá</t>
+          <t>PROSPECCION MINERA CHALLACOLLO SUR</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -11191,11 +11191,11 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>SOCIEDAD CONTRACTUAL MINERA BOREAL</t>
         </is>
       </c>
       <c r="F226" t="n">
-        <v>5940</v>
+        <v>370</v>
       </c>
       <c r="G226" t="inlineStr">
         <is>
@@ -11209,7 +11209,7 @@
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5412341&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5344496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -11656,7 +11656,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 1, I Región</t>
+          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 3, I Región</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -11671,11 +11671,11 @@
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>Pozo Almonte Solar 1 SpA</t>
+          <t>Pozo Almonte Solar 3 S.A.</t>
         </is>
       </c>
       <c r="F236" t="n">
-        <v>40000</v>
+        <v>71000</v>
       </c>
       <c r="G236" t="inlineStr">
         <is>
@@ -11689,7 +11689,7 @@
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5162007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5164638&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -11704,7 +11704,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 2, I Región</t>
+          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 1, I Región</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -11719,7 +11719,7 @@
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>POZO ALMONTE SOLAR 2 S.A.</t>
+          <t>Pozo Almonte Solar 1 SpA</t>
         </is>
       </c>
       <c r="F237" t="n">
@@ -11737,7 +11737,7 @@
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5163148&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5162007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
@@ -11752,7 +11752,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 3, I Región</t>
+          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 2, I Región</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -11767,11 +11767,11 @@
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>Pozo Almonte Solar 3 S.A.</t>
+          <t>POZO ALMONTE SOLAR 2 S.A.</t>
         </is>
       </c>
       <c r="F238" t="n">
-        <v>71000</v>
+        <v>40000</v>
       </c>
       <c r="G238" t="inlineStr">
         <is>
@@ -11785,7 +11785,7 @@
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5164638&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5163148&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
@@ -14728,7 +14728,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Ripiera Sagasca (e-seia)</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
@@ -14738,16 +14738,16 @@
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Christopher Frank Sir</t>
         </is>
       </c>
       <c r="F300" t="n">
-        <v>1750</v>
+        <v>452</v>
       </c>
       <c r="G300" t="inlineStr">
         <is>
@@ -14756,12 +14756,12 @@
       </c>
       <c r="H300" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I300" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310471&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J300" t="inlineStr">
@@ -14776,7 +14776,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>Ripiera Sagasca (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
@@ -14786,16 +14786,16 @@
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>Christopher Frank Sir</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F301" t="n">
-        <v>452</v>
+        <v>1750</v>
       </c>
       <c r="G301" t="inlineStr">
         <is>
@@ -14804,12 +14804,12 @@
       </c>
       <c r="H301" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I301" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310471&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J301" t="inlineStr">
@@ -14824,7 +14824,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
@@ -14839,11 +14839,11 @@
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F302" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G302" t="inlineStr">
         <is>
@@ -14852,12 +14852,12 @@
       </c>
       <c r="H302" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I302" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J302" t="inlineStr">
@@ -14872,7 +14872,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
@@ -14887,11 +14887,11 @@
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F303" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G303" t="inlineStr">
         <is>
@@ -14900,12 +14900,12 @@
       </c>
       <c r="H303" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I303" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J303" t="inlineStr">
@@ -15544,14 +15544,10 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
-        </is>
-      </c>
-      <c r="C317" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>PAMPA HERMOSA</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr"/>
       <c r="D317" t="inlineStr">
         <is>
           <t>Interregional</t>
@@ -15559,11 +15555,11 @@
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>SQM S.A.</t>
         </is>
       </c>
       <c r="F317" t="n">
-        <v>20</v>
+        <v>1.033</v>
       </c>
       <c r="G317" t="inlineStr">
         <is>
@@ -15572,12 +15568,12 @@
       </c>
       <c r="H317" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I317" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3083858&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J317" t="inlineStr">
@@ -15592,10 +15588,14 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>PAMPA HERMOSA</t>
-        </is>
-      </c>
-      <c r="C318" t="inlineStr"/>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D318" t="inlineStr">
         <is>
           <t>Interregional</t>
@@ -15603,11 +15603,11 @@
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>SQM S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F318" t="n">
-        <v>1.033</v>
+        <v>20</v>
       </c>
       <c r="G318" t="inlineStr">
         <is>
@@ -15616,12 +15616,12 @@
       </c>
       <c r="H318" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I318" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3083858&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J318" t="inlineStr">

--- a/data/Pozo Almonte.xlsx
+++ b/data/Pozo Almonte.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/08/2022</t>
+          <t>24/08/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Pozo Almonte.xlsx
+++ b/data/Pozo Almonte.xlsx
@@ -1076,7 +1076,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">

--- a/data/Pozo Almonte.xlsx
+++ b/data/Pozo Almonte.xlsx
@@ -1067,7 +1067,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>

--- a/data/Pozo Almonte.xlsx
+++ b/data/Pozo Almonte.xlsx
@@ -7048,7 +7048,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Mejoramiento Eloisa</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7058,16 +7058,16 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Eloisa spa</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>0</v>
+        <v>75000</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
@@ -7076,12 +7076,12 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128980296&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7096,7 +7096,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Mejoramiento Eloisa</t>
+          <t>PLANTA SOLAR PINTADOS</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7111,11 +7111,11 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Eloisa spa</t>
+          <t>Planta Solar Pintados SpA.</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>75000</v>
+        <v>200000</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
@@ -7124,12 +7124,12 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128980296&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955109&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7144,7 +7144,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>PLANTA SOLAR PINTADOS</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7154,16 +7154,16 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Planta Solar Pintados SpA.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>200000</v>
+        <v>0</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
@@ -7177,7 +7177,7 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955109&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -8872,7 +8872,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Proyecto Fotovoltaico Huatacondo</t>
+          <t>Transporte Interregional de Cal .</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8882,16 +8882,16 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>AustrainSolar Chile Cuatro SpA</t>
+          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>196000</v>
+        <v>8426</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
@@ -8900,12 +8900,12 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7558839&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7561133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -8920,7 +8920,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Cal .</t>
+          <t>Proyecto Fotovoltaico Huatacondo</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8930,16 +8930,16 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
+          <t>AustrainSolar Chile Cuatro SpA</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>8426</v>
+        <v>196000</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
@@ -8948,12 +8948,12 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7561133&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7558839&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -11176,7 +11176,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Reposición Ruta 5, Longitudinal Norte, Sector Reserva Nacional Pampa del Tamarugal, Km. 1.781,0 - Km 1.801, Provincia del Tamarugal, Región de Tarapacá</t>
+          <t>PROSPECCION MINERA CHALLACOLLO SUR</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -11191,11 +11191,11 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>SOCIEDAD CONTRACTUAL MINERA BOREAL</t>
         </is>
       </c>
       <c r="F226" t="n">
-        <v>5940</v>
+        <v>370</v>
       </c>
       <c r="G226" t="inlineStr">
         <is>
@@ -11209,7 +11209,7 @@
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5412341&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5344496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -11224,7 +11224,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>PROSPECCION MINERA CHALLACOLLO SUR</t>
+          <t>Reposición Ruta 5, Longitudinal Norte, Sector Reserva Nacional Pampa del Tamarugal, Km. 1.781,0 - Km 1.801, Provincia del Tamarugal, Región de Tarapacá</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -11239,11 +11239,11 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>SOCIEDAD CONTRACTUAL MINERA BOREAL</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F227" t="n">
-        <v>370</v>
+        <v>5940</v>
       </c>
       <c r="G227" t="inlineStr">
         <is>
@@ -11257,7 +11257,7 @@
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5344496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5412341&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -11704,7 +11704,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 3, I Región</t>
+          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 1, I Región</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -11719,11 +11719,11 @@
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>Pozo Almonte Solar 3 S.A.</t>
+          <t>Pozo Almonte Solar 1 SpA</t>
         </is>
       </c>
       <c r="F237" t="n">
-        <v>71000</v>
+        <v>40000</v>
       </c>
       <c r="G237" t="inlineStr">
         <is>
@@ -11737,7 +11737,7 @@
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5164638&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5162007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
@@ -11752,7 +11752,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 1, I Región</t>
+          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 2, I Región</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -11767,7 +11767,7 @@
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>Pozo Almonte Solar 1 SpA</t>
+          <t>POZO ALMONTE SOLAR 2 S.A.</t>
         </is>
       </c>
       <c r="F238" t="n">
@@ -11785,7 +11785,7 @@
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5162007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5163148&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
@@ -11800,7 +11800,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 2, I Región</t>
+          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 3, I Región</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -11815,11 +11815,11 @@
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>POZO ALMONTE SOLAR 2 S.A.</t>
+          <t>Pozo Almonte Solar 3 S.A.</t>
         </is>
       </c>
       <c r="F239" t="n">
-        <v>40000</v>
+        <v>71000</v>
       </c>
       <c r="G239" t="inlineStr">
         <is>
@@ -11833,7 +11833,7 @@
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5163148&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5164638&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
@@ -14776,7 +14776,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>Ripiera Sagasca (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
@@ -14786,16 +14786,16 @@
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>Christopher Frank Sir</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F301" t="n">
-        <v>452</v>
+        <v>1750</v>
       </c>
       <c r="G301" t="inlineStr">
         <is>
@@ -14804,12 +14804,12 @@
       </c>
       <c r="H301" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I301" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310471&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J301" t="inlineStr">
@@ -14824,7 +14824,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Ripiera Sagasca (e-seia)</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
@@ -14834,16 +14834,16 @@
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Christopher Frank Sir</t>
         </is>
       </c>
       <c r="F302" t="n">
-        <v>1750</v>
+        <v>452</v>
       </c>
       <c r="G302" t="inlineStr">
         <is>
@@ -14852,12 +14852,12 @@
       </c>
       <c r="H302" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I302" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310471&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J302" t="inlineStr">
@@ -14872,7 +14872,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
@@ -14887,11 +14887,11 @@
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F303" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G303" t="inlineStr">
         <is>
@@ -14900,12 +14900,12 @@
       </c>
       <c r="H303" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I303" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J303" t="inlineStr">
@@ -14920,7 +14920,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
@@ -14935,11 +14935,11 @@
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F304" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G304" t="inlineStr">
         <is>
@@ -14948,12 +14948,12 @@
       </c>
       <c r="H304" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I304" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J304" t="inlineStr">
@@ -15592,10 +15592,14 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>PAMPA HERMOSA</t>
-        </is>
-      </c>
-      <c r="C318" t="inlineStr"/>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D318" t="inlineStr">
         <is>
           <t>Interregional</t>
@@ -15603,11 +15607,11 @@
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>SQM S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F318" t="n">
-        <v>1.033</v>
+        <v>20</v>
       </c>
       <c r="G318" t="inlineStr">
         <is>
@@ -15616,12 +15620,12 @@
       </c>
       <c r="H318" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I318" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3083858&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J318" t="inlineStr">
@@ -15636,14 +15640,10 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
-        </is>
-      </c>
-      <c r="C319" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>PAMPA HERMOSA</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr"/>
       <c r="D319" t="inlineStr">
         <is>
           <t>Interregional</t>
@@ -15651,11 +15651,11 @@
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>SQM S.A.</t>
         </is>
       </c>
       <c r="F319" t="n">
-        <v>20</v>
+        <v>1.033</v>
       </c>
       <c r="G319" t="inlineStr">
         <is>
@@ -15664,12 +15664,12 @@
       </c>
       <c r="H319" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I319" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3083858&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J319" t="inlineStr">

--- a/data/Pozo Almonte.xlsx
+++ b/data/Pozo Almonte.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>15/09/2022</t>
+          <t>22/09/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -7048,7 +7048,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Mejoramiento Eloisa</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7058,16 +7058,16 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Eloisa spa</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>75000</v>
+        <v>0</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
@@ -7076,12 +7076,12 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128980296&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7096,7 +7096,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>PLANTA SOLAR PINTADOS</t>
+          <t>Mejoramiento Eloisa</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7111,11 +7111,11 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Planta Solar Pintados SpA.</t>
+          <t>Eloisa spa</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>200000</v>
+        <v>75000</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
@@ -7124,12 +7124,12 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955109&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128980296&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7144,7 +7144,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>PLANTA SOLAR PINTADOS</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7154,16 +7154,16 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Planta Solar Pintados SpA.</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
@@ -7177,7 +7177,7 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955109&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -8872,7 +8872,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Cal .</t>
+          <t>Proyecto Fotovoltaico Huatacondo</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8882,16 +8882,16 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
+          <t>AustrainSolar Chile Cuatro SpA</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>8426</v>
+        <v>196000</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
@@ -8900,12 +8900,12 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7561133&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7558839&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -8920,7 +8920,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Proyecto Fotovoltaico Huatacondo</t>
+          <t>Transporte Interregional de Cal .</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8930,16 +8930,16 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>AustrainSolar Chile Cuatro SpA</t>
+          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>196000</v>
+        <v>8426</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
@@ -8948,12 +8948,12 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7558839&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7561133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -11176,7 +11176,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>PROSPECCION MINERA CHALLACOLLO SUR</t>
+          <t>Reposición Ruta 5, Longitudinal Norte, Sector Reserva Nacional Pampa del Tamarugal, Km. 1.781,0 - Km 1.801, Provincia del Tamarugal, Región de Tarapacá</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -11191,11 +11191,11 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>SOCIEDAD CONTRACTUAL MINERA BOREAL</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F226" t="n">
-        <v>370</v>
+        <v>5940</v>
       </c>
       <c r="G226" t="inlineStr">
         <is>
@@ -11209,7 +11209,7 @@
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5344496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5412341&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -11224,7 +11224,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Reposición Ruta 5, Longitudinal Norte, Sector Reserva Nacional Pampa del Tamarugal, Km. 1.781,0 - Km 1.801, Provincia del Tamarugal, Región de Tarapacá</t>
+          <t>PROSPECCION MINERA CHALLACOLLO SUR</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -11239,11 +11239,11 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>SOCIEDAD CONTRACTUAL MINERA BOREAL</t>
         </is>
       </c>
       <c r="F227" t="n">
-        <v>5940</v>
+        <v>370</v>
       </c>
       <c r="G227" t="inlineStr">
         <is>
@@ -11257,7 +11257,7 @@
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5412341&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5344496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -11704,7 +11704,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 1, I Región</t>
+          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 3, I Región</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -11719,11 +11719,11 @@
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>Pozo Almonte Solar 1 SpA</t>
+          <t>Pozo Almonte Solar 3 S.A.</t>
         </is>
       </c>
       <c r="F237" t="n">
-        <v>40000</v>
+        <v>71000</v>
       </c>
       <c r="G237" t="inlineStr">
         <is>
@@ -11737,7 +11737,7 @@
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5162007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5164638&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
@@ -11752,7 +11752,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 2, I Región</t>
+          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 1, I Región</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -11767,7 +11767,7 @@
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>POZO ALMONTE SOLAR 2 S.A.</t>
+          <t>Pozo Almonte Solar 1 SpA</t>
         </is>
       </c>
       <c r="F238" t="n">
@@ -11785,7 +11785,7 @@
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5163148&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5162007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
@@ -11800,7 +11800,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 3, I Región</t>
+          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 2, I Región</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -11815,11 +11815,11 @@
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>Pozo Almonte Solar 3 S.A.</t>
+          <t>POZO ALMONTE SOLAR 2 S.A.</t>
         </is>
       </c>
       <c r="F239" t="n">
-        <v>71000</v>
+        <v>40000</v>
       </c>
       <c r="G239" t="inlineStr">
         <is>
@@ -11833,7 +11833,7 @@
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5164638&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5163148&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
@@ -14776,7 +14776,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Ripiera Sagasca (e-seia)</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
@@ -14786,16 +14786,16 @@
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Christopher Frank Sir</t>
         </is>
       </c>
       <c r="F301" t="n">
-        <v>1750</v>
+        <v>452</v>
       </c>
       <c r="G301" t="inlineStr">
         <is>
@@ -14804,12 +14804,12 @@
       </c>
       <c r="H301" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I301" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310471&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J301" t="inlineStr">
@@ -14824,7 +14824,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>Ripiera Sagasca (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
@@ -14834,16 +14834,16 @@
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>Christopher Frank Sir</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F302" t="n">
-        <v>452</v>
+        <v>1750</v>
       </c>
       <c r="G302" t="inlineStr">
         <is>
@@ -14852,12 +14852,12 @@
       </c>
       <c r="H302" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I302" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310471&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J302" t="inlineStr">
@@ -14872,7 +14872,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
@@ -14887,11 +14887,11 @@
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F303" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G303" t="inlineStr">
         <is>
@@ -14900,12 +14900,12 @@
       </c>
       <c r="H303" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I303" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J303" t="inlineStr">
@@ -14920,7 +14920,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
@@ -14935,11 +14935,11 @@
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F304" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G304" t="inlineStr">
         <is>
@@ -14948,12 +14948,12 @@
       </c>
       <c r="H304" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I304" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J304" t="inlineStr">
@@ -15592,14 +15592,10 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
-        </is>
-      </c>
-      <c r="C318" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>PAMPA HERMOSA</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr"/>
       <c r="D318" t="inlineStr">
         <is>
           <t>Interregional</t>
@@ -15607,11 +15603,11 @@
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>SQM S.A.</t>
         </is>
       </c>
       <c r="F318" t="n">
-        <v>20</v>
+        <v>1.033</v>
       </c>
       <c r="G318" t="inlineStr">
         <is>
@@ -15620,12 +15616,12 @@
       </c>
       <c r="H318" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I318" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3083858&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J318" t="inlineStr">
@@ -15640,10 +15636,14 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>PAMPA HERMOSA</t>
-        </is>
-      </c>
-      <c r="C319" t="inlineStr"/>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D319" t="inlineStr">
         <is>
           <t>Interregional</t>
@@ -15651,11 +15651,11 @@
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>SQM S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F319" t="n">
-        <v>1.033</v>
+        <v>20</v>
       </c>
       <c r="G319" t="inlineStr">
         <is>
@@ -15664,12 +15664,12 @@
       </c>
       <c r="H319" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I319" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3083858&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J319" t="inlineStr">

--- a/data/Pozo Almonte.xlsx
+++ b/data/Pozo Almonte.xlsx
@@ -7048,7 +7048,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Mejoramiento Eloisa</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7058,16 +7058,16 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Eloisa spa</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>75000</v>
+        <v>0</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
@@ -7076,12 +7076,12 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128980296&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7096,7 +7096,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>PLANTA SOLAR PINTADOS</t>
+          <t>Mejoramiento Eloisa</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7111,11 +7111,11 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Planta Solar Pintados SpA.</t>
+          <t>Eloisa spa</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>200000</v>
+        <v>75000</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
@@ -7124,12 +7124,12 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955109&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128980296&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7144,7 +7144,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>PLANTA SOLAR PINTADOS</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7154,16 +7154,16 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Planta Solar Pintados SpA.</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
@@ -7177,7 +7177,7 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955109&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -8872,7 +8872,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Cal .</t>
+          <t>Proyecto Fotovoltaico Huatacondo</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8882,16 +8882,16 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
+          <t>AustrainSolar Chile Cuatro SpA</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>8426</v>
+        <v>196000</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
@@ -8900,12 +8900,12 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7561133&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7558839&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -8920,7 +8920,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Proyecto Fotovoltaico Huatacondo</t>
+          <t>Transporte Interregional de Cal .</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8930,16 +8930,16 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>AustrainSolar Chile Cuatro SpA</t>
+          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>196000</v>
+        <v>8426</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
@@ -8948,12 +8948,12 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7558839&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7561133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -11176,7 +11176,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>PROSPECCION MINERA CHALLACOLLO SUR</t>
+          <t>Reposición Ruta 5, Longitudinal Norte, Sector Reserva Nacional Pampa del Tamarugal, Km. 1.781,0 - Km 1.801, Provincia del Tamarugal, Región de Tarapacá</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -11191,11 +11191,11 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>SOCIEDAD CONTRACTUAL MINERA BOREAL</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F226" t="n">
-        <v>370</v>
+        <v>5940</v>
       </c>
       <c r="G226" t="inlineStr">
         <is>
@@ -11209,7 +11209,7 @@
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5344496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5412341&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -11224,7 +11224,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Reposición Ruta 5, Longitudinal Norte, Sector Reserva Nacional Pampa del Tamarugal, Km. 1.781,0 - Km 1.801, Provincia del Tamarugal, Región de Tarapacá</t>
+          <t>PROSPECCION MINERA CHALLACOLLO SUR</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -11239,11 +11239,11 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>SOCIEDAD CONTRACTUAL MINERA BOREAL</t>
         </is>
       </c>
       <c r="F227" t="n">
-        <v>5940</v>
+        <v>370</v>
       </c>
       <c r="G227" t="inlineStr">
         <is>
@@ -11257,7 +11257,7 @@
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5412341&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5344496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -11704,7 +11704,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 1, I Región</t>
+          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 3, I Región</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -11719,11 +11719,11 @@
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>Pozo Almonte Solar 1 SpA</t>
+          <t>Pozo Almonte Solar 3 S.A.</t>
         </is>
       </c>
       <c r="F237" t="n">
-        <v>40000</v>
+        <v>71000</v>
       </c>
       <c r="G237" t="inlineStr">
         <is>
@@ -11737,7 +11737,7 @@
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5162007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5164638&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
@@ -11752,7 +11752,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 2, I Región</t>
+          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 1, I Región</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -11767,7 +11767,7 @@
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>POZO ALMONTE SOLAR 2 S.A.</t>
+          <t>Pozo Almonte Solar 1 SpA</t>
         </is>
       </c>
       <c r="F238" t="n">
@@ -11785,7 +11785,7 @@
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5163148&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5162007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
@@ -11800,7 +11800,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 3, I Región</t>
+          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 2, I Región</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -11815,11 +11815,11 @@
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>Pozo Almonte Solar 3 S.A.</t>
+          <t>POZO ALMONTE SOLAR 2 S.A.</t>
         </is>
       </c>
       <c r="F239" t="n">
-        <v>71000</v>
+        <v>40000</v>
       </c>
       <c r="G239" t="inlineStr">
         <is>
@@ -11833,7 +11833,7 @@
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5164638&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5163148&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
@@ -14776,7 +14776,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Ripiera Sagasca (e-seia)</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
@@ -14786,16 +14786,16 @@
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Christopher Frank Sir</t>
         </is>
       </c>
       <c r="F301" t="n">
-        <v>1750</v>
+        <v>452</v>
       </c>
       <c r="G301" t="inlineStr">
         <is>
@@ -14804,12 +14804,12 @@
       </c>
       <c r="H301" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I301" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310471&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J301" t="inlineStr">
@@ -14824,7 +14824,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>Ripiera Sagasca (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
@@ -14834,16 +14834,16 @@
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>Christopher Frank Sir</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F302" t="n">
-        <v>452</v>
+        <v>1750</v>
       </c>
       <c r="G302" t="inlineStr">
         <is>
@@ -14852,12 +14852,12 @@
       </c>
       <c r="H302" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I302" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310471&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J302" t="inlineStr">
@@ -14872,7 +14872,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
@@ -14887,11 +14887,11 @@
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F303" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G303" t="inlineStr">
         <is>
@@ -14900,12 +14900,12 @@
       </c>
       <c r="H303" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I303" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J303" t="inlineStr">
@@ -14920,7 +14920,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
@@ -14935,11 +14935,11 @@
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F304" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G304" t="inlineStr">
         <is>
@@ -14948,12 +14948,12 @@
       </c>
       <c r="H304" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I304" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J304" t="inlineStr">
@@ -15592,14 +15592,10 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
-        </is>
-      </c>
-      <c r="C318" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>PAMPA HERMOSA</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr"/>
       <c r="D318" t="inlineStr">
         <is>
           <t>Interregional</t>
@@ -15607,11 +15603,11 @@
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>SQM S.A.</t>
         </is>
       </c>
       <c r="F318" t="n">
-        <v>20</v>
+        <v>1.033</v>
       </c>
       <c r="G318" t="inlineStr">
         <is>
@@ -15620,12 +15616,12 @@
       </c>
       <c r="H318" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I318" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3083858&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J318" t="inlineStr">
@@ -15640,10 +15636,14 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>PAMPA HERMOSA</t>
-        </is>
-      </c>
-      <c r="C319" t="inlineStr"/>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D319" t="inlineStr">
         <is>
           <t>Interregional</t>
@@ -15651,11 +15651,11 @@
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>SQM S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F319" t="n">
-        <v>1.033</v>
+        <v>20</v>
       </c>
       <c r="G319" t="inlineStr">
         <is>
@@ -15664,12 +15664,12 @@
       </c>
       <c r="H319" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I319" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3083858&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J319" t="inlineStr">

--- a/data/Pozo Almonte.xlsx
+++ b/data/Pozo Almonte.xlsx
@@ -7096,7 +7096,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Mejoramiento Eloisa</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7106,16 +7106,16 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Eloisa spa</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>0</v>
+        <v>75000</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
@@ -7124,12 +7124,12 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128980296&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7144,7 +7144,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Mejoramiento Eloisa</t>
+          <t>PLANTA SOLAR PINTADOS</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7159,11 +7159,11 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Eloisa spa</t>
+          <t>Planta Solar Pintados SpA.</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>75000</v>
+        <v>200000</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
@@ -7172,12 +7172,12 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128980296&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955109&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7192,7 +7192,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>PLANTA SOLAR PINTADOS</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7202,16 +7202,16 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Planta Solar Pintados SpA.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>200000</v>
+        <v>0</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
@@ -7225,7 +7225,7 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955109&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -8920,7 +8920,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Proyecto Fotovoltaico Huatacondo</t>
+          <t>Transporte Interregional de Cal .</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8930,16 +8930,16 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>AustrainSolar Chile Cuatro SpA</t>
+          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>196000</v>
+        <v>8426</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
@@ -8948,12 +8948,12 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7558839&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7561133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -8968,7 +8968,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Cal .</t>
+          <t>Proyecto Fotovoltaico Huatacondo</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8978,16 +8978,16 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
+          <t>AustrainSolar Chile Cuatro SpA</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>8426</v>
+        <v>196000</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
@@ -8996,12 +8996,12 @@
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7561133&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7558839&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -11224,7 +11224,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Reposición Ruta 5, Longitudinal Norte, Sector Reserva Nacional Pampa del Tamarugal, Km. 1.781,0 - Km 1.801, Provincia del Tamarugal, Región de Tarapacá</t>
+          <t>PROSPECCION MINERA CHALLACOLLO SUR</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -11239,11 +11239,11 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>SOCIEDAD CONTRACTUAL MINERA BOREAL</t>
         </is>
       </c>
       <c r="F227" t="n">
-        <v>5940</v>
+        <v>370</v>
       </c>
       <c r="G227" t="inlineStr">
         <is>
@@ -11257,7 +11257,7 @@
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5412341&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5344496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -11272,7 +11272,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>PROSPECCION MINERA CHALLACOLLO SUR</t>
+          <t>Reposición Ruta 5, Longitudinal Norte, Sector Reserva Nacional Pampa del Tamarugal, Km. 1.781,0 - Km 1.801, Provincia del Tamarugal, Región de Tarapacá</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -11287,11 +11287,11 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>SOCIEDAD CONTRACTUAL MINERA BOREAL</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F228" t="n">
-        <v>370</v>
+        <v>5940</v>
       </c>
       <c r="G228" t="inlineStr">
         <is>
@@ -11305,7 +11305,7 @@
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5344496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5412341&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -11752,7 +11752,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 3, I Región</t>
+          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 1, I Región</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -11767,11 +11767,11 @@
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>Pozo Almonte Solar 3 S.A.</t>
+          <t>Pozo Almonte Solar 1 SpA</t>
         </is>
       </c>
       <c r="F238" t="n">
-        <v>71000</v>
+        <v>40000</v>
       </c>
       <c r="G238" t="inlineStr">
         <is>
@@ -11785,7 +11785,7 @@
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5164638&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5162007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
@@ -11800,7 +11800,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 1, I Región</t>
+          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 2, I Región</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -11815,7 +11815,7 @@
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>Pozo Almonte Solar 1 SpA</t>
+          <t>POZO ALMONTE SOLAR 2 S.A.</t>
         </is>
       </c>
       <c r="F239" t="n">
@@ -11833,7 +11833,7 @@
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5162007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5163148&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
@@ -11848,7 +11848,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 2, I Región</t>
+          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 3, I Región</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -11863,11 +11863,11 @@
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>POZO ALMONTE SOLAR 2 S.A.</t>
+          <t>Pozo Almonte Solar 3 S.A.</t>
         </is>
       </c>
       <c r="F240" t="n">
-        <v>40000</v>
+        <v>71000</v>
       </c>
       <c r="G240" t="inlineStr">
         <is>
@@ -11881,7 +11881,7 @@
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5163148&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5164638&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
@@ -14824,7 +14824,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>Ripiera Sagasca (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
@@ -14834,16 +14834,16 @@
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>Christopher Frank Sir</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F302" t="n">
-        <v>452</v>
+        <v>1750</v>
       </c>
       <c r="G302" t="inlineStr">
         <is>
@@ -14852,12 +14852,12 @@
       </c>
       <c r="H302" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I302" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310471&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J302" t="inlineStr">
@@ -14872,7 +14872,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Ripiera Sagasca (e-seia)</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
@@ -14882,16 +14882,16 @@
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Christopher Frank Sir</t>
         </is>
       </c>
       <c r="F303" t="n">
-        <v>1750</v>
+        <v>452</v>
       </c>
       <c r="G303" t="inlineStr">
         <is>
@@ -14900,12 +14900,12 @@
       </c>
       <c r="H303" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I303" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310471&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J303" t="inlineStr">
@@ -14920,7 +14920,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
@@ -14935,11 +14935,11 @@
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F304" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G304" t="inlineStr">
         <is>
@@ -14948,12 +14948,12 @@
       </c>
       <c r="H304" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I304" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J304" t="inlineStr">
@@ -14968,7 +14968,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -14983,11 +14983,11 @@
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F305" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G305" t="inlineStr">
         <is>
@@ -14996,12 +14996,12 @@
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I305" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J305" t="inlineStr">
@@ -15640,10 +15640,14 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>PAMPA HERMOSA</t>
-        </is>
-      </c>
-      <c r="C319" t="inlineStr"/>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D319" t="inlineStr">
         <is>
           <t>Interregional</t>
@@ -15651,11 +15655,11 @@
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>SQM S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F319" t="n">
-        <v>1.033</v>
+        <v>20</v>
       </c>
       <c r="G319" t="inlineStr">
         <is>
@@ -15664,12 +15668,12 @@
       </c>
       <c r="H319" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I319" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3083858&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J319" t="inlineStr">
@@ -15684,14 +15688,10 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
-        </is>
-      </c>
-      <c r="C320" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>PAMPA HERMOSA</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr"/>
       <c r="D320" t="inlineStr">
         <is>
           <t>Interregional</t>
@@ -15699,11 +15699,11 @@
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>SQM S.A.</t>
         </is>
       </c>
       <c r="F320" t="n">
-        <v>20</v>
+        <v>1.033</v>
       </c>
       <c r="G320" t="inlineStr">
         <is>
@@ -15712,12 +15712,12 @@
       </c>
       <c r="H320" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I320" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3083858&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J320" t="inlineStr">

--- a/data/Pozo Almonte.xlsx
+++ b/data/Pozo Almonte.xlsx
@@ -7096,7 +7096,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Mejoramiento Eloisa</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7106,16 +7106,16 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Eloisa spa</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>75000</v>
+        <v>0</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
@@ -7124,12 +7124,12 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128980296&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7144,7 +7144,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>PLANTA SOLAR PINTADOS</t>
+          <t>Mejoramiento Eloisa</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7159,11 +7159,11 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Planta Solar Pintados SpA.</t>
+          <t>Eloisa spa</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>200000</v>
+        <v>75000</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
@@ -7172,12 +7172,12 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955109&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128980296&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7192,7 +7192,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>PLANTA SOLAR PINTADOS</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7202,16 +7202,16 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Planta Solar Pintados SpA.</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
@@ -7225,7 +7225,7 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955109&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -8920,7 +8920,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Cal .</t>
+          <t>Proyecto Fotovoltaico Huatacondo</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8930,16 +8930,16 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
+          <t>AustrainSolar Chile Cuatro SpA</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>8426</v>
+        <v>196000</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
@@ -8948,12 +8948,12 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7561133&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7558839&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -8968,7 +8968,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Proyecto Fotovoltaico Huatacondo</t>
+          <t>Transporte Interregional de Cal .</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8978,16 +8978,16 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>AustrainSolar Chile Cuatro SpA</t>
+          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>196000</v>
+        <v>8426</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
@@ -8996,12 +8996,12 @@
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7558839&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7561133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -11224,7 +11224,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>PROSPECCION MINERA CHALLACOLLO SUR</t>
+          <t>Reposición Ruta 5, Longitudinal Norte, Sector Reserva Nacional Pampa del Tamarugal, Km. 1.781,0 - Km 1.801, Provincia del Tamarugal, Región de Tarapacá</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -11239,11 +11239,11 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>SOCIEDAD CONTRACTUAL MINERA BOREAL</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F227" t="n">
-        <v>370</v>
+        <v>5940</v>
       </c>
       <c r="G227" t="inlineStr">
         <is>
@@ -11257,7 +11257,7 @@
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5344496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5412341&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -11272,7 +11272,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Reposición Ruta 5, Longitudinal Norte, Sector Reserva Nacional Pampa del Tamarugal, Km. 1.781,0 - Km 1.801, Provincia del Tamarugal, Región de Tarapacá</t>
+          <t>PROSPECCION MINERA CHALLACOLLO SUR</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -11287,11 +11287,11 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>SOCIEDAD CONTRACTUAL MINERA BOREAL</t>
         </is>
       </c>
       <c r="F228" t="n">
-        <v>5940</v>
+        <v>370</v>
       </c>
       <c r="G228" t="inlineStr">
         <is>
@@ -11305,7 +11305,7 @@
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5412341&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5344496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -11752,7 +11752,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 1, I Región</t>
+          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 3, I Región</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -11767,11 +11767,11 @@
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>Pozo Almonte Solar 1 SpA</t>
+          <t>Pozo Almonte Solar 3 S.A.</t>
         </is>
       </c>
       <c r="F238" t="n">
-        <v>40000</v>
+        <v>71000</v>
       </c>
       <c r="G238" t="inlineStr">
         <is>
@@ -11785,7 +11785,7 @@
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5162007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5164638&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
@@ -11800,7 +11800,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 2, I Región</t>
+          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 1, I Región</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -11815,7 +11815,7 @@
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>POZO ALMONTE SOLAR 2 S.A.</t>
+          <t>Pozo Almonte Solar 1 SpA</t>
         </is>
       </c>
       <c r="F239" t="n">
@@ -11833,7 +11833,7 @@
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5163148&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5162007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
@@ -11848,7 +11848,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 3, I Región</t>
+          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 2, I Región</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -11863,11 +11863,11 @@
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>Pozo Almonte Solar 3 S.A.</t>
+          <t>POZO ALMONTE SOLAR 2 S.A.</t>
         </is>
       </c>
       <c r="F240" t="n">
-        <v>71000</v>
+        <v>40000</v>
       </c>
       <c r="G240" t="inlineStr">
         <is>
@@ -11881,7 +11881,7 @@
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5164638&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5163148&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
@@ -14824,7 +14824,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Ripiera Sagasca (e-seia)</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
@@ -14834,16 +14834,16 @@
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Christopher Frank Sir</t>
         </is>
       </c>
       <c r="F302" t="n">
-        <v>1750</v>
+        <v>452</v>
       </c>
       <c r="G302" t="inlineStr">
         <is>
@@ -14852,12 +14852,12 @@
       </c>
       <c r="H302" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I302" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310471&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J302" t="inlineStr">
@@ -14872,7 +14872,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>Ripiera Sagasca (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
@@ -14882,16 +14882,16 @@
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>Christopher Frank Sir</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F303" t="n">
-        <v>452</v>
+        <v>1750</v>
       </c>
       <c r="G303" t="inlineStr">
         <is>
@@ -14900,12 +14900,12 @@
       </c>
       <c r="H303" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I303" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310471&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J303" t="inlineStr">
@@ -14920,7 +14920,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
@@ -14935,11 +14935,11 @@
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F304" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G304" t="inlineStr">
         <is>
@@ -14948,12 +14948,12 @@
       </c>
       <c r="H304" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I304" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J304" t="inlineStr">
@@ -14968,7 +14968,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -14983,11 +14983,11 @@
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F305" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G305" t="inlineStr">
         <is>
@@ -14996,12 +14996,12 @@
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I305" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J305" t="inlineStr">
@@ -15640,14 +15640,10 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
-        </is>
-      </c>
-      <c r="C319" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>PAMPA HERMOSA</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr"/>
       <c r="D319" t="inlineStr">
         <is>
           <t>Interregional</t>
@@ -15655,11 +15651,11 @@
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>SQM S.A.</t>
         </is>
       </c>
       <c r="F319" t="n">
-        <v>20</v>
+        <v>1.033</v>
       </c>
       <c r="G319" t="inlineStr">
         <is>
@@ -15668,12 +15664,12 @@
       </c>
       <c r="H319" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I319" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3083858&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J319" t="inlineStr">
@@ -15688,10 +15684,14 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>PAMPA HERMOSA</t>
-        </is>
-      </c>
-      <c r="C320" t="inlineStr"/>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D320" t="inlineStr">
         <is>
           <t>Interregional</t>
@@ -15699,11 +15699,11 @@
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>SQM S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F320" t="n">
-        <v>1.033</v>
+        <v>20</v>
       </c>
       <c r="G320" t="inlineStr">
         <is>
@@ -15712,12 +15712,12 @@
       </c>
       <c r="H320" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I320" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3083858&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J320" t="inlineStr">

--- a/data/Pozo Almonte.xlsx
+++ b/data/Pozo Almonte.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>03/10/2022</t>
+          <t>18/11/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Ingresados Art.94 RSEIA</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Pozo Almonte.xlsx
+++ b/data/Pozo Almonte.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/11/2022</t>
+          <t>21/10/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -7096,7 +7096,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Mejoramiento Eloisa</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7106,16 +7106,16 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Eloisa spa</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>75000</v>
+        <v>0</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
@@ -7124,12 +7124,12 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128980296&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7144,7 +7144,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>PLANTA SOLAR PINTADOS</t>
+          <t>Mejoramiento Eloisa</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7159,11 +7159,11 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Planta Solar Pintados SpA.</t>
+          <t>Eloisa spa</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>200000</v>
+        <v>75000</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
@@ -7172,12 +7172,12 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955109&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128980296&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7192,7 +7192,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>PLANTA SOLAR PINTADOS</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7202,16 +7202,16 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Planta Solar Pintados SpA.</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
@@ -7225,7 +7225,7 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955109&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -8920,7 +8920,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Cal .</t>
+          <t>Proyecto Fotovoltaico Huatacondo</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8930,16 +8930,16 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
+          <t>AustrainSolar Chile Cuatro SpA</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>8426</v>
+        <v>196000</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
@@ -8948,12 +8948,12 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7561133&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7558839&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -8968,7 +8968,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Proyecto Fotovoltaico Huatacondo</t>
+          <t>Transporte Interregional de Cal .</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8978,16 +8978,16 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>AustrainSolar Chile Cuatro SpA</t>
+          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>196000</v>
+        <v>8426</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
@@ -8996,12 +8996,12 @@
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7558839&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7561133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -11224,7 +11224,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>PROSPECCION MINERA CHALLACOLLO SUR</t>
+          <t>Reposición Ruta 5, Longitudinal Norte, Sector Reserva Nacional Pampa del Tamarugal, Km. 1.781,0 - Km 1.801, Provincia del Tamarugal, Región de Tarapacá</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -11239,11 +11239,11 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>SOCIEDAD CONTRACTUAL MINERA BOREAL</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F227" t="n">
-        <v>370</v>
+        <v>5940</v>
       </c>
       <c r="G227" t="inlineStr">
         <is>
@@ -11257,7 +11257,7 @@
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5344496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5412341&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -11272,7 +11272,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Reposición Ruta 5, Longitudinal Norte, Sector Reserva Nacional Pampa del Tamarugal, Km. 1.781,0 - Km 1.801, Provincia del Tamarugal, Región de Tarapacá</t>
+          <t>PROSPECCION MINERA CHALLACOLLO SUR</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -11287,11 +11287,11 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>SOCIEDAD CONTRACTUAL MINERA BOREAL</t>
         </is>
       </c>
       <c r="F228" t="n">
-        <v>5940</v>
+        <v>370</v>
       </c>
       <c r="G228" t="inlineStr">
         <is>
@@ -11305,7 +11305,7 @@
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5412341&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5344496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -11752,7 +11752,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 1, I Región</t>
+          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 3, I Región</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -11767,11 +11767,11 @@
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>Pozo Almonte Solar 1 SpA</t>
+          <t>Pozo Almonte Solar 3 S.A.</t>
         </is>
       </c>
       <c r="F238" t="n">
-        <v>40000</v>
+        <v>71000</v>
       </c>
       <c r="G238" t="inlineStr">
         <is>
@@ -11785,7 +11785,7 @@
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5162007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5164638&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
@@ -11800,7 +11800,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 2, I Región</t>
+          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 1, I Región</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -11815,7 +11815,7 @@
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>POZO ALMONTE SOLAR 2 S.A.</t>
+          <t>Pozo Almonte Solar 1 SpA</t>
         </is>
       </c>
       <c r="F239" t="n">
@@ -11833,7 +11833,7 @@
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5163148&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5162007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
@@ -11848,7 +11848,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 3, I Región</t>
+          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 2, I Región</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -11863,11 +11863,11 @@
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>Pozo Almonte Solar 3 S.A.</t>
+          <t>POZO ALMONTE SOLAR 2 S.A.</t>
         </is>
       </c>
       <c r="F240" t="n">
-        <v>71000</v>
+        <v>40000</v>
       </c>
       <c r="G240" t="inlineStr">
         <is>
@@ -11881,7 +11881,7 @@
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5164638&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5163148&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
@@ -14824,7 +14824,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Ripiera Sagasca (e-seia)</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
@@ -14834,16 +14834,16 @@
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Christopher Frank Sir</t>
         </is>
       </c>
       <c r="F302" t="n">
-        <v>1750</v>
+        <v>452</v>
       </c>
       <c r="G302" t="inlineStr">
         <is>
@@ -14852,12 +14852,12 @@
       </c>
       <c r="H302" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I302" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310471&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J302" t="inlineStr">
@@ -14872,7 +14872,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>Ripiera Sagasca (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
@@ -14882,16 +14882,16 @@
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>Christopher Frank Sir</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F303" t="n">
-        <v>452</v>
+        <v>1750</v>
       </c>
       <c r="G303" t="inlineStr">
         <is>
@@ -14900,12 +14900,12 @@
       </c>
       <c r="H303" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I303" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310471&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J303" t="inlineStr">
@@ -14920,7 +14920,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
@@ -14935,11 +14935,11 @@
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F304" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G304" t="inlineStr">
         <is>
@@ -14948,12 +14948,12 @@
       </c>
       <c r="H304" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I304" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J304" t="inlineStr">
@@ -14968,7 +14968,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -14983,11 +14983,11 @@
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F305" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G305" t="inlineStr">
         <is>
@@ -14996,12 +14996,12 @@
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I305" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J305" t="inlineStr">
@@ -15640,14 +15640,10 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
-        </is>
-      </c>
-      <c r="C319" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>PAMPA HERMOSA</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr"/>
       <c r="D319" t="inlineStr">
         <is>
           <t>Interregional</t>
@@ -15655,11 +15651,11 @@
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>SQM S.A.</t>
         </is>
       </c>
       <c r="F319" t="n">
-        <v>20</v>
+        <v>1.033</v>
       </c>
       <c r="G319" t="inlineStr">
         <is>
@@ -15668,12 +15664,12 @@
       </c>
       <c r="H319" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I319" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3083858&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J319" t="inlineStr">
@@ -15688,10 +15684,14 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>PAMPA HERMOSA</t>
-        </is>
-      </c>
-      <c r="C320" t="inlineStr"/>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D320" t="inlineStr">
         <is>
           <t>Interregional</t>
@@ -15699,11 +15699,11 @@
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>SQM S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F320" t="n">
-        <v>1.033</v>
+        <v>20</v>
       </c>
       <c r="G320" t="inlineStr">
         <is>
@@ -15712,12 +15712,12 @@
       </c>
       <c r="H320" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I320" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3083858&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J320" t="inlineStr">

--- a/data/Pozo Almonte.xlsx
+++ b/data/Pozo Almonte.xlsx
@@ -1556,7 +1556,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -7096,7 +7096,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Mejoramiento Eloisa</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7106,16 +7106,16 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Eloisa spa</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>75000</v>
+        <v>0</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
@@ -7124,12 +7124,12 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128980296&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7144,7 +7144,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>PLANTA SOLAR PINTADOS</t>
+          <t>Mejoramiento Eloisa</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7159,11 +7159,11 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Planta Solar Pintados SpA.</t>
+          <t>Eloisa spa</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>200000</v>
+        <v>75000</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
@@ -7172,12 +7172,12 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955109&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128980296&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7192,7 +7192,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>PLANTA SOLAR PINTADOS</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7202,16 +7202,16 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Planta Solar Pintados SpA.</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
@@ -7225,7 +7225,7 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955109&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -8920,7 +8920,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Cal .</t>
+          <t>Proyecto Fotovoltaico Huatacondo</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8930,16 +8930,16 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
+          <t>AustrainSolar Chile Cuatro SpA</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>8426</v>
+        <v>196000</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
@@ -8948,12 +8948,12 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7561133&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7558839&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -8968,7 +8968,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Proyecto Fotovoltaico Huatacondo</t>
+          <t>Transporte Interregional de Cal .</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8978,16 +8978,16 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>AustrainSolar Chile Cuatro SpA</t>
+          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>196000</v>
+        <v>8426</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
@@ -8996,12 +8996,12 @@
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7558839&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7561133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -11224,7 +11224,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>PROSPECCION MINERA CHALLACOLLO SUR</t>
+          <t>Reposición Ruta 5, Longitudinal Norte, Sector Reserva Nacional Pampa del Tamarugal, Km. 1.781,0 - Km 1.801, Provincia del Tamarugal, Región de Tarapacá</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -11239,11 +11239,11 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>SOCIEDAD CONTRACTUAL MINERA BOREAL</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F227" t="n">
-        <v>370</v>
+        <v>5940</v>
       </c>
       <c r="G227" t="inlineStr">
         <is>
@@ -11257,7 +11257,7 @@
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5344496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5412341&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -11272,7 +11272,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Reposición Ruta 5, Longitudinal Norte, Sector Reserva Nacional Pampa del Tamarugal, Km. 1.781,0 - Km 1.801, Provincia del Tamarugal, Región de Tarapacá</t>
+          <t>PROSPECCION MINERA CHALLACOLLO SUR</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -11287,11 +11287,11 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>SOCIEDAD CONTRACTUAL MINERA BOREAL</t>
         </is>
       </c>
       <c r="F228" t="n">
-        <v>5940</v>
+        <v>370</v>
       </c>
       <c r="G228" t="inlineStr">
         <is>
@@ -11305,7 +11305,7 @@
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5412341&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5344496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -11752,7 +11752,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 1, I Región</t>
+          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 3, I Región</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -11767,11 +11767,11 @@
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>Pozo Almonte Solar 1 SpA</t>
+          <t>Pozo Almonte Solar 3 S.A.</t>
         </is>
       </c>
       <c r="F238" t="n">
-        <v>40000</v>
+        <v>71000</v>
       </c>
       <c r="G238" t="inlineStr">
         <is>
@@ -11785,7 +11785,7 @@
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5162007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5164638&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
@@ -11800,7 +11800,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 2, I Región</t>
+          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 1, I Región</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -11815,7 +11815,7 @@
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>POZO ALMONTE SOLAR 2 S.A.</t>
+          <t>Pozo Almonte Solar 1 SpA</t>
         </is>
       </c>
       <c r="F239" t="n">
@@ -11833,7 +11833,7 @@
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5163148&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5162007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
@@ -11848,7 +11848,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 3, I Región</t>
+          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 2, I Región</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -11863,11 +11863,11 @@
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>Pozo Almonte Solar 3 S.A.</t>
+          <t>POZO ALMONTE SOLAR 2 S.A.</t>
         </is>
       </c>
       <c r="F240" t="n">
-        <v>71000</v>
+        <v>40000</v>
       </c>
       <c r="G240" t="inlineStr">
         <is>
@@ -11881,7 +11881,7 @@
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5164638&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5163148&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
@@ -14824,7 +14824,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Ripiera Sagasca (e-seia)</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
@@ -14834,16 +14834,16 @@
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Christopher Frank Sir</t>
         </is>
       </c>
       <c r="F302" t="n">
-        <v>1750</v>
+        <v>452</v>
       </c>
       <c r="G302" t="inlineStr">
         <is>
@@ -14852,12 +14852,12 @@
       </c>
       <c r="H302" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I302" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310471&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J302" t="inlineStr">
@@ -14872,7 +14872,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>Ripiera Sagasca (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
@@ -14882,16 +14882,16 @@
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>Christopher Frank Sir</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F303" t="n">
-        <v>452</v>
+        <v>1750</v>
       </c>
       <c r="G303" t="inlineStr">
         <is>
@@ -14900,12 +14900,12 @@
       </c>
       <c r="H303" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I303" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310471&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J303" t="inlineStr">
@@ -14920,7 +14920,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
@@ -14935,11 +14935,11 @@
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F304" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G304" t="inlineStr">
         <is>
@@ -14948,12 +14948,12 @@
       </c>
       <c r="H304" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I304" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J304" t="inlineStr">
@@ -14968,7 +14968,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -14983,11 +14983,11 @@
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F305" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G305" t="inlineStr">
         <is>
@@ -14996,12 +14996,12 @@
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I305" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J305" t="inlineStr">
@@ -15640,14 +15640,10 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
-        </is>
-      </c>
-      <c r="C319" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>PAMPA HERMOSA</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr"/>
       <c r="D319" t="inlineStr">
         <is>
           <t>Interregional</t>
@@ -15655,11 +15651,11 @@
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>SQM S.A.</t>
         </is>
       </c>
       <c r="F319" t="n">
-        <v>20</v>
+        <v>1.033</v>
       </c>
       <c r="G319" t="inlineStr">
         <is>
@@ -15668,12 +15664,12 @@
       </c>
       <c r="H319" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I319" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3083858&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J319" t="inlineStr">
@@ -15688,10 +15684,14 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>PAMPA HERMOSA</t>
-        </is>
-      </c>
-      <c r="C320" t="inlineStr"/>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D320" t="inlineStr">
         <is>
           <t>Interregional</t>
@@ -15699,11 +15699,11 @@
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>SQM S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F320" t="n">
-        <v>1.033</v>
+        <v>20</v>
       </c>
       <c r="G320" t="inlineStr">
         <is>
@@ -15712,12 +15712,12 @@
       </c>
       <c r="H320" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I320" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3083858&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J320" t="inlineStr">

--- a/data/Pozo Almonte.xlsx
+++ b/data/Pozo Almonte.xlsx
@@ -7096,7 +7096,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Mejoramiento Eloisa</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7106,16 +7106,16 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Eloisa spa</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>75000</v>
+        <v>0</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
@@ -7124,12 +7124,12 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128980296&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7144,7 +7144,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>PLANTA SOLAR PINTADOS</t>
+          <t>Mejoramiento Eloisa</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7159,11 +7159,11 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Planta Solar Pintados SpA.</t>
+          <t>Eloisa spa</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>200000</v>
+        <v>75000</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
@@ -7172,12 +7172,12 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955109&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128980296&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7192,7 +7192,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>PLANTA SOLAR PINTADOS</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7202,16 +7202,16 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Planta Solar Pintados SpA.</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
@@ -7225,7 +7225,7 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955109&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7735,7 +7735,7 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Andes Mainstream SpA</t>
+          <t>Andes Mainstream SpA...</t>
         </is>
       </c>
       <c r="F154" t="n">
@@ -8920,7 +8920,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Cal .</t>
+          <t>Proyecto Fotovoltaico Huatacondo</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8930,16 +8930,16 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
+          <t>AustrainSolar Chile Cuatro SpA</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>8426</v>
+        <v>196000</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
@@ -8948,12 +8948,12 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7561133&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7558839&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -8968,7 +8968,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Proyecto Fotovoltaico Huatacondo</t>
+          <t>Transporte Interregional de Cal .</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8978,16 +8978,16 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>AustrainSolar Chile Cuatro SpA</t>
+          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>196000</v>
+        <v>8426</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
@@ -8996,12 +8996,12 @@
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7558839&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7561133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -10087,7 +10087,7 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>Andes Mainstream SpA</t>
+          <t>Andes Mainstream SpA...</t>
         </is>
       </c>
       <c r="F203" t="n">
@@ -10183,7 +10183,7 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>Andes Mainstream SpA</t>
+          <t>Andes Mainstream SpA...</t>
         </is>
       </c>
       <c r="F205" t="n">
@@ -11224,7 +11224,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>PROSPECCION MINERA CHALLACOLLO SUR</t>
+          <t>Reposición Ruta 5, Longitudinal Norte, Sector Reserva Nacional Pampa del Tamarugal, Km. 1.781,0 - Km 1.801, Provincia del Tamarugal, Región de Tarapacá</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -11239,11 +11239,11 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>SOCIEDAD CONTRACTUAL MINERA BOREAL</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F227" t="n">
-        <v>370</v>
+        <v>5940</v>
       </c>
       <c r="G227" t="inlineStr">
         <is>
@@ -11257,7 +11257,7 @@
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5344496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5412341&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -11272,7 +11272,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Reposición Ruta 5, Longitudinal Norte, Sector Reserva Nacional Pampa del Tamarugal, Km. 1.781,0 - Km 1.801, Provincia del Tamarugal, Región de Tarapacá</t>
+          <t>PROSPECCION MINERA CHALLACOLLO SUR</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -11287,11 +11287,11 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>SOCIEDAD CONTRACTUAL MINERA BOREAL</t>
         </is>
       </c>
       <c r="F228" t="n">
-        <v>5940</v>
+        <v>370</v>
       </c>
       <c r="G228" t="inlineStr">
         <is>
@@ -11305,7 +11305,7 @@
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5412341&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5344496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -11752,7 +11752,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 1, I Región</t>
+          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 3, I Región</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -11767,11 +11767,11 @@
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>Pozo Almonte Solar 1 SpA</t>
+          <t>Pozo Almonte Solar 3 S.A.</t>
         </is>
       </c>
       <c r="F238" t="n">
-        <v>40000</v>
+        <v>71000</v>
       </c>
       <c r="G238" t="inlineStr">
         <is>
@@ -11785,7 +11785,7 @@
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5162007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5164638&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
@@ -11800,7 +11800,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 2, I Región</t>
+          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 1, I Región</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -11815,7 +11815,7 @@
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>POZO ALMONTE SOLAR 2 S.A.</t>
+          <t>Pozo Almonte Solar 1 SpA</t>
         </is>
       </c>
       <c r="F239" t="n">
@@ -11833,7 +11833,7 @@
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5163148&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5162007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
@@ -11848,7 +11848,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 3, I Región</t>
+          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 2, I Región</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -11863,11 +11863,11 @@
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>Pozo Almonte Solar 3 S.A.</t>
+          <t>POZO ALMONTE SOLAR 2 S.A.</t>
         </is>
       </c>
       <c r="F240" t="n">
-        <v>71000</v>
+        <v>40000</v>
       </c>
       <c r="G240" t="inlineStr">
         <is>
@@ -11881,7 +11881,7 @@
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5164638&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5163148&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
@@ -14824,7 +14824,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Ripiera Sagasca (e-seia)</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
@@ -14834,16 +14834,16 @@
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Christopher Frank Sir</t>
         </is>
       </c>
       <c r="F302" t="n">
-        <v>1750</v>
+        <v>452</v>
       </c>
       <c r="G302" t="inlineStr">
         <is>
@@ -14852,12 +14852,12 @@
       </c>
       <c r="H302" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I302" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310471&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J302" t="inlineStr">
@@ -14872,7 +14872,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>Ripiera Sagasca (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
@@ -14882,16 +14882,16 @@
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>Christopher Frank Sir</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F303" t="n">
-        <v>452</v>
+        <v>1750</v>
       </c>
       <c r="G303" t="inlineStr">
         <is>
@@ -14900,12 +14900,12 @@
       </c>
       <c r="H303" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I303" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310471&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J303" t="inlineStr">
@@ -14920,7 +14920,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
@@ -14935,11 +14935,11 @@
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F304" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G304" t="inlineStr">
         <is>
@@ -14948,12 +14948,12 @@
       </c>
       <c r="H304" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I304" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J304" t="inlineStr">
@@ -14968,7 +14968,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -14983,11 +14983,11 @@
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F305" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G305" t="inlineStr">
         <is>
@@ -14996,12 +14996,12 @@
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I305" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J305" t="inlineStr">
@@ -15640,14 +15640,10 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
-        </is>
-      </c>
-      <c r="C319" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>PAMPA HERMOSA</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr"/>
       <c r="D319" t="inlineStr">
         <is>
           <t>Interregional</t>
@@ -15655,11 +15651,11 @@
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>SQM S.A.</t>
         </is>
       </c>
       <c r="F319" t="n">
-        <v>20</v>
+        <v>1.033</v>
       </c>
       <c r="G319" t="inlineStr">
         <is>
@@ -15668,12 +15664,12 @@
       </c>
       <c r="H319" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I319" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3083858&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J319" t="inlineStr">
@@ -15688,10 +15684,14 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>PAMPA HERMOSA</t>
-        </is>
-      </c>
-      <c r="C320" t="inlineStr"/>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D320" t="inlineStr">
         <is>
           <t>Interregional</t>
@@ -15699,11 +15699,11 @@
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>SQM S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F320" t="n">
-        <v>1.033</v>
+        <v>20</v>
       </c>
       <c r="G320" t="inlineStr">
         <is>
@@ -15712,12 +15712,12 @@
       </c>
       <c r="H320" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I320" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3083858&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J320" t="inlineStr">

--- a/data/Pozo Almonte.xlsx
+++ b/data/Pozo Almonte.xlsx
@@ -7144,7 +7144,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Mejoramiento Eloisa</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7154,16 +7154,16 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Eloisa spa</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>75000</v>
+        <v>0</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
@@ -7172,12 +7172,12 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128980296&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7192,7 +7192,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>PLANTA SOLAR PINTADOS</t>
+          <t>Mejoramiento Eloisa</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7207,11 +7207,11 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Planta Solar Pintados SpA.</t>
+          <t>Eloisa spa</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>200000</v>
+        <v>75000</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
@@ -7220,12 +7220,12 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955109&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128980296&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7240,7 +7240,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>PLANTA SOLAR PINTADOS</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7250,16 +7250,16 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Planta Solar Pintados SpA.</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
@@ -7273,7 +7273,7 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955109&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -8968,7 +8968,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Cal .</t>
+          <t>Proyecto Fotovoltaico Huatacondo</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8978,16 +8978,16 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
+          <t>AustrainSolar Chile Cuatro SpA</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>8426</v>
+        <v>196000</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
@@ -8996,12 +8996,12 @@
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7561133&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7558839&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -9016,7 +9016,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Proyecto Fotovoltaico Huatacondo</t>
+          <t>Transporte Interregional de Cal .</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9026,16 +9026,16 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>AustrainSolar Chile Cuatro SpA</t>
+          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>196000</v>
+        <v>8426</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
@@ -9044,12 +9044,12 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7558839&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7561133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -11272,7 +11272,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>PROSPECCION MINERA CHALLACOLLO SUR</t>
+          <t>Reposición Ruta 5, Longitudinal Norte, Sector Reserva Nacional Pampa del Tamarugal, Km. 1.781,0 - Km 1.801, Provincia del Tamarugal, Región de Tarapacá</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -11287,11 +11287,11 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>SOCIEDAD CONTRACTUAL MINERA BOREAL</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F228" t="n">
-        <v>370</v>
+        <v>5940</v>
       </c>
       <c r="G228" t="inlineStr">
         <is>
@@ -11305,7 +11305,7 @@
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5344496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5412341&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -11320,7 +11320,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Reposición Ruta 5, Longitudinal Norte, Sector Reserva Nacional Pampa del Tamarugal, Km. 1.781,0 - Km 1.801, Provincia del Tamarugal, Región de Tarapacá</t>
+          <t>PROSPECCION MINERA CHALLACOLLO SUR</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -11335,11 +11335,11 @@
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>SOCIEDAD CONTRACTUAL MINERA BOREAL</t>
         </is>
       </c>
       <c r="F229" t="n">
-        <v>5940</v>
+        <v>370</v>
       </c>
       <c r="G229" t="inlineStr">
         <is>
@@ -11353,7 +11353,7 @@
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5412341&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5344496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -11800,7 +11800,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 1, I Región</t>
+          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 3, I Región</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -11815,11 +11815,11 @@
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>Pozo Almonte Solar 1 SpA</t>
+          <t>Pozo Almonte Solar 3 S.A.</t>
         </is>
       </c>
       <c r="F239" t="n">
-        <v>40000</v>
+        <v>71000</v>
       </c>
       <c r="G239" t="inlineStr">
         <is>
@@ -11833,7 +11833,7 @@
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5162007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5164638&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
@@ -11848,7 +11848,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 2, I Región</t>
+          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 1, I Región</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -11863,7 +11863,7 @@
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>POZO ALMONTE SOLAR 2 S.A.</t>
+          <t>Pozo Almonte Solar 1 SpA</t>
         </is>
       </c>
       <c r="F240" t="n">
@@ -11881,7 +11881,7 @@
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5163148&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5162007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
@@ -11896,7 +11896,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 3, I Región</t>
+          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 2, I Región</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -11911,11 +11911,11 @@
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>Pozo Almonte Solar 3 S.A.</t>
+          <t>POZO ALMONTE SOLAR 2 S.A.</t>
         </is>
       </c>
       <c r="F241" t="n">
-        <v>71000</v>
+        <v>40000</v>
       </c>
       <c r="G241" t="inlineStr">
         <is>
@@ -11929,7 +11929,7 @@
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5164638&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5163148&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
@@ -14872,7 +14872,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Ripiera Sagasca (e-seia)</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
@@ -14882,16 +14882,16 @@
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Christopher Frank Sir</t>
         </is>
       </c>
       <c r="F303" t="n">
-        <v>1750</v>
+        <v>452</v>
       </c>
       <c r="G303" t="inlineStr">
         <is>
@@ -14900,12 +14900,12 @@
       </c>
       <c r="H303" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I303" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310471&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J303" t="inlineStr">
@@ -14920,7 +14920,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>Ripiera Sagasca (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
@@ -14930,16 +14930,16 @@
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>Christopher Frank Sir</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F304" t="n">
-        <v>452</v>
+        <v>1750</v>
       </c>
       <c r="G304" t="inlineStr">
         <is>
@@ -14948,12 +14948,12 @@
       </c>
       <c r="H304" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I304" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310471&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J304" t="inlineStr">
@@ -14968,7 +14968,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -14983,11 +14983,11 @@
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F305" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G305" t="inlineStr">
         <is>
@@ -14996,12 +14996,12 @@
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I305" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J305" t="inlineStr">
@@ -15016,7 +15016,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -15031,11 +15031,11 @@
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F306" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G306" t="inlineStr">
         <is>
@@ -15044,12 +15044,12 @@
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J306" t="inlineStr">
@@ -15688,14 +15688,10 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
-        </is>
-      </c>
-      <c r="C320" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>PAMPA HERMOSA</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr"/>
       <c r="D320" t="inlineStr">
         <is>
           <t>Interregional</t>
@@ -15703,11 +15699,11 @@
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>SQM S.A.</t>
         </is>
       </c>
       <c r="F320" t="n">
-        <v>20</v>
+        <v>1.033</v>
       </c>
       <c r="G320" t="inlineStr">
         <is>
@@ -15716,12 +15712,12 @@
       </c>
       <c r="H320" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I320" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3083858&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J320" t="inlineStr">
@@ -15736,10 +15732,14 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>PAMPA HERMOSA</t>
-        </is>
-      </c>
-      <c r="C321" t="inlineStr"/>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D321" t="inlineStr">
         <is>
           <t>Interregional</t>
@@ -15747,11 +15747,11 @@
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>SQM S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F321" t="n">
-        <v>1.033</v>
+        <v>20</v>
       </c>
       <c r="G321" t="inlineStr">
         <is>
@@ -15760,12 +15760,12 @@
       </c>
       <c r="H321" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I321" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3083858&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J321" t="inlineStr">
@@ -15872,7 +15872,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos, M y M Ltda. (e-seia)</t>
+          <t>Actualización Operación Nueva Victoria (e-seia)</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -15882,16 +15882,16 @@
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>SQM S.A.</t>
         </is>
       </c>
       <c r="F324" t="n">
-        <v>250</v>
+        <v>28350</v>
       </c>
       <c r="G324" t="inlineStr">
         <is>
@@ -15905,7 +15905,7 @@
       </c>
       <c r="I324" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2964987&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3032665&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J324" t="inlineStr">
@@ -15920,7 +15920,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>Actualización Operación Nueva Victoria (e-seia)</t>
+          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos, M y M Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -15930,16 +15930,16 @@
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>SQM S.A.</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F325" t="n">
-        <v>28350</v>
+        <v>250</v>
       </c>
       <c r="G325" t="inlineStr">
         <is>
@@ -15953,7 +15953,7 @@
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3032665&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2964987&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J325" t="inlineStr">
@@ -21340,7 +21340,7 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>PLAN REGULADOR DE LA HUAYCA, COMUNA DE POZO ALMONTE (e-seia)</t>
+          <t>CONSTRUCCIÓN RELLENO SANITARIO PARA LA COMUNA DE POZO ALMONTE (e-seia)</t>
         </is>
       </c>
       <c r="C438" t="inlineStr">
@@ -21373,7 +21373,7 @@
       </c>
       <c r="I438" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141097087&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141090900&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J438" t="inlineStr">
@@ -21388,7 +21388,7 @@
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>PLAN REGULADOR DE POZO ALMONTE, COMUNA DE POZO ALMONTE (e-seia)</t>
+          <t>PLAN REGULADOR DE LA HUAYCA, COMUNA DE POZO ALMONTE (e-seia)</t>
         </is>
       </c>
       <c r="C439" t="inlineStr">
@@ -21421,7 +21421,7 @@
       </c>
       <c r="I439" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141097135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141097087&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J439" t="inlineStr">
@@ -21436,7 +21436,7 @@
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>PLAN SECCIONAL DE LA TIRANA, COMUNA DE POZO ALMONTE (e-seia)</t>
+          <t>PLAN REGULADOR DE POZO ALMONTE, COMUNA DE POZO ALMONTE (e-seia)</t>
         </is>
       </c>
       <c r="C440" t="inlineStr">
@@ -21469,7 +21469,7 @@
       </c>
       <c r="I440" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141097173&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141097135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J440" t="inlineStr">
@@ -21484,7 +21484,7 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>CONSTRUCCIÓN RELLENO SANITARIO PARA LA COMUNA DE POZO ALMONTE (e-seia)</t>
+          <t>PLAN SECCIONAL DE LA TIRANA, COMUNA DE POZO ALMONTE (e-seia)</t>
         </is>
       </c>
       <c r="C441" t="inlineStr">
@@ -21517,7 +21517,7 @@
       </c>
       <c r="I441" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141090900&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141097173&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J441" t="inlineStr">

--- a/data/Pozo Almonte.xlsx
+++ b/data/Pozo Almonte.xlsx
@@ -7144,7 +7144,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Mejoramiento Eloisa</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7154,16 +7154,16 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Eloisa spa</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>0</v>
+        <v>75000</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
@@ -7172,12 +7172,12 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128980296&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7192,7 +7192,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Mejoramiento Eloisa</t>
+          <t>PLANTA SOLAR PINTADOS</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7207,11 +7207,11 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Eloisa spa</t>
+          <t>Planta Solar Pintados SpA.</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>75000</v>
+        <v>200000</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
@@ -7220,12 +7220,12 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128980296&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955109&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7240,7 +7240,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>PLANTA SOLAR PINTADOS</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7250,16 +7250,16 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Planta Solar Pintados SpA.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>200000</v>
+        <v>0</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
@@ -7273,7 +7273,7 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955109&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -8968,7 +8968,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Proyecto Fotovoltaico Huatacondo</t>
+          <t>Transporte Interregional de Cal .</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8978,16 +8978,16 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>AustrainSolar Chile Cuatro SpA</t>
+          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>196000</v>
+        <v>8426</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
@@ -8996,12 +8996,12 @@
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7558839&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7561133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -9016,7 +9016,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Cal .</t>
+          <t>Proyecto Fotovoltaico Huatacondo</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9026,16 +9026,16 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
+          <t>AustrainSolar Chile Cuatro SpA</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>8426</v>
+        <v>196000</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
@@ -9044,12 +9044,12 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7561133&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7558839&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -11272,7 +11272,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Reposición Ruta 5, Longitudinal Norte, Sector Reserva Nacional Pampa del Tamarugal, Km. 1.781,0 - Km 1.801, Provincia del Tamarugal, Región de Tarapacá</t>
+          <t>PROSPECCION MINERA CHALLACOLLO SUR</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -11287,11 +11287,11 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>SOCIEDAD CONTRACTUAL MINERA BOREAL</t>
         </is>
       </c>
       <c r="F228" t="n">
-        <v>5940</v>
+        <v>370</v>
       </c>
       <c r="G228" t="inlineStr">
         <is>
@@ -11305,7 +11305,7 @@
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5412341&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5344496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -11320,7 +11320,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>PROSPECCION MINERA CHALLACOLLO SUR</t>
+          <t>Reposición Ruta 5, Longitudinal Norte, Sector Reserva Nacional Pampa del Tamarugal, Km. 1.781,0 - Km 1.801, Provincia del Tamarugal, Región de Tarapacá</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -11335,11 +11335,11 @@
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>SOCIEDAD CONTRACTUAL MINERA BOREAL</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F229" t="n">
-        <v>370</v>
+        <v>5940</v>
       </c>
       <c r="G229" t="inlineStr">
         <is>
@@ -11353,7 +11353,7 @@
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5344496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5412341&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -11800,7 +11800,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 3, I Región</t>
+          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 1, I Región</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -11815,11 +11815,11 @@
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>Pozo Almonte Solar 3 S.A.</t>
+          <t>Pozo Almonte Solar 1 SpA</t>
         </is>
       </c>
       <c r="F239" t="n">
-        <v>71000</v>
+        <v>40000</v>
       </c>
       <c r="G239" t="inlineStr">
         <is>
@@ -11833,7 +11833,7 @@
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5164638&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5162007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
@@ -11848,7 +11848,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 1, I Región</t>
+          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 2, I Región</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -11863,7 +11863,7 @@
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>Pozo Almonte Solar 1 SpA</t>
+          <t>POZO ALMONTE SOLAR 2 S.A.</t>
         </is>
       </c>
       <c r="F240" t="n">
@@ -11881,7 +11881,7 @@
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5162007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5163148&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
@@ -11896,7 +11896,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 2, I Región</t>
+          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 3, I Región</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -11911,11 +11911,11 @@
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>POZO ALMONTE SOLAR 2 S.A.</t>
+          <t>Pozo Almonte Solar 3 S.A.</t>
         </is>
       </c>
       <c r="F241" t="n">
-        <v>40000</v>
+        <v>71000</v>
       </c>
       <c r="G241" t="inlineStr">
         <is>
@@ -11929,7 +11929,7 @@
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5163148&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5164638&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
@@ -14872,7 +14872,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>Ripiera Sagasca (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
@@ -14882,16 +14882,16 @@
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>Christopher Frank Sir</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F303" t="n">
-        <v>452</v>
+        <v>1750</v>
       </c>
       <c r="G303" t="inlineStr">
         <is>
@@ -14900,12 +14900,12 @@
       </c>
       <c r="H303" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I303" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310471&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J303" t="inlineStr">
@@ -14920,7 +14920,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Ripiera Sagasca (e-seia)</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
@@ -14930,16 +14930,16 @@
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Christopher Frank Sir</t>
         </is>
       </c>
       <c r="F304" t="n">
-        <v>1750</v>
+        <v>452</v>
       </c>
       <c r="G304" t="inlineStr">
         <is>
@@ -14948,12 +14948,12 @@
       </c>
       <c r="H304" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I304" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310471&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J304" t="inlineStr">
@@ -14968,7 +14968,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -14983,11 +14983,11 @@
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F305" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G305" t="inlineStr">
         <is>
@@ -14996,12 +14996,12 @@
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I305" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J305" t="inlineStr">
@@ -15016,7 +15016,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -15031,11 +15031,11 @@
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F306" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G306" t="inlineStr">
         <is>
@@ -15044,12 +15044,12 @@
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J306" t="inlineStr">
@@ -15688,10 +15688,14 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>PAMPA HERMOSA</t>
-        </is>
-      </c>
-      <c r="C320" t="inlineStr"/>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D320" t="inlineStr">
         <is>
           <t>Interregional</t>
@@ -15699,11 +15703,11 @@
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>SQM S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F320" t="n">
-        <v>1.033</v>
+        <v>20</v>
       </c>
       <c r="G320" t="inlineStr">
         <is>
@@ -15712,12 +15716,12 @@
       </c>
       <c r="H320" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I320" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3083858&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J320" t="inlineStr">
@@ -15732,14 +15736,10 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
-        </is>
-      </c>
-      <c r="C321" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>PAMPA HERMOSA</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr"/>
       <c r="D321" t="inlineStr">
         <is>
           <t>Interregional</t>
@@ -15747,11 +15747,11 @@
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>SQM S.A.</t>
         </is>
       </c>
       <c r="F321" t="n">
-        <v>20</v>
+        <v>1.033</v>
       </c>
       <c r="G321" t="inlineStr">
         <is>
@@ -15760,12 +15760,12 @@
       </c>
       <c r="H321" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I321" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3083858&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J321" t="inlineStr">
@@ -15872,7 +15872,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>Actualización Operación Nueva Victoria (e-seia)</t>
+          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos, M y M Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -15882,16 +15882,16 @@
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>SQM S.A.</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F324" t="n">
-        <v>28350</v>
+        <v>250</v>
       </c>
       <c r="G324" t="inlineStr">
         <is>
@@ -15905,7 +15905,7 @@
       </c>
       <c r="I324" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3032665&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2964987&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J324" t="inlineStr">
@@ -15920,7 +15920,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos, M y M Ltda. (e-seia)</t>
+          <t>Actualización Operación Nueva Victoria (e-seia)</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -15930,16 +15930,16 @@
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>SQM S.A.</t>
         </is>
       </c>
       <c r="F325" t="n">
-        <v>250</v>
+        <v>28350</v>
       </c>
       <c r="G325" t="inlineStr">
         <is>
@@ -15953,7 +15953,7 @@
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2964987&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3032665&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J325" t="inlineStr">
@@ -21340,7 +21340,7 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>CONSTRUCCIÓN RELLENO SANITARIO PARA LA COMUNA DE POZO ALMONTE (e-seia)</t>
+          <t>PLAN REGULADOR DE LA HUAYCA, COMUNA DE POZO ALMONTE (e-seia)</t>
         </is>
       </c>
       <c r="C438" t="inlineStr">
@@ -21373,7 +21373,7 @@
       </c>
       <c r="I438" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141090900&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141097087&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J438" t="inlineStr">
@@ -21388,7 +21388,7 @@
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>PLAN REGULADOR DE LA HUAYCA, COMUNA DE POZO ALMONTE (e-seia)</t>
+          <t>PLAN REGULADOR DE POZO ALMONTE, COMUNA DE POZO ALMONTE (e-seia)</t>
         </is>
       </c>
       <c r="C439" t="inlineStr">
@@ -21421,7 +21421,7 @@
       </c>
       <c r="I439" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141097087&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141097135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J439" t="inlineStr">
@@ -21436,7 +21436,7 @@
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>PLAN REGULADOR DE POZO ALMONTE, COMUNA DE POZO ALMONTE (e-seia)</t>
+          <t>PLAN SECCIONAL DE LA TIRANA, COMUNA DE POZO ALMONTE (e-seia)</t>
         </is>
       </c>
       <c r="C440" t="inlineStr">
@@ -21469,7 +21469,7 @@
       </c>
       <c r="I440" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141097135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141097173&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J440" t="inlineStr">
@@ -21484,7 +21484,7 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>PLAN SECCIONAL DE LA TIRANA, COMUNA DE POZO ALMONTE (e-seia)</t>
+          <t>CONSTRUCCIÓN RELLENO SANITARIO PARA LA COMUNA DE POZO ALMONTE (e-seia)</t>
         </is>
       </c>
       <c r="C441" t="inlineStr">
@@ -21517,7 +21517,7 @@
       </c>
       <c r="I441" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141097173&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141090900&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J441" t="inlineStr">

--- a/data/Pozo Almonte.xlsx
+++ b/data/Pozo Almonte.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>16/12/2022</t>
+          <t>21/12/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Pozo Almonte.xlsx
+++ b/data/Pozo Almonte.xlsx
@@ -13879,7 +13879,7 @@
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>Sociedad Transportes Ilzauspe Limitada</t>
+          <t>Sociedad de Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F282" t="n">

--- a/data/Pozo Almonte.xlsx
+++ b/data/Pozo Almonte.xlsx
@@ -1351,7 +1351,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -7144,7 +7144,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Mejoramiento Eloisa</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7154,16 +7154,16 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Eloisa spa</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>75000</v>
+        <v>0</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
@@ -7172,12 +7172,12 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128980296&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7192,7 +7192,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>PLANTA SOLAR PINTADOS</t>
+          <t>Mejoramiento Eloisa</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7207,11 +7207,11 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Planta Solar Pintados SpA.</t>
+          <t>Eloisa spa</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>200000</v>
+        <v>75000</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
@@ -7220,12 +7220,12 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955109&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128980296&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7240,7 +7240,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>PLANTA SOLAR PINTADOS</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7250,16 +7250,16 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Planta Solar Pintados SpA.</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
@@ -7273,7 +7273,7 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955109&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -8968,7 +8968,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Cal .</t>
+          <t>Proyecto Fotovoltaico Huatacondo</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8978,16 +8978,16 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
+          <t>AustrainSolar Chile Cuatro SpA</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>8426</v>
+        <v>196000</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
@@ -8996,12 +8996,12 @@
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7561133&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7558839&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -9016,7 +9016,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Proyecto Fotovoltaico Huatacondo</t>
+          <t>Transporte Interregional de Cal .</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9026,16 +9026,16 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>AustrainSolar Chile Cuatro SpA</t>
+          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>196000</v>
+        <v>8426</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
@@ -9044,12 +9044,12 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7558839&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7561133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -11272,7 +11272,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>PROSPECCION MINERA CHALLACOLLO SUR</t>
+          <t>Reposición Ruta 5, Longitudinal Norte, Sector Reserva Nacional Pampa del Tamarugal, Km. 1.781,0 - Km 1.801, Provincia del Tamarugal, Región de Tarapacá</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -11287,11 +11287,11 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>SOCIEDAD CONTRACTUAL MINERA BOREAL</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F228" t="n">
-        <v>370</v>
+        <v>5940</v>
       </c>
       <c r="G228" t="inlineStr">
         <is>
@@ -11305,7 +11305,7 @@
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5344496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5412341&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -11320,7 +11320,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Reposición Ruta 5, Longitudinal Norte, Sector Reserva Nacional Pampa del Tamarugal, Km. 1.781,0 - Km 1.801, Provincia del Tamarugal, Región de Tarapacá</t>
+          <t>PROSPECCION MINERA CHALLACOLLO SUR</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -11335,11 +11335,11 @@
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>SOCIEDAD CONTRACTUAL MINERA BOREAL</t>
         </is>
       </c>
       <c r="F229" t="n">
-        <v>5940</v>
+        <v>370</v>
       </c>
       <c r="G229" t="inlineStr">
         <is>
@@ -11353,7 +11353,7 @@
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5412341&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5344496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -11800,7 +11800,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 1, I Región</t>
+          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 3, I Región</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -11815,11 +11815,11 @@
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>Pozo Almonte Solar 1 SpA</t>
+          <t>Pozo Almonte Solar 3 S.A.</t>
         </is>
       </c>
       <c r="F239" t="n">
-        <v>40000</v>
+        <v>71000</v>
       </c>
       <c r="G239" t="inlineStr">
         <is>
@@ -11833,7 +11833,7 @@
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5162007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5164638&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
@@ -11848,7 +11848,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 2, I Región</t>
+          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 1, I Región</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -11863,7 +11863,7 @@
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>POZO ALMONTE SOLAR 2 S.A.</t>
+          <t>Pozo Almonte Solar 1 SpA</t>
         </is>
       </c>
       <c r="F240" t="n">
@@ -11881,7 +11881,7 @@
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5163148&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5162007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
@@ -11896,7 +11896,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 3, I Región</t>
+          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 2, I Región</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -11911,11 +11911,11 @@
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>Pozo Almonte Solar 3 S.A.</t>
+          <t>POZO ALMONTE SOLAR 2 S.A.</t>
         </is>
       </c>
       <c r="F241" t="n">
-        <v>71000</v>
+        <v>40000</v>
       </c>
       <c r="G241" t="inlineStr">
         <is>
@@ -11929,7 +11929,7 @@
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5164638&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5163148&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
@@ -14872,7 +14872,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Ripiera Sagasca (e-seia)</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
@@ -14882,16 +14882,16 @@
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Christopher Frank Sir</t>
         </is>
       </c>
       <c r="F303" t="n">
-        <v>1750</v>
+        <v>452</v>
       </c>
       <c r="G303" t="inlineStr">
         <is>
@@ -14900,12 +14900,12 @@
       </c>
       <c r="H303" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I303" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310471&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J303" t="inlineStr">
@@ -14920,7 +14920,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>Ripiera Sagasca (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
@@ -14930,16 +14930,16 @@
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>Christopher Frank Sir</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F304" t="n">
-        <v>452</v>
+        <v>1750</v>
       </c>
       <c r="G304" t="inlineStr">
         <is>
@@ -14948,12 +14948,12 @@
       </c>
       <c r="H304" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I304" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310471&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J304" t="inlineStr">
@@ -14968,7 +14968,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -14983,11 +14983,11 @@
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F305" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G305" t="inlineStr">
         <is>
@@ -14996,12 +14996,12 @@
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I305" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J305" t="inlineStr">
@@ -15016,7 +15016,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -15031,11 +15031,11 @@
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F306" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G306" t="inlineStr">
         <is>
@@ -15044,12 +15044,12 @@
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J306" t="inlineStr">
@@ -15688,14 +15688,10 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
-        </is>
-      </c>
-      <c r="C320" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>PAMPA HERMOSA</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr"/>
       <c r="D320" t="inlineStr">
         <is>
           <t>Interregional</t>
@@ -15703,11 +15699,11 @@
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>SQM S.A.</t>
         </is>
       </c>
       <c r="F320" t="n">
-        <v>20</v>
+        <v>1.033</v>
       </c>
       <c r="G320" t="inlineStr">
         <is>
@@ -15716,12 +15712,12 @@
       </c>
       <c r="H320" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I320" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3083858&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J320" t="inlineStr">
@@ -15736,10 +15732,14 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>PAMPA HERMOSA</t>
-        </is>
-      </c>
-      <c r="C321" t="inlineStr"/>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D321" t="inlineStr">
         <is>
           <t>Interregional</t>
@@ -15747,11 +15747,11 @@
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>SQM S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F321" t="n">
-        <v>1.033</v>
+        <v>20</v>
       </c>
       <c r="G321" t="inlineStr">
         <is>
@@ -15760,12 +15760,12 @@
       </c>
       <c r="H321" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I321" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3083858&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J321" t="inlineStr">
@@ -15872,7 +15872,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos, M y M Ltda. (e-seia)</t>
+          <t>Actualización Operación Nueva Victoria (e-seia)</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -15882,16 +15882,16 @@
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>SQM S.A.</t>
         </is>
       </c>
       <c r="F324" t="n">
-        <v>250</v>
+        <v>28350</v>
       </c>
       <c r="G324" t="inlineStr">
         <is>
@@ -15905,7 +15905,7 @@
       </c>
       <c r="I324" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2964987&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3032665&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J324" t="inlineStr">
@@ -15920,7 +15920,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>Actualización Operación Nueva Victoria (e-seia)</t>
+          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos, M y M Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -15930,16 +15930,16 @@
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>SQM S.A.</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F325" t="n">
-        <v>28350</v>
+        <v>250</v>
       </c>
       <c r="G325" t="inlineStr">
         <is>
@@ -15953,7 +15953,7 @@
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3032665&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2964987&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J325" t="inlineStr">
@@ -21340,7 +21340,7 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>PLAN REGULADOR DE LA HUAYCA, COMUNA DE POZO ALMONTE (e-seia)</t>
+          <t>CONSTRUCCIÓN RELLENO SANITARIO PARA LA COMUNA DE POZO ALMONTE (e-seia)</t>
         </is>
       </c>
       <c r="C438" t="inlineStr">
@@ -21373,7 +21373,7 @@
       </c>
       <c r="I438" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141097087&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141090900&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J438" t="inlineStr">
@@ -21388,7 +21388,7 @@
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>PLAN REGULADOR DE POZO ALMONTE, COMUNA DE POZO ALMONTE (e-seia)</t>
+          <t>PLAN REGULADOR DE LA HUAYCA, COMUNA DE POZO ALMONTE (e-seia)</t>
         </is>
       </c>
       <c r="C439" t="inlineStr">
@@ -21421,7 +21421,7 @@
       </c>
       <c r="I439" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141097135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141097087&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J439" t="inlineStr">
@@ -21436,7 +21436,7 @@
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>PLAN SECCIONAL DE LA TIRANA, COMUNA DE POZO ALMONTE (e-seia)</t>
+          <t>PLAN REGULADOR DE POZO ALMONTE, COMUNA DE POZO ALMONTE (e-seia)</t>
         </is>
       </c>
       <c r="C440" t="inlineStr">
@@ -21469,7 +21469,7 @@
       </c>
       <c r="I440" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141097173&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141097135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J440" t="inlineStr">
@@ -21484,7 +21484,7 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>CONSTRUCCIÓN RELLENO SANITARIO PARA LA COMUNA DE POZO ALMONTE (e-seia)</t>
+          <t>PLAN SECCIONAL DE LA TIRANA, COMUNA DE POZO ALMONTE (e-seia)</t>
         </is>
       </c>
       <c r="C441" t="inlineStr">
@@ -21517,7 +21517,7 @@
       </c>
       <c r="I441" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141090900&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141097173&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J441" t="inlineStr">

--- a/data/Pozo Almonte.xlsx
+++ b/data/Pozo Almonte.xlsx
@@ -1975,7 +1975,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Compañia Minera Teck Quebrada Blanca S.A.</t>
+          <t>Compañia Minera Teck Quebrada Blanca S.A...</t>
         </is>
       </c>
       <c r="F34" t="n">
@@ -3415,7 +3415,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Compañia Minera Teck Quebrada Blanca S.A.</t>
+          <t>Compañia Minera Teck Quebrada Blanca S.A...</t>
         </is>
       </c>
       <c r="F64" t="n">
@@ -4711,7 +4711,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Compañia Minera Teck Quebrada Blanca S.A.</t>
+          <t>Compañia Minera Teck Quebrada Blanca S.A...</t>
         </is>
       </c>
       <c r="F91" t="n">
@@ -9415,7 +9415,7 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Compañia Minera Teck Quebrada Blanca S.A.</t>
+          <t>Compañia Minera Teck Quebrada Blanca S.A...</t>
         </is>
       </c>
       <c r="F189" t="n">
@@ -9463,7 +9463,7 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Compañia Minera Teck Quebrada Blanca S.A.</t>
+          <t>Compañia Minera Teck Quebrada Blanca S.A...</t>
         </is>
       </c>
       <c r="F190" t="n">
@@ -20203,7 +20203,7 @@
       </c>
       <c r="E414" t="inlineStr">
         <is>
-          <t>Compañia Minera Teck Quebrada Blanca S.A.</t>
+          <t>Compañia Minera Teck Quebrada Blanca S.A...</t>
         </is>
       </c>
       <c r="F414" t="n">
@@ -22651,7 +22651,7 @@
       </c>
       <c r="E465" t="inlineStr">
         <is>
-          <t>Compañia Minera Teck Quebrada Blanca S.A.</t>
+          <t>Compañia Minera Teck Quebrada Blanca S.A...</t>
         </is>
       </c>
       <c r="F465" t="n">

--- a/data/Pozo Almonte.xlsx
+++ b/data/Pozo Almonte.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>17/01/2023</t>
+          <t>17/02/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Ingresados Art.94 RSEIA</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -788,7 +788,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">

--- a/data/Pozo Almonte.xlsx
+++ b/data/Pozo Almonte.xlsx
@@ -7192,7 +7192,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Mejoramiento Eloisa</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7202,16 +7202,16 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Eloisa spa</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>0</v>
+        <v>75000</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
@@ -7220,12 +7220,12 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128980296&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7240,7 +7240,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Mejoramiento Eloisa</t>
+          <t>PLANTA SOLAR PINTADOS</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7255,11 +7255,11 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Eloisa spa</t>
+          <t>Planta Solar Pintados SpA.</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>75000</v>
+        <v>200000</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
@@ -7268,12 +7268,12 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128980296&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955109&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7288,7 +7288,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>PLANTA SOLAR PINTADOS</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7298,16 +7298,16 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Planta Solar Pintados SpA.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>200000</v>
+        <v>0</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
@@ -7321,7 +7321,7 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955109&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -9016,7 +9016,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Proyecto Fotovoltaico Huatacondo</t>
+          <t>Transporte Interregional de Cal .</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9026,16 +9026,16 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>AustrainSolar Chile Cuatro SpA</t>
+          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>196000</v>
+        <v>8426</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
@@ -9044,12 +9044,12 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7558839&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7561133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -9064,7 +9064,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Cal .</t>
+          <t>Proyecto Fotovoltaico Huatacondo</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9074,16 +9074,16 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
+          <t>AustrainSolar Chile Cuatro SpA</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>8426</v>
+        <v>196000</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
@@ -9092,12 +9092,12 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7561133&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7558839&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -11320,7 +11320,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Reposición Ruta 5, Longitudinal Norte, Sector Reserva Nacional Pampa del Tamarugal, Km. 1.781,0 - Km 1.801, Provincia del Tamarugal, Región de Tarapacá</t>
+          <t>PROSPECCION MINERA CHALLACOLLO SUR</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -11335,11 +11335,11 @@
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>SOCIEDAD CONTRACTUAL MINERA BOREAL</t>
         </is>
       </c>
       <c r="F229" t="n">
-        <v>5940</v>
+        <v>370</v>
       </c>
       <c r="G229" t="inlineStr">
         <is>
@@ -11353,7 +11353,7 @@
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5412341&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5344496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -11368,7 +11368,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>PROSPECCION MINERA CHALLACOLLO SUR</t>
+          <t>Reposición Ruta 5, Longitudinal Norte, Sector Reserva Nacional Pampa del Tamarugal, Km. 1.781,0 - Km 1.801, Provincia del Tamarugal, Región de Tarapacá</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -11383,11 +11383,11 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>SOCIEDAD CONTRACTUAL MINERA BOREAL</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F230" t="n">
-        <v>370</v>
+        <v>5940</v>
       </c>
       <c r="G230" t="inlineStr">
         <is>
@@ -11401,7 +11401,7 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5344496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5412341&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -11848,7 +11848,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 3, I Región</t>
+          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 1, I Región</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -11863,11 +11863,11 @@
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>Pozo Almonte Solar 3 S.A.</t>
+          <t>Pozo Almonte Solar 1 SpA</t>
         </is>
       </c>
       <c r="F240" t="n">
-        <v>71000</v>
+        <v>40000</v>
       </c>
       <c r="G240" t="inlineStr">
         <is>
@@ -11881,7 +11881,7 @@
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5164638&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5162007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
@@ -11896,7 +11896,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 1, I Región</t>
+          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 2, I Región</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -11911,7 +11911,7 @@
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>Pozo Almonte Solar 1 SpA</t>
+          <t>POZO ALMONTE SOLAR 2 S.A.</t>
         </is>
       </c>
       <c r="F241" t="n">
@@ -11929,7 +11929,7 @@
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5162007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5163148&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
@@ -11944,7 +11944,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 2, I Región</t>
+          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 3, I Región</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -11959,11 +11959,11 @@
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>POZO ALMONTE SOLAR 2 S.A.</t>
+          <t>Pozo Almonte Solar 3 S.A.</t>
         </is>
       </c>
       <c r="F242" t="n">
-        <v>40000</v>
+        <v>71000</v>
       </c>
       <c r="G242" t="inlineStr">
         <is>
@@ -11977,7 +11977,7 @@
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5163148&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5164638&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
@@ -14920,7 +14920,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>Ripiera Sagasca (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
@@ -14930,16 +14930,16 @@
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>Christopher Frank Sir</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F304" t="n">
-        <v>452</v>
+        <v>1750</v>
       </c>
       <c r="G304" t="inlineStr">
         <is>
@@ -14948,12 +14948,12 @@
       </c>
       <c r="H304" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I304" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310471&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J304" t="inlineStr">
@@ -14968,7 +14968,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Ripiera Sagasca (e-seia)</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -14978,16 +14978,16 @@
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Christopher Frank Sir</t>
         </is>
       </c>
       <c r="F305" t="n">
-        <v>1750</v>
+        <v>452</v>
       </c>
       <c r="G305" t="inlineStr">
         <is>
@@ -14996,12 +14996,12 @@
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I305" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310471&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J305" t="inlineStr">
@@ -15016,7 +15016,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -15031,11 +15031,11 @@
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F306" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G306" t="inlineStr">
         <is>
@@ -15044,12 +15044,12 @@
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J306" t="inlineStr">
@@ -15064,7 +15064,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -15079,11 +15079,11 @@
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F307" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G307" t="inlineStr">
         <is>
@@ -15092,12 +15092,12 @@
       </c>
       <c r="H307" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I307" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J307" t="inlineStr">
@@ -15736,10 +15736,14 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>PAMPA HERMOSA</t>
-        </is>
-      </c>
-      <c r="C321" t="inlineStr"/>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D321" t="inlineStr">
         <is>
           <t>Interregional</t>
@@ -15747,11 +15751,11 @@
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>SQM S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F321" t="n">
-        <v>1.033</v>
+        <v>20</v>
       </c>
       <c r="G321" t="inlineStr">
         <is>
@@ -15760,12 +15764,12 @@
       </c>
       <c r="H321" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I321" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3083858&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J321" t="inlineStr">
@@ -15780,14 +15784,10 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
-        </is>
-      </c>
-      <c r="C322" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>PAMPA HERMOSA</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr"/>
       <c r="D322" t="inlineStr">
         <is>
           <t>Interregional</t>
@@ -15795,11 +15795,11 @@
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>SQM S.A.</t>
         </is>
       </c>
       <c r="F322" t="n">
-        <v>20</v>
+        <v>1.033</v>
       </c>
       <c r="G322" t="inlineStr">
         <is>
@@ -15808,12 +15808,12 @@
       </c>
       <c r="H322" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I322" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3083858&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J322" t="inlineStr">
@@ -21388,7 +21388,7 @@
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>CONSTRUCCIÓN RELLENO SANITARIO PARA LA COMUNA DE POZO ALMONTE (e-seia)</t>
+          <t>PLAN REGULADOR DE LA HUAYCA, COMUNA DE POZO ALMONTE (e-seia)</t>
         </is>
       </c>
       <c r="C439" t="inlineStr">
@@ -21421,7 +21421,7 @@
       </c>
       <c r="I439" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141090900&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141097087&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J439" t="inlineStr">
@@ -21436,7 +21436,7 @@
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>PLAN REGULADOR DE LA HUAYCA, COMUNA DE POZO ALMONTE (e-seia)</t>
+          <t>PLAN REGULADOR DE POZO ALMONTE, COMUNA DE POZO ALMONTE (e-seia)</t>
         </is>
       </c>
       <c r="C440" t="inlineStr">
@@ -21469,7 +21469,7 @@
       </c>
       <c r="I440" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141097087&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141097135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J440" t="inlineStr">
@@ -21484,7 +21484,7 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>PLAN REGULADOR DE POZO ALMONTE, COMUNA DE POZO ALMONTE (e-seia)</t>
+          <t>PLAN SECCIONAL DE LA TIRANA, COMUNA DE POZO ALMONTE (e-seia)</t>
         </is>
       </c>
       <c r="C441" t="inlineStr">
@@ -21517,7 +21517,7 @@
       </c>
       <c r="I441" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141097135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141097173&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J441" t="inlineStr">
@@ -21532,7 +21532,7 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>PLAN SECCIONAL DE LA TIRANA, COMUNA DE POZO ALMONTE (e-seia)</t>
+          <t>CONSTRUCCIÓN RELLENO SANITARIO PARA LA COMUNA DE POZO ALMONTE (e-seia)</t>
         </is>
       </c>
       <c r="C442" t="inlineStr">
@@ -21565,7 +21565,7 @@
       </c>
       <c r="I442" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141097173&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141090900&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J442" t="inlineStr">

--- a/data/Pozo Almonte.xlsx
+++ b/data/Pozo Almonte.xlsx
@@ -7192,7 +7192,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Mejoramiento Eloisa</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7202,16 +7202,16 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Eloisa spa</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>75000</v>
+        <v>0</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
@@ -7220,12 +7220,12 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128980296&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7240,7 +7240,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>PLANTA SOLAR PINTADOS</t>
+          <t>Mejoramiento Eloisa</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7255,11 +7255,11 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Planta Solar Pintados SpA.</t>
+          <t>Eloisa spa</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>200000</v>
+        <v>75000</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
@@ -7268,12 +7268,12 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955109&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128980296&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7288,7 +7288,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>PLANTA SOLAR PINTADOS</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7298,16 +7298,16 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Planta Solar Pintados SpA.</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
@@ -7321,7 +7321,7 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955109&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -9016,7 +9016,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Cal .</t>
+          <t>Proyecto Fotovoltaico Huatacondo</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9026,16 +9026,16 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
+          <t>AustrainSolar Chile Cuatro SpA</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>8426</v>
+        <v>196000</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
@@ -9044,12 +9044,12 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7561133&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7558839&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -9064,7 +9064,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Proyecto Fotovoltaico Huatacondo</t>
+          <t>Transporte Interregional de Cal .</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9074,16 +9074,16 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>AustrainSolar Chile Cuatro SpA</t>
+          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>196000</v>
+        <v>8426</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
@@ -9092,12 +9092,12 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7558839&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7561133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -11320,7 +11320,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>PROSPECCION MINERA CHALLACOLLO SUR</t>
+          <t>Reposición Ruta 5, Longitudinal Norte, Sector Reserva Nacional Pampa del Tamarugal, Km. 1.781,0 - Km 1.801, Provincia del Tamarugal, Región de Tarapacá</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -11335,11 +11335,11 @@
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>SOCIEDAD CONTRACTUAL MINERA BOREAL</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F229" t="n">
-        <v>370</v>
+        <v>5940</v>
       </c>
       <c r="G229" t="inlineStr">
         <is>
@@ -11353,7 +11353,7 @@
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5344496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5412341&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -11368,7 +11368,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Reposición Ruta 5, Longitudinal Norte, Sector Reserva Nacional Pampa del Tamarugal, Km. 1.781,0 - Km 1.801, Provincia del Tamarugal, Región de Tarapacá</t>
+          <t>PROSPECCION MINERA CHALLACOLLO SUR</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -11383,11 +11383,11 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>SOCIEDAD CONTRACTUAL MINERA BOREAL</t>
         </is>
       </c>
       <c r="F230" t="n">
-        <v>5940</v>
+        <v>370</v>
       </c>
       <c r="G230" t="inlineStr">
         <is>
@@ -11401,7 +11401,7 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5412341&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5344496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -11848,7 +11848,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 1, I Región</t>
+          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 3, I Región</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -11863,11 +11863,11 @@
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>Pozo Almonte Solar 1 SpA</t>
+          <t>Pozo Almonte Solar 3 S.A.</t>
         </is>
       </c>
       <c r="F240" t="n">
-        <v>40000</v>
+        <v>71000</v>
       </c>
       <c r="G240" t="inlineStr">
         <is>
@@ -11881,7 +11881,7 @@
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5162007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5164638&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
@@ -11896,7 +11896,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 2, I Región</t>
+          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 1, I Región</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -11911,7 +11911,7 @@
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>POZO ALMONTE SOLAR 2 S.A.</t>
+          <t>Pozo Almonte Solar 1 SpA</t>
         </is>
       </c>
       <c r="F241" t="n">
@@ -11929,7 +11929,7 @@
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5163148&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5162007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
@@ -11944,7 +11944,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 3, I Región</t>
+          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 2, I Región</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -11959,11 +11959,11 @@
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>Pozo Almonte Solar 3 S.A.</t>
+          <t>POZO ALMONTE SOLAR 2 S.A.</t>
         </is>
       </c>
       <c r="F242" t="n">
-        <v>71000</v>
+        <v>40000</v>
       </c>
       <c r="G242" t="inlineStr">
         <is>
@@ -11977,7 +11977,7 @@
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5164638&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5163148&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
@@ -14920,7 +14920,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Ripiera Sagasca (e-seia)</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
@@ -14930,16 +14930,16 @@
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Christopher Frank Sir</t>
         </is>
       </c>
       <c r="F304" t="n">
-        <v>1750</v>
+        <v>452</v>
       </c>
       <c r="G304" t="inlineStr">
         <is>
@@ -14948,12 +14948,12 @@
       </c>
       <c r="H304" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I304" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310471&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J304" t="inlineStr">
@@ -14968,7 +14968,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>Ripiera Sagasca (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -14978,16 +14978,16 @@
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>Christopher Frank Sir</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F305" t="n">
-        <v>452</v>
+        <v>1750</v>
       </c>
       <c r="G305" t="inlineStr">
         <is>
@@ -14996,12 +14996,12 @@
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I305" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310471&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J305" t="inlineStr">
@@ -15016,7 +15016,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -15031,11 +15031,11 @@
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F306" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G306" t="inlineStr">
         <is>
@@ -15044,12 +15044,12 @@
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J306" t="inlineStr">
@@ -15064,7 +15064,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -15079,11 +15079,11 @@
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F307" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G307" t="inlineStr">
         <is>
@@ -15092,12 +15092,12 @@
       </c>
       <c r="H307" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I307" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J307" t="inlineStr">
@@ -15736,14 +15736,10 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
-        </is>
-      </c>
-      <c r="C321" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>PAMPA HERMOSA</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr"/>
       <c r="D321" t="inlineStr">
         <is>
           <t>Interregional</t>
@@ -15751,11 +15747,11 @@
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>SQM S.A.</t>
         </is>
       </c>
       <c r="F321" t="n">
-        <v>20</v>
+        <v>1.033</v>
       </c>
       <c r="G321" t="inlineStr">
         <is>
@@ -15764,12 +15760,12 @@
       </c>
       <c r="H321" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I321" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3083858&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J321" t="inlineStr">
@@ -15784,10 +15780,14 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>PAMPA HERMOSA</t>
-        </is>
-      </c>
-      <c r="C322" t="inlineStr"/>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D322" t="inlineStr">
         <is>
           <t>Interregional</t>
@@ -15795,11 +15795,11 @@
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>SQM S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F322" t="n">
-        <v>1.033</v>
+        <v>20</v>
       </c>
       <c r="G322" t="inlineStr">
         <is>
@@ -15808,12 +15808,12 @@
       </c>
       <c r="H322" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I322" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3083858&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J322" t="inlineStr">
@@ -21388,7 +21388,7 @@
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>PLAN REGULADOR DE LA HUAYCA, COMUNA DE POZO ALMONTE (e-seia)</t>
+          <t>CONSTRUCCIÓN RELLENO SANITARIO PARA LA COMUNA DE POZO ALMONTE (e-seia)</t>
         </is>
       </c>
       <c r="C439" t="inlineStr">
@@ -21421,7 +21421,7 @@
       </c>
       <c r="I439" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141097087&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141090900&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J439" t="inlineStr">
@@ -21436,7 +21436,7 @@
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>PLAN REGULADOR DE POZO ALMONTE, COMUNA DE POZO ALMONTE (e-seia)</t>
+          <t>PLAN REGULADOR DE LA HUAYCA, COMUNA DE POZO ALMONTE (e-seia)</t>
         </is>
       </c>
       <c r="C440" t="inlineStr">
@@ -21469,7 +21469,7 @@
       </c>
       <c r="I440" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141097135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141097087&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J440" t="inlineStr">
@@ -21484,7 +21484,7 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>PLAN SECCIONAL DE LA TIRANA, COMUNA DE POZO ALMONTE (e-seia)</t>
+          <t>PLAN REGULADOR DE POZO ALMONTE, COMUNA DE POZO ALMONTE (e-seia)</t>
         </is>
       </c>
       <c r="C441" t="inlineStr">
@@ -21517,7 +21517,7 @@
       </c>
       <c r="I441" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141097173&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141097135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J441" t="inlineStr">
@@ -21532,7 +21532,7 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>CONSTRUCCIÓN RELLENO SANITARIO PARA LA COMUNA DE POZO ALMONTE (e-seia)</t>
+          <t>PLAN SECCIONAL DE LA TIRANA, COMUNA DE POZO ALMONTE (e-seia)</t>
         </is>
       </c>
       <c r="C442" t="inlineStr">
@@ -21565,7 +21565,7 @@
       </c>
       <c r="I442" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141090900&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141097173&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J442" t="inlineStr">

--- a/data/Pozo Almonte.xlsx
+++ b/data/Pozo Almonte.xlsx
@@ -7240,7 +7240,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Mejoramiento Eloisa</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7250,16 +7250,16 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Eloisa spa</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>75000</v>
+        <v>0</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
@@ -7268,12 +7268,12 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128980296&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7288,7 +7288,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>PLANTA SOLAR PINTADOS</t>
+          <t>Mejoramiento Eloisa</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7303,11 +7303,11 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Planta Solar Pintados SpA.</t>
+          <t>Eloisa spa</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>200000</v>
+        <v>75000</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
@@ -7316,12 +7316,12 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955109&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128980296&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -7336,7 +7336,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>PLANTA SOLAR PINTADOS</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7346,16 +7346,16 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Planta Solar Pintados SpA.</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
@@ -7369,7 +7369,7 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955109&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -9064,7 +9064,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Cal .</t>
+          <t>Proyecto Fotovoltaico Huatacondo</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9074,16 +9074,16 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
+          <t>AustrainSolar Chile Cuatro SpA</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>8426</v>
+        <v>196000</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
@@ -9092,12 +9092,12 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7561133&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7558839&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9112,7 +9112,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Proyecto Fotovoltaico Huatacondo</t>
+          <t>Transporte Interregional de Cal .</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9122,16 +9122,16 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>AustrainSolar Chile Cuatro SpA</t>
+          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>196000</v>
+        <v>8426</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
@@ -9140,12 +9140,12 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7558839&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7561133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -11368,7 +11368,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>PROSPECCION MINERA CHALLACOLLO SUR</t>
+          <t>Reposición Ruta 5, Longitudinal Norte, Sector Reserva Nacional Pampa del Tamarugal, Km. 1.781,0 - Km 1.801, Provincia del Tamarugal, Región de Tarapacá</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -11383,11 +11383,11 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>SOCIEDAD CONTRACTUAL MINERA BOREAL</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F230" t="n">
-        <v>370</v>
+        <v>5940</v>
       </c>
       <c r="G230" t="inlineStr">
         <is>
@@ -11401,7 +11401,7 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5344496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5412341&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -11416,7 +11416,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Reposición Ruta 5, Longitudinal Norte, Sector Reserva Nacional Pampa del Tamarugal, Km. 1.781,0 - Km 1.801, Provincia del Tamarugal, Región de Tarapacá</t>
+          <t>PROSPECCION MINERA CHALLACOLLO SUR</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11431,11 +11431,11 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>SOCIEDAD CONTRACTUAL MINERA BOREAL</t>
         </is>
       </c>
       <c r="F231" t="n">
-        <v>5940</v>
+        <v>370</v>
       </c>
       <c r="G231" t="inlineStr">
         <is>
@@ -11449,7 +11449,7 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5412341&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5344496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -11896,7 +11896,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 1, I Región</t>
+          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 3, I Región</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -11911,11 +11911,11 @@
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>Pozo Almonte Solar 1 SpA</t>
+          <t>Pozo Almonte Solar 3 S.A.</t>
         </is>
       </c>
       <c r="F241" t="n">
-        <v>40000</v>
+        <v>71000</v>
       </c>
       <c r="G241" t="inlineStr">
         <is>
@@ -11929,7 +11929,7 @@
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5162007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5164638&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
@@ -11944,7 +11944,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 2, I Región</t>
+          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 1, I Región</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -11959,7 +11959,7 @@
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>POZO ALMONTE SOLAR 2 S.A.</t>
+          <t>Pozo Almonte Solar 1 SpA</t>
         </is>
       </c>
       <c r="F242" t="n">
@@ -11977,7 +11977,7 @@
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5163148&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5162007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
@@ -11992,7 +11992,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 3, I Región</t>
+          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 2, I Región</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -12007,11 +12007,11 @@
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>Pozo Almonte Solar 3 S.A.</t>
+          <t>POZO ALMONTE SOLAR 2 S.A.</t>
         </is>
       </c>
       <c r="F243" t="n">
-        <v>71000</v>
+        <v>40000</v>
       </c>
       <c r="G243" t="inlineStr">
         <is>
@@ -12025,7 +12025,7 @@
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5164638&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5163148&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
@@ -14968,7 +14968,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Ripiera Sagasca (e-seia)</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -14978,16 +14978,16 @@
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Christopher Frank Sir</t>
         </is>
       </c>
       <c r="F305" t="n">
-        <v>1750</v>
+        <v>452</v>
       </c>
       <c r="G305" t="inlineStr">
         <is>
@@ -14996,12 +14996,12 @@
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I305" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310471&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J305" t="inlineStr">
@@ -15016,7 +15016,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>Ripiera Sagasca (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -15026,16 +15026,16 @@
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>Christopher Frank Sir</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F306" t="n">
-        <v>452</v>
+        <v>1750</v>
       </c>
       <c r="G306" t="inlineStr">
         <is>
@@ -15044,12 +15044,12 @@
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310471&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J306" t="inlineStr">
@@ -15064,7 +15064,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -15079,11 +15079,11 @@
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F307" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G307" t="inlineStr">
         <is>
@@ -15092,12 +15092,12 @@
       </c>
       <c r="H307" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I307" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J307" t="inlineStr">
@@ -15112,7 +15112,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
@@ -15127,11 +15127,11 @@
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F308" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G308" t="inlineStr">
         <is>
@@ -15140,12 +15140,12 @@
       </c>
       <c r="H308" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I308" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J308" t="inlineStr">
@@ -15784,14 +15784,10 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
-        </is>
-      </c>
-      <c r="C322" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>PAMPA HERMOSA</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr"/>
       <c r="D322" t="inlineStr">
         <is>
           <t>Interregional</t>
@@ -15799,11 +15795,11 @@
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>SQM S.A.</t>
         </is>
       </c>
       <c r="F322" t="n">
-        <v>20</v>
+        <v>1.033</v>
       </c>
       <c r="G322" t="inlineStr">
         <is>
@@ -15812,12 +15808,12 @@
       </c>
       <c r="H322" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I322" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3083858&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J322" t="inlineStr">
@@ -15832,10 +15828,14 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>PAMPA HERMOSA</t>
-        </is>
-      </c>
-      <c r="C323" t="inlineStr"/>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D323" t="inlineStr">
         <is>
           <t>Interregional</t>
@@ -15843,11 +15843,11 @@
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>SQM S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F323" t="n">
-        <v>1.033</v>
+        <v>20</v>
       </c>
       <c r="G323" t="inlineStr">
         <is>
@@ -15856,12 +15856,12 @@
       </c>
       <c r="H323" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I323" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3083858&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J323" t="inlineStr">

--- a/data/Pozo Almonte.xlsx
+++ b/data/Pozo Almonte.xlsx
@@ -7240,7 +7240,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Mejoramiento Eloisa</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7250,16 +7250,16 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Eloisa spa</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>0</v>
+        <v>75000</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
@@ -7268,12 +7268,12 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128980296&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7288,7 +7288,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Mejoramiento Eloisa</t>
+          <t>PLANTA SOLAR PINTADOS</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7303,11 +7303,11 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Eloisa spa</t>
+          <t>Planta Solar Pintados SpA.</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>75000</v>
+        <v>200000</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
@@ -7316,12 +7316,12 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128980296&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955109&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -7336,7 +7336,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>PLANTA SOLAR PINTADOS</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7346,16 +7346,16 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Planta Solar Pintados SpA.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>200000</v>
+        <v>0</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
@@ -7369,7 +7369,7 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955109&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -9064,7 +9064,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Proyecto Fotovoltaico Huatacondo</t>
+          <t>Transporte Interregional de Cal .</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9074,16 +9074,16 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>AustrainSolar Chile Cuatro SpA</t>
+          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>196000</v>
+        <v>8426</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
@@ -9092,12 +9092,12 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7558839&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7561133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9112,7 +9112,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Cal .</t>
+          <t>Proyecto Fotovoltaico Huatacondo</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9122,16 +9122,16 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
+          <t>AustrainSolar Chile Cuatro SpA</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>8426</v>
+        <v>196000</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
@@ -9140,12 +9140,12 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7561133&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7558839&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -11368,7 +11368,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Reposición Ruta 5, Longitudinal Norte, Sector Reserva Nacional Pampa del Tamarugal, Km. 1.781,0 - Km 1.801, Provincia del Tamarugal, Región de Tarapacá</t>
+          <t>PROSPECCION MINERA CHALLACOLLO SUR</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -11383,11 +11383,11 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>SOCIEDAD CONTRACTUAL MINERA BOREAL</t>
         </is>
       </c>
       <c r="F230" t="n">
-        <v>5940</v>
+        <v>370</v>
       </c>
       <c r="G230" t="inlineStr">
         <is>
@@ -11401,7 +11401,7 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5412341&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5344496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -11416,7 +11416,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>PROSPECCION MINERA CHALLACOLLO SUR</t>
+          <t>Reposición Ruta 5, Longitudinal Norte, Sector Reserva Nacional Pampa del Tamarugal, Km. 1.781,0 - Km 1.801, Provincia del Tamarugal, Región de Tarapacá</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11431,11 +11431,11 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>SOCIEDAD CONTRACTUAL MINERA BOREAL</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F231" t="n">
-        <v>370</v>
+        <v>5940</v>
       </c>
       <c r="G231" t="inlineStr">
         <is>
@@ -11449,7 +11449,7 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5344496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5412341&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -11896,7 +11896,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 3, I Región</t>
+          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 1, I Región</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -11911,11 +11911,11 @@
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>Pozo Almonte Solar 3 S.A.</t>
+          <t>Pozo Almonte Solar 1 SpA</t>
         </is>
       </c>
       <c r="F241" t="n">
-        <v>71000</v>
+        <v>40000</v>
       </c>
       <c r="G241" t="inlineStr">
         <is>
@@ -11929,7 +11929,7 @@
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5164638&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5162007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
@@ -11944,7 +11944,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 1, I Región</t>
+          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 2, I Región</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -11959,7 +11959,7 @@
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>Pozo Almonte Solar 1 SpA</t>
+          <t>POZO ALMONTE SOLAR 2 S.A.</t>
         </is>
       </c>
       <c r="F242" t="n">
@@ -11977,7 +11977,7 @@
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5162007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5163148&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
@@ -11992,7 +11992,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 2, I Región</t>
+          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 3, I Región</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -12007,11 +12007,11 @@
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>POZO ALMONTE SOLAR 2 S.A.</t>
+          <t>Pozo Almonte Solar 3 S.A.</t>
         </is>
       </c>
       <c r="F243" t="n">
-        <v>40000</v>
+        <v>71000</v>
       </c>
       <c r="G243" t="inlineStr">
         <is>
@@ -12025,7 +12025,7 @@
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5163148&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5164638&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
@@ -14968,7 +14968,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>Ripiera Sagasca (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -14978,16 +14978,16 @@
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>Christopher Frank Sir</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F305" t="n">
-        <v>452</v>
+        <v>1750</v>
       </c>
       <c r="G305" t="inlineStr">
         <is>
@@ -14996,12 +14996,12 @@
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I305" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310471&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J305" t="inlineStr">
@@ -15016,7 +15016,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Ripiera Sagasca (e-seia)</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -15026,16 +15026,16 @@
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Christopher Frank Sir</t>
         </is>
       </c>
       <c r="F306" t="n">
-        <v>1750</v>
+        <v>452</v>
       </c>
       <c r="G306" t="inlineStr">
         <is>
@@ -15044,12 +15044,12 @@
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310471&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J306" t="inlineStr">
@@ -15064,7 +15064,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -15079,11 +15079,11 @@
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F307" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G307" t="inlineStr">
         <is>
@@ -15092,12 +15092,12 @@
       </c>
       <c r="H307" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I307" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J307" t="inlineStr">
@@ -15112,7 +15112,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
@@ -15127,11 +15127,11 @@
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F308" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G308" t="inlineStr">
         <is>
@@ -15140,12 +15140,12 @@
       </c>
       <c r="H308" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I308" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J308" t="inlineStr">
@@ -15784,10 +15784,14 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>PAMPA HERMOSA</t>
-        </is>
-      </c>
-      <c r="C322" t="inlineStr"/>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D322" t="inlineStr">
         <is>
           <t>Interregional</t>
@@ -15795,11 +15799,11 @@
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>SQM S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F322" t="n">
-        <v>1.033</v>
+        <v>20</v>
       </c>
       <c r="G322" t="inlineStr">
         <is>
@@ -15808,12 +15812,12 @@
       </c>
       <c r="H322" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I322" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3083858&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J322" t="inlineStr">
@@ -15828,14 +15832,10 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
-        </is>
-      </c>
-      <c r="C323" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>PAMPA HERMOSA</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr"/>
       <c r="D323" t="inlineStr">
         <is>
           <t>Interregional</t>
@@ -15843,11 +15843,11 @@
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>SQM S.A.</t>
         </is>
       </c>
       <c r="F323" t="n">
-        <v>20</v>
+        <v>1.033</v>
       </c>
       <c r="G323" t="inlineStr">
         <is>
@@ -15856,12 +15856,12 @@
       </c>
       <c r="H323" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I323" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3083858&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J323" t="inlineStr">

--- a/data/Pozo Almonte.xlsx
+++ b/data/Pozo Almonte.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>23/01/2023</t>
+          <t>30/01/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -7240,7 +7240,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Mejoramiento Eloisa</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7250,16 +7250,16 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Eloisa spa</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>75000</v>
+        <v>0</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
@@ -7268,12 +7268,12 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128980296&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7288,7 +7288,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>PLANTA SOLAR PINTADOS</t>
+          <t>Mejoramiento Eloisa</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7303,11 +7303,11 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Planta Solar Pintados SpA.</t>
+          <t>Eloisa spa</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>200000</v>
+        <v>75000</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
@@ -7316,12 +7316,12 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955109&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128980296&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -7336,7 +7336,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>PLANTA SOLAR PINTADOS</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7346,16 +7346,16 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Planta Solar Pintados SpA.</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
@@ -7369,7 +7369,7 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955109&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -9064,7 +9064,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Cal .</t>
+          <t>Proyecto Fotovoltaico Huatacondo</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9074,16 +9074,16 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
+          <t>AustrainSolar Chile Cuatro SpA</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>8426</v>
+        <v>196000</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
@@ -9092,12 +9092,12 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7561133&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7558839&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9112,7 +9112,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Proyecto Fotovoltaico Huatacondo</t>
+          <t>Transporte Interregional de Cal .</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9122,16 +9122,16 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>AustrainSolar Chile Cuatro SpA</t>
+          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>196000</v>
+        <v>8426</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
@@ -9140,12 +9140,12 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7558839&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7561133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -11368,7 +11368,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>PROSPECCION MINERA CHALLACOLLO SUR</t>
+          <t>Reposición Ruta 5, Longitudinal Norte, Sector Reserva Nacional Pampa del Tamarugal, Km. 1.781,0 - Km 1.801, Provincia del Tamarugal, Región de Tarapacá</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -11383,11 +11383,11 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>SOCIEDAD CONTRACTUAL MINERA BOREAL</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F230" t="n">
-        <v>370</v>
+        <v>5940</v>
       </c>
       <c r="G230" t="inlineStr">
         <is>
@@ -11401,7 +11401,7 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5344496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5412341&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -11416,7 +11416,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Reposición Ruta 5, Longitudinal Norte, Sector Reserva Nacional Pampa del Tamarugal, Km. 1.781,0 - Km 1.801, Provincia del Tamarugal, Región de Tarapacá</t>
+          <t>PROSPECCION MINERA CHALLACOLLO SUR</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11431,11 +11431,11 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>SOCIEDAD CONTRACTUAL MINERA BOREAL</t>
         </is>
       </c>
       <c r="F231" t="n">
-        <v>5940</v>
+        <v>370</v>
       </c>
       <c r="G231" t="inlineStr">
         <is>
@@ -11449,7 +11449,7 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5412341&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5344496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -11896,7 +11896,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 1, I Región</t>
+          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 3, I Región</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -11911,11 +11911,11 @@
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>Pozo Almonte Solar 1 SpA</t>
+          <t>Pozo Almonte Solar 3 S.A.</t>
         </is>
       </c>
       <c r="F241" t="n">
-        <v>40000</v>
+        <v>71000</v>
       </c>
       <c r="G241" t="inlineStr">
         <is>
@@ -11929,7 +11929,7 @@
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5162007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5164638&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
@@ -11944,7 +11944,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 2, I Región</t>
+          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 1, I Región</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -11959,7 +11959,7 @@
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>POZO ALMONTE SOLAR 2 S.A.</t>
+          <t>Pozo Almonte Solar 1 SpA</t>
         </is>
       </c>
       <c r="F242" t="n">
@@ -11977,7 +11977,7 @@
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5163148&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5162007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
@@ -11992,7 +11992,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 3, I Región</t>
+          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 2, I Región</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -12007,11 +12007,11 @@
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>Pozo Almonte Solar 3 S.A.</t>
+          <t>POZO ALMONTE SOLAR 2 S.A.</t>
         </is>
       </c>
       <c r="F243" t="n">
-        <v>71000</v>
+        <v>40000</v>
       </c>
       <c r="G243" t="inlineStr">
         <is>
@@ -12025,7 +12025,7 @@
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5164638&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5163148&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
@@ -14968,7 +14968,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Ripiera Sagasca (e-seia)</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -14978,16 +14978,16 @@
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Christopher Frank Sir</t>
         </is>
       </c>
       <c r="F305" t="n">
-        <v>1750</v>
+        <v>452</v>
       </c>
       <c r="G305" t="inlineStr">
         <is>
@@ -14996,12 +14996,12 @@
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I305" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310471&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J305" t="inlineStr">
@@ -15016,7 +15016,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>Ripiera Sagasca (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -15026,16 +15026,16 @@
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>Christopher Frank Sir</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F306" t="n">
-        <v>452</v>
+        <v>1750</v>
       </c>
       <c r="G306" t="inlineStr">
         <is>
@@ -15044,12 +15044,12 @@
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310471&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J306" t="inlineStr">
@@ -15064,7 +15064,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -15079,11 +15079,11 @@
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F307" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G307" t="inlineStr">
         <is>
@@ -15092,12 +15092,12 @@
       </c>
       <c r="H307" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I307" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J307" t="inlineStr">
@@ -15112,7 +15112,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
@@ -15127,11 +15127,11 @@
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F308" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G308" t="inlineStr">
         <is>
@@ -15140,12 +15140,12 @@
       </c>
       <c r="H308" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I308" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J308" t="inlineStr">
@@ -15784,14 +15784,10 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
-        </is>
-      </c>
-      <c r="C322" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>PAMPA HERMOSA</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr"/>
       <c r="D322" t="inlineStr">
         <is>
           <t>Interregional</t>
@@ -15799,11 +15795,11 @@
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>SQM S.A.</t>
         </is>
       </c>
       <c r="F322" t="n">
-        <v>20</v>
+        <v>1.033</v>
       </c>
       <c r="G322" t="inlineStr">
         <is>
@@ -15812,12 +15808,12 @@
       </c>
       <c r="H322" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I322" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3083858&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J322" t="inlineStr">
@@ -15832,10 +15828,14 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>PAMPA HERMOSA</t>
-        </is>
-      </c>
-      <c r="C323" t="inlineStr"/>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D323" t="inlineStr">
         <is>
           <t>Interregional</t>
@@ -15843,11 +15843,11 @@
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>SQM S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F323" t="n">
-        <v>1.033</v>
+        <v>20</v>
       </c>
       <c r="G323" t="inlineStr">
         <is>
@@ -15856,12 +15856,12 @@
       </c>
       <c r="H323" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I323" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3083858&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J323" t="inlineStr">

--- a/data/Pozo Almonte.xlsx
+++ b/data/Pozo Almonte.xlsx
@@ -1268,7 +1268,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">

--- a/data/Pozo Almonte.xlsx
+++ b/data/Pozo Almonte.xlsx
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Transporte terrestre de ácido sulfúrico y PLS entre la región de Arica y Parinacota y Valparaíso</t>
+          <t>Transporte terrestre de ácido sulfúrico entre la región de Arica y Parinacota y Atacama</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -7240,7 +7240,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Mejoramiento Eloisa</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7250,16 +7250,16 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Eloisa spa</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>0</v>
+        <v>75000</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
@@ -7268,12 +7268,12 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128980296&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7288,7 +7288,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Mejoramiento Eloisa</t>
+          <t>PLANTA SOLAR PINTADOS</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7303,11 +7303,11 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Eloisa spa</t>
+          <t>Planta Solar Pintados SpA.</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>75000</v>
+        <v>200000</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
@@ -7316,12 +7316,12 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128980296&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955109&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -7336,7 +7336,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>PLANTA SOLAR PINTADOS</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7346,16 +7346,16 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Planta Solar Pintados SpA.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>200000</v>
+        <v>0</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
@@ -7369,7 +7369,7 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955109&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -9064,7 +9064,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Proyecto Fotovoltaico Huatacondo</t>
+          <t>Transporte Interregional de Cal .</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9074,16 +9074,16 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>AustrainSolar Chile Cuatro SpA</t>
+          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>196000</v>
+        <v>8426</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
@@ -9092,12 +9092,12 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7558839&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7561133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9112,7 +9112,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Cal .</t>
+          <t>Proyecto Fotovoltaico Huatacondo</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9122,16 +9122,16 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
+          <t>AustrainSolar Chile Cuatro SpA</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>8426</v>
+        <v>196000</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
@@ -9140,12 +9140,12 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7561133&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7558839&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -11368,7 +11368,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Reposición Ruta 5, Longitudinal Norte, Sector Reserva Nacional Pampa del Tamarugal, Km. 1.781,0 - Km 1.801, Provincia del Tamarugal, Región de Tarapacá</t>
+          <t>PROSPECCION MINERA CHALLACOLLO SUR</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -11383,11 +11383,11 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>SOCIEDAD CONTRACTUAL MINERA BOREAL</t>
         </is>
       </c>
       <c r="F230" t="n">
-        <v>5940</v>
+        <v>370</v>
       </c>
       <c r="G230" t="inlineStr">
         <is>
@@ -11401,7 +11401,7 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5412341&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5344496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -11416,7 +11416,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>PROSPECCION MINERA CHALLACOLLO SUR</t>
+          <t>Reposición Ruta 5, Longitudinal Norte, Sector Reserva Nacional Pampa del Tamarugal, Km. 1.781,0 - Km 1.801, Provincia del Tamarugal, Región de Tarapacá</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11431,11 +11431,11 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>SOCIEDAD CONTRACTUAL MINERA BOREAL</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F231" t="n">
-        <v>370</v>
+        <v>5940</v>
       </c>
       <c r="G231" t="inlineStr">
         <is>
@@ -11449,7 +11449,7 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5344496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5412341&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -11896,7 +11896,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 3, I Región</t>
+          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 1, I Región</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -11911,11 +11911,11 @@
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>Pozo Almonte Solar 3 S.A.</t>
+          <t>Pozo Almonte Solar 1 SpA</t>
         </is>
       </c>
       <c r="F241" t="n">
-        <v>71000</v>
+        <v>40000</v>
       </c>
       <c r="G241" t="inlineStr">
         <is>
@@ -11929,7 +11929,7 @@
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5164638&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5162007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
@@ -11944,7 +11944,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 1, I Región</t>
+          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 2, I Región</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -11959,7 +11959,7 @@
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>Pozo Almonte Solar 1 SpA</t>
+          <t>POZO ALMONTE SOLAR 2 S.A.</t>
         </is>
       </c>
       <c r="F242" t="n">
@@ -11977,7 +11977,7 @@
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5162007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5163148&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
@@ -11992,7 +11992,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 2, I Región</t>
+          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 3, I Región</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -12007,11 +12007,11 @@
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>POZO ALMONTE SOLAR 2 S.A.</t>
+          <t>Pozo Almonte Solar 3 S.A.</t>
         </is>
       </c>
       <c r="F243" t="n">
-        <v>40000</v>
+        <v>71000</v>
       </c>
       <c r="G243" t="inlineStr">
         <is>
@@ -12025,7 +12025,7 @@
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5163148&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5164638&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
@@ -14968,7 +14968,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>Ripiera Sagasca (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -14978,16 +14978,16 @@
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>Christopher Frank Sir</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F305" t="n">
-        <v>452</v>
+        <v>1750</v>
       </c>
       <c r="G305" t="inlineStr">
         <is>
@@ -14996,12 +14996,12 @@
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I305" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310471&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J305" t="inlineStr">
@@ -15016,7 +15016,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Ripiera Sagasca (e-seia)</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -15026,16 +15026,16 @@
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Christopher Frank Sir</t>
         </is>
       </c>
       <c r="F306" t="n">
-        <v>1750</v>
+        <v>452</v>
       </c>
       <c r="G306" t="inlineStr">
         <is>
@@ -15044,12 +15044,12 @@
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310471&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J306" t="inlineStr">
@@ -15064,7 +15064,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -15079,11 +15079,11 @@
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F307" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G307" t="inlineStr">
         <is>
@@ -15092,12 +15092,12 @@
       </c>
       <c r="H307" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I307" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J307" t="inlineStr">
@@ -15112,7 +15112,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
@@ -15127,11 +15127,11 @@
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F308" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G308" t="inlineStr">
         <is>
@@ -15140,12 +15140,12 @@
       </c>
       <c r="H308" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I308" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J308" t="inlineStr">
@@ -15784,10 +15784,14 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>PAMPA HERMOSA</t>
-        </is>
-      </c>
-      <c r="C322" t="inlineStr"/>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D322" t="inlineStr">
         <is>
           <t>Interregional</t>
@@ -15795,11 +15799,11 @@
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>SQM S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F322" t="n">
-        <v>1.033</v>
+        <v>20</v>
       </c>
       <c r="G322" t="inlineStr">
         <is>
@@ -15808,12 +15812,12 @@
       </c>
       <c r="H322" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I322" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3083858&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J322" t="inlineStr">
@@ -15828,14 +15832,10 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
-        </is>
-      </c>
-      <c r="C323" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>PAMPA HERMOSA</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr"/>
       <c r="D323" t="inlineStr">
         <is>
           <t>Interregional</t>
@@ -15843,11 +15843,11 @@
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>SQM S.A.</t>
         </is>
       </c>
       <c r="F323" t="n">
-        <v>20</v>
+        <v>1.033</v>
       </c>
       <c r="G323" t="inlineStr">
         <is>
@@ -15856,12 +15856,12 @@
       </c>
       <c r="H323" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I323" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3083858&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J323" t="inlineStr">

--- a/data/Pozo Almonte.xlsx
+++ b/data/Pozo Almonte.xlsx
@@ -1783,7 +1783,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Taruca Solar SpA</t>
+          <t>El Carmelo Solar SpA</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -7240,7 +7240,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Mejoramiento Eloisa</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7250,16 +7250,16 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Eloisa spa</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>0</v>
+        <v>75000</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
@@ -7268,12 +7268,12 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128980296&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7288,7 +7288,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Mejoramiento Eloisa</t>
+          <t>PLANTA SOLAR PINTADOS</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7303,11 +7303,11 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Eloisa spa</t>
+          <t>Planta Solar Pintados SpA.</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>75000</v>
+        <v>200000</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
@@ -7316,12 +7316,12 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128980296&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955109&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -7336,7 +7336,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>PLANTA SOLAR PINTADOS</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7346,16 +7346,16 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Planta Solar Pintados SpA.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>200000</v>
+        <v>0</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
@@ -7369,7 +7369,7 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955109&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -9064,7 +9064,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Proyecto Fotovoltaico Huatacondo</t>
+          <t>Transporte Interregional de Cal .</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9074,16 +9074,16 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>AustrainSolar Chile Cuatro SpA</t>
+          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>196000</v>
+        <v>8426</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
@@ -9092,12 +9092,12 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7558839&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7561133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9112,7 +9112,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Cal .</t>
+          <t>Proyecto Fotovoltaico Huatacondo</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9122,16 +9122,16 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
+          <t>AustrainSolar Chile Cuatro SpA</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>8426</v>
+        <v>196000</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
@@ -9140,12 +9140,12 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7561133&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7558839&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -11368,7 +11368,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Reposición Ruta 5, Longitudinal Norte, Sector Reserva Nacional Pampa del Tamarugal, Km. 1.781,0 - Km 1.801, Provincia del Tamarugal, Región de Tarapacá</t>
+          <t>PROSPECCION MINERA CHALLACOLLO SUR</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -11383,11 +11383,11 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>SOCIEDAD CONTRACTUAL MINERA BOREAL</t>
         </is>
       </c>
       <c r="F230" t="n">
-        <v>5940</v>
+        <v>370</v>
       </c>
       <c r="G230" t="inlineStr">
         <is>
@@ -11401,7 +11401,7 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5412341&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5344496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -11416,7 +11416,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>PROSPECCION MINERA CHALLACOLLO SUR</t>
+          <t>Reposición Ruta 5, Longitudinal Norte, Sector Reserva Nacional Pampa del Tamarugal, Km. 1.781,0 - Km 1.801, Provincia del Tamarugal, Región de Tarapacá</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11431,11 +11431,11 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>SOCIEDAD CONTRACTUAL MINERA BOREAL</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F231" t="n">
-        <v>370</v>
+        <v>5940</v>
       </c>
       <c r="G231" t="inlineStr">
         <is>
@@ -11449,7 +11449,7 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5344496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5412341&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -11896,7 +11896,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 3, I Región</t>
+          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 1, I Región</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -11911,11 +11911,11 @@
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>Pozo Almonte Solar 3 S.A.</t>
+          <t>Pozo Almonte Solar 1 SpA</t>
         </is>
       </c>
       <c r="F241" t="n">
-        <v>71000</v>
+        <v>40000</v>
       </c>
       <c r="G241" t="inlineStr">
         <is>
@@ -11929,7 +11929,7 @@
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5164638&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5162007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
@@ -11944,7 +11944,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 1, I Región</t>
+          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 2, I Región</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -11959,7 +11959,7 @@
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>Pozo Almonte Solar 1 SpA</t>
+          <t>POZO ALMONTE SOLAR 2 S.A.</t>
         </is>
       </c>
       <c r="F242" t="n">
@@ -11977,7 +11977,7 @@
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5162007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5163148&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
@@ -11992,7 +11992,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 2, I Región</t>
+          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 3, I Región</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -12007,11 +12007,11 @@
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>POZO ALMONTE SOLAR 2 S.A.</t>
+          <t>Pozo Almonte Solar 3 S.A.</t>
         </is>
       </c>
       <c r="F243" t="n">
-        <v>40000</v>
+        <v>71000</v>
       </c>
       <c r="G243" t="inlineStr">
         <is>
@@ -12025,7 +12025,7 @@
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5163148&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5164638&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
@@ -14968,7 +14968,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>Ripiera Sagasca (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -14978,16 +14978,16 @@
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>Christopher Frank Sir</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F305" t="n">
-        <v>452</v>
+        <v>1750</v>
       </c>
       <c r="G305" t="inlineStr">
         <is>
@@ -14996,12 +14996,12 @@
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I305" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310471&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J305" t="inlineStr">
@@ -15016,7 +15016,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Ripiera Sagasca (e-seia)</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -15026,16 +15026,16 @@
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Christopher Frank Sir</t>
         </is>
       </c>
       <c r="F306" t="n">
-        <v>1750</v>
+        <v>452</v>
       </c>
       <c r="G306" t="inlineStr">
         <is>
@@ -15044,12 +15044,12 @@
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310471&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J306" t="inlineStr">
@@ -15064,7 +15064,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -15079,11 +15079,11 @@
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F307" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G307" t="inlineStr">
         <is>
@@ -15092,12 +15092,12 @@
       </c>
       <c r="H307" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I307" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J307" t="inlineStr">
@@ -15112,7 +15112,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
@@ -15127,11 +15127,11 @@
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F308" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G308" t="inlineStr">
         <is>
@@ -15140,12 +15140,12 @@
       </c>
       <c r="H308" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I308" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J308" t="inlineStr">
@@ -15784,10 +15784,14 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>PAMPA HERMOSA</t>
-        </is>
-      </c>
-      <c r="C322" t="inlineStr"/>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D322" t="inlineStr">
         <is>
           <t>Interregional</t>
@@ -15795,11 +15799,11 @@
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>SQM S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F322" t="n">
-        <v>1.033</v>
+        <v>20</v>
       </c>
       <c r="G322" t="inlineStr">
         <is>
@@ -15808,12 +15812,12 @@
       </c>
       <c r="H322" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I322" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3083858&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J322" t="inlineStr">
@@ -15828,14 +15832,10 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
-        </is>
-      </c>
-      <c r="C323" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>PAMPA HERMOSA</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr"/>
       <c r="D323" t="inlineStr">
         <is>
           <t>Interregional</t>
@@ -15843,11 +15843,11 @@
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>SQM S.A.</t>
         </is>
       </c>
       <c r="F323" t="n">
-        <v>20</v>
+        <v>1.033</v>
       </c>
       <c r="G323" t="inlineStr">
         <is>
@@ -15856,12 +15856,12 @@
       </c>
       <c r="H323" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I323" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3083858&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J323" t="inlineStr">

--- a/data/Pozo Almonte.xlsx
+++ b/data/Pozo Almonte.xlsx
@@ -3799,7 +3799,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>GRENERGY RENOVABLES PACIFIC LIMITADA</t>
+          <t>GR PEUMO SPA</t>
         </is>
       </c>
       <c r="F72" t="n">

--- a/data/Pozo Almonte.xlsx
+++ b/data/Pozo Almonte.xlsx
@@ -788,7 +788,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -7240,7 +7240,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Mejoramiento Eloisa</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7250,16 +7250,16 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Eloisa spa</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>75000</v>
+        <v>0</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
@@ -7268,12 +7268,12 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128980296&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7288,7 +7288,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>PLANTA SOLAR PINTADOS</t>
+          <t>Mejoramiento Eloisa</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7303,11 +7303,11 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Planta Solar Pintados SpA.</t>
+          <t>Eloisa spa</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>200000</v>
+        <v>75000</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
@@ -7316,12 +7316,12 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955109&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128980296&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -7336,7 +7336,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>PLANTA SOLAR PINTADOS</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7346,16 +7346,16 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Planta Solar Pintados SpA.</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
@@ -7369,7 +7369,7 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955109&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -9064,7 +9064,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Cal .</t>
+          <t>Proyecto Fotovoltaico Huatacondo</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9074,16 +9074,16 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
+          <t>AustrainSolar Chile Cuatro SpA</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>8426</v>
+        <v>196000</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
@@ -9092,12 +9092,12 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7561133&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7558839&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9112,7 +9112,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Proyecto Fotovoltaico Huatacondo</t>
+          <t>Transporte Interregional de Cal .</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9122,16 +9122,16 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>AustrainSolar Chile Cuatro SpA</t>
+          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>196000</v>
+        <v>8426</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
@@ -9140,12 +9140,12 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7558839&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7561133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -11368,7 +11368,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>PROSPECCION MINERA CHALLACOLLO SUR</t>
+          <t>Reposición Ruta 5, Longitudinal Norte, Sector Reserva Nacional Pampa del Tamarugal, Km. 1.781,0 - Km 1.801, Provincia del Tamarugal, Región de Tarapacá</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -11383,11 +11383,11 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>SOCIEDAD CONTRACTUAL MINERA BOREAL</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F230" t="n">
-        <v>370</v>
+        <v>5940</v>
       </c>
       <c r="G230" t="inlineStr">
         <is>
@@ -11401,7 +11401,7 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5344496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5412341&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -11416,7 +11416,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Reposición Ruta 5, Longitudinal Norte, Sector Reserva Nacional Pampa del Tamarugal, Km. 1.781,0 - Km 1.801, Provincia del Tamarugal, Región de Tarapacá</t>
+          <t>PROSPECCION MINERA CHALLACOLLO SUR</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11431,11 +11431,11 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>SOCIEDAD CONTRACTUAL MINERA BOREAL</t>
         </is>
       </c>
       <c r="F231" t="n">
-        <v>5940</v>
+        <v>370</v>
       </c>
       <c r="G231" t="inlineStr">
         <is>
@@ -11449,7 +11449,7 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5412341&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5344496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -11896,7 +11896,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 1, I Región</t>
+          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 3, I Región</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -11911,11 +11911,11 @@
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>Pozo Almonte Solar 1 SpA</t>
+          <t>Pozo Almonte Solar 3 S.A.</t>
         </is>
       </c>
       <c r="F241" t="n">
-        <v>40000</v>
+        <v>71000</v>
       </c>
       <c r="G241" t="inlineStr">
         <is>
@@ -11929,7 +11929,7 @@
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5162007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5164638&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
@@ -11944,7 +11944,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 2, I Región</t>
+          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 1, I Región</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -11959,7 +11959,7 @@
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>POZO ALMONTE SOLAR 2 S.A.</t>
+          <t>Pozo Almonte Solar 1 SpA</t>
         </is>
       </c>
       <c r="F242" t="n">
@@ -11977,7 +11977,7 @@
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5163148&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5162007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
@@ -11992,7 +11992,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 3, I Región</t>
+          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 2, I Región</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -12007,11 +12007,11 @@
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>Pozo Almonte Solar 3 S.A.</t>
+          <t>POZO ALMONTE SOLAR 2 S.A.</t>
         </is>
       </c>
       <c r="F243" t="n">
-        <v>71000</v>
+        <v>40000</v>
       </c>
       <c r="G243" t="inlineStr">
         <is>
@@ -12025,7 +12025,7 @@
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5164638&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5163148&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
@@ -14968,7 +14968,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Ripiera Sagasca (e-seia)</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -14978,16 +14978,16 @@
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Christopher Frank Sir</t>
         </is>
       </c>
       <c r="F305" t="n">
-        <v>1750</v>
+        <v>452</v>
       </c>
       <c r="G305" t="inlineStr">
         <is>
@@ -14996,12 +14996,12 @@
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I305" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310471&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J305" t="inlineStr">
@@ -15016,7 +15016,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>Ripiera Sagasca (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -15026,16 +15026,16 @@
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>Christopher Frank Sir</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F306" t="n">
-        <v>452</v>
+        <v>1750</v>
       </c>
       <c r="G306" t="inlineStr">
         <is>
@@ -15044,12 +15044,12 @@
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310471&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J306" t="inlineStr">
@@ -15064,7 +15064,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -15079,11 +15079,11 @@
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F307" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G307" t="inlineStr">
         <is>
@@ -15092,12 +15092,12 @@
       </c>
       <c r="H307" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I307" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J307" t="inlineStr">
@@ -15112,7 +15112,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
@@ -15127,11 +15127,11 @@
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F308" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G308" t="inlineStr">
         <is>
@@ -15140,12 +15140,12 @@
       </c>
       <c r="H308" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I308" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J308" t="inlineStr">
@@ -15784,14 +15784,10 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
-        </is>
-      </c>
-      <c r="C322" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>PAMPA HERMOSA</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr"/>
       <c r="D322" t="inlineStr">
         <is>
           <t>Interregional</t>
@@ -15799,11 +15795,11 @@
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>SQM S.A.</t>
         </is>
       </c>
       <c r="F322" t="n">
-        <v>20</v>
+        <v>1.033</v>
       </c>
       <c r="G322" t="inlineStr">
         <is>
@@ -15812,12 +15808,12 @@
       </c>
       <c r="H322" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I322" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3083858&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J322" t="inlineStr">
@@ -15832,10 +15828,14 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>PAMPA HERMOSA</t>
-        </is>
-      </c>
-      <c r="C323" t="inlineStr"/>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D323" t="inlineStr">
         <is>
           <t>Interregional</t>
@@ -15843,11 +15843,11 @@
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>SQM S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F323" t="n">
-        <v>1.033</v>
+        <v>20</v>
       </c>
       <c r="G323" t="inlineStr">
         <is>
@@ -15856,12 +15856,12 @@
       </c>
       <c r="H323" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I323" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3083858&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J323" t="inlineStr">

--- a/data/Pozo Almonte.xlsx
+++ b/data/Pozo Almonte.xlsx
@@ -7288,7 +7288,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Mejoramiento Eloisa</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7298,16 +7298,16 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Eloisa spa</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>0</v>
+        <v>75000</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
@@ -7316,12 +7316,12 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128980296&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -7336,7 +7336,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Mejoramiento Eloisa</t>
+          <t>PLANTA SOLAR PINTADOS</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7351,11 +7351,11 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Eloisa spa</t>
+          <t>Planta Solar Pintados SpA.</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>75000</v>
+        <v>200000</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
@@ -7364,12 +7364,12 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128980296&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955109&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -7384,7 +7384,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>PLANTA SOLAR PINTADOS</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7394,16 +7394,16 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Planta Solar Pintados SpA.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>200000</v>
+        <v>0</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
@@ -7417,7 +7417,7 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955109&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -9112,7 +9112,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Proyecto Fotovoltaico Huatacondo</t>
+          <t>Transporte Interregional de Cal .</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9122,16 +9122,16 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>AustrainSolar Chile Cuatro SpA</t>
+          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>196000</v>
+        <v>8426</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
@@ -9140,12 +9140,12 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7558839&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7561133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -9160,7 +9160,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Cal .</t>
+          <t>Proyecto Fotovoltaico Huatacondo</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9170,16 +9170,16 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
+          <t>AustrainSolar Chile Cuatro SpA</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>8426</v>
+        <v>196000</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
@@ -9188,12 +9188,12 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7561133&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7558839&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -11416,7 +11416,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Reposición Ruta 5, Longitudinal Norte, Sector Reserva Nacional Pampa del Tamarugal, Km. 1.781,0 - Km 1.801, Provincia del Tamarugal, Región de Tarapacá</t>
+          <t>PROSPECCION MINERA CHALLACOLLO SUR</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11431,11 +11431,11 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>SOCIEDAD CONTRACTUAL MINERA BOREAL</t>
         </is>
       </c>
       <c r="F231" t="n">
-        <v>5940</v>
+        <v>370</v>
       </c>
       <c r="G231" t="inlineStr">
         <is>
@@ -11449,7 +11449,7 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5412341&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5344496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -11464,7 +11464,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>PROSPECCION MINERA CHALLACOLLO SUR</t>
+          <t>Reposición Ruta 5, Longitudinal Norte, Sector Reserva Nacional Pampa del Tamarugal, Km. 1.781,0 - Km 1.801, Provincia del Tamarugal, Región de Tarapacá</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -11479,11 +11479,11 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>SOCIEDAD CONTRACTUAL MINERA BOREAL</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F232" t="n">
-        <v>370</v>
+        <v>5940</v>
       </c>
       <c r="G232" t="inlineStr">
         <is>
@@ -11497,7 +11497,7 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5344496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5412341&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -11944,7 +11944,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 3, I Región</t>
+          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 1, I Región</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -11959,11 +11959,11 @@
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>Pozo Almonte Solar 3 S.A.</t>
+          <t>Pozo Almonte Solar 1 SpA</t>
         </is>
       </c>
       <c r="F242" t="n">
-        <v>71000</v>
+        <v>40000</v>
       </c>
       <c r="G242" t="inlineStr">
         <is>
@@ -11977,7 +11977,7 @@
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5164638&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5162007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
@@ -11992,7 +11992,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 1, I Región</t>
+          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 2, I Región</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -12007,7 +12007,7 @@
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>Pozo Almonte Solar 1 SpA</t>
+          <t>POZO ALMONTE SOLAR 2 S.A.</t>
         </is>
       </c>
       <c r="F243" t="n">
@@ -12025,7 +12025,7 @@
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5162007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5163148&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
@@ -12040,7 +12040,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 2, I Región</t>
+          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 3, I Región</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -12055,11 +12055,11 @@
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>POZO ALMONTE SOLAR 2 S.A.</t>
+          <t>Pozo Almonte Solar 3 S.A.</t>
         </is>
       </c>
       <c r="F244" t="n">
-        <v>40000</v>
+        <v>71000</v>
       </c>
       <c r="G244" t="inlineStr">
         <is>
@@ -12073,7 +12073,7 @@
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5163148&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5164638&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
@@ -15016,7 +15016,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>Ripiera Sagasca (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -15026,16 +15026,16 @@
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>Christopher Frank Sir</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F306" t="n">
-        <v>452</v>
+        <v>1750</v>
       </c>
       <c r="G306" t="inlineStr">
         <is>
@@ -15044,12 +15044,12 @@
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310471&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J306" t="inlineStr">
@@ -15064,7 +15064,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Ripiera Sagasca (e-seia)</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -15074,16 +15074,16 @@
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Christopher Frank Sir</t>
         </is>
       </c>
       <c r="F307" t="n">
-        <v>1750</v>
+        <v>452</v>
       </c>
       <c r="G307" t="inlineStr">
         <is>
@@ -15092,12 +15092,12 @@
       </c>
       <c r="H307" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I307" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310471&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J307" t="inlineStr">
@@ -15112,7 +15112,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
@@ -15127,11 +15127,11 @@
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F308" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G308" t="inlineStr">
         <is>
@@ -15140,12 +15140,12 @@
       </c>
       <c r="H308" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I308" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J308" t="inlineStr">
@@ -15160,7 +15160,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -15175,11 +15175,11 @@
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F309" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G309" t="inlineStr">
         <is>
@@ -15188,12 +15188,12 @@
       </c>
       <c r="H309" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I309" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J309" t="inlineStr">
@@ -15832,10 +15832,14 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>PAMPA HERMOSA</t>
-        </is>
-      </c>
-      <c r="C323" t="inlineStr"/>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D323" t="inlineStr">
         <is>
           <t>Interregional</t>
@@ -15843,11 +15847,11 @@
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>SQM S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F323" t="n">
-        <v>1.033</v>
+        <v>20</v>
       </c>
       <c r="G323" t="inlineStr">
         <is>
@@ -15856,12 +15860,12 @@
       </c>
       <c r="H323" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I323" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3083858&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J323" t="inlineStr">
@@ -15876,14 +15880,10 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
-        </is>
-      </c>
-      <c r="C324" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>PAMPA HERMOSA</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr"/>
       <c r="D324" t="inlineStr">
         <is>
           <t>Interregional</t>
@@ -15891,11 +15891,11 @@
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>SQM S.A.</t>
         </is>
       </c>
       <c r="F324" t="n">
-        <v>20</v>
+        <v>1.033</v>
       </c>
       <c r="G324" t="inlineStr">
         <is>
@@ -15904,12 +15904,12 @@
       </c>
       <c r="H324" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I324" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3083858&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J324" t="inlineStr">

--- a/data/Pozo Almonte.xlsx
+++ b/data/Pozo Almonte.xlsx
@@ -7288,7 +7288,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Mejoramiento Eloisa</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7298,16 +7298,16 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Eloisa spa</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>75000</v>
+        <v>0</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
@@ -7316,12 +7316,12 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128980296&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -7336,7 +7336,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>PLANTA SOLAR PINTADOS</t>
+          <t>Mejoramiento Eloisa</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7351,11 +7351,11 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Planta Solar Pintados SpA.</t>
+          <t>Eloisa spa</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>200000</v>
+        <v>75000</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
@@ -7364,12 +7364,12 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955109&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128980296&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -7384,7 +7384,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>PLANTA SOLAR PINTADOS</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7394,16 +7394,16 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Planta Solar Pintados SpA.</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
@@ -7417,7 +7417,7 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955109&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -9112,7 +9112,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Cal .</t>
+          <t>Proyecto Fotovoltaico Huatacondo</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9122,16 +9122,16 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
+          <t>AustrainSolar Chile Cuatro SpA</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>8426</v>
+        <v>196000</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
@@ -9140,12 +9140,12 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7561133&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7558839&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -9160,7 +9160,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Proyecto Fotovoltaico Huatacondo</t>
+          <t>Transporte Interregional de Cal .</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9170,16 +9170,16 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>AustrainSolar Chile Cuatro SpA</t>
+          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>196000</v>
+        <v>8426</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
@@ -9188,12 +9188,12 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7558839&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7561133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -11416,7 +11416,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>PROSPECCION MINERA CHALLACOLLO SUR</t>
+          <t>Reposición Ruta 5, Longitudinal Norte, Sector Reserva Nacional Pampa del Tamarugal, Km. 1.781,0 - Km 1.801, Provincia del Tamarugal, Región de Tarapacá</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11431,11 +11431,11 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>SOCIEDAD CONTRACTUAL MINERA BOREAL</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F231" t="n">
-        <v>370</v>
+        <v>5940</v>
       </c>
       <c r="G231" t="inlineStr">
         <is>
@@ -11449,7 +11449,7 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5344496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5412341&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -11464,7 +11464,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Reposición Ruta 5, Longitudinal Norte, Sector Reserva Nacional Pampa del Tamarugal, Km. 1.781,0 - Km 1.801, Provincia del Tamarugal, Región de Tarapacá</t>
+          <t>PROSPECCION MINERA CHALLACOLLO SUR</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -11479,11 +11479,11 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>SOCIEDAD CONTRACTUAL MINERA BOREAL</t>
         </is>
       </c>
       <c r="F232" t="n">
-        <v>5940</v>
+        <v>370</v>
       </c>
       <c r="G232" t="inlineStr">
         <is>
@@ -11497,7 +11497,7 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5412341&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5344496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -11944,7 +11944,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 1, I Región</t>
+          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 3, I Región</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -11959,11 +11959,11 @@
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>Pozo Almonte Solar 1 SpA</t>
+          <t>Pozo Almonte Solar 3 S.A.</t>
         </is>
       </c>
       <c r="F242" t="n">
-        <v>40000</v>
+        <v>71000</v>
       </c>
       <c r="G242" t="inlineStr">
         <is>
@@ -11977,7 +11977,7 @@
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5162007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5164638&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
@@ -11992,7 +11992,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 2, I Región</t>
+          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 1, I Región</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -12007,7 +12007,7 @@
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>POZO ALMONTE SOLAR 2 S.A.</t>
+          <t>Pozo Almonte Solar 1 SpA</t>
         </is>
       </c>
       <c r="F243" t="n">
@@ -12025,7 +12025,7 @@
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5163148&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5162007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
@@ -12040,7 +12040,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 3, I Región</t>
+          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 2, I Región</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -12055,11 +12055,11 @@
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>Pozo Almonte Solar 3 S.A.</t>
+          <t>POZO ALMONTE SOLAR 2 S.A.</t>
         </is>
       </c>
       <c r="F244" t="n">
-        <v>71000</v>
+        <v>40000</v>
       </c>
       <c r="G244" t="inlineStr">
         <is>
@@ -12073,7 +12073,7 @@
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5164638&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5163148&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
@@ -15016,7 +15016,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Ripiera Sagasca (e-seia)</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -15026,16 +15026,16 @@
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Christopher Frank Sir</t>
         </is>
       </c>
       <c r="F306" t="n">
-        <v>1750</v>
+        <v>452</v>
       </c>
       <c r="G306" t="inlineStr">
         <is>
@@ -15044,12 +15044,12 @@
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310471&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J306" t="inlineStr">
@@ -15064,7 +15064,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>Ripiera Sagasca (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -15074,16 +15074,16 @@
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>Christopher Frank Sir</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F307" t="n">
-        <v>452</v>
+        <v>1750</v>
       </c>
       <c r="G307" t="inlineStr">
         <is>
@@ -15092,12 +15092,12 @@
       </c>
       <c r="H307" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I307" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310471&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J307" t="inlineStr">
@@ -15112,7 +15112,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
@@ -15127,11 +15127,11 @@
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F308" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G308" t="inlineStr">
         <is>
@@ -15140,12 +15140,12 @@
       </c>
       <c r="H308" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I308" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J308" t="inlineStr">
@@ -15160,7 +15160,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -15175,11 +15175,11 @@
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F309" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G309" t="inlineStr">
         <is>
@@ -15188,12 +15188,12 @@
       </c>
       <c r="H309" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I309" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J309" t="inlineStr">
@@ -15832,14 +15832,10 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
-        </is>
-      </c>
-      <c r="C323" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>PAMPA HERMOSA</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr"/>
       <c r="D323" t="inlineStr">
         <is>
           <t>Interregional</t>
@@ -15847,11 +15843,11 @@
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>SQM S.A.</t>
         </is>
       </c>
       <c r="F323" t="n">
-        <v>20</v>
+        <v>1.033</v>
       </c>
       <c r="G323" t="inlineStr">
         <is>
@@ -15860,12 +15856,12 @@
       </c>
       <c r="H323" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I323" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3083858&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J323" t="inlineStr">
@@ -15880,10 +15876,14 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>PAMPA HERMOSA</t>
-        </is>
-      </c>
-      <c r="C324" t="inlineStr"/>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D324" t="inlineStr">
         <is>
           <t>Interregional</t>
@@ -15891,11 +15891,11 @@
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>SQM S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F324" t="n">
-        <v>1.033</v>
+        <v>20</v>
       </c>
       <c r="G324" t="inlineStr">
         <is>
@@ -15904,12 +15904,12 @@
       </c>
       <c r="H324" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I324" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3083858&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J324" t="inlineStr">

--- a/data/Pozo Almonte.xlsx
+++ b/data/Pozo Almonte.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>02/03/2023</t>
+          <t>09/03/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Pozo Almonte.xlsx
+++ b/data/Pozo Almonte.xlsx
@@ -788,7 +788,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">

--- a/data/Pozo Almonte.xlsx
+++ b/data/Pozo Almonte.xlsx
@@ -3279,7 +3279,7 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>18/08/2019</t>
+          <t>19/08/2019</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">

--- a/data/Pozo Almonte.xlsx
+++ b/data/Pozo Almonte.xlsx
@@ -3279,7 +3279,7 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>19/08/2019</t>
+          <t>18/08/2019</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">

--- a/data/Pozo Almonte.xlsx
+++ b/data/Pozo Almonte.xlsx
@@ -596,7 +596,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -7288,7 +7288,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Mejoramiento Eloisa</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7298,16 +7298,16 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Eloisa spa</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>75000</v>
+        <v>0</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
@@ -7316,12 +7316,12 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128980296&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -7336,7 +7336,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>PLANTA SOLAR PINTADOS</t>
+          <t>Mejoramiento Eloisa</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7351,11 +7351,11 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Planta Solar Pintados SpA.</t>
+          <t>Eloisa spa</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>200000</v>
+        <v>75000</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
@@ -7364,12 +7364,12 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955109&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128980296&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -7384,7 +7384,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>PLANTA SOLAR PINTADOS</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7394,16 +7394,16 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Planta Solar Pintados SpA.</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
@@ -7417,7 +7417,7 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955109&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -9112,7 +9112,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Cal .</t>
+          <t>Proyecto Fotovoltaico Huatacondo</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9122,16 +9122,16 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
+          <t>AustrainSolar Chile Cuatro SpA</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>8426</v>
+        <v>196000</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
@@ -9140,12 +9140,12 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7561133&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7558839&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -9160,7 +9160,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Proyecto Fotovoltaico Huatacondo</t>
+          <t>Transporte Interregional de Cal .</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9170,16 +9170,16 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>AustrainSolar Chile Cuatro SpA</t>
+          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>196000</v>
+        <v>8426</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
@@ -9188,12 +9188,12 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7558839&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7561133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -11416,7 +11416,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>PROSPECCION MINERA CHALLACOLLO SUR</t>
+          <t>Reposición Ruta 5, Longitudinal Norte, Sector Reserva Nacional Pampa del Tamarugal, Km. 1.781,0 - Km 1.801, Provincia del Tamarugal, Región de Tarapacá</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11431,11 +11431,11 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>SOCIEDAD CONTRACTUAL MINERA BOREAL</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F231" t="n">
-        <v>370</v>
+        <v>5940</v>
       </c>
       <c r="G231" t="inlineStr">
         <is>
@@ -11449,7 +11449,7 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5344496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5412341&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -11464,7 +11464,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Reposición Ruta 5, Longitudinal Norte, Sector Reserva Nacional Pampa del Tamarugal, Km. 1.781,0 - Km 1.801, Provincia del Tamarugal, Región de Tarapacá</t>
+          <t>PROSPECCION MINERA CHALLACOLLO SUR</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -11479,11 +11479,11 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>SOCIEDAD CONTRACTUAL MINERA BOREAL</t>
         </is>
       </c>
       <c r="F232" t="n">
-        <v>5940</v>
+        <v>370</v>
       </c>
       <c r="G232" t="inlineStr">
         <is>
@@ -11497,7 +11497,7 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5412341&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5344496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -11944,7 +11944,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 1, I Región</t>
+          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 3, I Región</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -11959,11 +11959,11 @@
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>Pozo Almonte Solar 1 SpA</t>
+          <t>Pozo Almonte Solar 3 S.A.</t>
         </is>
       </c>
       <c r="F242" t="n">
-        <v>40000</v>
+        <v>71000</v>
       </c>
       <c r="G242" t="inlineStr">
         <is>
@@ -11977,7 +11977,7 @@
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5162007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5164638&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
@@ -11992,7 +11992,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 2, I Región</t>
+          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 1, I Región</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -12007,7 +12007,7 @@
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>POZO ALMONTE SOLAR 2 S.A.</t>
+          <t>Pozo Almonte Solar 1 SpA</t>
         </is>
       </c>
       <c r="F243" t="n">
@@ -12025,7 +12025,7 @@
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5163148&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5162007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
@@ -12040,7 +12040,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 3, I Región</t>
+          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 2, I Región</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -12055,11 +12055,11 @@
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>Pozo Almonte Solar 3 S.A.</t>
+          <t>POZO ALMONTE SOLAR 2 S.A.</t>
         </is>
       </c>
       <c r="F244" t="n">
-        <v>71000</v>
+        <v>40000</v>
       </c>
       <c r="G244" t="inlineStr">
         <is>
@@ -12073,7 +12073,7 @@
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5164638&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5163148&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
@@ -15016,7 +15016,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Ripiera Sagasca (e-seia)</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -15026,16 +15026,16 @@
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Christopher Frank Sir</t>
         </is>
       </c>
       <c r="F306" t="n">
-        <v>1750</v>
+        <v>452</v>
       </c>
       <c r="G306" t="inlineStr">
         <is>
@@ -15044,12 +15044,12 @@
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310471&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J306" t="inlineStr">
@@ -15064,7 +15064,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>Ripiera Sagasca (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -15074,16 +15074,16 @@
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>Christopher Frank Sir</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F307" t="n">
-        <v>452</v>
+        <v>1750</v>
       </c>
       <c r="G307" t="inlineStr">
         <is>
@@ -15092,12 +15092,12 @@
       </c>
       <c r="H307" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I307" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310471&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J307" t="inlineStr">
@@ -15112,7 +15112,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
@@ -15127,11 +15127,11 @@
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F308" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G308" t="inlineStr">
         <is>
@@ -15140,12 +15140,12 @@
       </c>
       <c r="H308" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I308" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J308" t="inlineStr">
@@ -15160,7 +15160,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -15175,11 +15175,11 @@
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F309" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G309" t="inlineStr">
         <is>
@@ -15188,12 +15188,12 @@
       </c>
       <c r="H309" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I309" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J309" t="inlineStr">
@@ -15832,14 +15832,10 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
-        </is>
-      </c>
-      <c r="C323" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>PAMPA HERMOSA</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr"/>
       <c r="D323" t="inlineStr">
         <is>
           <t>Interregional</t>
@@ -15847,11 +15843,11 @@
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>SQM S.A.</t>
         </is>
       </c>
       <c r="F323" t="n">
-        <v>20</v>
+        <v>1.033</v>
       </c>
       <c r="G323" t="inlineStr">
         <is>
@@ -15860,12 +15856,12 @@
       </c>
       <c r="H323" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I323" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3083858&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J323" t="inlineStr">
@@ -15880,10 +15876,14 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>PAMPA HERMOSA</t>
-        </is>
-      </c>
-      <c r="C324" t="inlineStr"/>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D324" t="inlineStr">
         <is>
           <t>Interregional</t>
@@ -15891,11 +15891,11 @@
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>SQM S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F324" t="n">
-        <v>1.033</v>
+        <v>20</v>
       </c>
       <c r="G324" t="inlineStr">
         <is>
@@ -15904,12 +15904,12 @@
       </c>
       <c r="H324" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I324" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3083858&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J324" t="inlineStr">

--- a/data/Pozo Almonte.xlsx
+++ b/data/Pozo Almonte.xlsx
@@ -692,7 +692,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">

--- a/data/Pozo Almonte.xlsx
+++ b/data/Pozo Almonte.xlsx
@@ -2215,7 +2215,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Pesquero Solar SpA</t>
+          <t>CVE Proyecto 47 SpA.</t>
         </is>
       </c>
       <c r="F39" t="n">
@@ -7288,7 +7288,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Mejoramiento Eloisa</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7298,16 +7298,16 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Eloisa spa</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>75000</v>
+        <v>0</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
@@ -7316,12 +7316,12 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128980296&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -7336,7 +7336,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>PLANTA SOLAR PINTADOS</t>
+          <t>Mejoramiento Eloisa</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7351,11 +7351,11 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Planta Solar Pintados SpA.</t>
+          <t>Eloisa spa</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>200000</v>
+        <v>75000</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
@@ -7364,12 +7364,12 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955109&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128980296&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -7384,7 +7384,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>PLANTA SOLAR PINTADOS</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7394,16 +7394,16 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Planta Solar Pintados SpA.</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
@@ -7417,7 +7417,7 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955109&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -9112,7 +9112,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Cal .</t>
+          <t>Proyecto Fotovoltaico Huatacondo</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9122,16 +9122,16 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
+          <t>AustrainSolar Chile Cuatro SpA</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>8426</v>
+        <v>196000</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
@@ -9140,12 +9140,12 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7561133&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7558839&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -9160,7 +9160,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Proyecto Fotovoltaico Huatacondo</t>
+          <t>Transporte Interregional de Cal .</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9170,16 +9170,16 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>AustrainSolar Chile Cuatro SpA</t>
+          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>196000</v>
+        <v>8426</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
@@ -9188,12 +9188,12 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7558839&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7561133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -11416,7 +11416,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>PROSPECCION MINERA CHALLACOLLO SUR</t>
+          <t>Reposición Ruta 5, Longitudinal Norte, Sector Reserva Nacional Pampa del Tamarugal, Km. 1.781,0 - Km 1.801, Provincia del Tamarugal, Región de Tarapacá</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11431,11 +11431,11 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>SOCIEDAD CONTRACTUAL MINERA BOREAL</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F231" t="n">
-        <v>370</v>
+        <v>5940</v>
       </c>
       <c r="G231" t="inlineStr">
         <is>
@@ -11449,7 +11449,7 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5344496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5412341&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -11464,7 +11464,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Reposición Ruta 5, Longitudinal Norte, Sector Reserva Nacional Pampa del Tamarugal, Km. 1.781,0 - Km 1.801, Provincia del Tamarugal, Región de Tarapacá</t>
+          <t>PROSPECCION MINERA CHALLACOLLO SUR</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -11479,11 +11479,11 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>SOCIEDAD CONTRACTUAL MINERA BOREAL</t>
         </is>
       </c>
       <c r="F232" t="n">
-        <v>5940</v>
+        <v>370</v>
       </c>
       <c r="G232" t="inlineStr">
         <is>
@@ -11497,7 +11497,7 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5412341&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5344496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -11944,7 +11944,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 1, I Región</t>
+          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 3, I Región</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -11959,11 +11959,11 @@
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>Pozo Almonte Solar 1 SpA</t>
+          <t>Pozo Almonte Solar 3 S.A.</t>
         </is>
       </c>
       <c r="F242" t="n">
-        <v>40000</v>
+        <v>71000</v>
       </c>
       <c r="G242" t="inlineStr">
         <is>
@@ -11977,7 +11977,7 @@
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5162007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5164638&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
@@ -11992,7 +11992,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 2, I Región</t>
+          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 1, I Región</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -12007,7 +12007,7 @@
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>POZO ALMONTE SOLAR 2 S.A.</t>
+          <t>Pozo Almonte Solar 1 SpA</t>
         </is>
       </c>
       <c r="F243" t="n">
@@ -12025,7 +12025,7 @@
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5163148&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5162007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
@@ -12040,7 +12040,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 3, I Región</t>
+          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 2, I Región</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -12055,11 +12055,11 @@
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>Pozo Almonte Solar 3 S.A.</t>
+          <t>POZO ALMONTE SOLAR 2 S.A.</t>
         </is>
       </c>
       <c r="F244" t="n">
-        <v>71000</v>
+        <v>40000</v>
       </c>
       <c r="G244" t="inlineStr">
         <is>
@@ -12073,7 +12073,7 @@
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5164638&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5163148&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
@@ -15016,7 +15016,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Ripiera Sagasca (e-seia)</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -15026,16 +15026,16 @@
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Christopher Frank Sir</t>
         </is>
       </c>
       <c r="F306" t="n">
-        <v>1750</v>
+        <v>452</v>
       </c>
       <c r="G306" t="inlineStr">
         <is>
@@ -15044,12 +15044,12 @@
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310471&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J306" t="inlineStr">
@@ -15064,7 +15064,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>Ripiera Sagasca (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -15074,16 +15074,16 @@
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>Christopher Frank Sir</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F307" t="n">
-        <v>452</v>
+        <v>1750</v>
       </c>
       <c r="G307" t="inlineStr">
         <is>
@@ -15092,12 +15092,12 @@
       </c>
       <c r="H307" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I307" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310471&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J307" t="inlineStr">
@@ -15112,7 +15112,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
@@ -15127,11 +15127,11 @@
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F308" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G308" t="inlineStr">
         <is>
@@ -15140,12 +15140,12 @@
       </c>
       <c r="H308" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I308" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J308" t="inlineStr">
@@ -15160,7 +15160,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -15175,11 +15175,11 @@
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F309" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G309" t="inlineStr">
         <is>
@@ -15188,12 +15188,12 @@
       </c>
       <c r="H309" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I309" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J309" t="inlineStr">
@@ -15832,14 +15832,10 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
-        </is>
-      </c>
-      <c r="C323" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>PAMPA HERMOSA</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr"/>
       <c r="D323" t="inlineStr">
         <is>
           <t>Interregional</t>
@@ -15847,11 +15843,11 @@
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>SQM S.A.</t>
         </is>
       </c>
       <c r="F323" t="n">
-        <v>20</v>
+        <v>1.033</v>
       </c>
       <c r="G323" t="inlineStr">
         <is>
@@ -15860,12 +15856,12 @@
       </c>
       <c r="H323" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I323" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3083858&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J323" t="inlineStr">
@@ -15880,10 +15876,14 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>PAMPA HERMOSA</t>
-        </is>
-      </c>
-      <c r="C324" t="inlineStr"/>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D324" t="inlineStr">
         <is>
           <t>Interregional</t>
@@ -15891,11 +15891,11 @@
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>SQM S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F324" t="n">
-        <v>1.033</v>
+        <v>20</v>
       </c>
       <c r="G324" t="inlineStr">
         <is>
@@ -15904,12 +15904,12 @@
       </c>
       <c r="H324" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I324" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3083858&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J324" t="inlineStr">

--- a/data/Pozo Almonte.xlsx
+++ b/data/Pozo Almonte.xlsx
@@ -1508,7 +1508,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">

--- a/data/Pozo Almonte.xlsx
+++ b/data/Pozo Almonte.xlsx
@@ -2324,7 +2324,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -7288,7 +7288,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Mejoramiento Eloisa</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7298,16 +7298,16 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Eloisa spa</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>0</v>
+        <v>75000</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
@@ -7316,12 +7316,12 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128980296&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -7336,7 +7336,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Mejoramiento Eloisa</t>
+          <t>PLANTA SOLAR PINTADOS</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7351,11 +7351,11 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Eloisa spa</t>
+          <t>Planta Solar Pintados SpA.</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>75000</v>
+        <v>200000</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
@@ -7364,12 +7364,12 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128980296&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955109&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -7384,7 +7384,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>PLANTA SOLAR PINTADOS</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7394,16 +7394,16 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Planta Solar Pintados SpA.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>200000</v>
+        <v>0</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
@@ -7417,7 +7417,7 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955109&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -9112,7 +9112,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Proyecto Fotovoltaico Huatacondo</t>
+          <t>Transporte Interregional de Cal .</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9122,16 +9122,16 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>AustrainSolar Chile Cuatro SpA</t>
+          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>196000</v>
+        <v>8426</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
@@ -9140,12 +9140,12 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7558839&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7561133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -9160,7 +9160,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Cal .</t>
+          <t>Proyecto Fotovoltaico Huatacondo</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9170,16 +9170,16 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
+          <t>AustrainSolar Chile Cuatro SpA</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>8426</v>
+        <v>196000</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
@@ -9188,12 +9188,12 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7561133&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7558839&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -11416,7 +11416,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Reposición Ruta 5, Longitudinal Norte, Sector Reserva Nacional Pampa del Tamarugal, Km. 1.781,0 - Km 1.801, Provincia del Tamarugal, Región de Tarapacá</t>
+          <t>PROSPECCION MINERA CHALLACOLLO SUR</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11431,11 +11431,11 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>SOCIEDAD CONTRACTUAL MINERA BOREAL</t>
         </is>
       </c>
       <c r="F231" t="n">
-        <v>5940</v>
+        <v>370</v>
       </c>
       <c r="G231" t="inlineStr">
         <is>
@@ -11449,7 +11449,7 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5412341&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5344496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -11464,7 +11464,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>PROSPECCION MINERA CHALLACOLLO SUR</t>
+          <t>Reposición Ruta 5, Longitudinal Norte, Sector Reserva Nacional Pampa del Tamarugal, Km. 1.781,0 - Km 1.801, Provincia del Tamarugal, Región de Tarapacá</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -11479,11 +11479,11 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>SOCIEDAD CONTRACTUAL MINERA BOREAL</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F232" t="n">
-        <v>370</v>
+        <v>5940</v>
       </c>
       <c r="G232" t="inlineStr">
         <is>
@@ -11497,7 +11497,7 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5344496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5412341&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -11944,7 +11944,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 3, I Región</t>
+          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 1, I Región</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -11959,11 +11959,11 @@
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>Pozo Almonte Solar 3 S.A.</t>
+          <t>Pozo Almonte Solar 1 SpA</t>
         </is>
       </c>
       <c r="F242" t="n">
-        <v>71000</v>
+        <v>40000</v>
       </c>
       <c r="G242" t="inlineStr">
         <is>
@@ -11977,7 +11977,7 @@
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5164638&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5162007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
@@ -11992,7 +11992,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 1, I Región</t>
+          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 2, I Región</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -12007,7 +12007,7 @@
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>Pozo Almonte Solar 1 SpA</t>
+          <t>POZO ALMONTE SOLAR 2 S.A.</t>
         </is>
       </c>
       <c r="F243" t="n">
@@ -12025,7 +12025,7 @@
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5162007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5163148&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
@@ -12040,7 +12040,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 2, I Región</t>
+          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 3, I Región</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -12055,11 +12055,11 @@
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>POZO ALMONTE SOLAR 2 S.A.</t>
+          <t>Pozo Almonte Solar 3 S.A.</t>
         </is>
       </c>
       <c r="F244" t="n">
-        <v>40000</v>
+        <v>71000</v>
       </c>
       <c r="G244" t="inlineStr">
         <is>
@@ -12073,7 +12073,7 @@
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5163148&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5164638&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
@@ -15016,7 +15016,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>Ripiera Sagasca (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -15026,16 +15026,16 @@
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>Christopher Frank Sir</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F306" t="n">
-        <v>452</v>
+        <v>1750</v>
       </c>
       <c r="G306" t="inlineStr">
         <is>
@@ -15044,12 +15044,12 @@
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310471&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J306" t="inlineStr">
@@ -15064,7 +15064,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Ripiera Sagasca (e-seia)</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -15074,16 +15074,16 @@
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Christopher Frank Sir</t>
         </is>
       </c>
       <c r="F307" t="n">
-        <v>1750</v>
+        <v>452</v>
       </c>
       <c r="G307" t="inlineStr">
         <is>
@@ -15092,12 +15092,12 @@
       </c>
       <c r="H307" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I307" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310471&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J307" t="inlineStr">
@@ -15112,7 +15112,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
@@ -15127,11 +15127,11 @@
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F308" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G308" t="inlineStr">
         <is>
@@ -15140,12 +15140,12 @@
       </c>
       <c r="H308" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I308" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J308" t="inlineStr">
@@ -15160,7 +15160,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -15175,11 +15175,11 @@
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F309" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G309" t="inlineStr">
         <is>
@@ -15188,12 +15188,12 @@
       </c>
       <c r="H309" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I309" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J309" t="inlineStr">
@@ -15832,10 +15832,14 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>PAMPA HERMOSA</t>
-        </is>
-      </c>
-      <c r="C323" t="inlineStr"/>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D323" t="inlineStr">
         <is>
           <t>Interregional</t>
@@ -15843,11 +15847,11 @@
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>SQM S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F323" t="n">
-        <v>1.033</v>
+        <v>20</v>
       </c>
       <c r="G323" t="inlineStr">
         <is>
@@ -15856,12 +15860,12 @@
       </c>
       <c r="H323" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I323" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3083858&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J323" t="inlineStr">
@@ -15876,14 +15880,10 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
-        </is>
-      </c>
-      <c r="C324" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>PAMPA HERMOSA</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr"/>
       <c r="D324" t="inlineStr">
         <is>
           <t>Interregional</t>
@@ -15891,11 +15891,11 @@
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>SQM S.A.</t>
         </is>
       </c>
       <c r="F324" t="n">
-        <v>20</v>
+        <v>1.033</v>
       </c>
       <c r="G324" t="inlineStr">
         <is>
@@ -15904,12 +15904,12 @@
       </c>
       <c r="H324" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I324" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3083858&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J324" t="inlineStr">

--- a/data/Pozo Almonte.xlsx
+++ b/data/Pozo Almonte.xlsx
@@ -7336,7 +7336,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Mejoramiento Eloisa</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7346,16 +7346,16 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Eloisa spa</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>75000</v>
+        <v>0</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
@@ -7364,12 +7364,12 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128980296&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -7384,7 +7384,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>PLANTA SOLAR PINTADOS</t>
+          <t>Mejoramiento Eloisa</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7399,11 +7399,11 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Planta Solar Pintados SpA.</t>
+          <t>Eloisa spa</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>200000</v>
+        <v>75000</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
@@ -7412,12 +7412,12 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955109&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128980296&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7432,7 +7432,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>PLANTA SOLAR PINTADOS</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7442,16 +7442,16 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Planta Solar Pintados SpA.</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
@@ -7465,7 +7465,7 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955109&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -9160,7 +9160,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Cal .</t>
+          <t>Proyecto Fotovoltaico Huatacondo</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9170,16 +9170,16 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
+          <t>AustrainSolar Chile Cuatro SpA</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>8426</v>
+        <v>196000</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
@@ -9188,12 +9188,12 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7561133&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7558839&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -9208,7 +9208,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Proyecto Fotovoltaico Huatacondo</t>
+          <t>Transporte Interregional de Cal .</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9218,16 +9218,16 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>AustrainSolar Chile Cuatro SpA</t>
+          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>196000</v>
+        <v>8426</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
@@ -9236,12 +9236,12 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7558839&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7561133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -11464,7 +11464,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>PROSPECCION MINERA CHALLACOLLO SUR</t>
+          <t>Reposición Ruta 5, Longitudinal Norte, Sector Reserva Nacional Pampa del Tamarugal, Km. 1.781,0 - Km 1.801, Provincia del Tamarugal, Región de Tarapacá</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -11479,11 +11479,11 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>SOCIEDAD CONTRACTUAL MINERA BOREAL</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F232" t="n">
-        <v>370</v>
+        <v>5940</v>
       </c>
       <c r="G232" t="inlineStr">
         <is>
@@ -11497,7 +11497,7 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5344496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5412341&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -11512,7 +11512,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Reposición Ruta 5, Longitudinal Norte, Sector Reserva Nacional Pampa del Tamarugal, Km. 1.781,0 - Km 1.801, Provincia del Tamarugal, Región de Tarapacá</t>
+          <t>PROSPECCION MINERA CHALLACOLLO SUR</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -11527,11 +11527,11 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>SOCIEDAD CONTRACTUAL MINERA BOREAL</t>
         </is>
       </c>
       <c r="F233" t="n">
-        <v>5940</v>
+        <v>370</v>
       </c>
       <c r="G233" t="inlineStr">
         <is>
@@ -11545,7 +11545,7 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5412341&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5344496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -11992,7 +11992,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 1, I Región</t>
+          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 3, I Región</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -12007,11 +12007,11 @@
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>Pozo Almonte Solar 1 SpA</t>
+          <t>Pozo Almonte Solar 3 S.A.</t>
         </is>
       </c>
       <c r="F243" t="n">
-        <v>40000</v>
+        <v>71000</v>
       </c>
       <c r="G243" t="inlineStr">
         <is>
@@ -12025,7 +12025,7 @@
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5162007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5164638&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
@@ -12040,7 +12040,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 2, I Región</t>
+          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 1, I Región</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -12055,7 +12055,7 @@
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>POZO ALMONTE SOLAR 2 S.A.</t>
+          <t>Pozo Almonte Solar 1 SpA</t>
         </is>
       </c>
       <c r="F244" t="n">
@@ -12073,7 +12073,7 @@
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5163148&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5162007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
@@ -12088,7 +12088,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 3, I Región</t>
+          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 2, I Región</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -12103,11 +12103,11 @@
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>Pozo Almonte Solar 3 S.A.</t>
+          <t>POZO ALMONTE SOLAR 2 S.A.</t>
         </is>
       </c>
       <c r="F245" t="n">
-        <v>71000</v>
+        <v>40000</v>
       </c>
       <c r="G245" t="inlineStr">
         <is>
@@ -12121,7 +12121,7 @@
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5164638&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5163148&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">
@@ -15064,7 +15064,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Ripiera Sagasca (e-seia)</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -15074,16 +15074,16 @@
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Christopher Frank Sir</t>
         </is>
       </c>
       <c r="F307" t="n">
-        <v>1750</v>
+        <v>452</v>
       </c>
       <c r="G307" t="inlineStr">
         <is>
@@ -15092,12 +15092,12 @@
       </c>
       <c r="H307" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I307" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310471&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J307" t="inlineStr">
@@ -15112,7 +15112,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>Ripiera Sagasca (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
@@ -15122,16 +15122,16 @@
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>Christopher Frank Sir</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F308" t="n">
-        <v>452</v>
+        <v>1750</v>
       </c>
       <c r="G308" t="inlineStr">
         <is>
@@ -15140,12 +15140,12 @@
       </c>
       <c r="H308" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I308" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310471&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J308" t="inlineStr">
@@ -15160,7 +15160,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -15175,11 +15175,11 @@
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F309" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G309" t="inlineStr">
         <is>
@@ -15188,12 +15188,12 @@
       </c>
       <c r="H309" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I309" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J309" t="inlineStr">
@@ -15208,7 +15208,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
@@ -15223,11 +15223,11 @@
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F310" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G310" t="inlineStr">
         <is>
@@ -15236,12 +15236,12 @@
       </c>
       <c r="H310" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I310" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J310" t="inlineStr">
@@ -15880,14 +15880,10 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
-        </is>
-      </c>
-      <c r="C324" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>PAMPA HERMOSA</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr"/>
       <c r="D324" t="inlineStr">
         <is>
           <t>Interregional</t>
@@ -15895,11 +15891,11 @@
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>SQM S.A.</t>
         </is>
       </c>
       <c r="F324" t="n">
-        <v>20</v>
+        <v>1.033</v>
       </c>
       <c r="G324" t="inlineStr">
         <is>
@@ -15908,12 +15904,12 @@
       </c>
       <c r="H324" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I324" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3083858&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J324" t="inlineStr">
@@ -15928,10 +15924,14 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>PAMPA HERMOSA</t>
-        </is>
-      </c>
-      <c r="C325" t="inlineStr"/>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D325" t="inlineStr">
         <is>
           <t>Interregional</t>
@@ -15939,11 +15939,11 @@
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>SQM S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F325" t="n">
-        <v>1.033</v>
+        <v>20</v>
       </c>
       <c r="G325" t="inlineStr">
         <is>
@@ -15952,12 +15952,12 @@
       </c>
       <c r="H325" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3083858&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J325" t="inlineStr">

--- a/data/Pozo Almonte.xlsx
+++ b/data/Pozo Almonte.xlsx
@@ -7336,7 +7336,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Mejoramiento Eloisa</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7346,16 +7346,16 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Eloisa spa</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>0</v>
+        <v>75000</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
@@ -7364,12 +7364,12 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128980296&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -7384,7 +7384,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Mejoramiento Eloisa</t>
+          <t>PLANTA SOLAR PINTADOS</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7399,11 +7399,11 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Eloisa spa</t>
+          <t>Planta Solar Pintados SpA.</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>75000</v>
+        <v>200000</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
@@ -7412,12 +7412,12 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128980296&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955109&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7432,7 +7432,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>PLANTA SOLAR PINTADOS</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7442,16 +7442,16 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Planta Solar Pintados SpA.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>200000</v>
+        <v>0</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
@@ -7465,7 +7465,7 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955109&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -9160,7 +9160,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Proyecto Fotovoltaico Huatacondo</t>
+          <t>Transporte Interregional de Cal .</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9170,16 +9170,16 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>AustrainSolar Chile Cuatro SpA</t>
+          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>196000</v>
+        <v>8426</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
@@ -9188,12 +9188,12 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7558839&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7561133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -9208,7 +9208,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Cal .</t>
+          <t>Proyecto Fotovoltaico Huatacondo</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9218,16 +9218,16 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
+          <t>AustrainSolar Chile Cuatro SpA</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>8426</v>
+        <v>196000</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
@@ -9236,12 +9236,12 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7561133&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7558839&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -11464,7 +11464,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Reposición Ruta 5, Longitudinal Norte, Sector Reserva Nacional Pampa del Tamarugal, Km. 1.781,0 - Km 1.801, Provincia del Tamarugal, Región de Tarapacá</t>
+          <t>PROSPECCION MINERA CHALLACOLLO SUR</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -11479,11 +11479,11 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>SOCIEDAD CONTRACTUAL MINERA BOREAL</t>
         </is>
       </c>
       <c r="F232" t="n">
-        <v>5940</v>
+        <v>370</v>
       </c>
       <c r="G232" t="inlineStr">
         <is>
@@ -11497,7 +11497,7 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5412341&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5344496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -11512,7 +11512,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>PROSPECCION MINERA CHALLACOLLO SUR</t>
+          <t>Reposición Ruta 5, Longitudinal Norte, Sector Reserva Nacional Pampa del Tamarugal, Km. 1.781,0 - Km 1.801, Provincia del Tamarugal, Región de Tarapacá</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -11527,11 +11527,11 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>SOCIEDAD CONTRACTUAL MINERA BOREAL</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F233" t="n">
-        <v>370</v>
+        <v>5940</v>
       </c>
       <c r="G233" t="inlineStr">
         <is>
@@ -11545,7 +11545,7 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5344496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5412341&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -11992,7 +11992,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 3, I Región</t>
+          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 1, I Región</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -12007,11 +12007,11 @@
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>Pozo Almonte Solar 3 S.A.</t>
+          <t>Pozo Almonte Solar 1 SpA</t>
         </is>
       </c>
       <c r="F243" t="n">
-        <v>71000</v>
+        <v>40000</v>
       </c>
       <c r="G243" t="inlineStr">
         <is>
@@ -12025,7 +12025,7 @@
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5164638&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5162007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
@@ -12040,7 +12040,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 1, I Región</t>
+          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 2, I Región</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -12055,7 +12055,7 @@
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>Pozo Almonte Solar 1 SpA</t>
+          <t>POZO ALMONTE SOLAR 2 S.A.</t>
         </is>
       </c>
       <c r="F244" t="n">
@@ -12073,7 +12073,7 @@
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5162007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5163148&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
@@ -12088,7 +12088,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 2, I Región</t>
+          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 3, I Región</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -12103,11 +12103,11 @@
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>POZO ALMONTE SOLAR 2 S.A.</t>
+          <t>Pozo Almonte Solar 3 S.A.</t>
         </is>
       </c>
       <c r="F245" t="n">
-        <v>40000</v>
+        <v>71000</v>
       </c>
       <c r="G245" t="inlineStr">
         <is>
@@ -12121,7 +12121,7 @@
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5163148&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5164638&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">
@@ -15064,7 +15064,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>Ripiera Sagasca (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -15074,16 +15074,16 @@
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>Christopher Frank Sir</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F307" t="n">
-        <v>452</v>
+        <v>1750</v>
       </c>
       <c r="G307" t="inlineStr">
         <is>
@@ -15092,12 +15092,12 @@
       </c>
       <c r="H307" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I307" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310471&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J307" t="inlineStr">
@@ -15112,7 +15112,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Ripiera Sagasca (e-seia)</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
@@ -15122,16 +15122,16 @@
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Christopher Frank Sir</t>
         </is>
       </c>
       <c r="F308" t="n">
-        <v>1750</v>
+        <v>452</v>
       </c>
       <c r="G308" t="inlineStr">
         <is>
@@ -15140,12 +15140,12 @@
       </c>
       <c r="H308" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I308" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310471&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J308" t="inlineStr">
@@ -15160,7 +15160,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -15175,11 +15175,11 @@
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F309" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G309" t="inlineStr">
         <is>
@@ -15188,12 +15188,12 @@
       </c>
       <c r="H309" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I309" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J309" t="inlineStr">
@@ -15208,7 +15208,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
@@ -15223,11 +15223,11 @@
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F310" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G310" t="inlineStr">
         <is>
@@ -15236,12 +15236,12 @@
       </c>
       <c r="H310" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I310" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J310" t="inlineStr">
@@ -15880,10 +15880,14 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>PAMPA HERMOSA</t>
-        </is>
-      </c>
-      <c r="C324" t="inlineStr"/>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D324" t="inlineStr">
         <is>
           <t>Interregional</t>
@@ -15891,11 +15895,11 @@
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>SQM S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F324" t="n">
-        <v>1.033</v>
+        <v>20</v>
       </c>
       <c r="G324" t="inlineStr">
         <is>
@@ -15904,12 +15908,12 @@
       </c>
       <c r="H324" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I324" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3083858&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J324" t="inlineStr">
@@ -15924,14 +15928,10 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
-        </is>
-      </c>
-      <c r="C325" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>PAMPA HERMOSA</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr"/>
       <c r="D325" t="inlineStr">
         <is>
           <t>Interregional</t>
@@ -15939,11 +15939,11 @@
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>SQM S.A.</t>
         </is>
       </c>
       <c r="F325" t="n">
-        <v>20</v>
+        <v>1.033</v>
       </c>
       <c r="G325" t="inlineStr">
         <is>
@@ -15952,12 +15952,12 @@
       </c>
       <c r="H325" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3083858&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J325" t="inlineStr">

--- a/data/Pozo Almonte.xlsx
+++ b/data/Pozo Almonte.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>05/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -7336,7 +7336,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Mejoramiento Eloisa</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7346,16 +7346,16 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Eloisa spa</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>0</v>
+        <v>75000</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
@@ -7364,12 +7364,12 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128980296&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -7384,7 +7384,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Mejoramiento Eloisa</t>
+          <t>PLANTA SOLAR PINTADOS</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7399,11 +7399,11 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Eloisa spa</t>
+          <t>Planta Solar Pintados SpA.</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>75000</v>
+        <v>200000</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
@@ -7412,12 +7412,12 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128980296&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955109&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7432,7 +7432,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>PLANTA SOLAR PINTADOS</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7442,16 +7442,16 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Planta Solar Pintados SpA.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>200000</v>
+        <v>0</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
@@ -7465,7 +7465,7 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955109&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -9160,7 +9160,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Proyecto Fotovoltaico Huatacondo</t>
+          <t>Transporte Interregional de Cal .</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9170,16 +9170,16 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>AustrainSolar Chile Cuatro SpA</t>
+          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>196000</v>
+        <v>8426</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
@@ -9188,12 +9188,12 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7558839&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7561133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -9208,7 +9208,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Cal .</t>
+          <t>Proyecto Fotovoltaico Huatacondo</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9218,16 +9218,16 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
+          <t>AustrainSolar Chile Cuatro SpA</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>8426</v>
+        <v>196000</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
@@ -9236,12 +9236,12 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7561133&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7558839&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -11464,7 +11464,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Reposición Ruta 5, Longitudinal Norte, Sector Reserva Nacional Pampa del Tamarugal, Km. 1.781,0 - Km 1.801, Provincia del Tamarugal, Región de Tarapacá</t>
+          <t>PROSPECCION MINERA CHALLACOLLO SUR</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -11479,11 +11479,11 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>SOCIEDAD CONTRACTUAL MINERA BOREAL</t>
         </is>
       </c>
       <c r="F232" t="n">
-        <v>5940</v>
+        <v>370</v>
       </c>
       <c r="G232" t="inlineStr">
         <is>
@@ -11497,7 +11497,7 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5412341&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5344496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -11512,7 +11512,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>PROSPECCION MINERA CHALLACOLLO SUR</t>
+          <t>Reposición Ruta 5, Longitudinal Norte, Sector Reserva Nacional Pampa del Tamarugal, Km. 1.781,0 - Km 1.801, Provincia del Tamarugal, Región de Tarapacá</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -11527,11 +11527,11 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>SOCIEDAD CONTRACTUAL MINERA BOREAL</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F233" t="n">
-        <v>370</v>
+        <v>5940</v>
       </c>
       <c r="G233" t="inlineStr">
         <is>
@@ -11545,7 +11545,7 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5344496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5412341&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -11992,7 +11992,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 3, I Región</t>
+          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 1, I Región</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -12007,11 +12007,11 @@
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>Pozo Almonte Solar 3 S.A.</t>
+          <t>Pozo Almonte Solar 1 SpA</t>
         </is>
       </c>
       <c r="F243" t="n">
-        <v>71000</v>
+        <v>40000</v>
       </c>
       <c r="G243" t="inlineStr">
         <is>
@@ -12025,7 +12025,7 @@
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5164638&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5162007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
@@ -12040,7 +12040,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 1, I Región</t>
+          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 2, I Región</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -12055,7 +12055,7 @@
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>Pozo Almonte Solar 1 SpA</t>
+          <t>POZO ALMONTE SOLAR 2 S.A.</t>
         </is>
       </c>
       <c r="F244" t="n">
@@ -12073,7 +12073,7 @@
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5162007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5163148&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
@@ -12088,7 +12088,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 2, I Región</t>
+          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 3, I Región</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -12103,11 +12103,11 @@
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>POZO ALMONTE SOLAR 2 S.A.</t>
+          <t>Pozo Almonte Solar 3 S.A.</t>
         </is>
       </c>
       <c r="F245" t="n">
-        <v>40000</v>
+        <v>71000</v>
       </c>
       <c r="G245" t="inlineStr">
         <is>
@@ -12121,7 +12121,7 @@
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5163148&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5164638&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">
@@ -15064,7 +15064,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>Ripiera Sagasca (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -15074,16 +15074,16 @@
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>Christopher Frank Sir</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F307" t="n">
-        <v>452</v>
+        <v>1750</v>
       </c>
       <c r="G307" t="inlineStr">
         <is>
@@ -15092,12 +15092,12 @@
       </c>
       <c r="H307" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I307" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310471&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J307" t="inlineStr">
@@ -15112,7 +15112,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Ripiera Sagasca (e-seia)</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
@@ -15122,16 +15122,16 @@
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Christopher Frank Sir</t>
         </is>
       </c>
       <c r="F308" t="n">
-        <v>1750</v>
+        <v>452</v>
       </c>
       <c r="G308" t="inlineStr">
         <is>
@@ -15140,12 +15140,12 @@
       </c>
       <c r="H308" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I308" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310471&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J308" t="inlineStr">
@@ -15160,7 +15160,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -15175,11 +15175,11 @@
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F309" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G309" t="inlineStr">
         <is>
@@ -15188,12 +15188,12 @@
       </c>
       <c r="H309" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I309" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J309" t="inlineStr">
@@ -15208,7 +15208,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
@@ -15223,11 +15223,11 @@
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F310" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G310" t="inlineStr">
         <is>
@@ -15236,12 +15236,12 @@
       </c>
       <c r="H310" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I310" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J310" t="inlineStr">
@@ -15880,10 +15880,14 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>PAMPA HERMOSA</t>
-        </is>
-      </c>
-      <c r="C324" t="inlineStr"/>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D324" t="inlineStr">
         <is>
           <t>Interregional</t>
@@ -15891,11 +15895,11 @@
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>SQM S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F324" t="n">
-        <v>1.033</v>
+        <v>20</v>
       </c>
       <c r="G324" t="inlineStr">
         <is>
@@ -15904,12 +15908,12 @@
       </c>
       <c r="H324" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I324" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3083858&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J324" t="inlineStr">
@@ -15924,14 +15928,10 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
-        </is>
-      </c>
-      <c r="C325" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>PAMPA HERMOSA</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr"/>
       <c r="D325" t="inlineStr">
         <is>
           <t>Interregional</t>
@@ -15939,11 +15939,11 @@
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>SQM S.A.</t>
         </is>
       </c>
       <c r="F325" t="n">
-        <v>20</v>
+        <v>1.033</v>
       </c>
       <c r="G325" t="inlineStr">
         <is>
@@ -15952,12 +15952,12 @@
       </c>
       <c r="H325" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3083858&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J325" t="inlineStr">

--- a/data/Pozo Almonte.xlsx
+++ b/data/Pozo Almonte.xlsx
@@ -7384,7 +7384,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Mejoramiento Eloisa</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7394,16 +7394,16 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Eloisa spa</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>0</v>
+        <v>75000</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
@@ -7412,12 +7412,12 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128980296&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7432,7 +7432,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Mejoramiento Eloisa</t>
+          <t>PLANTA SOLAR PINTADOS</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7447,11 +7447,11 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Eloisa spa</t>
+          <t>Planta Solar Pintados SpA.</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>75000</v>
+        <v>200000</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
@@ -7460,12 +7460,12 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128980296&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955109&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -7480,7 +7480,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>PLANTA SOLAR PINTADOS</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7490,16 +7490,16 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Planta Solar Pintados SpA.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>200000</v>
+        <v>0</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
@@ -7513,7 +7513,7 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955109&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -9208,7 +9208,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Proyecto Fotovoltaico Huatacondo</t>
+          <t>Transporte Interregional de Cal .</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9218,16 +9218,16 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>AustrainSolar Chile Cuatro SpA</t>
+          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>196000</v>
+        <v>8426</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
@@ -9236,12 +9236,12 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7558839&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7561133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9256,7 +9256,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Cal .</t>
+          <t>Proyecto Fotovoltaico Huatacondo</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9266,16 +9266,16 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
+          <t>AustrainSolar Chile Cuatro SpA</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>8426</v>
+        <v>196000</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
@@ -9284,12 +9284,12 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7561133&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7558839&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -11512,7 +11512,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Reposición Ruta 5, Longitudinal Norte, Sector Reserva Nacional Pampa del Tamarugal, Km. 1.781,0 - Km 1.801, Provincia del Tamarugal, Región de Tarapacá</t>
+          <t>PROSPECCION MINERA CHALLACOLLO SUR</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -11527,11 +11527,11 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>SOCIEDAD CONTRACTUAL MINERA BOREAL</t>
         </is>
       </c>
       <c r="F233" t="n">
-        <v>5940</v>
+        <v>370</v>
       </c>
       <c r="G233" t="inlineStr">
         <is>
@@ -11545,7 +11545,7 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5412341&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5344496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -11560,7 +11560,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>PROSPECCION MINERA CHALLACOLLO SUR</t>
+          <t>Reposición Ruta 5, Longitudinal Norte, Sector Reserva Nacional Pampa del Tamarugal, Km. 1.781,0 - Km 1.801, Provincia del Tamarugal, Región de Tarapacá</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -11575,11 +11575,11 @@
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>SOCIEDAD CONTRACTUAL MINERA BOREAL</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F234" t="n">
-        <v>370</v>
+        <v>5940</v>
       </c>
       <c r="G234" t="inlineStr">
         <is>
@@ -11593,7 +11593,7 @@
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5344496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5412341&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -12040,7 +12040,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 3, I Región</t>
+          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 1, I Región</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -12055,11 +12055,11 @@
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>Pozo Almonte Solar 3 S.A.</t>
+          <t>Pozo Almonte Solar 1 SpA</t>
         </is>
       </c>
       <c r="F244" t="n">
-        <v>71000</v>
+        <v>40000</v>
       </c>
       <c r="G244" t="inlineStr">
         <is>
@@ -12073,7 +12073,7 @@
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5164638&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5162007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
@@ -12088,7 +12088,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 1, I Región</t>
+          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 2, I Región</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -12103,7 +12103,7 @@
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>Pozo Almonte Solar 1 SpA</t>
+          <t>POZO ALMONTE SOLAR 2 S.A.</t>
         </is>
       </c>
       <c r="F245" t="n">
@@ -12121,7 +12121,7 @@
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5162007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5163148&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">
@@ -12136,7 +12136,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 2, I Región</t>
+          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 3, I Región</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -12151,11 +12151,11 @@
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>POZO ALMONTE SOLAR 2 S.A.</t>
+          <t>Pozo Almonte Solar 3 S.A.</t>
         </is>
       </c>
       <c r="F246" t="n">
-        <v>40000</v>
+        <v>71000</v>
       </c>
       <c r="G246" t="inlineStr">
         <is>
@@ -12169,7 +12169,7 @@
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5163148&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5164638&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">
@@ -15112,7 +15112,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>Ripiera Sagasca (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
@@ -15122,16 +15122,16 @@
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>Christopher Frank Sir</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F308" t="n">
-        <v>452</v>
+        <v>1750</v>
       </c>
       <c r="G308" t="inlineStr">
         <is>
@@ -15140,12 +15140,12 @@
       </c>
       <c r="H308" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I308" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310471&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J308" t="inlineStr">
@@ -15160,7 +15160,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Ripiera Sagasca (e-seia)</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -15170,16 +15170,16 @@
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Christopher Frank Sir</t>
         </is>
       </c>
       <c r="F309" t="n">
-        <v>1750</v>
+        <v>452</v>
       </c>
       <c r="G309" t="inlineStr">
         <is>
@@ -15188,12 +15188,12 @@
       </c>
       <c r="H309" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I309" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310471&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J309" t="inlineStr">
@@ -15208,7 +15208,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
@@ -15223,11 +15223,11 @@
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F310" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G310" t="inlineStr">
         <is>
@@ -15236,12 +15236,12 @@
       </c>
       <c r="H310" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I310" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J310" t="inlineStr">
@@ -15256,7 +15256,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -15271,11 +15271,11 @@
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F311" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G311" t="inlineStr">
         <is>
@@ -15284,12 +15284,12 @@
       </c>
       <c r="H311" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J311" t="inlineStr">
@@ -15928,10 +15928,14 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>PAMPA HERMOSA</t>
-        </is>
-      </c>
-      <c r="C325" t="inlineStr"/>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D325" t="inlineStr">
         <is>
           <t>Interregional</t>
@@ -15939,11 +15943,11 @@
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>SQM S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F325" t="n">
-        <v>1.033</v>
+        <v>20</v>
       </c>
       <c r="G325" t="inlineStr">
         <is>
@@ -15952,12 +15956,12 @@
       </c>
       <c r="H325" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3083858&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J325" t="inlineStr">
@@ -15972,14 +15976,10 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
-        </is>
-      </c>
-      <c r="C326" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>PAMPA HERMOSA</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr"/>
       <c r="D326" t="inlineStr">
         <is>
           <t>Interregional</t>
@@ -15987,11 +15987,11 @@
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>SQM S.A.</t>
         </is>
       </c>
       <c r="F326" t="n">
-        <v>20</v>
+        <v>1.033</v>
       </c>
       <c r="G326" t="inlineStr">
         <is>
@@ -16000,12 +16000,12 @@
       </c>
       <c r="H326" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I326" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3083858&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J326" t="inlineStr">

--- a/data/Pozo Almonte.xlsx
+++ b/data/Pozo Almonte.xlsx
@@ -7384,7 +7384,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Mejoramiento Eloisa</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7394,16 +7394,16 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Eloisa spa</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>75000</v>
+        <v>0</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
@@ -7412,12 +7412,12 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128980296&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7432,7 +7432,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>PLANTA SOLAR PINTADOS</t>
+          <t>Mejoramiento Eloisa</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7447,11 +7447,11 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Planta Solar Pintados SpA.</t>
+          <t>Eloisa spa</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>200000</v>
+        <v>75000</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
@@ -7460,12 +7460,12 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955109&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128980296&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -7480,7 +7480,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>PLANTA SOLAR PINTADOS</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7490,16 +7490,16 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Planta Solar Pintados SpA.</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
@@ -7513,7 +7513,7 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955109&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -9208,7 +9208,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Cal .</t>
+          <t>Proyecto Fotovoltaico Huatacondo</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9218,16 +9218,16 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
+          <t>AustrainSolar Chile Cuatro SpA</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>8426</v>
+        <v>196000</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
@@ -9236,12 +9236,12 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7561133&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7558839&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9256,7 +9256,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Proyecto Fotovoltaico Huatacondo</t>
+          <t>Transporte Interregional de Cal .</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9266,16 +9266,16 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>AustrainSolar Chile Cuatro SpA</t>
+          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>196000</v>
+        <v>8426</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
@@ -9284,12 +9284,12 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7558839&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7561133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -11512,7 +11512,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>PROSPECCION MINERA CHALLACOLLO SUR</t>
+          <t>Reposición Ruta 5, Longitudinal Norte, Sector Reserva Nacional Pampa del Tamarugal, Km. 1.781,0 - Km 1.801, Provincia del Tamarugal, Región de Tarapacá</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -11527,11 +11527,11 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>SOCIEDAD CONTRACTUAL MINERA BOREAL</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F233" t="n">
-        <v>370</v>
+        <v>5940</v>
       </c>
       <c r="G233" t="inlineStr">
         <is>
@@ -11545,7 +11545,7 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5344496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5412341&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -11560,7 +11560,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Reposición Ruta 5, Longitudinal Norte, Sector Reserva Nacional Pampa del Tamarugal, Km. 1.781,0 - Km 1.801, Provincia del Tamarugal, Región de Tarapacá</t>
+          <t>PROSPECCION MINERA CHALLACOLLO SUR</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -11575,11 +11575,11 @@
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>SOCIEDAD CONTRACTUAL MINERA BOREAL</t>
         </is>
       </c>
       <c r="F234" t="n">
-        <v>5940</v>
+        <v>370</v>
       </c>
       <c r="G234" t="inlineStr">
         <is>
@@ -11593,7 +11593,7 @@
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5412341&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5344496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -12040,7 +12040,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 1, I Región</t>
+          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 3, I Región</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -12055,11 +12055,11 @@
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>Pozo Almonte Solar 1 SpA</t>
+          <t>Pozo Almonte Solar 3 S.A.</t>
         </is>
       </c>
       <c r="F244" t="n">
-        <v>40000</v>
+        <v>71000</v>
       </c>
       <c r="G244" t="inlineStr">
         <is>
@@ -12073,7 +12073,7 @@
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5162007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5164638&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
@@ -12088,7 +12088,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 2, I Región</t>
+          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 1, I Región</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -12103,7 +12103,7 @@
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>POZO ALMONTE SOLAR 2 S.A.</t>
+          <t>Pozo Almonte Solar 1 SpA</t>
         </is>
       </c>
       <c r="F245" t="n">
@@ -12121,7 +12121,7 @@
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5163148&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5162007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">
@@ -12136,7 +12136,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 3, I Región</t>
+          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 2, I Región</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -12151,11 +12151,11 @@
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>Pozo Almonte Solar 3 S.A.</t>
+          <t>POZO ALMONTE SOLAR 2 S.A.</t>
         </is>
       </c>
       <c r="F246" t="n">
-        <v>71000</v>
+        <v>40000</v>
       </c>
       <c r="G246" t="inlineStr">
         <is>
@@ -12169,7 +12169,7 @@
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5164638&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5163148&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">
@@ -15112,7 +15112,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Ripiera Sagasca (e-seia)</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
@@ -15122,16 +15122,16 @@
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Christopher Frank Sir</t>
         </is>
       </c>
       <c r="F308" t="n">
-        <v>1750</v>
+        <v>452</v>
       </c>
       <c r="G308" t="inlineStr">
         <is>
@@ -15140,12 +15140,12 @@
       </c>
       <c r="H308" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I308" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310471&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J308" t="inlineStr">
@@ -15160,7 +15160,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>Ripiera Sagasca (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -15170,16 +15170,16 @@
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>Christopher Frank Sir</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F309" t="n">
-        <v>452</v>
+        <v>1750</v>
       </c>
       <c r="G309" t="inlineStr">
         <is>
@@ -15188,12 +15188,12 @@
       </c>
       <c r="H309" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I309" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310471&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J309" t="inlineStr">
@@ -15208,7 +15208,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
@@ -15223,11 +15223,11 @@
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F310" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G310" t="inlineStr">
         <is>
@@ -15236,12 +15236,12 @@
       </c>
       <c r="H310" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I310" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J310" t="inlineStr">
@@ -15256,7 +15256,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -15271,11 +15271,11 @@
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F311" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G311" t="inlineStr">
         <is>
@@ -15284,12 +15284,12 @@
       </c>
       <c r="H311" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J311" t="inlineStr">
@@ -15928,14 +15928,10 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
-        </is>
-      </c>
-      <c r="C325" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>PAMPA HERMOSA</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr"/>
       <c r="D325" t="inlineStr">
         <is>
           <t>Interregional</t>
@@ -15943,11 +15939,11 @@
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>SQM S.A.</t>
         </is>
       </c>
       <c r="F325" t="n">
-        <v>20</v>
+        <v>1.033</v>
       </c>
       <c r="G325" t="inlineStr">
         <is>
@@ -15956,12 +15952,12 @@
       </c>
       <c r="H325" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3083858&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J325" t="inlineStr">
@@ -15976,10 +15972,14 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>PAMPA HERMOSA</t>
-        </is>
-      </c>
-      <c r="C326" t="inlineStr"/>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D326" t="inlineStr">
         <is>
           <t>Interregional</t>
@@ -15987,11 +15987,11 @@
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>SQM S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F326" t="n">
-        <v>1.033</v>
+        <v>20</v>
       </c>
       <c r="G326" t="inlineStr">
         <is>
@@ -16000,12 +16000,12 @@
       </c>
       <c r="H326" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I326" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3083858&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J326" t="inlineStr">

--- a/data/Pozo Almonte.xlsx
+++ b/data/Pozo Almonte.xlsx
@@ -644,7 +644,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">

--- a/data/Pozo Almonte.xlsx
+++ b/data/Pozo Almonte.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/10/2023</t>
+          <t>25/10/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -1591,7 +1591,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>TRANSELEC S.A</t>
         </is>
       </c>
       <c r="F26" t="n">

--- a/data/Pozo Almonte.xlsx
+++ b/data/Pozo Almonte.xlsx
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN NEGREIROS</t>
+          <t>Ampliación Negreiros</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -7384,7 +7384,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Mejoramiento Eloisa</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7394,16 +7394,16 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Eloisa spa</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>75000</v>
+        <v>0</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
@@ -7412,12 +7412,12 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128980296&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7432,7 +7432,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>PLANTA SOLAR PINTADOS</t>
+          <t>Mejoramiento Eloisa</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7447,11 +7447,11 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Planta Solar Pintados SpA.</t>
+          <t>Eloisa spa</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>200000</v>
+        <v>75000</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
@@ -7460,12 +7460,12 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955109&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128980296&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -7480,7 +7480,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>PLANTA SOLAR PINTADOS</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7490,16 +7490,16 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Planta Solar Pintados SpA.</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
@@ -7513,7 +7513,7 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955109&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -9208,7 +9208,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Cal .</t>
+          <t>Proyecto Fotovoltaico Huatacondo</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9218,16 +9218,16 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
+          <t>AustrainSolar Chile Cuatro SpA</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>8426</v>
+        <v>196000</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
@@ -9236,12 +9236,12 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7561133&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7558839&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9256,7 +9256,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Proyecto Fotovoltaico Huatacondo</t>
+          <t>Transporte Interregional de Cal .</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9266,16 +9266,16 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>AustrainSolar Chile Cuatro SpA</t>
+          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>196000</v>
+        <v>8426</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
@@ -9284,12 +9284,12 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7558839&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7561133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -11512,7 +11512,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>PROSPECCION MINERA CHALLACOLLO SUR</t>
+          <t>Reposición Ruta 5, Longitudinal Norte, Sector Reserva Nacional Pampa del Tamarugal, Km. 1.781,0 - Km 1.801, Provincia del Tamarugal, Región de Tarapacá</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -11527,11 +11527,11 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>SOCIEDAD CONTRACTUAL MINERA BOREAL</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F233" t="n">
-        <v>370</v>
+        <v>5940</v>
       </c>
       <c r="G233" t="inlineStr">
         <is>
@@ -11545,7 +11545,7 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5344496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5412341&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -11560,7 +11560,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Reposición Ruta 5, Longitudinal Norte, Sector Reserva Nacional Pampa del Tamarugal, Km. 1.781,0 - Km 1.801, Provincia del Tamarugal, Región de Tarapacá</t>
+          <t>PROSPECCION MINERA CHALLACOLLO SUR</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -11575,11 +11575,11 @@
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>SOCIEDAD CONTRACTUAL MINERA BOREAL</t>
         </is>
       </c>
       <c r="F234" t="n">
-        <v>5940</v>
+        <v>370</v>
       </c>
       <c r="G234" t="inlineStr">
         <is>
@@ -11593,7 +11593,7 @@
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5412341&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5344496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -12040,7 +12040,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 1, I Región</t>
+          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 3, I Región</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -12055,11 +12055,11 @@
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>Pozo Almonte Solar 1 SpA</t>
+          <t>Pozo Almonte Solar 3 S.A.</t>
         </is>
       </c>
       <c r="F244" t="n">
-        <v>40000</v>
+        <v>71000</v>
       </c>
       <c r="G244" t="inlineStr">
         <is>
@@ -12073,7 +12073,7 @@
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5162007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5164638&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
@@ -12088,7 +12088,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 2, I Región</t>
+          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 1, I Región</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -12103,7 +12103,7 @@
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>POZO ALMONTE SOLAR 2 S.A.</t>
+          <t>Pozo Almonte Solar 1 SpA</t>
         </is>
       </c>
       <c r="F245" t="n">
@@ -12121,7 +12121,7 @@
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5163148&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5162007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">
@@ -12136,7 +12136,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 3, I Región</t>
+          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 2, I Región</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -12151,11 +12151,11 @@
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>Pozo Almonte Solar 3 S.A.</t>
+          <t>POZO ALMONTE SOLAR 2 S.A.</t>
         </is>
       </c>
       <c r="F246" t="n">
-        <v>71000</v>
+        <v>40000</v>
       </c>
       <c r="G246" t="inlineStr">
         <is>
@@ -12169,7 +12169,7 @@
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5164638&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5163148&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">
@@ -15112,7 +15112,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Ripiera Sagasca (e-seia)</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
@@ -15122,16 +15122,16 @@
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Christopher Frank Sir</t>
         </is>
       </c>
       <c r="F308" t="n">
-        <v>1750</v>
+        <v>452</v>
       </c>
       <c r="G308" t="inlineStr">
         <is>
@@ -15140,12 +15140,12 @@
       </c>
       <c r="H308" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I308" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310471&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J308" t="inlineStr">
@@ -15160,7 +15160,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>Ripiera Sagasca (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -15170,16 +15170,16 @@
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>Christopher Frank Sir</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F309" t="n">
-        <v>452</v>
+        <v>1750</v>
       </c>
       <c r="G309" t="inlineStr">
         <is>
@@ -15188,12 +15188,12 @@
       </c>
       <c r="H309" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I309" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310471&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J309" t="inlineStr">
@@ -15208,7 +15208,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
@@ -15223,11 +15223,11 @@
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F310" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G310" t="inlineStr">
         <is>
@@ -15236,12 +15236,12 @@
       </c>
       <c r="H310" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I310" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J310" t="inlineStr">
@@ -15256,7 +15256,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -15271,11 +15271,11 @@
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F311" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G311" t="inlineStr">
         <is>
@@ -15284,12 +15284,12 @@
       </c>
       <c r="H311" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J311" t="inlineStr">
@@ -15928,14 +15928,10 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
-        </is>
-      </c>
-      <c r="C325" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>PAMPA HERMOSA</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr"/>
       <c r="D325" t="inlineStr">
         <is>
           <t>Interregional</t>
@@ -15943,11 +15939,11 @@
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>SQM S.A.</t>
         </is>
       </c>
       <c r="F325" t="n">
-        <v>20</v>
+        <v>1.033</v>
       </c>
       <c r="G325" t="inlineStr">
         <is>
@@ -15956,12 +15952,12 @@
       </c>
       <c r="H325" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3083858&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J325" t="inlineStr">
@@ -15976,10 +15972,14 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>PAMPA HERMOSA</t>
-        </is>
-      </c>
-      <c r="C326" t="inlineStr"/>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D326" t="inlineStr">
         <is>
           <t>Interregional</t>
@@ -15987,11 +15987,11 @@
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>SQM S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F326" t="n">
-        <v>1.033</v>
+        <v>20</v>
       </c>
       <c r="G326" t="inlineStr">
         <is>
@@ -16000,12 +16000,12 @@
       </c>
       <c r="H326" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I326" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3083858&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J326" t="inlineStr">

--- a/data/Pozo Almonte.xlsx
+++ b/data/Pozo Almonte.xlsx
@@ -596,7 +596,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">

--- a/data/Pozo Almonte.xlsx
+++ b/data/Pozo Almonte.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Pozo Almonte.xlsx
+++ b/data/Pozo Almonte.xlsx
@@ -7384,7 +7384,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Mejoramiento Eloisa</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7394,16 +7394,16 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Eloisa spa</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>0</v>
+        <v>75000</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
@@ -7412,12 +7412,12 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128980296&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7432,7 +7432,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Mejoramiento Eloisa</t>
+          <t>PLANTA SOLAR PINTADOS</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7447,11 +7447,11 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Eloisa spa</t>
+          <t>Planta Solar Pintados SpA.</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>75000</v>
+        <v>200000</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
@@ -7460,12 +7460,12 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128980296&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955109&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -7480,7 +7480,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>PLANTA SOLAR PINTADOS</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7490,16 +7490,16 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Planta Solar Pintados SpA.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>200000</v>
+        <v>0</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
@@ -7513,7 +7513,7 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955109&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -9208,7 +9208,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Proyecto Fotovoltaico Huatacondo</t>
+          <t>Transporte Interregional de Cal .</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9218,16 +9218,16 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>AustrainSolar Chile Cuatro SpA</t>
+          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>196000</v>
+        <v>8426</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
@@ -9236,12 +9236,12 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7558839&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7561133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9256,7 +9256,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Cal .</t>
+          <t>Proyecto Fotovoltaico Huatacondo</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9266,16 +9266,16 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
+          <t>AustrainSolar Chile Cuatro SpA</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>8426</v>
+        <v>196000</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
@@ -9284,12 +9284,12 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7561133&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7558839&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -11512,7 +11512,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Reposición Ruta 5, Longitudinal Norte, Sector Reserva Nacional Pampa del Tamarugal, Km. 1.781,0 - Km 1.801, Provincia del Tamarugal, Región de Tarapacá</t>
+          <t>PROSPECCION MINERA CHALLACOLLO SUR</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -11527,11 +11527,11 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>SOCIEDAD CONTRACTUAL MINERA BOREAL</t>
         </is>
       </c>
       <c r="F233" t="n">
-        <v>5940</v>
+        <v>370</v>
       </c>
       <c r="G233" t="inlineStr">
         <is>
@@ -11545,7 +11545,7 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5412341&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5344496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -11560,7 +11560,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>PROSPECCION MINERA CHALLACOLLO SUR</t>
+          <t>Reposición Ruta 5, Longitudinal Norte, Sector Reserva Nacional Pampa del Tamarugal, Km. 1.781,0 - Km 1.801, Provincia del Tamarugal, Región de Tarapacá</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -11575,11 +11575,11 @@
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>SOCIEDAD CONTRACTUAL MINERA BOREAL</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F234" t="n">
-        <v>370</v>
+        <v>5940</v>
       </c>
       <c r="G234" t="inlineStr">
         <is>
@@ -11593,7 +11593,7 @@
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5344496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5412341&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -12040,7 +12040,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 3, I Región</t>
+          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 1, I Región</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -12055,11 +12055,11 @@
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>Pozo Almonte Solar 3 S.A.</t>
+          <t>Pozo Almonte Solar 1 SpA</t>
         </is>
       </c>
       <c r="F244" t="n">
-        <v>71000</v>
+        <v>40000</v>
       </c>
       <c r="G244" t="inlineStr">
         <is>
@@ -12073,7 +12073,7 @@
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5164638&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5162007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
@@ -12088,7 +12088,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 1, I Región</t>
+          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 2, I Región</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -12103,7 +12103,7 @@
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>Pozo Almonte Solar 1 SpA</t>
+          <t>POZO ALMONTE SOLAR 2 S.A.</t>
         </is>
       </c>
       <c r="F245" t="n">
@@ -12121,7 +12121,7 @@
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5162007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5163148&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">
@@ -12136,7 +12136,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 2, I Región</t>
+          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 3, I Región</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -12151,11 +12151,11 @@
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>POZO ALMONTE SOLAR 2 S.A.</t>
+          <t>Pozo Almonte Solar 3 S.A.</t>
         </is>
       </c>
       <c r="F246" t="n">
-        <v>40000</v>
+        <v>71000</v>
       </c>
       <c r="G246" t="inlineStr">
         <is>
@@ -12169,7 +12169,7 @@
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5163148&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5164638&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">
@@ -15112,7 +15112,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>Ripiera Sagasca (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
@@ -15122,16 +15122,16 @@
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>Christopher Frank Sir</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F308" t="n">
-        <v>452</v>
+        <v>1750</v>
       </c>
       <c r="G308" t="inlineStr">
         <is>
@@ -15140,12 +15140,12 @@
       </c>
       <c r="H308" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I308" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310471&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J308" t="inlineStr">
@@ -15160,7 +15160,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Ripiera Sagasca (e-seia)</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -15170,16 +15170,16 @@
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Christopher Frank Sir</t>
         </is>
       </c>
       <c r="F309" t="n">
-        <v>1750</v>
+        <v>452</v>
       </c>
       <c r="G309" t="inlineStr">
         <is>
@@ -15188,12 +15188,12 @@
       </c>
       <c r="H309" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I309" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310471&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J309" t="inlineStr">
@@ -15208,7 +15208,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
@@ -15223,11 +15223,11 @@
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F310" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G310" t="inlineStr">
         <is>
@@ -15236,12 +15236,12 @@
       </c>
       <c r="H310" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I310" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J310" t="inlineStr">
@@ -15256,7 +15256,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -15271,11 +15271,11 @@
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F311" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G311" t="inlineStr">
         <is>
@@ -15284,12 +15284,12 @@
       </c>
       <c r="H311" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J311" t="inlineStr">
@@ -15928,10 +15928,14 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>PAMPA HERMOSA</t>
-        </is>
-      </c>
-      <c r="C325" t="inlineStr"/>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D325" t="inlineStr">
         <is>
           <t>Interregional</t>
@@ -15939,11 +15943,11 @@
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>SQM S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F325" t="n">
-        <v>1.033</v>
+        <v>20</v>
       </c>
       <c r="G325" t="inlineStr">
         <is>
@@ -15952,12 +15956,12 @@
       </c>
       <c r="H325" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3083858&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J325" t="inlineStr">
@@ -15972,14 +15976,10 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
-        </is>
-      </c>
-      <c r="C326" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>PAMPA HERMOSA</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr"/>
       <c r="D326" t="inlineStr">
         <is>
           <t>Interregional</t>
@@ -15987,11 +15987,11 @@
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>SQM S.A.</t>
         </is>
       </c>
       <c r="F326" t="n">
-        <v>20</v>
+        <v>1.033</v>
       </c>
       <c r="G326" t="inlineStr">
         <is>
@@ -16000,12 +16000,12 @@
       </c>
       <c r="H326" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I326" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3083858&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J326" t="inlineStr">
@@ -21580,7 +21580,7 @@
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>CONSTRUCCIÓN RELLENO SANITARIO PARA LA COMUNA DE POZO ALMONTE (e-seia)</t>
+          <t>PLAN REGULADOR DE LA HUAYCA, COMUNA DE POZO ALMONTE (e-seia)</t>
         </is>
       </c>
       <c r="C443" t="inlineStr">
@@ -21613,7 +21613,7 @@
       </c>
       <c r="I443" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141090900&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141097087&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J443" t="inlineStr">
@@ -21628,7 +21628,7 @@
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>PLAN REGULADOR DE LA HUAYCA, COMUNA DE POZO ALMONTE (e-seia)</t>
+          <t>PLAN REGULADOR DE POZO ALMONTE, COMUNA DE POZO ALMONTE (e-seia)</t>
         </is>
       </c>
       <c r="C444" t="inlineStr">
@@ -21661,7 +21661,7 @@
       </c>
       <c r="I444" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141097087&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141097135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J444" t="inlineStr">
@@ -21676,7 +21676,7 @@
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>PLAN REGULADOR DE POZO ALMONTE, COMUNA DE POZO ALMONTE (e-seia)</t>
+          <t>PLAN SECCIONAL DE LA TIRANA, COMUNA DE POZO ALMONTE (e-seia)</t>
         </is>
       </c>
       <c r="C445" t="inlineStr">
@@ -21709,7 +21709,7 @@
       </c>
       <c r="I445" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141097135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141097173&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J445" t="inlineStr">
@@ -21724,7 +21724,7 @@
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>PLAN SECCIONAL DE LA TIRANA, COMUNA DE POZO ALMONTE (e-seia)</t>
+          <t>CONSTRUCCIÓN RELLENO SANITARIO PARA LA COMUNA DE POZO ALMONTE (e-seia)</t>
         </is>
       </c>
       <c r="C446" t="inlineStr">
@@ -21757,7 +21757,7 @@
       </c>
       <c r="I446" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141097173&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141090900&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J446" t="inlineStr">

--- a/data/Pozo Almonte.xlsx
+++ b/data/Pozo Almonte.xlsx
@@ -7384,7 +7384,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Mejoramiento Eloisa</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7394,16 +7394,16 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Eloisa spa</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>75000</v>
+        <v>0</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
@@ -7412,12 +7412,12 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128980296&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7432,7 +7432,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>PLANTA SOLAR PINTADOS</t>
+          <t>Mejoramiento Eloisa</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7447,11 +7447,11 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Planta Solar Pintados SpA.</t>
+          <t>Eloisa spa</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>200000</v>
+        <v>75000</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
@@ -7460,12 +7460,12 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955109&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128980296&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -7480,7 +7480,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>PLANTA SOLAR PINTADOS</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7490,16 +7490,16 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Planta Solar Pintados SpA.</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
@@ -7513,7 +7513,7 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955109&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -9208,7 +9208,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Cal .</t>
+          <t>Proyecto Fotovoltaico Huatacondo</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9218,16 +9218,16 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
+          <t>AustrainSolar Chile Cuatro SpA</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>8426</v>
+        <v>196000</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
@@ -9236,12 +9236,12 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7561133&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7558839&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9256,7 +9256,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Proyecto Fotovoltaico Huatacondo</t>
+          <t>Transporte Interregional de Cal .</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9266,16 +9266,16 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>AustrainSolar Chile Cuatro SpA</t>
+          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>196000</v>
+        <v>8426</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
@@ -9284,12 +9284,12 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7558839&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7561133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -11512,7 +11512,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>PROSPECCION MINERA CHALLACOLLO SUR</t>
+          <t>Reposición Ruta 5, Longitudinal Norte, Sector Reserva Nacional Pampa del Tamarugal, Km. 1.781,0 - Km 1.801, Provincia del Tamarugal, Región de Tarapacá</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -11527,11 +11527,11 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>SOCIEDAD CONTRACTUAL MINERA BOREAL</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F233" t="n">
-        <v>370</v>
+        <v>5940</v>
       </c>
       <c r="G233" t="inlineStr">
         <is>
@@ -11545,7 +11545,7 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5344496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5412341&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -11560,7 +11560,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Reposición Ruta 5, Longitudinal Norte, Sector Reserva Nacional Pampa del Tamarugal, Km. 1.781,0 - Km 1.801, Provincia del Tamarugal, Región de Tarapacá</t>
+          <t>PROSPECCION MINERA CHALLACOLLO SUR</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -11575,11 +11575,11 @@
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>SOCIEDAD CONTRACTUAL MINERA BOREAL</t>
         </is>
       </c>
       <c r="F234" t="n">
-        <v>5940</v>
+        <v>370</v>
       </c>
       <c r="G234" t="inlineStr">
         <is>
@@ -11593,7 +11593,7 @@
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5412341&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5344496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -12040,7 +12040,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 1, I Región</t>
+          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 3, I Región</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -12055,11 +12055,11 @@
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>Pozo Almonte Solar 1 SpA</t>
+          <t>Pozo Almonte Solar 3 S.A.</t>
         </is>
       </c>
       <c r="F244" t="n">
-        <v>40000</v>
+        <v>71000</v>
       </c>
       <c r="G244" t="inlineStr">
         <is>
@@ -12073,7 +12073,7 @@
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5162007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5164638&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
@@ -12088,7 +12088,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 2, I Región</t>
+          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 1, I Región</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -12103,7 +12103,7 @@
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>POZO ALMONTE SOLAR 2 S.A.</t>
+          <t>Pozo Almonte Solar 1 SpA</t>
         </is>
       </c>
       <c r="F245" t="n">
@@ -12121,7 +12121,7 @@
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5163148&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5162007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">
@@ -12136,7 +12136,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 3, I Región</t>
+          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 2, I Región</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -12151,11 +12151,11 @@
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>Pozo Almonte Solar 3 S.A.</t>
+          <t>POZO ALMONTE SOLAR 2 S.A.</t>
         </is>
       </c>
       <c r="F246" t="n">
-        <v>71000</v>
+        <v>40000</v>
       </c>
       <c r="G246" t="inlineStr">
         <is>
@@ -12169,7 +12169,7 @@
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5164638&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5163148&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">
@@ -15112,7 +15112,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Ripiera Sagasca (e-seia)</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
@@ -15122,16 +15122,16 @@
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Christopher Frank Sir</t>
         </is>
       </c>
       <c r="F308" t="n">
-        <v>1750</v>
+        <v>452</v>
       </c>
       <c r="G308" t="inlineStr">
         <is>
@@ -15140,12 +15140,12 @@
       </c>
       <c r="H308" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I308" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310471&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J308" t="inlineStr">
@@ -15160,7 +15160,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>Ripiera Sagasca (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -15170,16 +15170,16 @@
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>Christopher Frank Sir</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F309" t="n">
-        <v>452</v>
+        <v>1750</v>
       </c>
       <c r="G309" t="inlineStr">
         <is>
@@ -15188,12 +15188,12 @@
       </c>
       <c r="H309" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I309" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310471&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J309" t="inlineStr">
@@ -15208,7 +15208,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
@@ -15223,11 +15223,11 @@
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F310" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G310" t="inlineStr">
         <is>
@@ -15236,12 +15236,12 @@
       </c>
       <c r="H310" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I310" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J310" t="inlineStr">
@@ -15256,7 +15256,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -15271,11 +15271,11 @@
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F311" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G311" t="inlineStr">
         <is>
@@ -15284,12 +15284,12 @@
       </c>
       <c r="H311" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J311" t="inlineStr">
@@ -15928,14 +15928,10 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
-        </is>
-      </c>
-      <c r="C325" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>PAMPA HERMOSA</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr"/>
       <c r="D325" t="inlineStr">
         <is>
           <t>Interregional</t>
@@ -15943,11 +15939,11 @@
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>SQM S.A.</t>
         </is>
       </c>
       <c r="F325" t="n">
-        <v>20</v>
+        <v>1.033</v>
       </c>
       <c r="G325" t="inlineStr">
         <is>
@@ -15956,12 +15952,12 @@
       </c>
       <c r="H325" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3083858&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J325" t="inlineStr">
@@ -15976,10 +15972,14 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>PAMPA HERMOSA</t>
-        </is>
-      </c>
-      <c r="C326" t="inlineStr"/>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D326" t="inlineStr">
         <is>
           <t>Interregional</t>
@@ -15987,11 +15987,11 @@
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>SQM S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F326" t="n">
-        <v>1.033</v>
+        <v>20</v>
       </c>
       <c r="G326" t="inlineStr">
         <is>
@@ -16000,12 +16000,12 @@
       </c>
       <c r="H326" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I326" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3083858&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J326" t="inlineStr">
@@ -21580,7 +21580,7 @@
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>PLAN REGULADOR DE LA HUAYCA, COMUNA DE POZO ALMONTE (e-seia)</t>
+          <t>CONSTRUCCIÓN RELLENO SANITARIO PARA LA COMUNA DE POZO ALMONTE (e-seia)</t>
         </is>
       </c>
       <c r="C443" t="inlineStr">
@@ -21613,7 +21613,7 @@
       </c>
       <c r="I443" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141097087&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141090900&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J443" t="inlineStr">
@@ -21628,7 +21628,7 @@
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>PLAN REGULADOR DE POZO ALMONTE, COMUNA DE POZO ALMONTE (e-seia)</t>
+          <t>PLAN REGULADOR DE LA HUAYCA, COMUNA DE POZO ALMONTE (e-seia)</t>
         </is>
       </c>
       <c r="C444" t="inlineStr">
@@ -21661,7 +21661,7 @@
       </c>
       <c r="I444" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141097135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141097087&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J444" t="inlineStr">
@@ -21676,7 +21676,7 @@
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>PLAN SECCIONAL DE LA TIRANA, COMUNA DE POZO ALMONTE (e-seia)</t>
+          <t>PLAN REGULADOR DE POZO ALMONTE, COMUNA DE POZO ALMONTE (e-seia)</t>
         </is>
       </c>
       <c r="C445" t="inlineStr">
@@ -21709,7 +21709,7 @@
       </c>
       <c r="I445" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141097173&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141097135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J445" t="inlineStr">
@@ -21724,7 +21724,7 @@
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>CONSTRUCCIÓN RELLENO SANITARIO PARA LA COMUNA DE POZO ALMONTE (e-seia)</t>
+          <t>PLAN SECCIONAL DE LA TIRANA, COMUNA DE POZO ALMONTE (e-seia)</t>
         </is>
       </c>
       <c r="C446" t="inlineStr">
@@ -21757,7 +21757,7 @@
       </c>
       <c r="I446" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141090900&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141097173&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J446" t="inlineStr">

--- a/data/Pozo Almonte.xlsx
+++ b/data/Pozo Almonte.xlsx
@@ -7480,7 +7480,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Mejoramiento Eloisa</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7490,16 +7490,16 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Eloisa spa</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>75000</v>
+        <v>0</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
@@ -7508,12 +7508,12 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128980296&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7528,7 +7528,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>PLANTA SOLAR PINTADOS</t>
+          <t>Mejoramiento Eloisa</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7543,11 +7543,11 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Planta Solar Pintados SpA.</t>
+          <t>Eloisa spa</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>200000</v>
+        <v>75000</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
@@ -7556,12 +7556,12 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955109&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128980296&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7576,7 +7576,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>PLANTA SOLAR PINTADOS</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7586,16 +7586,16 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Planta Solar Pintados SpA.</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
@@ -7609,7 +7609,7 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955109&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -9304,7 +9304,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Cal .</t>
+          <t>Proyecto Fotovoltaico Huatacondo</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -9314,16 +9314,16 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
+          <t>AustrainSolar Chile Cuatro SpA</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>8426</v>
+        <v>196000</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
@@ -9332,12 +9332,12 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7561133&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7558839&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -9352,7 +9352,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Proyecto Fotovoltaico Huatacondo</t>
+          <t>Transporte Interregional de Cal .</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -9362,16 +9362,16 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>AustrainSolar Chile Cuatro SpA</t>
+          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
         </is>
       </c>
       <c r="F188" t="n">
-        <v>196000</v>
+        <v>8426</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
@@ -9380,12 +9380,12 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7558839&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7561133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -11608,7 +11608,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>PROSPECCION MINERA CHALLACOLLO SUR</t>
+          <t>Reposición Ruta 5, Longitudinal Norte, Sector Reserva Nacional Pampa del Tamarugal, Km. 1.781,0 - Km 1.801, Provincia del Tamarugal, Región de Tarapacá</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -11623,11 +11623,11 @@
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>SOCIEDAD CONTRACTUAL MINERA BOREAL</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F235" t="n">
-        <v>370</v>
+        <v>5940</v>
       </c>
       <c r="G235" t="inlineStr">
         <is>
@@ -11641,7 +11641,7 @@
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5344496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5412341&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -11656,7 +11656,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Reposición Ruta 5, Longitudinal Norte, Sector Reserva Nacional Pampa del Tamarugal, Km. 1.781,0 - Km 1.801, Provincia del Tamarugal, Región de Tarapacá</t>
+          <t>PROSPECCION MINERA CHALLACOLLO SUR</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -11671,11 +11671,11 @@
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>SOCIEDAD CONTRACTUAL MINERA BOREAL</t>
         </is>
       </c>
       <c r="F236" t="n">
-        <v>5940</v>
+        <v>370</v>
       </c>
       <c r="G236" t="inlineStr">
         <is>
@@ -11689,7 +11689,7 @@
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5412341&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5344496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -12136,7 +12136,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 1, I Región</t>
+          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 3, I Región</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -12151,11 +12151,11 @@
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>Pozo Almonte Solar 1 SpA</t>
+          <t>Pozo Almonte Solar 3 S.A.</t>
         </is>
       </c>
       <c r="F246" t="n">
-        <v>40000</v>
+        <v>71000</v>
       </c>
       <c r="G246" t="inlineStr">
         <is>
@@ -12169,7 +12169,7 @@
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5162007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5164638&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">
@@ -12184,7 +12184,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 2, I Región</t>
+          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 1, I Región</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -12199,7 +12199,7 @@
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>POZO ALMONTE SOLAR 2 S.A.</t>
+          <t>Pozo Almonte Solar 1 SpA</t>
         </is>
       </c>
       <c r="F247" t="n">
@@ -12217,7 +12217,7 @@
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5163148&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5162007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J247" t="inlineStr">
@@ -12232,7 +12232,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 3, I Región</t>
+          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 2, I Región</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -12247,11 +12247,11 @@
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>Pozo Almonte Solar 3 S.A.</t>
+          <t>POZO ALMONTE SOLAR 2 S.A.</t>
         </is>
       </c>
       <c r="F248" t="n">
-        <v>71000</v>
+        <v>40000</v>
       </c>
       <c r="G248" t="inlineStr">
         <is>
@@ -12265,7 +12265,7 @@
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5164638&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5163148&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J248" t="inlineStr">
@@ -15208,7 +15208,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Ripiera Sagasca (e-seia)</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
@@ -15218,16 +15218,16 @@
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Christopher Frank Sir</t>
         </is>
       </c>
       <c r="F310" t="n">
-        <v>1750</v>
+        <v>452</v>
       </c>
       <c r="G310" t="inlineStr">
         <is>
@@ -15236,12 +15236,12 @@
       </c>
       <c r="H310" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I310" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310471&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J310" t="inlineStr">
@@ -15256,7 +15256,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>Ripiera Sagasca (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -15266,16 +15266,16 @@
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>Christopher Frank Sir</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F311" t="n">
-        <v>452</v>
+        <v>1750</v>
       </c>
       <c r="G311" t="inlineStr">
         <is>
@@ -15284,12 +15284,12 @@
       </c>
       <c r="H311" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310471&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J311" t="inlineStr">
@@ -15304,7 +15304,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -15319,11 +15319,11 @@
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F312" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G312" t="inlineStr">
         <is>
@@ -15332,12 +15332,12 @@
       </c>
       <c r="H312" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J312" t="inlineStr">
@@ -15352,7 +15352,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -15367,11 +15367,11 @@
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F313" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G313" t="inlineStr">
         <is>
@@ -15380,12 +15380,12 @@
       </c>
       <c r="H313" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J313" t="inlineStr">
@@ -16024,14 +16024,10 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
-        </is>
-      </c>
-      <c r="C327" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>PAMPA HERMOSA</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr"/>
       <c r="D327" t="inlineStr">
         <is>
           <t>Interregional</t>
@@ -16039,11 +16035,11 @@
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>SQM S.A.</t>
         </is>
       </c>
       <c r="F327" t="n">
-        <v>20</v>
+        <v>1.033</v>
       </c>
       <c r="G327" t="inlineStr">
         <is>
@@ -16052,12 +16048,12 @@
       </c>
       <c r="H327" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I327" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3083858&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J327" t="inlineStr">
@@ -16072,10 +16068,14 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>PAMPA HERMOSA</t>
-        </is>
-      </c>
-      <c r="C328" t="inlineStr"/>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D328" t="inlineStr">
         <is>
           <t>Interregional</t>
@@ -16083,11 +16083,11 @@
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>SQM S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F328" t="n">
-        <v>1.033</v>
+        <v>20</v>
       </c>
       <c r="G328" t="inlineStr">
         <is>
@@ -16096,12 +16096,12 @@
       </c>
       <c r="H328" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I328" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3083858&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J328" t="inlineStr">

--- a/data/Pozo Almonte.xlsx
+++ b/data/Pozo Almonte.xlsx
@@ -7480,7 +7480,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Mejoramiento Eloisa</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7490,16 +7490,16 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Eloisa spa</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>0</v>
+        <v>75000</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
@@ -7508,12 +7508,12 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128980296&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7528,7 +7528,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Mejoramiento Eloisa</t>
+          <t>PLANTA SOLAR PINTADOS</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7543,11 +7543,11 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Eloisa spa</t>
+          <t>Planta Solar Pintados SpA.</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>75000</v>
+        <v>200000</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
@@ -7556,12 +7556,12 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128980296&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955109&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7576,7 +7576,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>PLANTA SOLAR PINTADOS</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7586,16 +7586,16 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Planta Solar Pintados SpA.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>200000</v>
+        <v>0</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
@@ -7609,7 +7609,7 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955109&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -9304,7 +9304,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Proyecto Fotovoltaico Huatacondo</t>
+          <t>Transporte Interregional de Cal .</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -9314,16 +9314,16 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>AustrainSolar Chile Cuatro SpA</t>
+          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>196000</v>
+        <v>8426</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
@@ -9332,12 +9332,12 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7558839&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7561133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -9352,7 +9352,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Cal .</t>
+          <t>Proyecto Fotovoltaico Huatacondo</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -9362,16 +9362,16 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
+          <t>AustrainSolar Chile Cuatro SpA</t>
         </is>
       </c>
       <c r="F188" t="n">
-        <v>8426</v>
+        <v>196000</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
@@ -9380,12 +9380,12 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7561133&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7558839&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -11608,7 +11608,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Reposición Ruta 5, Longitudinal Norte, Sector Reserva Nacional Pampa del Tamarugal, Km. 1.781,0 - Km 1.801, Provincia del Tamarugal, Región de Tarapacá</t>
+          <t>PROSPECCION MINERA CHALLACOLLO SUR</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -11623,11 +11623,11 @@
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>SOCIEDAD CONTRACTUAL MINERA BOREAL</t>
         </is>
       </c>
       <c r="F235" t="n">
-        <v>5940</v>
+        <v>370</v>
       </c>
       <c r="G235" t="inlineStr">
         <is>
@@ -11641,7 +11641,7 @@
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5412341&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5344496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -11656,7 +11656,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>PROSPECCION MINERA CHALLACOLLO SUR</t>
+          <t>Reposición Ruta 5, Longitudinal Norte, Sector Reserva Nacional Pampa del Tamarugal, Km. 1.781,0 - Km 1.801, Provincia del Tamarugal, Región de Tarapacá</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -11671,11 +11671,11 @@
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>SOCIEDAD CONTRACTUAL MINERA BOREAL</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F236" t="n">
-        <v>370</v>
+        <v>5940</v>
       </c>
       <c r="G236" t="inlineStr">
         <is>
@@ -11689,7 +11689,7 @@
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5344496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5412341&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -12136,7 +12136,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 3, I Región</t>
+          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 1, I Región</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -12151,11 +12151,11 @@
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>Pozo Almonte Solar 3 S.A.</t>
+          <t>Pozo Almonte Solar 1 SpA</t>
         </is>
       </c>
       <c r="F246" t="n">
-        <v>71000</v>
+        <v>40000</v>
       </c>
       <c r="G246" t="inlineStr">
         <is>
@@ -12169,7 +12169,7 @@
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5164638&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5162007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">
@@ -12184,7 +12184,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 1, I Región</t>
+          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 2, I Región</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -12199,7 +12199,7 @@
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>Pozo Almonte Solar 1 SpA</t>
+          <t>POZO ALMONTE SOLAR 2 S.A.</t>
         </is>
       </c>
       <c r="F247" t="n">
@@ -12217,7 +12217,7 @@
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5162007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5163148&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J247" t="inlineStr">
@@ -12232,7 +12232,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 2, I Región</t>
+          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 3, I Región</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -12247,11 +12247,11 @@
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>POZO ALMONTE SOLAR 2 S.A.</t>
+          <t>Pozo Almonte Solar 3 S.A.</t>
         </is>
       </c>
       <c r="F248" t="n">
-        <v>40000</v>
+        <v>71000</v>
       </c>
       <c r="G248" t="inlineStr">
         <is>
@@ -12265,7 +12265,7 @@
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5163148&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5164638&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J248" t="inlineStr">
@@ -15208,7 +15208,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>Ripiera Sagasca (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
@@ -15218,16 +15218,16 @@
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>Christopher Frank Sir</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F310" t="n">
-        <v>452</v>
+        <v>1750</v>
       </c>
       <c r="G310" t="inlineStr">
         <is>
@@ -15236,12 +15236,12 @@
       </c>
       <c r="H310" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I310" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310471&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J310" t="inlineStr">
@@ -15256,7 +15256,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Ripiera Sagasca (e-seia)</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -15266,16 +15266,16 @@
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Christopher Frank Sir</t>
         </is>
       </c>
       <c r="F311" t="n">
-        <v>1750</v>
+        <v>452</v>
       </c>
       <c r="G311" t="inlineStr">
         <is>
@@ -15284,12 +15284,12 @@
       </c>
       <c r="H311" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310471&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J311" t="inlineStr">
@@ -15304,7 +15304,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -15319,11 +15319,11 @@
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F312" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G312" t="inlineStr">
         <is>
@@ -15332,12 +15332,12 @@
       </c>
       <c r="H312" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J312" t="inlineStr">
@@ -15352,7 +15352,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -15367,11 +15367,11 @@
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F313" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G313" t="inlineStr">
         <is>
@@ -15380,12 +15380,12 @@
       </c>
       <c r="H313" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J313" t="inlineStr">
@@ -16024,10 +16024,14 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>PAMPA HERMOSA</t>
-        </is>
-      </c>
-      <c r="C327" t="inlineStr"/>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D327" t="inlineStr">
         <is>
           <t>Interregional</t>
@@ -16035,11 +16039,11 @@
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>SQM S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F327" t="n">
-        <v>1.033</v>
+        <v>20</v>
       </c>
       <c r="G327" t="inlineStr">
         <is>
@@ -16048,12 +16052,12 @@
       </c>
       <c r="H327" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I327" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3083858&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J327" t="inlineStr">
@@ -16068,14 +16072,10 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
-        </is>
-      </c>
-      <c r="C328" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>PAMPA HERMOSA</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr"/>
       <c r="D328" t="inlineStr">
         <is>
           <t>Interregional</t>
@@ -16083,11 +16083,11 @@
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>SQM S.A.</t>
         </is>
       </c>
       <c r="F328" t="n">
-        <v>20</v>
+        <v>1.033</v>
       </c>
       <c r="G328" t="inlineStr">
         <is>
@@ -16096,12 +16096,12 @@
       </c>
       <c r="H328" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I328" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3083858&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J328" t="inlineStr">

--- a/data/Pozo Almonte.xlsx
+++ b/data/Pozo Almonte.xlsx
@@ -836,7 +836,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -7480,26 +7480,26 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>CENTRO INTEGRAL DE TRATAMIENTO AMBIENTAL (CITA) TARAPACÁ</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>HERA TARAPACA S.A.</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
@@ -7508,12 +7508,12 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128959232&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7624,26 +7624,26 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>CENTRO INTEGRAL DE TRATAMIENTO AMBIENTAL (CITA) TARAPACÁ</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>HERA TARAPACA S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
@@ -7652,12 +7652,12 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128959232&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -9304,7 +9304,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Proyecto Fotovoltaico Huatacondo</t>
+          <t>Transporte Interregional de Cal .</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -9314,16 +9314,16 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>AustrainSolar Chile Cuatro SpA</t>
+          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>196000</v>
+        <v>8426</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
@@ -9332,12 +9332,12 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7558839&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7561133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -9352,7 +9352,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Cal .</t>
+          <t>Proyecto Fotovoltaico Huatacondo</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -9362,16 +9362,16 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
+          <t>AustrainSolar Chile Cuatro SpA</t>
         </is>
       </c>
       <c r="F188" t="n">
-        <v>8426</v>
+        <v>196000</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
@@ -9380,12 +9380,12 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7561133&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7558839&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -11608,7 +11608,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Reposición Ruta 5, Longitudinal Norte, Sector Reserva Nacional Pampa del Tamarugal, Km. 1.781,0 - Km 1.801, Provincia del Tamarugal, Región de Tarapacá</t>
+          <t>PROSPECCION MINERA CHALLACOLLO SUR</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -11623,11 +11623,11 @@
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>SOCIEDAD CONTRACTUAL MINERA BOREAL</t>
         </is>
       </c>
       <c r="F235" t="n">
-        <v>5940</v>
+        <v>370</v>
       </c>
       <c r="G235" t="inlineStr">
         <is>
@@ -11641,7 +11641,7 @@
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5412341&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5344496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -11656,7 +11656,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>PROSPECCION MINERA CHALLACOLLO SUR</t>
+          <t>Reposición Ruta 5, Longitudinal Norte, Sector Reserva Nacional Pampa del Tamarugal, Km. 1.781,0 - Km 1.801, Provincia del Tamarugal, Región de Tarapacá</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -11671,11 +11671,11 @@
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>SOCIEDAD CONTRACTUAL MINERA BOREAL</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F236" t="n">
-        <v>370</v>
+        <v>5940</v>
       </c>
       <c r="G236" t="inlineStr">
         <is>
@@ -11689,7 +11689,7 @@
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5344496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5412341&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -12136,7 +12136,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 3, I Región</t>
+          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 1, I Región</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -12151,11 +12151,11 @@
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>Pozo Almonte Solar 3 S.A.</t>
+          <t>Pozo Almonte Solar 1 SpA</t>
         </is>
       </c>
       <c r="F246" t="n">
-        <v>71000</v>
+        <v>40000</v>
       </c>
       <c r="G246" t="inlineStr">
         <is>
@@ -12169,7 +12169,7 @@
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5164638&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5162007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">
@@ -12184,7 +12184,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 1, I Región</t>
+          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 2, I Región</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -12199,7 +12199,7 @@
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>Pozo Almonte Solar 1 SpA</t>
+          <t>POZO ALMONTE SOLAR 2 S.A.</t>
         </is>
       </c>
       <c r="F247" t="n">
@@ -12217,7 +12217,7 @@
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5162007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5163148&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J247" t="inlineStr">
@@ -12232,7 +12232,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 2, I Región</t>
+          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 3, I Región</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -12247,11 +12247,11 @@
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>POZO ALMONTE SOLAR 2 S.A.</t>
+          <t>Pozo Almonte Solar 3 S.A.</t>
         </is>
       </c>
       <c r="F248" t="n">
-        <v>40000</v>
+        <v>71000</v>
       </c>
       <c r="G248" t="inlineStr">
         <is>
@@ -12265,7 +12265,7 @@
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5163148&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5164638&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J248" t="inlineStr">
@@ -15208,7 +15208,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>Ripiera Sagasca (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
@@ -15218,16 +15218,16 @@
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>Christopher Frank Sir</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F310" t="n">
-        <v>452</v>
+        <v>1750</v>
       </c>
       <c r="G310" t="inlineStr">
         <is>
@@ -15236,12 +15236,12 @@
       </c>
       <c r="H310" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I310" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310471&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J310" t="inlineStr">
@@ -15256,7 +15256,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Ripiera Sagasca (e-seia)</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -15266,16 +15266,16 @@
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Christopher Frank Sir</t>
         </is>
       </c>
       <c r="F311" t="n">
-        <v>1750</v>
+        <v>452</v>
       </c>
       <c r="G311" t="inlineStr">
         <is>
@@ -15284,12 +15284,12 @@
       </c>
       <c r="H311" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310471&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J311" t="inlineStr">
@@ -15304,7 +15304,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -15319,11 +15319,11 @@
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F312" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G312" t="inlineStr">
         <is>
@@ -15332,12 +15332,12 @@
       </c>
       <c r="H312" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J312" t="inlineStr">
@@ -15352,7 +15352,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -15367,11 +15367,11 @@
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F313" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G313" t="inlineStr">
         <is>
@@ -15380,12 +15380,12 @@
       </c>
       <c r="H313" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J313" t="inlineStr">
@@ -16024,10 +16024,14 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>PAMPA HERMOSA</t>
-        </is>
-      </c>
-      <c r="C327" t="inlineStr"/>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D327" t="inlineStr">
         <is>
           <t>Interregional</t>
@@ -16035,11 +16039,11 @@
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>SQM S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F327" t="n">
-        <v>1.033</v>
+        <v>20</v>
       </c>
       <c r="G327" t="inlineStr">
         <is>
@@ -16048,12 +16052,12 @@
       </c>
       <c r="H327" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I327" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3083858&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J327" t="inlineStr">
@@ -16068,14 +16072,10 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
-        </is>
-      </c>
-      <c r="C328" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>PAMPA HERMOSA</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr"/>
       <c r="D328" t="inlineStr">
         <is>
           <t>Interregional</t>
@@ -16083,11 +16083,11 @@
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>SQM S.A.</t>
         </is>
       </c>
       <c r="F328" t="n">
-        <v>20</v>
+        <v>1.033</v>
       </c>
       <c r="G328" t="inlineStr">
         <is>
@@ -16096,12 +16096,12 @@
       </c>
       <c r="H328" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I328" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3083858&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J328" t="inlineStr">

--- a/data/Pozo Almonte.xlsx
+++ b/data/Pozo Almonte.xlsx
@@ -7480,26 +7480,26 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>CENTRO INTEGRAL DE TRATAMIENTO AMBIENTAL (CITA) TARAPACÁ</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>HERA TARAPACA S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
@@ -7508,12 +7508,12 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128959232&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7624,26 +7624,26 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>CENTRO INTEGRAL DE TRATAMIENTO AMBIENTAL (CITA) TARAPACÁ</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>HERA TARAPACA S.A.</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
@@ -7652,12 +7652,12 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128959232&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -9304,7 +9304,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Cal .</t>
+          <t>Proyecto Fotovoltaico Huatacondo</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -9314,16 +9314,16 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
+          <t>AustrainSolar Chile Cuatro SpA</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>8426</v>
+        <v>196000</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
@@ -9332,12 +9332,12 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7561133&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7558839&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -9352,7 +9352,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Proyecto Fotovoltaico Huatacondo</t>
+          <t>Transporte Interregional de Cal .</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -9362,16 +9362,16 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>AustrainSolar Chile Cuatro SpA</t>
+          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
         </is>
       </c>
       <c r="F188" t="n">
-        <v>196000</v>
+        <v>8426</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
@@ -9380,12 +9380,12 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7558839&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7561133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -11608,7 +11608,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>PROSPECCION MINERA CHALLACOLLO SUR</t>
+          <t>Reposición Ruta 5, Longitudinal Norte, Sector Reserva Nacional Pampa del Tamarugal, Km. 1.781,0 - Km 1.801, Provincia del Tamarugal, Región de Tarapacá</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -11623,11 +11623,11 @@
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>SOCIEDAD CONTRACTUAL MINERA BOREAL</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F235" t="n">
-        <v>370</v>
+        <v>5940</v>
       </c>
       <c r="G235" t="inlineStr">
         <is>
@@ -11641,7 +11641,7 @@
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5344496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5412341&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -11656,7 +11656,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Reposición Ruta 5, Longitudinal Norte, Sector Reserva Nacional Pampa del Tamarugal, Km. 1.781,0 - Km 1.801, Provincia del Tamarugal, Región de Tarapacá</t>
+          <t>PROSPECCION MINERA CHALLACOLLO SUR</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -11671,11 +11671,11 @@
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>SOCIEDAD CONTRACTUAL MINERA BOREAL</t>
         </is>
       </c>
       <c r="F236" t="n">
-        <v>5940</v>
+        <v>370</v>
       </c>
       <c r="G236" t="inlineStr">
         <is>
@@ -11689,7 +11689,7 @@
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5412341&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5344496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -12136,7 +12136,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 1, I Región</t>
+          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 3, I Región</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -12151,11 +12151,11 @@
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>Pozo Almonte Solar 1 SpA</t>
+          <t>Pozo Almonte Solar 3 S.A.</t>
         </is>
       </c>
       <c r="F246" t="n">
-        <v>40000</v>
+        <v>71000</v>
       </c>
       <c r="G246" t="inlineStr">
         <is>
@@ -12169,7 +12169,7 @@
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5162007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5164638&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">
@@ -12184,7 +12184,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 2, I Región</t>
+          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 1, I Región</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -12199,7 +12199,7 @@
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>POZO ALMONTE SOLAR 2 S.A.</t>
+          <t>Pozo Almonte Solar 1 SpA</t>
         </is>
       </c>
       <c r="F247" t="n">
@@ -12217,7 +12217,7 @@
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5163148&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5162007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J247" t="inlineStr">
@@ -12232,7 +12232,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 3, I Región</t>
+          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 2, I Región</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -12247,11 +12247,11 @@
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>Pozo Almonte Solar 3 S.A.</t>
+          <t>POZO ALMONTE SOLAR 2 S.A.</t>
         </is>
       </c>
       <c r="F248" t="n">
-        <v>71000</v>
+        <v>40000</v>
       </c>
       <c r="G248" t="inlineStr">
         <is>
@@ -12265,7 +12265,7 @@
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5164638&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5163148&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J248" t="inlineStr">
@@ -15208,7 +15208,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Ripiera Sagasca (e-seia)</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
@@ -15218,16 +15218,16 @@
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Christopher Frank Sir</t>
         </is>
       </c>
       <c r="F310" t="n">
-        <v>1750</v>
+        <v>452</v>
       </c>
       <c r="G310" t="inlineStr">
         <is>
@@ -15236,12 +15236,12 @@
       </c>
       <c r="H310" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I310" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310471&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J310" t="inlineStr">
@@ -15256,7 +15256,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>Ripiera Sagasca (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -15266,16 +15266,16 @@
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>Christopher Frank Sir</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F311" t="n">
-        <v>452</v>
+        <v>1750</v>
       </c>
       <c r="G311" t="inlineStr">
         <is>
@@ -15284,12 +15284,12 @@
       </c>
       <c r="H311" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310471&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J311" t="inlineStr">
@@ -15304,7 +15304,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -15319,11 +15319,11 @@
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F312" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G312" t="inlineStr">
         <is>
@@ -15332,12 +15332,12 @@
       </c>
       <c r="H312" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J312" t="inlineStr">
@@ -15352,7 +15352,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -15367,11 +15367,11 @@
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F313" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G313" t="inlineStr">
         <is>
@@ -15380,12 +15380,12 @@
       </c>
       <c r="H313" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J313" t="inlineStr">
@@ -16024,14 +16024,10 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
-        </is>
-      </c>
-      <c r="C327" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>PAMPA HERMOSA</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr"/>
       <c r="D327" t="inlineStr">
         <is>
           <t>Interregional</t>
@@ -16039,11 +16035,11 @@
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>SQM S.A.</t>
         </is>
       </c>
       <c r="F327" t="n">
-        <v>20</v>
+        <v>1.033</v>
       </c>
       <c r="G327" t="inlineStr">
         <is>
@@ -16052,12 +16048,12 @@
       </c>
       <c r="H327" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I327" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3083858&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J327" t="inlineStr">
@@ -16072,10 +16068,14 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>PAMPA HERMOSA</t>
-        </is>
-      </c>
-      <c r="C328" t="inlineStr"/>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D328" t="inlineStr">
         <is>
           <t>Interregional</t>
@@ -16083,11 +16083,11 @@
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>SQM S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F328" t="n">
-        <v>1.033</v>
+        <v>20</v>
       </c>
       <c r="G328" t="inlineStr">
         <is>
@@ -16096,12 +16096,12 @@
       </c>
       <c r="H328" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I328" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3083858&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J328" t="inlineStr">

--- a/data/Pozo Almonte.xlsx
+++ b/data/Pozo Almonte.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>15/12/2023</t>
+          <t>20/12/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Ingresados Art.94 RSEIA</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -495,12 +495,12 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>15/12/2023</t>
+          <t>20/12/2023</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Ingresados Art.94 RSEIA</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -7480,26 +7480,26 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>CENTRO INTEGRAL DE TRATAMIENTO AMBIENTAL (CITA) TARAPACÁ</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>HERA TARAPACA S.A.</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
@@ -7508,12 +7508,12 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128959232&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7624,26 +7624,26 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>CENTRO INTEGRAL DE TRATAMIENTO AMBIENTAL (CITA) TARAPACÁ</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>HERA TARAPACA S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
@@ -7652,12 +7652,12 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128959232&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -9304,7 +9304,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Proyecto Fotovoltaico Huatacondo</t>
+          <t>Transporte Interregional de Cal .</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -9314,16 +9314,16 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>AustrainSolar Chile Cuatro SpA</t>
+          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>196000</v>
+        <v>8426</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
@@ -9332,12 +9332,12 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7558839&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7561133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -9352,7 +9352,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Cal .</t>
+          <t>Proyecto Fotovoltaico Huatacondo</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -9362,16 +9362,16 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
+          <t>AustrainSolar Chile Cuatro SpA</t>
         </is>
       </c>
       <c r="F188" t="n">
-        <v>8426</v>
+        <v>196000</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
@@ -9380,12 +9380,12 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7561133&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7558839&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -11608,7 +11608,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Reposición Ruta 5, Longitudinal Norte, Sector Reserva Nacional Pampa del Tamarugal, Km. 1.781,0 - Km 1.801, Provincia del Tamarugal, Región de Tarapacá</t>
+          <t>PROSPECCION MINERA CHALLACOLLO SUR</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -11623,11 +11623,11 @@
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>SOCIEDAD CONTRACTUAL MINERA BOREAL</t>
         </is>
       </c>
       <c r="F235" t="n">
-        <v>5940</v>
+        <v>370</v>
       </c>
       <c r="G235" t="inlineStr">
         <is>
@@ -11641,7 +11641,7 @@
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5412341&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5344496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -11656,7 +11656,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>PROSPECCION MINERA CHALLACOLLO SUR</t>
+          <t>Reposición Ruta 5, Longitudinal Norte, Sector Reserva Nacional Pampa del Tamarugal, Km. 1.781,0 - Km 1.801, Provincia del Tamarugal, Región de Tarapacá</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -11671,11 +11671,11 @@
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>SOCIEDAD CONTRACTUAL MINERA BOREAL</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F236" t="n">
-        <v>370</v>
+        <v>5940</v>
       </c>
       <c r="G236" t="inlineStr">
         <is>
@@ -11689,7 +11689,7 @@
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5344496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5412341&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -12136,7 +12136,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 3, I Región</t>
+          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 1, I Región</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -12151,11 +12151,11 @@
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>Pozo Almonte Solar 3 S.A.</t>
+          <t>Pozo Almonte Solar 1 SpA</t>
         </is>
       </c>
       <c r="F246" t="n">
-        <v>71000</v>
+        <v>40000</v>
       </c>
       <c r="G246" t="inlineStr">
         <is>
@@ -12169,7 +12169,7 @@
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5164638&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5162007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">
@@ -12184,7 +12184,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 1, I Región</t>
+          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 2, I Región</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -12199,7 +12199,7 @@
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>Pozo Almonte Solar 1 SpA</t>
+          <t>POZO ALMONTE SOLAR 2 S.A.</t>
         </is>
       </c>
       <c r="F247" t="n">
@@ -12217,7 +12217,7 @@
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5162007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5163148&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J247" t="inlineStr">
@@ -12232,7 +12232,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 2, I Región</t>
+          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 3, I Región</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -12247,11 +12247,11 @@
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>POZO ALMONTE SOLAR 2 S.A.</t>
+          <t>Pozo Almonte Solar 3 S.A.</t>
         </is>
       </c>
       <c r="F248" t="n">
-        <v>40000</v>
+        <v>71000</v>
       </c>
       <c r="G248" t="inlineStr">
         <is>
@@ -12265,7 +12265,7 @@
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5163148&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5164638&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J248" t="inlineStr">
@@ -15208,7 +15208,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>Ripiera Sagasca (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
@@ -15218,16 +15218,16 @@
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>Christopher Frank Sir</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F310" t="n">
-        <v>452</v>
+        <v>1750</v>
       </c>
       <c r="G310" t="inlineStr">
         <is>
@@ -15236,12 +15236,12 @@
       </c>
       <c r="H310" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I310" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310471&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J310" t="inlineStr">
@@ -15256,7 +15256,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Ripiera Sagasca (e-seia)</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -15266,16 +15266,16 @@
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Christopher Frank Sir</t>
         </is>
       </c>
       <c r="F311" t="n">
-        <v>1750</v>
+        <v>452</v>
       </c>
       <c r="G311" t="inlineStr">
         <is>
@@ -15284,12 +15284,12 @@
       </c>
       <c r="H311" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310471&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J311" t="inlineStr">
@@ -15304,7 +15304,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -15319,11 +15319,11 @@
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F312" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G312" t="inlineStr">
         <is>
@@ -15332,12 +15332,12 @@
       </c>
       <c r="H312" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J312" t="inlineStr">
@@ -15352,7 +15352,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -15367,11 +15367,11 @@
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F313" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G313" t="inlineStr">
         <is>
@@ -15380,12 +15380,12 @@
       </c>
       <c r="H313" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J313" t="inlineStr">
@@ -16024,10 +16024,14 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>PAMPA HERMOSA</t>
-        </is>
-      </c>
-      <c r="C327" t="inlineStr"/>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D327" t="inlineStr">
         <is>
           <t>Interregional</t>
@@ -16035,11 +16039,11 @@
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>SQM S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F327" t="n">
-        <v>1.033</v>
+        <v>20</v>
       </c>
       <c r="G327" t="inlineStr">
         <is>
@@ -16048,12 +16052,12 @@
       </c>
       <c r="H327" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I327" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3083858&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J327" t="inlineStr">
@@ -16068,14 +16072,10 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
-        </is>
-      </c>
-      <c r="C328" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>PAMPA HERMOSA</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr"/>
       <c r="D328" t="inlineStr">
         <is>
           <t>Interregional</t>
@@ -16083,11 +16083,11 @@
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>SQM S.A.</t>
         </is>
       </c>
       <c r="F328" t="n">
-        <v>20</v>
+        <v>1.033</v>
       </c>
       <c r="G328" t="inlineStr">
         <is>
@@ -16096,12 +16096,12 @@
       </c>
       <c r="H328" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I328" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3083858&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J328" t="inlineStr">

--- a/data/Pozo Almonte.xlsx
+++ b/data/Pozo Almonte.xlsx
@@ -7480,26 +7480,26 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>CENTRO INTEGRAL DE TRATAMIENTO AMBIENTAL (CITA) TARAPACÁ</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>HERA TARAPACA S.A.</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
@@ -7508,12 +7508,12 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128959232&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7624,26 +7624,26 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>CENTRO INTEGRAL DE TRATAMIENTO AMBIENTAL (CITA) TARAPACÁ</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>HERA TARAPACA S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
@@ -7652,12 +7652,12 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128959232&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -9304,7 +9304,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Proyecto Fotovoltaico Huatacondo</t>
+          <t>Transporte Interregional de Cal .</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -9314,16 +9314,16 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>AustrainSolar Chile Cuatro SpA</t>
+          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>196000</v>
+        <v>8426</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
@@ -9332,12 +9332,12 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7558839&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7561133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -9352,7 +9352,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Cal .</t>
+          <t>Proyecto Fotovoltaico Huatacondo</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -9362,16 +9362,16 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>MAQUINARIA Y EQUIPOS SANTA MARTA S.A.</t>
+          <t>AustrainSolar Chile Cuatro SpA</t>
         </is>
       </c>
       <c r="F188" t="n">
-        <v>8426</v>
+        <v>196000</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
@@ -9380,12 +9380,12 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7561133&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7558839&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -11608,7 +11608,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Reposición Ruta 5, Longitudinal Norte, Sector Reserva Nacional Pampa del Tamarugal, Km. 1.781,0 - Km 1.801, Provincia del Tamarugal, Región de Tarapacá</t>
+          <t>PROSPECCION MINERA CHALLACOLLO SUR</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -11623,11 +11623,11 @@
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>SOCIEDAD CONTRACTUAL MINERA BOREAL</t>
         </is>
       </c>
       <c r="F235" t="n">
-        <v>5940</v>
+        <v>370</v>
       </c>
       <c r="G235" t="inlineStr">
         <is>
@@ -11641,7 +11641,7 @@
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5412341&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5344496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -11656,7 +11656,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>PROSPECCION MINERA CHALLACOLLO SUR</t>
+          <t>Reposición Ruta 5, Longitudinal Norte, Sector Reserva Nacional Pampa del Tamarugal, Km. 1.781,0 - Km 1.801, Provincia del Tamarugal, Región de Tarapacá</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -11671,11 +11671,11 @@
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>SOCIEDAD CONTRACTUAL MINERA BOREAL</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F236" t="n">
-        <v>370</v>
+        <v>5940</v>
       </c>
       <c r="G236" t="inlineStr">
         <is>
@@ -11689,7 +11689,7 @@
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5344496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5412341&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -12136,7 +12136,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 3, I Región</t>
+          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 1, I Región</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -12151,11 +12151,11 @@
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>Pozo Almonte Solar 3 S.A.</t>
+          <t>Pozo Almonte Solar 1 SpA</t>
         </is>
       </c>
       <c r="F246" t="n">
-        <v>71000</v>
+        <v>40000</v>
       </c>
       <c r="G246" t="inlineStr">
         <is>
@@ -12169,7 +12169,7 @@
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5164638&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5162007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">
@@ -12184,7 +12184,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 1, I Región</t>
+          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 2, I Región</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -12199,7 +12199,7 @@
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>Pozo Almonte Solar 1 SpA</t>
+          <t>POZO ALMONTE SOLAR 2 S.A.</t>
         </is>
       </c>
       <c r="F247" t="n">
@@ -12217,7 +12217,7 @@
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5162007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5163148&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J247" t="inlineStr">
@@ -12232,7 +12232,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 2, I Región</t>
+          <t>Planta Solar Fotovoltaica Pozo Almonte Solar 3, I Región</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -12247,11 +12247,11 @@
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>POZO ALMONTE SOLAR 2 S.A.</t>
+          <t>Pozo Almonte Solar 3 S.A.</t>
         </is>
       </c>
       <c r="F248" t="n">
-        <v>40000</v>
+        <v>71000</v>
       </c>
       <c r="G248" t="inlineStr">
         <is>
@@ -12265,7 +12265,7 @@
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5163148&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5164638&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J248" t="inlineStr">
@@ -15208,7 +15208,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>Ripiera Sagasca (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
@@ -15218,16 +15218,16 @@
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>Christopher Frank Sir</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F310" t="n">
-        <v>452</v>
+        <v>1750</v>
       </c>
       <c r="G310" t="inlineStr">
         <is>
@@ -15236,12 +15236,12 @@
       </c>
       <c r="H310" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I310" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310471&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J310" t="inlineStr">
@@ -15256,7 +15256,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Ripiera Sagasca (e-seia)</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -15266,16 +15266,16 @@
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Christopher Frank Sir</t>
         </is>
       </c>
       <c r="F311" t="n">
-        <v>1750</v>
+        <v>452</v>
       </c>
       <c r="G311" t="inlineStr">
         <is>
@@ -15284,12 +15284,12 @@
       </c>
       <c r="H311" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310471&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J311" t="inlineStr">
@@ -15304,7 +15304,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -15319,11 +15319,11 @@
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F312" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G312" t="inlineStr">
         <is>
@@ -15332,12 +15332,12 @@
       </c>
       <c r="H312" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J312" t="inlineStr">
@@ -15352,7 +15352,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -15367,11 +15367,11 @@
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F313" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G313" t="inlineStr">
         <is>
@@ -15380,12 +15380,12 @@
       </c>
       <c r="H313" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J313" t="inlineStr">
@@ -16024,10 +16024,14 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>PAMPA HERMOSA</t>
-        </is>
-      </c>
-      <c r="C327" t="inlineStr"/>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D327" t="inlineStr">
         <is>
           <t>Interregional</t>
@@ -16035,11 +16039,11 @@
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>SQM S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F327" t="n">
-        <v>1.033</v>
+        <v>20</v>
       </c>
       <c r="G327" t="inlineStr">
         <is>
@@ -16048,12 +16052,12 @@
       </c>
       <c r="H327" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I327" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3083858&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J327" t="inlineStr">
@@ -16068,14 +16072,10 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
-        </is>
-      </c>
-      <c r="C328" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>PAMPA HERMOSA</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr"/>
       <c r="D328" t="inlineStr">
         <is>
           <t>Interregional</t>
@@ -16083,11 +16083,11 @@
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>SQM S.A.</t>
         </is>
       </c>
       <c r="F328" t="n">
-        <v>20</v>
+        <v>1.033</v>
       </c>
       <c r="G328" t="inlineStr">
         <is>
@@ -16096,12 +16096,12 @@
       </c>
       <c r="H328" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I328" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3083858&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J328" t="inlineStr">
